--- a/gantt_chart_update.xlsx
+++ b/gantt_chart_update.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mlawson/Documents/GitHub/hfm_integration_demonstration_plan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcmania\Documents\Projects\AOP\FY18-AOP\FY18_HFM\ProjectPlanning\RePlan2018\Plans_Take1\PlansTake2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F773276-11B3-3843-971F-2CCB4F636F9A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="460" windowWidth="32460" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ECP Integration &amp; Demonstration" sheetId="1" r:id="rId1"/>
     <sheet name="Notes" sheetId="4" r:id="rId2"/>
     <sheet name="ValidationCases" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="174">
   <si>
     <t>1.1.1</t>
   </si>
@@ -431,15 +430,9 @@
     <t>0.5pm (.15 for 3 months)</t>
   </si>
   <si>
-    <t>AAL, UQ</t>
-  </si>
-  <si>
     <t>1PM (.3 for 3 months)</t>
   </si>
   <si>
-    <t>UQ, overlap WD</t>
-  </si>
-  <si>
     <t>Shreyas, Blaylock</t>
   </si>
   <si>
@@ -495,16 +488,79 @@
   </si>
   <si>
     <t>Pursue NDA with Siemens for validation collaboration (i.e. ability to use Siemens 2.3 data/geometry)</t>
+  </si>
+  <si>
+    <t>Initial Wake demonstration, single turbine, periodic, OpenFAST-AeroDyn</t>
+  </si>
+  <si>
+    <t>AF, MB, GG</t>
+  </si>
+  <si>
+    <t>Wake demonstration for SWiFT dataset, neutral</t>
+  </si>
+  <si>
+    <t>2PM (.4 for 5 mo.)</t>
+  </si>
+  <si>
+    <t>Publication on SWiFT neutral wake and loads study</t>
+  </si>
+  <si>
+    <t>AF, MB, GG, ME, DM</t>
+  </si>
+  <si>
+    <t>3PM(.5 for 6 mo.)</t>
+  </si>
+  <si>
+    <t>UQ 3.1.2</t>
+  </si>
+  <si>
+    <t>UQ 3.1.3</t>
+  </si>
+  <si>
+    <t>UQ 3.1.4</t>
+  </si>
+  <si>
+    <t>UQ 3.1.6</t>
+  </si>
+  <si>
+    <t>UQ 3.1.7</t>
+  </si>
+  <si>
+    <t>Validation with detailed wake experimental data, stable</t>
+  </si>
+  <si>
+    <t>Validation with detailed wake experimental data, unstable</t>
+  </si>
+  <si>
+    <t>1.1.9</t>
+  </si>
+  <si>
+    <t>1.1.10</t>
+  </si>
+  <si>
+    <t>1.1.11</t>
+  </si>
+  <si>
+    <t>1.1.12</t>
+  </si>
+  <si>
+    <t>1.1.13</t>
+  </si>
+  <si>
+    <t>AAL, moved to UQ</t>
+  </si>
+  <si>
+    <t>moved to UQ, overlap WD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -571,8 +627,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,6 +668,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -800,14 +869,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -955,13 +1025,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="5" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="5" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1238,57 +1314,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL318"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL324"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="67.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="36.1640625" style="68" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.125" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="36.125" style="68" customWidth="1"/>
+    <col min="7" max="7" width="4.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="3.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.875" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.5" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.125" style="5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.875" style="5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="4.5" style="5" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.83203125" customWidth="1"/>
+    <col min="32" max="32" width="4.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -1330,7 +1406,7 @@
       <c r="AI1" s="84"/>
       <c r="AJ1" s="84"/>
     </row>
-    <row r="2" spans="1:38" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
@@ -1386,7 +1462,7 @@
       <c r="AI2" s="86"/>
       <c r="AJ2" s="87"/>
     </row>
-    <row r="3" spans="1:38" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1493,7 +1569,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>15</v>
       </c>
@@ -1539,7 +1615,7 @@
       <c r="AI4" s="8"/>
       <c r="AJ4" s="14"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
@@ -1584,7 +1660,7 @@
       <c r="AJ5" s="14"/>
       <c r="AL5" s="21"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
@@ -1629,7 +1705,7 @@
       <c r="AJ6" s="14"/>
       <c r="AL6" s="21"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>2</v>
       </c>
@@ -1680,24 +1756,24 @@
       <c r="AJ7" s="14"/>
       <c r="AL7" s="21"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>133</v>
+      <c r="E8" s="89">
+        <v>0</v>
+      </c>
+      <c r="F8" s="90" t="s">
+        <v>172</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="8"/>
@@ -1730,7 +1806,7 @@
       <c r="AI8" s="8"/>
       <c r="AJ8" s="14"/>
     </row>
-    <row r="9" spans="1:38" s="59" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" s="59" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>4</v>
       </c>
@@ -1741,7 +1817,7 @@
         <v>114</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E9" s="32">
         <v>3</v>
@@ -1781,7 +1857,7 @@
       <c r="AJ9" s="14"/>
       <c r="AK9"/>
     </row>
-    <row r="10" spans="1:38" s="59" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" s="59" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>5</v>
       </c>
@@ -1832,24 +1908,24 @@
       <c r="AJ10" s="14"/>
       <c r="AK10"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="32">
-        <v>1</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>135</v>
+      <c r="D11" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="89">
+        <v>0</v>
+      </c>
+      <c r="F11" s="90" t="s">
+        <v>173</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="8"/>
@@ -1882,7 +1958,7 @@
       <c r="AI11" s="8"/>
       <c r="AJ11" s="14"/>
     </row>
-    <row r="12" spans="1:38" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>88</v>
       </c>
@@ -1890,16 +1966,16 @@
         <v>119</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E12" s="32">
         <v>3</v>
       </c>
       <c r="F12" s="62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="8"/>
@@ -1933,36 +2009,43 @@
       <c r="AJ12" s="14"/>
       <c r="AK12"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13" s="25">
-        <f>SUM(E7:E12)</f>
-        <v>9.5</v>
-      </c>
-      <c r="F13" s="62"/>
+    <row r="13" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="32">
+        <v>1</v>
+      </c>
+      <c r="E13" s="32">
+        <v>1</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>160</v>
+      </c>
       <c r="G13" s="12"/>
       <c r="H13" s="8"/>
       <c r="I13" s="14"/>
       <c r="J13" s="15"/>
       <c r="K13" s="8"/>
       <c r="L13" s="45"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="14"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="60"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="14"/>
@@ -1975,32 +2058,45 @@
       <c r="AH13" s="12"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="14"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="62"/>
+      <c r="AK13"/>
+    </row>
+    <row r="14" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="32">
+        <v>2</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="8"/>
       <c r="I14" s="14"/>
       <c r="J14" s="15"/>
       <c r="K14" s="8"/>
       <c r="L14" s="45"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="14"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="60"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="14"/>
@@ -2013,32 +2109,45 @@
       <c r="AH14" s="12"/>
       <c r="AI14" s="8"/>
       <c r="AJ14" s="14"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="62"/>
+      <c r="AK14"/>
+    </row>
+    <row r="15" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="32">
+        <v>1</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>162</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="8"/>
       <c r="I15" s="14"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="14"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="60"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="14"/>
@@ -2051,185 +2160,176 @@
       <c r="AH15" s="12"/>
       <c r="AI15" s="8"/>
       <c r="AJ15" s="14"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="42"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="39"/>
-      <c r="AI16" s="40"/>
-      <c r="AJ16" s="41"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="71">
-        <v>1</v>
-      </c>
-      <c r="F17" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="55"/>
+      <c r="AK15"/>
+    </row>
+    <row r="16" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="32">
+        <v>3</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16"/>
+    </row>
+    <row r="17" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="32">
+        <v>3</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="52"/>
       <c r="N17" s="53"/>
       <c r="O17" s="54"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="75"/>
-      <c r="Z17" s="72"/>
-      <c r="AA17" s="73"/>
-      <c r="AB17" s="75"/>
-      <c r="AC17" s="72"/>
-      <c r="AD17" s="73"/>
-      <c r="AE17" s="74"/>
-      <c r="AF17" s="72"/>
-      <c r="AG17" s="73"/>
-      <c r="AH17" s="75"/>
-      <c r="AI17" s="72"/>
-      <c r="AJ17" s="73"/>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="71">
-        <v>1</v>
-      </c>
-      <c r="F18" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="55"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17"/>
+    </row>
+    <row r="18" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="52"/>
       <c r="N18" s="53"/>
       <c r="O18" s="54"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="75"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="73"/>
-      <c r="AB18" s="75"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="73"/>
-      <c r="AE18" s="74"/>
-      <c r="AF18" s="72"/>
-      <c r="AG18" s="73"/>
-      <c r="AH18" s="75"/>
-      <c r="AI18" s="72"/>
-      <c r="AJ18" s="73"/>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>122</v>
-      </c>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="32">
-        <v>2</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="39"/>
+        <v>146</v>
+      </c>
+      <c r="E19" s="25">
+        <f>SUM(E7:E17)</f>
+        <v>18</v>
+      </c>
+      <c r="F19" s="62"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="8"/>
       <c r="I19" s="14"/>
       <c r="J19" s="15"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="15"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="12"/>
       <c r="N19" s="8"/>
       <c r="O19" s="14"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="54"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="14"/>
       <c r="V19" s="15"/>
       <c r="W19" s="8"/>
       <c r="X19" s="14"/>
@@ -2246,30 +2346,20 @@
       <c r="AI19" s="8"/>
       <c r="AJ19" s="14"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="32">
-        <v>2</v>
-      </c>
-      <c r="F20" s="25"/>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="12"/>
       <c r="H20" s="8"/>
       <c r="I20" s="14"/>
       <c r="J20" s="15"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="15"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="12"/>
       <c r="N20" s="8"/>
       <c r="O20" s="14"/>
       <c r="P20" s="15"/>
@@ -2278,51 +2368,39 @@
       <c r="S20" s="15"/>
       <c r="T20" s="8"/>
       <c r="U20" s="14"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="60"/>
-      <c r="AB20" s="76"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="79"/>
-      <c r="AF20" s="77"/>
-      <c r="AG20" s="78"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="14"/>
       <c r="AH20" s="12"/>
       <c r="AI20" s="8"/>
       <c r="AJ20" s="14"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="32">
-        <v>0</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>150</v>
-      </c>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="62"/>
       <c r="G21" s="12"/>
       <c r="H21" s="8"/>
       <c r="I21" s="14"/>
       <c r="J21" s="15"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="12"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="15"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="14"/>
       <c r="S21" s="15"/>
@@ -2333,162 +2411,181 @@
       <c r="X21" s="14"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="8"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="53"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="80"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="15"/>
       <c r="AF21" s="8"/>
-      <c r="AG21" s="78"/>
-      <c r="AH21" s="76"/>
-      <c r="AI21" s="77"/>
-      <c r="AJ21" s="78"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" s="32">
-        <f>SUM(E17:E21)</f>
-        <v>6</v>
-      </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="14"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="44"/>
       <c r="M22" s="15"/>
       <c r="N22" s="8"/>
       <c r="O22" s="14"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="14"/>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" s="32">
-        <f>E13+E22</f>
-        <v>15.5</v>
-      </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="8"/>
-      <c r="AJ23" s="14"/>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="83">
-        <f>D23/27</f>
-        <v>0.57407407407407407</v>
-      </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="14"/>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="12"/>
-      <c r="AI24" s="8"/>
-      <c r="AJ24" s="14"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="12"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="40"/>
+      <c r="AJ22" s="41"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="71">
+        <v>1</v>
+      </c>
+      <c r="F23" s="81" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="39"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="72"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="72"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="74"/>
+      <c r="AF23" s="72"/>
+      <c r="AG23" s="73"/>
+      <c r="AH23" s="75"/>
+      <c r="AI23" s="72"/>
+      <c r="AJ23" s="73"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="71">
+        <v>1</v>
+      </c>
+      <c r="F24" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="39"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="73"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="73"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="72"/>
+      <c r="AD24" s="73"/>
+      <c r="AE24" s="74"/>
+      <c r="AF24" s="72"/>
+      <c r="AG24" s="73"/>
+      <c r="AH24" s="75"/>
+      <c r="AI24" s="72"/>
+      <c r="AJ24" s="73"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="32">
+        <v>2</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="39"/>
       <c r="H25" s="8"/>
       <c r="I25" s="14"/>
       <c r="J25" s="15"/>
@@ -2497,12 +2594,12 @@
       <c r="M25" s="15"/>
       <c r="N25" s="8"/>
       <c r="O25" s="14"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="14"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="54"/>
       <c r="V25" s="15"/>
       <c r="W25" s="8"/>
       <c r="X25" s="14"/>
@@ -2519,26 +2616,23 @@
       <c r="AI25" s="8"/>
       <c r="AJ25" s="14"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="32">
-        <v>2</v>
-      </c>
-      <c r="E26" s="32">
-        <f>D26/4</f>
-        <v>0.5</v>
-      </c>
-      <c r="F26" s="62" t="s">
-        <v>65</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="91">
+        <v>6</v>
+      </c>
+      <c r="F26" s="25"/>
       <c r="G26" s="12"/>
       <c r="H26" s="8"/>
       <c r="I26" s="14"/>
@@ -2548,55 +2642,59 @@
       <c r="M26" s="15"/>
       <c r="N26" s="8"/>
       <c r="O26" s="14"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="60"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="14"/>
       <c r="S26" s="15"/>
       <c r="T26" s="8"/>
       <c r="U26" s="14"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="8"/>
-      <c r="AG26" s="14"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="60"/>
+      <c r="AB26" s="76"/>
+      <c r="AC26" s="77"/>
+      <c r="AD26" s="78"/>
+      <c r="AE26" s="79"/>
+      <c r="AF26" s="77"/>
+      <c r="AG26" s="78"/>
       <c r="AH26" s="12"/>
       <c r="AI26" s="8"/>
       <c r="AJ26" s="14"/>
     </row>
-    <row r="27" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="32">
-        <v>2</v>
-      </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="62"/>
+        <v>81</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="32">
+        <v>0</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>148</v>
+      </c>
       <c r="G27" s="12"/>
       <c r="H27" s="8"/>
       <c r="I27" s="14"/>
       <c r="J27" s="15"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="60"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="14"/>
       <c r="S27" s="15"/>
       <c r="T27" s="8"/>
       <c r="U27" s="14"/>
@@ -2605,31 +2703,27 @@
       <c r="X27" s="14"/>
       <c r="Y27" s="12"/>
       <c r="Z27" s="8"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="15"/>
+      <c r="AA27" s="54"/>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="80"/>
       <c r="AF27" s="8"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="12"/>
-      <c r="AI27" s="8"/>
-      <c r="AJ27" s="14"/>
-    </row>
-    <row r="28" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="32"/>
+      <c r="AG27" s="78"/>
+      <c r="AH27" s="76"/>
+      <c r="AI27" s="77"/>
+      <c r="AJ27" s="78"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="32" t="s">
+        <v>146</v>
+      </c>
       <c r="E28" s="32">
-        <f t="shared" ref="E28:E39" si="0">D28/4</f>
-        <v>0</v>
+        <f>SUM(E23:E27)</f>
+        <v>10</v>
       </c>
       <c r="F28" s="62"/>
       <c r="G28" s="12"/>
@@ -2638,12 +2732,12 @@
       <c r="J28" s="15"/>
       <c r="K28" s="8"/>
       <c r="L28" s="14"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="60"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="14"/>
       <c r="S28" s="15"/>
       <c r="T28" s="8"/>
       <c r="U28" s="14"/>
@@ -2653,9 +2747,9 @@
       <c r="Y28" s="12"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="14"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="35"/>
-      <c r="AD28" s="36"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="14"/>
       <c r="AE28" s="15"/>
       <c r="AF28" s="8"/>
       <c r="AG28" s="14"/>
@@ -2663,26 +2757,18 @@
       <c r="AI28" s="8"/>
       <c r="AJ28" s="14"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>67</v>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="46" t="s">
+        <v>149</v>
       </c>
       <c r="D29" s="32">
-        <v>4</v>
-      </c>
-      <c r="E29" s="32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F29" s="62" t="s">
-        <v>143</v>
-      </c>
+        <f>E19+E28</f>
+        <v>28</v>
+      </c>
+      <c r="E29" s="32"/>
+      <c r="F29" s="62"/>
       <c r="G29" s="12"/>
       <c r="H29" s="8"/>
       <c r="I29" s="14"/>
@@ -2695,12 +2781,12 @@
       <c r="P29" s="15"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="14"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="54"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="14"/>
       <c r="Y29" s="12"/>
       <c r="Z29" s="8"/>
       <c r="AA29" s="14"/>
@@ -2714,23 +2800,17 @@
       <c r="AI29" s="8"/>
       <c r="AJ29" s="14"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="32">
-        <v>2</v>
-      </c>
-      <c r="E30" s="32">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="83">
+        <f>D29/27</f>
+        <v>1.037037037037037</v>
+      </c>
+      <c r="E30" s="32"/>
       <c r="F30" s="62"/>
       <c r="G30" s="12"/>
       <c r="H30" s="8"/>
@@ -2747,10 +2827,11 @@
       <c r="S30" s="15"/>
       <c r="T30" s="8"/>
       <c r="U30" s="14"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="53"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="8"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="12"/>
+      <c r="Z30" s="8"/>
       <c r="AA30" s="14"/>
       <c r="AB30" s="12"/>
       <c r="AC30" s="8"/>
@@ -2762,43 +2843,41 @@
       <c r="AI30" s="8"/>
       <c r="AJ30" s="14"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>62</v>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>54</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="32">
-        <v>2</v>
-      </c>
-      <c r="E31" s="32">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F31" s="62"/>
+        <v>67</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="12"/>
       <c r="H31" s="8"/>
       <c r="I31" s="14"/>
       <c r="J31" s="15"/>
       <c r="K31" s="8"/>
       <c r="L31" s="14"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="36"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="14"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="14"/>
       <c r="S31" s="15"/>
       <c r="T31" s="8"/>
       <c r="U31" s="14"/>
-      <c r="V31" s="55"/>
-      <c r="W31" s="53"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="8"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="12"/>
+      <c r="Z31" s="8"/>
       <c r="AA31" s="14"/>
       <c r="AB31" s="12"/>
       <c r="AC31" s="8"/>
@@ -2810,43 +2889,46 @@
       <c r="AI31" s="8"/>
       <c r="AJ31" s="14"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D32" s="32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E32" s="32">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="F32" s="62"/>
+        <f>D32/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="62" t="s">
+        <v>65</v>
+      </c>
       <c r="G32" s="12"/>
       <c r="H32" s="8"/>
       <c r="I32" s="14"/>
       <c r="J32" s="15"/>
       <c r="K32" s="8"/>
       <c r="L32" s="14"/>
-      <c r="M32" s="12"/>
+      <c r="M32" s="15"/>
       <c r="N32" s="8"/>
       <c r="O32" s="14"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="12"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="15"/>
       <c r="T32" s="8"/>
       <c r="U32" s="14"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="60"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="14"/>
       <c r="Y32" s="12"/>
+      <c r="Z32" s="8"/>
       <c r="AA32" s="14"/>
       <c r="AB32" s="12"/>
       <c r="AC32" s="8"/>
@@ -2858,47 +2940,44 @@
       <c r="AI32" s="8"/>
       <c r="AJ32" s="14"/>
     </row>
-    <row r="33" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D33" s="32">
-        <v>6</v>
-      </c>
-      <c r="E33" s="32">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E33" s="32"/>
       <c r="F33" s="62"/>
       <c r="G33" s="12"/>
       <c r="H33" s="8"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="12"/>
+      <c r="J33" s="15"/>
       <c r="K33" s="8"/>
       <c r="L33" s="14"/>
-      <c r="M33" s="12"/>
+      <c r="M33" s="15"/>
       <c r="N33" s="8"/>
       <c r="O33" s="14"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="12"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="15"/>
       <c r="T33" s="8"/>
       <c r="U33" s="14"/>
-      <c r="V33" s="12"/>
+      <c r="V33" s="15"/>
       <c r="W33" s="8"/>
       <c r="X33" s="14"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="54"/>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="53"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="8"/>
       <c r="AD33" s="14"/>
       <c r="AE33" s="15"/>
       <c r="AF33" s="8"/>
@@ -2907,113 +2986,113 @@
       <c r="AI33" s="8"/>
       <c r="AJ33" s="14"/>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="32">
-        <v>10</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="D34" s="32"/>
       <c r="E34" s="32">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
+        <f t="shared" ref="E34:E45" si="0">D34/4</f>
+        <v>0</v>
       </c>
       <c r="F34" s="62"/>
       <c r="G34" s="12"/>
       <c r="H34" s="8"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="12"/>
+      <c r="J34" s="15"/>
       <c r="K34" s="8"/>
       <c r="L34" s="14"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="12"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="15"/>
       <c r="T34" s="8"/>
       <c r="U34" s="14"/>
-      <c r="V34" s="12"/>
+      <c r="V34" s="15"/>
       <c r="W34" s="8"/>
       <c r="X34" s="14"/>
-      <c r="Y34" s="15"/>
+      <c r="Y34" s="12"/>
       <c r="Z34" s="8"/>
       <c r="AA34" s="14"/>
       <c r="AB34" s="34"/>
       <c r="AC34" s="35"/>
-      <c r="AD34" s="54"/>
-      <c r="AE34" s="55"/>
-      <c r="AF34" s="53"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="8"/>
       <c r="AG34" s="14"/>
       <c r="AH34" s="12"/>
       <c r="AI34" s="8"/>
       <c r="AJ34" s="14"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D35" s="32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E35" s="32">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F35" s="62"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="62" t="s">
+        <v>141</v>
+      </c>
       <c r="G35" s="12"/>
       <c r="H35" s="8"/>
       <c r="I35" s="14"/>
       <c r="J35" s="15"/>
       <c r="K35" s="8"/>
       <c r="L35" s="14"/>
-      <c r="M35" s="12"/>
+      <c r="M35" s="15"/>
       <c r="N35" s="8"/>
       <c r="O35" s="14"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="14"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="14"/>
-      <c r="Y35" s="15"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="12"/>
       <c r="Z35" s="8"/>
       <c r="AA35" s="14"/>
-      <c r="AB35" s="15"/>
+      <c r="AB35" s="12"/>
       <c r="AC35" s="8"/>
       <c r="AD35" s="14"/>
-      <c r="AE35" s="55"/>
-      <c r="AF35" s="53"/>
-      <c r="AG35" s="54"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="14"/>
       <c r="AH35" s="12"/>
       <c r="AI35" s="8"/>
       <c r="AJ35" s="14"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D36" s="32">
         <v>2</v>
@@ -3022,13 +3101,13 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F36" s="47"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="28"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="14"/>
       <c r="M36" s="15"/>
       <c r="N36" s="8"/>
       <c r="O36" s="14"/>
@@ -3038,38 +3117,37 @@
       <c r="S36" s="15"/>
       <c r="T36" s="8"/>
       <c r="U36" s="14"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="8"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="53"/>
       <c r="X36" s="14"/>
-      <c r="Y36" s="15"/>
-      <c r="Z36" s="8"/>
+      <c r="Y36" s="12"/>
       <c r="AA36" s="14"/>
       <c r="AB36" s="12"/>
       <c r="AC36" s="8"/>
       <c r="AD36" s="14"/>
-      <c r="AE36" s="55"/>
-      <c r="AF36" s="53"/>
-      <c r="AG36" s="54"/>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="27"/>
-      <c r="AJ36" s="28"/>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="14"/>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D37" s="32">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E37" s="32">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F37" s="62"/>
       <c r="G37" s="12"/>
@@ -3078,40 +3156,39 @@
       <c r="J37" s="15"/>
       <c r="K37" s="8"/>
       <c r="L37" s="14"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="14"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="36"/>
       <c r="P37" s="15"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="14"/>
       <c r="S37" s="15"/>
       <c r="T37" s="8"/>
       <c r="U37" s="14"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="8"/>
+      <c r="V37" s="55"/>
+      <c r="W37" s="53"/>
       <c r="X37" s="14"/>
-      <c r="Y37" s="15"/>
-      <c r="Z37" s="8"/>
+      <c r="Y37" s="12"/>
       <c r="AA37" s="14"/>
       <c r="AB37" s="12"/>
       <c r="AC37" s="8"/>
       <c r="AD37" s="14"/>
       <c r="AE37" s="15"/>
       <c r="AF37" s="8"/>
-      <c r="AG37" s="54"/>
-      <c r="AH37" s="52"/>
-      <c r="AI37" s="61"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="8"/>
       <c r="AJ37" s="14"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D38" s="32">
         <v>6</v>
@@ -3120,27 +3197,26 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="F38" s="47"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="12"/>
       <c r="H38" s="8"/>
       <c r="I38" s="14"/>
       <c r="J38" s="15"/>
       <c r="K38" s="8"/>
       <c r="L38" s="14"/>
-      <c r="M38" s="15"/>
+      <c r="M38" s="12"/>
       <c r="N38" s="8"/>
       <c r="O38" s="14"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="28"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="60"/>
       <c r="Y38" s="12"/>
-      <c r="Z38" s="8"/>
       <c r="AA38" s="14"/>
       <c r="AB38" s="12"/>
       <c r="AC38" s="8"/>
@@ -3149,50 +3225,50 @@
       <c r="AF38" s="8"/>
       <c r="AG38" s="14"/>
       <c r="AH38" s="12"/>
-      <c r="AI38" s="53"/>
-      <c r="AJ38" s="54"/>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="14"/>
+    </row>
+    <row r="39" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D39" s="32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E39" s="32">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F39" s="62"/>
       <c r="G39" s="12"/>
       <c r="H39" s="8"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="15"/>
+      <c r="J39" s="12"/>
       <c r="K39" s="8"/>
       <c r="L39" s="14"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="60"/>
-      <c r="P39" s="15"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="12"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="14"/>
-      <c r="S39" s="15"/>
+      <c r="S39" s="12"/>
       <c r="T39" s="8"/>
       <c r="U39" s="14"/>
-      <c r="V39" s="15"/>
+      <c r="V39" s="12"/>
       <c r="W39" s="8"/>
       <c r="X39" s="14"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="14"/>
-      <c r="AB39" s="12"/>
-      <c r="AC39" s="8"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="54"/>
+      <c r="AB39" s="52"/>
+      <c r="AC39" s="53"/>
       <c r="AD39" s="14"/>
       <c r="AE39" s="15"/>
       <c r="AF39" s="8"/>
@@ -3201,66 +3277,80 @@
       <c r="AI39" s="8"/>
       <c r="AJ39" s="14"/>
     </row>
-    <row r="40" spans="1:36" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E40" s="25">
-        <f>SUM(E26:E39)</f>
-        <v>14.5</v>
-      </c>
-      <c r="F40" s="47"/>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="32">
+        <v>10</v>
+      </c>
+      <c r="E40" s="32">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="F40" s="62"/>
       <c r="G40" s="12"/>
       <c r="H40" s="8"/>
       <c r="I40" s="14"/>
-      <c r="J40" s="15"/>
+      <c r="J40" s="12"/>
       <c r="K40" s="8"/>
       <c r="L40" s="14"/>
-      <c r="M40" s="15"/>
+      <c r="M40" s="12"/>
       <c r="N40" s="8"/>
       <c r="O40" s="14"/>
-      <c r="P40" s="15"/>
+      <c r="P40" s="12"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="14"/>
-      <c r="S40" s="15"/>
+      <c r="S40" s="12"/>
       <c r="T40" s="8"/>
       <c r="U40" s="14"/>
-      <c r="V40" s="15"/>
+      <c r="V40" s="12"/>
       <c r="W40" s="8"/>
       <c r="X40" s="14"/>
-      <c r="Y40" s="12"/>
+      <c r="Y40" s="15"/>
       <c r="Z40" s="8"/>
       <c r="AA40" s="14"/>
-      <c r="AB40" s="12"/>
-      <c r="AC40" s="8"/>
-      <c r="AD40" s="14"/>
-      <c r="AE40" s="29"/>
-      <c r="AF40" s="27"/>
-      <c r="AG40" s="28"/>
+      <c r="AB40" s="34"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="54"/>
+      <c r="AE40" s="55"/>
+      <c r="AF40" s="53"/>
+      <c r="AG40" s="14"/>
       <c r="AH40" s="12"/>
       <c r="AI40" s="8"/>
       <c r="AJ40" s="14"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="50">
-        <f>E40+E22+E13</f>
-        <v>30</v>
-      </c>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="32">
+        <v>2</v>
+      </c>
+      <c r="E41" s="32">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F41" s="62"/>
       <c r="G41" s="12"/>
       <c r="H41" s="8"/>
       <c r="I41" s="14"/>
       <c r="J41" s="15"/>
       <c r="K41" s="8"/>
       <c r="L41" s="14"/>
-      <c r="M41" s="15"/>
+      <c r="M41" s="12"/>
       <c r="N41" s="8"/>
       <c r="O41" s="14"/>
       <c r="P41" s="15"/>
@@ -3272,39 +3362,43 @@
       <c r="V41" s="15"/>
       <c r="W41" s="8"/>
       <c r="X41" s="14"/>
-      <c r="Y41" s="12"/>
+      <c r="Y41" s="15"/>
       <c r="Z41" s="8"/>
       <c r="AA41" s="14"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="35"/>
-      <c r="AD41" s="36"/>
-      <c r="AE41" s="15"/>
-      <c r="AF41" s="8"/>
-      <c r="AG41" s="14"/>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="55"/>
+      <c r="AF41" s="53"/>
+      <c r="AG41" s="54"/>
       <c r="AH41" s="12"/>
       <c r="AI41" s="8"/>
       <c r="AJ41" s="14"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A42" s="33"/>
-      <c r="B42" s="69" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32" t="s">
-        <v>149</v>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="32">
+        <v>2</v>
       </c>
       <c r="E42" s="32">
-        <f>F41/27</f>
-        <v>1.1111111111111112</v>
-      </c>
-      <c r="F42" s="62"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="36"/>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="47"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="28"/>
       <c r="M42" s="15"/>
       <c r="N42" s="8"/>
       <c r="O42" s="14"/>
@@ -3317,34 +3411,43 @@
       <c r="V42" s="15"/>
       <c r="W42" s="8"/>
       <c r="X42" s="14"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="35"/>
-      <c r="AA42" s="36"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="14"/>
       <c r="AB42" s="12"/>
       <c r="AC42" s="8"/>
       <c r="AD42" s="14"/>
-      <c r="AE42" s="15"/>
-      <c r="AF42" s="8"/>
-      <c r="AG42" s="14"/>
-      <c r="AH42" s="34"/>
-      <c r="AI42" s="35"/>
-      <c r="AJ42" s="36"/>
-    </row>
-    <row r="43" spans="1:36" ht="32" x14ac:dyDescent="0.2">
-      <c r="A43" s="33"/>
-      <c r="B43" s="82" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="28"/>
+      <c r="AE42" s="55"/>
+      <c r="AF42" s="53"/>
+      <c r="AG42" s="54"/>
+      <c r="AH42" s="26"/>
+      <c r="AI42" s="27"/>
+      <c r="AJ42" s="28"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="32">
+        <v>8</v>
+      </c>
+      <c r="E43" s="32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F43" s="62"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="14"/>
       <c r="M43" s="15"/>
       <c r="N43" s="8"/>
       <c r="O43" s="14"/>
@@ -3357,26 +3460,37 @@
       <c r="V43" s="15"/>
       <c r="W43" s="8"/>
       <c r="X43" s="14"/>
-      <c r="Y43" s="26"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="15"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="12"/>
       <c r="AC43" s="8"/>
       <c r="AD43" s="14"/>
       <c r="AE43" s="15"/>
       <c r="AF43" s="8"/>
-      <c r="AG43" s="14"/>
-      <c r="AH43" s="34"/>
-      <c r="AI43" s="35"/>
-      <c r="AJ43" s="36"/>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A44" s="33"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="64"/>
+      <c r="AG43" s="54"/>
+      <c r="AH43" s="52"/>
+      <c r="AI43" s="61"/>
+      <c r="AJ43" s="14"/>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="32">
+        <v>6</v>
+      </c>
+      <c r="E44" s="32">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F44" s="47"/>
       <c r="G44" s="12"/>
       <c r="H44" s="8"/>
       <c r="I44" s="14"/>
@@ -3386,44 +3500,55 @@
       <c r="M44" s="15"/>
       <c r="N44" s="8"/>
       <c r="O44" s="14"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="14"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="28"/>
       <c r="Y44" s="12"/>
       <c r="Z44" s="8"/>
       <c r="AA44" s="14"/>
-      <c r="AB44" s="15"/>
+      <c r="AB44" s="12"/>
       <c r="AC44" s="8"/>
       <c r="AD44" s="14"/>
       <c r="AE44" s="15"/>
       <c r="AF44" s="8"/>
       <c r="AG44" s="14"/>
       <c r="AH44" s="12"/>
-      <c r="AI44" s="8"/>
-      <c r="AJ44" s="14"/>
-    </row>
-    <row r="45" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="64"/>
+      <c r="AI44" s="53"/>
+      <c r="AJ44" s="54"/>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="32">
+        <v>8</v>
+      </c>
+      <c r="E45" s="32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F45" s="62"/>
       <c r="G45" s="12"/>
       <c r="H45" s="8"/>
       <c r="I45" s="14"/>
       <c r="J45" s="15"/>
       <c r="K45" s="8"/>
       <c r="L45" s="14"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="14"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="60"/>
       <c r="P45" s="15"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="14"/>
@@ -3436,23 +3561,28 @@
       <c r="Y45" s="12"/>
       <c r="Z45" s="8"/>
       <c r="AA45" s="14"/>
-      <c r="AB45" s="15"/>
+      <c r="AB45" s="12"/>
       <c r="AC45" s="8"/>
       <c r="AD45" s="14"/>
       <c r="AE45" s="15"/>
       <c r="AF45" s="8"/>
       <c r="AG45" s="14"/>
-      <c r="AH45" s="15"/>
+      <c r="AH45" s="12"/>
       <c r="AI45" s="8"/>
       <c r="AJ45" s="14"/>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="21"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="65"/>
+      <c r="D46" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="25">
+        <f>SUM(E32:E45)</f>
+        <v>14.5</v>
+      </c>
+      <c r="F46" s="47"/>
       <c r="G46" s="12"/>
       <c r="H46" s="8"/>
       <c r="I46" s="14"/>
@@ -3474,32 +3604,35 @@
       <c r="Y46" s="12"/>
       <c r="Z46" s="8"/>
       <c r="AA46" s="14"/>
-      <c r="AB46" s="15"/>
+      <c r="AB46" s="12"/>
       <c r="AC46" s="8"/>
       <c r="AD46" s="14"/>
-      <c r="AE46" s="15"/>
-      <c r="AF46" s="8"/>
-      <c r="AG46" s="14"/>
-      <c r="AH46" s="15"/>
+      <c r="AE46" s="29"/>
+      <c r="AF46" s="27"/>
+      <c r="AG46" s="28"/>
+      <c r="AH46" s="12"/>
       <c r="AI46" s="8"/>
       <c r="AJ46" s="14"/>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="21"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="65"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="50">
+        <f>E46+E28+E19</f>
+        <v>42.5</v>
+      </c>
       <c r="G47" s="12"/>
       <c r="H47" s="8"/>
       <c r="I47" s="14"/>
       <c r="J47" s="15"/>
       <c r="K47" s="8"/>
       <c r="L47" s="14"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="36"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="14"/>
       <c r="P47" s="15"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="14"/>
@@ -3512,68 +3645,77 @@
       <c r="Y47" s="12"/>
       <c r="Z47" s="8"/>
       <c r="AA47" s="14"/>
-      <c r="AB47" s="15"/>
-      <c r="AC47" s="8"/>
-      <c r="AD47" s="14"/>
+      <c r="AB47" s="34"/>
+      <c r="AC47" s="35"/>
+      <c r="AD47" s="36"/>
       <c r="AE47" s="15"/>
       <c r="AF47" s="8"/>
       <c r="AG47" s="14"/>
-      <c r="AH47" s="15"/>
+      <c r="AH47" s="12"/>
       <c r="AI47" s="8"/>
       <c r="AJ47" s="14"/>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A48" s="23"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="27"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="27"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="26"/>
-      <c r="Z48" s="27"/>
-      <c r="AA48" s="28"/>
-      <c r="AB48" s="29"/>
-      <c r="AC48" s="27"/>
-      <c r="AD48" s="28"/>
-      <c r="AE48" s="29"/>
-      <c r="AF48" s="27"/>
-      <c r="AG48" s="28"/>
-      <c r="AH48" s="15"/>
-      <c r="AI48" s="8"/>
-      <c r="AJ48" s="14"/>
-    </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="12"/>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A48" s="33"/>
+      <c r="B48" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="32">
+        <f>F47/27</f>
+        <v>1.5740740740740742</v>
+      </c>
+      <c r="F48" s="62"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="36"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="14"/>
+      <c r="AE48" s="15"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="14"/>
+      <c r="AH48" s="34"/>
+      <c r="AI48" s="35"/>
+      <c r="AJ48" s="36"/>
+    </row>
+    <row r="49" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="33"/>
+      <c r="B49" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="15"/>
       <c r="N49" s="8"/>
       <c r="O49" s="14"/>
       <c r="P49" s="15"/>
@@ -3585,33 +3727,33 @@
       <c r="V49" s="15"/>
       <c r="W49" s="8"/>
       <c r="X49" s="14"/>
-      <c r="Y49" s="12"/>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="14"/>
+      <c r="Y49" s="26"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="28"/>
       <c r="AB49" s="15"/>
       <c r="AC49" s="8"/>
       <c r="AD49" s="14"/>
       <c r="AE49" s="15"/>
       <c r="AF49" s="8"/>
       <c r="AG49" s="14"/>
-      <c r="AH49" s="15"/>
-      <c r="AI49" s="8"/>
-      <c r="AJ49" s="14"/>
-    </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
-      <c r="B50" s="31"/>
+      <c r="AH49" s="34"/>
+      <c r="AI49" s="35"/>
+      <c r="AJ49" s="36"/>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A50" s="33"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="21"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="65"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="64"/>
       <c r="G50" s="12"/>
       <c r="H50" s="8"/>
       <c r="I50" s="14"/>
       <c r="J50" s="15"/>
       <c r="K50" s="8"/>
       <c r="L50" s="14"/>
-      <c r="M50" s="12"/>
+      <c r="M50" s="15"/>
       <c r="N50" s="8"/>
       <c r="O50" s="14"/>
       <c r="P50" s="15"/>
@@ -3632,24 +3774,24 @@
       <c r="AE50" s="15"/>
       <c r="AF50" s="8"/>
       <c r="AG50" s="14"/>
-      <c r="AH50" s="29"/>
-      <c r="AI50" s="27"/>
-      <c r="AJ50" s="28"/>
-    </row>
-    <row r="51" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH50" s="12"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="14"/>
+    </row>
+    <row r="51" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="21"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="65"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="64"/>
       <c r="G51" s="12"/>
       <c r="H51" s="8"/>
       <c r="I51" s="14"/>
       <c r="J51" s="15"/>
       <c r="K51" s="8"/>
       <c r="L51" s="14"/>
-      <c r="M51" s="12"/>
+      <c r="M51" s="15"/>
       <c r="N51" s="8"/>
       <c r="O51" s="14"/>
       <c r="P51" s="15"/>
@@ -3674,7 +3816,7 @@
       <c r="AI51" s="8"/>
       <c r="AJ51" s="14"/>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="21"/>
@@ -3687,7 +3829,7 @@
       <c r="J52" s="15"/>
       <c r="K52" s="8"/>
       <c r="L52" s="14"/>
-      <c r="M52" s="12"/>
+      <c r="M52" s="15"/>
       <c r="N52" s="8"/>
       <c r="O52" s="14"/>
       <c r="P52" s="15"/>
@@ -3712,22 +3854,22 @@
       <c r="AI52" s="8"/>
       <c r="AJ52" s="14"/>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
-      <c r="B53" s="23"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="21"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="64"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="65"/>
       <c r="G53" s="12"/>
       <c r="H53" s="8"/>
       <c r="I53" s="14"/>
       <c r="J53" s="15"/>
       <c r="K53" s="8"/>
       <c r="L53" s="14"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="14"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="36"/>
       <c r="P53" s="15"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="14"/>
@@ -3750,9 +3892,9 @@
       <c r="AI53" s="8"/>
       <c r="AJ53" s="14"/>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
-      <c r="B54" s="23"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="25"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
@@ -3763,7 +3905,7 @@
       <c r="J54" s="29"/>
       <c r="K54" s="27"/>
       <c r="L54" s="28"/>
-      <c r="M54" s="26"/>
+      <c r="M54" s="29"/>
       <c r="N54" s="27"/>
       <c r="O54" s="28"/>
       <c r="P54" s="29"/>
@@ -3778,9 +3920,9 @@
       <c r="Y54" s="26"/>
       <c r="Z54" s="27"/>
       <c r="AA54" s="28"/>
-      <c r="AB54" s="15"/>
-      <c r="AC54" s="8"/>
-      <c r="AD54" s="14"/>
+      <c r="AB54" s="29"/>
+      <c r="AC54" s="27"/>
+      <c r="AD54" s="28"/>
       <c r="AE54" s="29"/>
       <c r="AF54" s="27"/>
       <c r="AG54" s="28"/>
@@ -3788,13 +3930,13 @@
       <c r="AI54" s="8"/>
       <c r="AJ54" s="14"/>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
       <c r="B55" s="31"/>
       <c r="C55" s="21"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="64"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="65"/>
       <c r="G55" s="12"/>
       <c r="H55" s="8"/>
       <c r="I55" s="14"/>
@@ -3816,7 +3958,7 @@
       <c r="Y55" s="12"/>
       <c r="Z55" s="8"/>
       <c r="AA55" s="14"/>
-      <c r="AB55" s="12"/>
+      <c r="AB55" s="15"/>
       <c r="AC55" s="8"/>
       <c r="AD55" s="14"/>
       <c r="AE55" s="15"/>
@@ -3826,7 +3968,7 @@
       <c r="AI55" s="8"/>
       <c r="AJ55" s="14"/>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
       <c r="B56" s="31"/>
       <c r="C56" s="21"/>
@@ -3854,23 +3996,23 @@
       <c r="Y56" s="12"/>
       <c r="Z56" s="8"/>
       <c r="AA56" s="14"/>
-      <c r="AB56" s="12"/>
+      <c r="AB56" s="15"/>
       <c r="AC56" s="8"/>
       <c r="AD56" s="14"/>
       <c r="AE56" s="15"/>
       <c r="AF56" s="8"/>
       <c r="AG56" s="14"/>
-      <c r="AH56" s="15"/>
-      <c r="AI56" s="8"/>
-      <c r="AJ56" s="14"/>
-    </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AH56" s="29"/>
+      <c r="AI56" s="27"/>
+      <c r="AJ56" s="28"/>
+    </row>
+    <row r="57" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
-      <c r="B57" s="31"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="21"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="64"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="65"/>
       <c r="G57" s="12"/>
       <c r="H57" s="8"/>
       <c r="I57" s="14"/>
@@ -3892,19 +4034,19 @@
       <c r="Y57" s="12"/>
       <c r="Z57" s="8"/>
       <c r="AA57" s="14"/>
-      <c r="AB57" s="12"/>
+      <c r="AB57" s="15"/>
       <c r="AC57" s="8"/>
       <c r="AD57" s="14"/>
       <c r="AE57" s="15"/>
       <c r="AF57" s="8"/>
       <c r="AG57" s="14"/>
-      <c r="AH57" s="12"/>
+      <c r="AH57" s="15"/>
       <c r="AI57" s="8"/>
       <c r="AJ57" s="14"/>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
-      <c r="B58" s="31"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="21"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
@@ -3930,19 +4072,19 @@
       <c r="Y58" s="12"/>
       <c r="Z58" s="8"/>
       <c r="AA58" s="14"/>
-      <c r="AB58" s="12"/>
+      <c r="AB58" s="15"/>
       <c r="AC58" s="8"/>
       <c r="AD58" s="14"/>
       <c r="AE58" s="15"/>
       <c r="AF58" s="8"/>
       <c r="AG58" s="14"/>
-      <c r="AH58" s="12"/>
+      <c r="AH58" s="15"/>
       <c r="AI58" s="8"/>
       <c r="AJ58" s="14"/>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
-      <c r="B59" s="31"/>
+      <c r="B59" s="23"/>
       <c r="C59" s="21"/>
       <c r="D59" s="30"/>
       <c r="E59" s="30"/>
@@ -3968,57 +4110,57 @@
       <c r="Y59" s="12"/>
       <c r="Z59" s="8"/>
       <c r="AA59" s="14"/>
-      <c r="AB59" s="12"/>
+      <c r="AB59" s="15"/>
       <c r="AC59" s="8"/>
       <c r="AD59" s="14"/>
       <c r="AE59" s="15"/>
       <c r="AF59" s="8"/>
       <c r="AG59" s="14"/>
-      <c r="AH59" s="12"/>
+      <c r="AH59" s="15"/>
       <c r="AI59" s="8"/>
       <c r="AJ59" s="14"/>
     </row>
-    <row r="60" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="21"/>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
       <c r="F60" s="65"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="15"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="14"/>
-      <c r="V60" s="15"/>
-      <c r="W60" s="8"/>
-      <c r="X60" s="14"/>
-      <c r="Y60" s="12"/>
-      <c r="Z60" s="8"/>
-      <c r="AA60" s="14"/>
-      <c r="AB60" s="12"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="27"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="27"/>
+      <c r="U60" s="28"/>
+      <c r="V60" s="29"/>
+      <c r="W60" s="27"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="26"/>
+      <c r="Z60" s="27"/>
+      <c r="AA60" s="28"/>
+      <c r="AB60" s="15"/>
       <c r="AC60" s="8"/>
       <c r="AD60" s="14"/>
-      <c r="AE60" s="15"/>
-      <c r="AF60" s="8"/>
-      <c r="AG60" s="14"/>
-      <c r="AH60" s="12"/>
+      <c r="AE60" s="29"/>
+      <c r="AF60" s="27"/>
+      <c r="AG60" s="28"/>
+      <c r="AH60" s="15"/>
       <c r="AI60" s="8"/>
       <c r="AJ60" s="14"/>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="21"/>
       <c r="D61" s="30"/>
       <c r="E61" s="30"/>
@@ -4050,13 +4192,13 @@
       <c r="AE61" s="15"/>
       <c r="AF61" s="8"/>
       <c r="AG61" s="14"/>
-      <c r="AH61" s="12"/>
+      <c r="AH61" s="15"/>
       <c r="AI61" s="8"/>
       <c r="AJ61" s="14"/>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="21"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
@@ -4088,49 +4230,49 @@
       <c r="AE62" s="15"/>
       <c r="AF62" s="8"/>
       <c r="AG62" s="14"/>
-      <c r="AH62" s="12"/>
+      <c r="AH62" s="15"/>
       <c r="AI62" s="8"/>
       <c r="AJ62" s="14"/>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A63" s="23"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="28"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="27"/>
-      <c r="R63" s="28"/>
-      <c r="S63" s="29"/>
-      <c r="T63" s="27"/>
-      <c r="U63" s="28"/>
-      <c r="V63" s="29"/>
-      <c r="W63" s="27"/>
-      <c r="X63" s="28"/>
-      <c r="Y63" s="26"/>
-      <c r="Z63" s="27"/>
-      <c r="AA63" s="28"/>
-      <c r="AB63" s="26"/>
-      <c r="AC63" s="27"/>
-      <c r="AD63" s="28"/>
-      <c r="AE63" s="29"/>
-      <c r="AF63" s="27"/>
-      <c r="AG63" s="28"/>
-      <c r="AH63" s="26"/>
-      <c r="AI63" s="27"/>
-      <c r="AJ63" s="28"/>
-    </row>
-    <row r="64" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A63" s="20"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="14"/>
+      <c r="AB63" s="12"/>
+      <c r="AC63" s="8"/>
+      <c r="AD63" s="14"/>
+      <c r="AE63" s="15"/>
+      <c r="AF63" s="8"/>
+      <c r="AG63" s="14"/>
+      <c r="AH63" s="12"/>
+      <c r="AI63" s="8"/>
+      <c r="AJ63" s="14"/>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="20"/>
       <c r="B64" s="31"/>
       <c r="C64" s="21"/>
@@ -4168,7 +4310,7 @@
       <c r="AI64" s="8"/>
       <c r="AJ64" s="14"/>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="20"/>
       <c r="B65" s="31"/>
       <c r="C65" s="21"/>
@@ -4206,13 +4348,13 @@
       <c r="AI65" s="8"/>
       <c r="AJ65" s="14"/>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="21"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="64"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="65"/>
       <c r="G66" s="12"/>
       <c r="H66" s="8"/>
       <c r="I66" s="14"/>
@@ -4244,51 +4386,51 @@
       <c r="AI66" s="8"/>
       <c r="AJ66" s="14"/>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A67" s="23"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="26"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="28"/>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="27"/>
-      <c r="R67" s="28"/>
-      <c r="S67" s="29"/>
-      <c r="T67" s="27"/>
-      <c r="U67" s="28"/>
-      <c r="V67" s="29"/>
-      <c r="W67" s="27"/>
-      <c r="X67" s="28"/>
-      <c r="Y67" s="26"/>
-      <c r="Z67" s="27"/>
-      <c r="AA67" s="28"/>
-      <c r="AB67" s="26"/>
-      <c r="AC67" s="27"/>
-      <c r="AD67" s="28"/>
-      <c r="AE67" s="29"/>
-      <c r="AF67" s="27"/>
-      <c r="AG67" s="28"/>
-      <c r="AH67" s="26"/>
-      <c r="AI67" s="27"/>
-      <c r="AJ67" s="28"/>
-    </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="15"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="14"/>
+      <c r="V67" s="15"/>
+      <c r="W67" s="8"/>
+      <c r="X67" s="14"/>
+      <c r="Y67" s="12"/>
+      <c r="Z67" s="8"/>
+      <c r="AA67" s="14"/>
+      <c r="AB67" s="12"/>
+      <c r="AC67" s="8"/>
+      <c r="AD67" s="14"/>
+      <c r="AE67" s="15"/>
+      <c r="AF67" s="8"/>
+      <c r="AG67" s="14"/>
+      <c r="AH67" s="12"/>
+      <c r="AI67" s="8"/>
+      <c r="AJ67" s="14"/>
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="20"/>
-      <c r="B68" s="31"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="21"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="64"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="65"/>
       <c r="G68" s="12"/>
       <c r="H68" s="8"/>
       <c r="I68" s="14"/>
@@ -4320,45 +4462,45 @@
       <c r="AI68" s="8"/>
       <c r="AJ68" s="14"/>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A69" s="20"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="21"/>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A69" s="23"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="25"/>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
       <c r="F69" s="65"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="14"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="14"/>
-      <c r="S69" s="15"/>
-      <c r="T69" s="8"/>
-      <c r="U69" s="14"/>
-      <c r="V69" s="15"/>
-      <c r="W69" s="8"/>
-      <c r="X69" s="14"/>
-      <c r="Y69" s="12"/>
-      <c r="Z69" s="8"/>
-      <c r="AA69" s="14"/>
-      <c r="AB69" s="12"/>
-      <c r="AC69" s="8"/>
-      <c r="AD69" s="14"/>
-      <c r="AE69" s="15"/>
-      <c r="AF69" s="8"/>
-      <c r="AG69" s="14"/>
-      <c r="AH69" s="12"/>
-      <c r="AI69" s="8"/>
-      <c r="AJ69" s="14"/>
-    </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="G69" s="26"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="28"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="27"/>
+      <c r="R69" s="28"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="27"/>
+      <c r="U69" s="28"/>
+      <c r="V69" s="29"/>
+      <c r="W69" s="27"/>
+      <c r="X69" s="28"/>
+      <c r="Y69" s="26"/>
+      <c r="Z69" s="27"/>
+      <c r="AA69" s="28"/>
+      <c r="AB69" s="26"/>
+      <c r="AC69" s="27"/>
+      <c r="AD69" s="28"/>
+      <c r="AE69" s="29"/>
+      <c r="AF69" s="27"/>
+      <c r="AG69" s="28"/>
+      <c r="AH69" s="26"/>
+      <c r="AI69" s="27"/>
+      <c r="AJ69" s="28"/>
+    </row>
+    <row r="70" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="20"/>
       <c r="B70" s="31"/>
       <c r="C70" s="21"/>
@@ -4396,7 +4538,7 @@
       <c r="AI70" s="8"/>
       <c r="AJ70" s="14"/>
     </row>
-    <row r="71" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" s="20"/>
       <c r="B71" s="31"/>
       <c r="C71" s="21"/>
@@ -4434,13 +4576,13 @@
       <c r="AI71" s="8"/>
       <c r="AJ71" s="14"/>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="20"/>
-      <c r="B72" s="31"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="21"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="65"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="64"/>
       <c r="G72" s="12"/>
       <c r="H72" s="8"/>
       <c r="I72" s="14"/>
@@ -4472,89 +4614,89 @@
       <c r="AI72" s="8"/>
       <c r="AJ72" s="14"/>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="14"/>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="14"/>
-      <c r="S73" s="15"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="14"/>
-      <c r="V73" s="15"/>
-      <c r="W73" s="8"/>
-      <c r="X73" s="14"/>
-      <c r="Y73" s="12"/>
-      <c r="Z73" s="8"/>
-      <c r="AA73" s="14"/>
-      <c r="AB73" s="12"/>
-      <c r="AC73" s="8"/>
-      <c r="AD73" s="14"/>
-      <c r="AE73" s="15"/>
-      <c r="AF73" s="8"/>
-      <c r="AG73" s="14"/>
-      <c r="AH73" s="12"/>
-      <c r="AI73" s="8"/>
-      <c r="AJ73" s="14"/>
-    </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A74" s="23"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="28"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="27"/>
-      <c r="O74" s="28"/>
-      <c r="P74" s="29"/>
-      <c r="Q74" s="27"/>
-      <c r="R74" s="28"/>
-      <c r="S74" s="29"/>
-      <c r="T74" s="27"/>
-      <c r="U74" s="28"/>
-      <c r="V74" s="29"/>
-      <c r="W74" s="27"/>
-      <c r="X74" s="28"/>
-      <c r="Y74" s="26"/>
-      <c r="Z74" s="27"/>
-      <c r="AA74" s="28"/>
-      <c r="AB74" s="26"/>
-      <c r="AC74" s="27"/>
-      <c r="AD74" s="28"/>
-      <c r="AE74" s="29"/>
-      <c r="AF74" s="27"/>
-      <c r="AG74" s="28"/>
-      <c r="AH74" s="26"/>
-      <c r="AI74" s="27"/>
-      <c r="AJ74" s="28"/>
-    </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A73" s="23"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="27"/>
+      <c r="O73" s="28"/>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="27"/>
+      <c r="R73" s="28"/>
+      <c r="S73" s="29"/>
+      <c r="T73" s="27"/>
+      <c r="U73" s="28"/>
+      <c r="V73" s="29"/>
+      <c r="W73" s="27"/>
+      <c r="X73" s="28"/>
+      <c r="Y73" s="26"/>
+      <c r="Z73" s="27"/>
+      <c r="AA73" s="28"/>
+      <c r="AB73" s="26"/>
+      <c r="AC73" s="27"/>
+      <c r="AD73" s="28"/>
+      <c r="AE73" s="29"/>
+      <c r="AF73" s="27"/>
+      <c r="AG73" s="28"/>
+      <c r="AH73" s="26"/>
+      <c r="AI73" s="27"/>
+      <c r="AJ73" s="28"/>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A74" s="20"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="15"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="14"/>
+      <c r="V74" s="15"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="14"/>
+      <c r="Y74" s="12"/>
+      <c r="Z74" s="8"/>
+      <c r="AA74" s="14"/>
+      <c r="AB74" s="12"/>
+      <c r="AC74" s="8"/>
+      <c r="AD74" s="14"/>
+      <c r="AE74" s="15"/>
+      <c r="AF74" s="8"/>
+      <c r="AG74" s="14"/>
+      <c r="AH74" s="12"/>
+      <c r="AI74" s="8"/>
+      <c r="AJ74" s="14"/>
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="20"/>
       <c r="B75" s="31"/>
       <c r="C75" s="21"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="64"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="65"/>
       <c r="G75" s="12"/>
       <c r="H75" s="8"/>
       <c r="I75" s="14"/>
@@ -4586,7 +4728,7 @@
       <c r="AI75" s="8"/>
       <c r="AJ75" s="14"/>
     </row>
-    <row r="76" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" s="20"/>
       <c r="B76" s="31"/>
       <c r="C76" s="21"/>
@@ -4624,7 +4766,7 @@
       <c r="AI76" s="8"/>
       <c r="AJ76" s="14"/>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="20"/>
       <c r="B77" s="31"/>
       <c r="C77" s="21"/>
@@ -4662,13 +4804,13 @@
       <c r="AI77" s="8"/>
       <c r="AJ77" s="14"/>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
-      <c r="B78" s="20"/>
+      <c r="B78" s="31"/>
       <c r="C78" s="21"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="64"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="65"/>
       <c r="G78" s="12"/>
       <c r="H78" s="8"/>
       <c r="I78" s="14"/>
@@ -4700,89 +4842,89 @@
       <c r="AI78" s="8"/>
       <c r="AJ78" s="14"/>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A79" s="23"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="28"/>
-      <c r="M79" s="26"/>
-      <c r="N79" s="27"/>
-      <c r="O79" s="28"/>
-      <c r="P79" s="29"/>
-      <c r="Q79" s="27"/>
-      <c r="R79" s="28"/>
-      <c r="S79" s="29"/>
-      <c r="T79" s="27"/>
-      <c r="U79" s="28"/>
-      <c r="V79" s="29"/>
-      <c r="W79" s="27"/>
-      <c r="X79" s="28"/>
-      <c r="Y79" s="26"/>
-      <c r="Z79" s="27"/>
-      <c r="AA79" s="28"/>
-      <c r="AB79" s="26"/>
-      <c r="AC79" s="27"/>
-      <c r="AD79" s="28"/>
-      <c r="AE79" s="29"/>
-      <c r="AF79" s="27"/>
-      <c r="AG79" s="28"/>
-      <c r="AH79" s="26"/>
-      <c r="AI79" s="27"/>
-      <c r="AJ79" s="28"/>
-    </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A80" s="20"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="14"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="8"/>
-      <c r="R80" s="14"/>
-      <c r="S80" s="15"/>
-      <c r="T80" s="8"/>
-      <c r="U80" s="14"/>
-      <c r="V80" s="15"/>
-      <c r="W80" s="8"/>
-      <c r="X80" s="14"/>
-      <c r="Y80" s="12"/>
-      <c r="Z80" s="8"/>
-      <c r="AA80" s="14"/>
-      <c r="AB80" s="12"/>
-      <c r="AC80" s="8"/>
-      <c r="AD80" s="14"/>
-      <c r="AE80" s="15"/>
-      <c r="AF80" s="8"/>
-      <c r="AG80" s="14"/>
-      <c r="AH80" s="12"/>
-      <c r="AI80" s="8"/>
-      <c r="AJ80" s="14"/>
-    </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="14"/>
+      <c r="S79" s="15"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="14"/>
+      <c r="V79" s="15"/>
+      <c r="W79" s="8"/>
+      <c r="X79" s="14"/>
+      <c r="Y79" s="12"/>
+      <c r="Z79" s="8"/>
+      <c r="AA79" s="14"/>
+      <c r="AB79" s="12"/>
+      <c r="AC79" s="8"/>
+      <c r="AD79" s="14"/>
+      <c r="AE79" s="15"/>
+      <c r="AF79" s="8"/>
+      <c r="AG79" s="14"/>
+      <c r="AH79" s="12"/>
+      <c r="AI79" s="8"/>
+      <c r="AJ79" s="14"/>
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A80" s="23"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="26"/>
+      <c r="N80" s="27"/>
+      <c r="O80" s="28"/>
+      <c r="P80" s="29"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="28"/>
+      <c r="S80" s="29"/>
+      <c r="T80" s="27"/>
+      <c r="U80" s="28"/>
+      <c r="V80" s="29"/>
+      <c r="W80" s="27"/>
+      <c r="X80" s="28"/>
+      <c r="Y80" s="26"/>
+      <c r="Z80" s="27"/>
+      <c r="AA80" s="28"/>
+      <c r="AB80" s="26"/>
+      <c r="AC80" s="27"/>
+      <c r="AD80" s="28"/>
+      <c r="AE80" s="29"/>
+      <c r="AF80" s="27"/>
+      <c r="AG80" s="28"/>
+      <c r="AH80" s="26"/>
+      <c r="AI80" s="27"/>
+      <c r="AJ80" s="28"/>
+    </row>
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" s="20"/>
       <c r="B81" s="31"/>
       <c r="C81" s="21"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="65"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="64"/>
       <c r="G81" s="12"/>
       <c r="H81" s="8"/>
       <c r="I81" s="14"/>
@@ -4814,13 +4956,13 @@
       <c r="AI81" s="8"/>
       <c r="AJ81" s="14"/>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="20"/>
       <c r="B82" s="31"/>
       <c r="C82" s="21"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="64"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="65"/>
       <c r="G82" s="12"/>
       <c r="H82" s="8"/>
       <c r="I82" s="14"/>
@@ -4852,145 +4994,235 @@
       <c r="AI82" s="8"/>
       <c r="AJ82" s="14"/>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="D83" s="18">
-        <v>1</v>
-      </c>
-      <c r="E83" s="18"/>
-      <c r="F83" s="66"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="13"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="7"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="13"/>
-      <c r="R83" s="10"/>
-      <c r="S83" s="13"/>
-      <c r="U83" s="10"/>
-      <c r="V83" s="13"/>
-      <c r="X83" s="10"/>
-      <c r="Y83" s="7"/>
-      <c r="AA83" s="10"/>
-      <c r="AB83" s="7"/>
-      <c r="AD83" s="10"/>
-      <c r="AE83" s="13"/>
-    </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="D84" s="19">
-        <v>1</v>
-      </c>
-      <c r="E84" s="19"/>
-      <c r="F84" s="67"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="13"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="7"/>
-      <c r="O84" s="10"/>
-      <c r="P84" s="13"/>
-      <c r="R84" s="10"/>
-      <c r="S84" s="13"/>
-      <c r="U84" s="10"/>
-      <c r="V84" s="13"/>
-      <c r="X84" s="10"/>
-      <c r="Y84" s="7"/>
-      <c r="AA84" s="10"/>
-      <c r="AB84" s="7"/>
-      <c r="AD84" s="10"/>
-      <c r="AE84" s="13"/>
-    </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="D85" s="18">
-        <v>1</v>
-      </c>
-      <c r="E85" s="18"/>
-      <c r="F85" s="66"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="13"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="7"/>
-      <c r="O85" s="10"/>
-      <c r="P85" s="13"/>
-      <c r="R85" s="10"/>
-      <c r="S85" s="13"/>
-      <c r="U85" s="10"/>
-      <c r="V85" s="13"/>
-      <c r="X85" s="10"/>
-      <c r="Y85" s="7"/>
-      <c r="AA85" s="10"/>
-      <c r="AB85" s="7"/>
-      <c r="AD85" s="10"/>
-      <c r="AE85" s="13"/>
-    </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="D86" s="19">
-        <v>1</v>
-      </c>
-      <c r="E86" s="19"/>
-      <c r="F86" s="67"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="13"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="7"/>
-      <c r="O86" s="10"/>
-      <c r="P86" s="13"/>
-      <c r="R86" s="10"/>
-      <c r="S86" s="13"/>
-      <c r="U86" s="10"/>
-      <c r="V86" s="13"/>
-      <c r="X86" s="10"/>
-      <c r="Y86" s="7"/>
-      <c r="AA86" s="10"/>
-      <c r="AB86" s="7"/>
-      <c r="AD86" s="10"/>
-      <c r="AE86" s="13"/>
-    </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="D87" s="18">
-        <v>1</v>
-      </c>
-      <c r="E87" s="18"/>
-      <c r="F87" s="66"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="13"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="7"/>
-      <c r="O87" s="10"/>
-      <c r="P87" s="13"/>
-      <c r="R87" s="10"/>
-      <c r="S87" s="13"/>
-      <c r="U87" s="10"/>
-      <c r="V87" s="13"/>
-      <c r="X87" s="10"/>
-      <c r="Y87" s="7"/>
-      <c r="AA87" s="10"/>
-      <c r="AB87" s="7"/>
-      <c r="AD87" s="10"/>
-      <c r="AE87" s="13"/>
-    </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="D88" s="19">
-        <v>1</v>
-      </c>
-      <c r="E88" s="19"/>
-      <c r="F88" s="67"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="13"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="7"/>
-      <c r="O88" s="10"/>
-      <c r="P88" s="13"/>
-      <c r="R88" s="10"/>
-      <c r="S88" s="13"/>
-      <c r="U88" s="10"/>
-      <c r="V88" s="13"/>
-      <c r="X88" s="10"/>
-      <c r="Y88" s="7"/>
-      <c r="AA88" s="10"/>
-      <c r="AB88" s="7"/>
-      <c r="AD88" s="10"/>
-      <c r="AE88" s="13"/>
-    </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A83" s="20"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="8"/>
+      <c r="R83" s="14"/>
+      <c r="S83" s="15"/>
+      <c r="T83" s="8"/>
+      <c r="U83" s="14"/>
+      <c r="V83" s="15"/>
+      <c r="W83" s="8"/>
+      <c r="X83" s="14"/>
+      <c r="Y83" s="12"/>
+      <c r="Z83" s="8"/>
+      <c r="AA83" s="14"/>
+      <c r="AB83" s="12"/>
+      <c r="AC83" s="8"/>
+      <c r="AD83" s="14"/>
+      <c r="AE83" s="15"/>
+      <c r="AF83" s="8"/>
+      <c r="AG83" s="14"/>
+      <c r="AH83" s="12"/>
+      <c r="AI83" s="8"/>
+      <c r="AJ83" s="14"/>
+    </row>
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="8"/>
+      <c r="R84" s="14"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="8"/>
+      <c r="U84" s="14"/>
+      <c r="V84" s="15"/>
+      <c r="W84" s="8"/>
+      <c r="X84" s="14"/>
+      <c r="Y84" s="12"/>
+      <c r="Z84" s="8"/>
+      <c r="AA84" s="14"/>
+      <c r="AB84" s="12"/>
+      <c r="AC84" s="8"/>
+      <c r="AD84" s="14"/>
+      <c r="AE84" s="15"/>
+      <c r="AF84" s="8"/>
+      <c r="AG84" s="14"/>
+      <c r="AH84" s="12"/>
+      <c r="AI84" s="8"/>
+      <c r="AJ84" s="14"/>
+    </row>
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A85" s="23"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="28"/>
+      <c r="M85" s="26"/>
+      <c r="N85" s="27"/>
+      <c r="O85" s="28"/>
+      <c r="P85" s="29"/>
+      <c r="Q85" s="27"/>
+      <c r="R85" s="28"/>
+      <c r="S85" s="29"/>
+      <c r="T85" s="27"/>
+      <c r="U85" s="28"/>
+      <c r="V85" s="29"/>
+      <c r="W85" s="27"/>
+      <c r="X85" s="28"/>
+      <c r="Y85" s="26"/>
+      <c r="Z85" s="27"/>
+      <c r="AA85" s="28"/>
+      <c r="AB85" s="26"/>
+      <c r="AC85" s="27"/>
+      <c r="AD85" s="28"/>
+      <c r="AE85" s="29"/>
+      <c r="AF85" s="27"/>
+      <c r="AG85" s="28"/>
+      <c r="AH85" s="26"/>
+      <c r="AI85" s="27"/>
+      <c r="AJ85" s="28"/>
+    </row>
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A86" s="20"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="64"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="14"/>
+      <c r="S86" s="15"/>
+      <c r="T86" s="8"/>
+      <c r="U86" s="14"/>
+      <c r="V86" s="15"/>
+      <c r="W86" s="8"/>
+      <c r="X86" s="14"/>
+      <c r="Y86" s="12"/>
+      <c r="Z86" s="8"/>
+      <c r="AA86" s="14"/>
+      <c r="AB86" s="12"/>
+      <c r="AC86" s="8"/>
+      <c r="AD86" s="14"/>
+      <c r="AE86" s="15"/>
+      <c r="AF86" s="8"/>
+      <c r="AG86" s="14"/>
+      <c r="AH86" s="12"/>
+      <c r="AI86" s="8"/>
+      <c r="AJ86" s="14"/>
+    </row>
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A87" s="20"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="65"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="14"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="14"/>
+      <c r="S87" s="15"/>
+      <c r="T87" s="8"/>
+      <c r="U87" s="14"/>
+      <c r="V87" s="15"/>
+      <c r="W87" s="8"/>
+      <c r="X87" s="14"/>
+      <c r="Y87" s="12"/>
+      <c r="Z87" s="8"/>
+      <c r="AA87" s="14"/>
+      <c r="AB87" s="12"/>
+      <c r="AC87" s="8"/>
+      <c r="AD87" s="14"/>
+      <c r="AE87" s="15"/>
+      <c r="AF87" s="8"/>
+      <c r="AG87" s="14"/>
+      <c r="AH87" s="12"/>
+      <c r="AI87" s="8"/>
+      <c r="AJ87" s="14"/>
+    </row>
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A88" s="20"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="8"/>
+      <c r="R88" s="14"/>
+      <c r="S88" s="15"/>
+      <c r="T88" s="8"/>
+      <c r="U88" s="14"/>
+      <c r="V88" s="15"/>
+      <c r="W88" s="8"/>
+      <c r="X88" s="14"/>
+      <c r="Y88" s="12"/>
+      <c r="Z88" s="8"/>
+      <c r="AA88" s="14"/>
+      <c r="AB88" s="12"/>
+      <c r="AC88" s="8"/>
+      <c r="AD88" s="14"/>
+      <c r="AE88" s="15"/>
+      <c r="AF88" s="8"/>
+      <c r="AG88" s="14"/>
+      <c r="AH88" s="12"/>
+      <c r="AI88" s="8"/>
+      <c r="AJ88" s="14"/>
+    </row>
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D89" s="18">
         <v>1</v>
       </c>
@@ -5013,7 +5245,7 @@
       <c r="AD89" s="10"/>
       <c r="AE89" s="13"/>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D90" s="19">
         <v>1</v>
       </c>
@@ -5036,7 +5268,7 @@
       <c r="AD90" s="10"/>
       <c r="AE90" s="13"/>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D91" s="18">
         <v>1</v>
       </c>
@@ -5059,7 +5291,7 @@
       <c r="AD91" s="10"/>
       <c r="AE91" s="13"/>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D92" s="19">
         <v>1</v>
       </c>
@@ -5082,7 +5314,7 @@
       <c r="AD92" s="10"/>
       <c r="AE92" s="13"/>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D93" s="18">
         <v>1</v>
       </c>
@@ -5105,7 +5337,7 @@
       <c r="AD93" s="10"/>
       <c r="AE93" s="13"/>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D94" s="19">
         <v>1</v>
       </c>
@@ -5128,7 +5360,7 @@
       <c r="AD94" s="10"/>
       <c r="AE94" s="13"/>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D95" s="18">
         <v>1</v>
       </c>
@@ -5151,7 +5383,7 @@
       <c r="AD95" s="10"/>
       <c r="AE95" s="13"/>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D96" s="19">
         <v>1</v>
       </c>
@@ -5174,7 +5406,7 @@
       <c r="AD96" s="10"/>
       <c r="AE96" s="13"/>
     </row>
-    <row r="97" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D97" s="18">
         <v>1</v>
       </c>
@@ -5197,7 +5429,7 @@
       <c r="AD97" s="10"/>
       <c r="AE97" s="13"/>
     </row>
-    <row r="98" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D98" s="19">
         <v>1</v>
       </c>
@@ -5220,7 +5452,7 @@
       <c r="AD98" s="10"/>
       <c r="AE98" s="13"/>
     </row>
-    <row r="99" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D99" s="18">
         <v>1</v>
       </c>
@@ -5241,9 +5473,9 @@
       <c r="AA99" s="10"/>
       <c r="AB99" s="7"/>
       <c r="AD99" s="10"/>
-      <c r="AE99" s="7"/>
-    </row>
-    <row r="100" spans="4:31" x14ac:dyDescent="0.2">
+      <c r="AE99" s="13"/>
+    </row>
+    <row r="100" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D100" s="19">
         <v>1</v>
       </c>
@@ -5264,9 +5496,9 @@
       <c r="AA100" s="10"/>
       <c r="AB100" s="7"/>
       <c r="AD100" s="10"/>
-      <c r="AE100" s="7"/>
-    </row>
-    <row r="101" spans="4:31" x14ac:dyDescent="0.2">
+      <c r="AE100" s="13"/>
+    </row>
+    <row r="101" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D101" s="18">
         <v>1</v>
       </c>
@@ -5287,9 +5519,9 @@
       <c r="AA101" s="10"/>
       <c r="AB101" s="7"/>
       <c r="AD101" s="10"/>
-      <c r="AE101" s="7"/>
-    </row>
-    <row r="102" spans="4:31" x14ac:dyDescent="0.2">
+      <c r="AE101" s="13"/>
+    </row>
+    <row r="102" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D102" s="19">
         <v>1</v>
       </c>
@@ -5310,9 +5542,9 @@
       <c r="AA102" s="10"/>
       <c r="AB102" s="7"/>
       <c r="AD102" s="10"/>
-      <c r="AE102" s="7"/>
-    </row>
-    <row r="103" spans="4:31" x14ac:dyDescent="0.2">
+      <c r="AE102" s="13"/>
+    </row>
+    <row r="103" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D103" s="18">
         <v>1</v>
       </c>
@@ -5333,9 +5565,9 @@
       <c r="AA103" s="10"/>
       <c r="AB103" s="7"/>
       <c r="AD103" s="10"/>
-      <c r="AE103" s="7"/>
-    </row>
-    <row r="104" spans="4:31" x14ac:dyDescent="0.2">
+      <c r="AE103" s="13"/>
+    </row>
+    <row r="104" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D104" s="19">
         <v>1</v>
       </c>
@@ -5356,9 +5588,9 @@
       <c r="AA104" s="10"/>
       <c r="AB104" s="7"/>
       <c r="AD104" s="10"/>
-      <c r="AE104" s="7"/>
-    </row>
-    <row r="105" spans="4:31" x14ac:dyDescent="0.2">
+      <c r="AE104" s="13"/>
+    </row>
+    <row r="105" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D105" s="18">
         <v>1</v>
       </c>
@@ -5381,7 +5613,7 @@
       <c r="AD105" s="10"/>
       <c r="AE105" s="7"/>
     </row>
-    <row r="106" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D106" s="19">
         <v>1</v>
       </c>
@@ -5404,7 +5636,7 @@
       <c r="AD106" s="10"/>
       <c r="AE106" s="7"/>
     </row>
-    <row r="107" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D107" s="18">
         <v>1</v>
       </c>
@@ -5427,7 +5659,7 @@
       <c r="AD107" s="10"/>
       <c r="AE107" s="7"/>
     </row>
-    <row r="108" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D108" s="19">
         <v>1</v>
       </c>
@@ -5450,7 +5682,7 @@
       <c r="AD108" s="10"/>
       <c r="AE108" s="7"/>
     </row>
-    <row r="109" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D109" s="18">
         <v>1</v>
       </c>
@@ -5473,7 +5705,7 @@
       <c r="AD109" s="10"/>
       <c r="AE109" s="7"/>
     </row>
-    <row r="110" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D110" s="19">
         <v>1</v>
       </c>
@@ -5496,7 +5728,7 @@
       <c r="AD110" s="10"/>
       <c r="AE110" s="7"/>
     </row>
-    <row r="111" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D111" s="18">
         <v>1</v>
       </c>
@@ -5519,7 +5751,7 @@
       <c r="AD111" s="10"/>
       <c r="AE111" s="7"/>
     </row>
-    <row r="112" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D112" s="19">
         <v>1</v>
       </c>
@@ -5542,7 +5774,7 @@
       <c r="AD112" s="10"/>
       <c r="AE112" s="7"/>
     </row>
-    <row r="113" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D113" s="18">
         <v>1</v>
       </c>
@@ -5565,7 +5797,7 @@
       <c r="AD113" s="10"/>
       <c r="AE113" s="7"/>
     </row>
-    <row r="114" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D114" s="19">
         <v>1</v>
       </c>
@@ -5588,7 +5820,7 @@
       <c r="AD114" s="10"/>
       <c r="AE114" s="7"/>
     </row>
-    <row r="115" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D115" s="18">
         <v>1</v>
       </c>
@@ -5603,13 +5835,15 @@
       <c r="R115" s="10"/>
       <c r="S115" s="13"/>
       <c r="U115" s="10"/>
-      <c r="V115" s="7"/>
+      <c r="V115" s="13"/>
+      <c r="X115" s="10"/>
+      <c r="Y115" s="7"/>
       <c r="AA115" s="10"/>
       <c r="AB115" s="7"/>
       <c r="AD115" s="10"/>
       <c r="AE115" s="7"/>
     </row>
-    <row r="116" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D116" s="19">
         <v>1</v>
       </c>
@@ -5624,13 +5858,15 @@
       <c r="R116" s="10"/>
       <c r="S116" s="13"/>
       <c r="U116" s="10"/>
-      <c r="V116" s="7"/>
+      <c r="V116" s="13"/>
+      <c r="X116" s="10"/>
+      <c r="Y116" s="7"/>
       <c r="AA116" s="10"/>
       <c r="AB116" s="7"/>
       <c r="AD116" s="10"/>
       <c r="AE116" s="7"/>
     </row>
-    <row r="117" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D117" s="18">
         <v>1</v>
       </c>
@@ -5645,13 +5881,15 @@
       <c r="R117" s="10"/>
       <c r="S117" s="13"/>
       <c r="U117" s="10"/>
-      <c r="V117" s="7"/>
+      <c r="V117" s="13"/>
+      <c r="X117" s="10"/>
+      <c r="Y117" s="7"/>
       <c r="AA117" s="10"/>
       <c r="AB117" s="7"/>
       <c r="AD117" s="10"/>
       <c r="AE117" s="7"/>
     </row>
-    <row r="118" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D118" s="19">
         <v>1</v>
       </c>
@@ -5666,13 +5904,15 @@
       <c r="R118" s="10"/>
       <c r="S118" s="13"/>
       <c r="U118" s="10"/>
-      <c r="V118" s="7"/>
+      <c r="V118" s="13"/>
+      <c r="X118" s="10"/>
+      <c r="Y118" s="7"/>
       <c r="AA118" s="10"/>
       <c r="AB118" s="7"/>
       <c r="AD118" s="10"/>
       <c r="AE118" s="7"/>
     </row>
-    <row r="119" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D119" s="18">
         <v>1</v>
       </c>
@@ -5687,13 +5927,15 @@
       <c r="R119" s="10"/>
       <c r="S119" s="13"/>
       <c r="U119" s="10"/>
-      <c r="V119" s="7"/>
+      <c r="V119" s="13"/>
+      <c r="X119" s="10"/>
+      <c r="Y119" s="7"/>
       <c r="AA119" s="10"/>
       <c r="AB119" s="7"/>
       <c r="AD119" s="10"/>
       <c r="AE119" s="7"/>
     </row>
-    <row r="120" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D120" s="19">
         <v>1</v>
       </c>
@@ -5708,13 +5950,15 @@
       <c r="R120" s="10"/>
       <c r="S120" s="13"/>
       <c r="U120" s="10"/>
-      <c r="V120" s="7"/>
+      <c r="V120" s="13"/>
+      <c r="X120" s="10"/>
+      <c r="Y120" s="7"/>
       <c r="AA120" s="10"/>
       <c r="AB120" s="7"/>
       <c r="AD120" s="10"/>
       <c r="AE120" s="7"/>
     </row>
-    <row r="121" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D121" s="18">
         <v>1</v>
       </c>
@@ -5735,7 +5979,7 @@
       <c r="AD121" s="10"/>
       <c r="AE121" s="7"/>
     </row>
-    <row r="122" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D122" s="19">
         <v>1</v>
       </c>
@@ -5756,7 +6000,7 @@
       <c r="AD122" s="10"/>
       <c r="AE122" s="7"/>
     </row>
-    <row r="123" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D123" s="18">
         <v>1</v>
       </c>
@@ -5777,7 +6021,7 @@
       <c r="AD123" s="10"/>
       <c r="AE123" s="7"/>
     </row>
-    <row r="124" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D124" s="19">
         <v>1</v>
       </c>
@@ -5798,7 +6042,7 @@
       <c r="AD124" s="10"/>
       <c r="AE124" s="7"/>
     </row>
-    <row r="125" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D125" s="18">
         <v>1</v>
       </c>
@@ -5819,7 +6063,7 @@
       <c r="AD125" s="10"/>
       <c r="AE125" s="7"/>
     </row>
-    <row r="126" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D126" s="19">
         <v>1</v>
       </c>
@@ -5840,7 +6084,7 @@
       <c r="AD126" s="10"/>
       <c r="AE126" s="7"/>
     </row>
-    <row r="127" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D127" s="18">
         <v>1</v>
       </c>
@@ -5861,7 +6105,7 @@
       <c r="AD127" s="10"/>
       <c r="AE127" s="7"/>
     </row>
-    <row r="128" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D128" s="19">
         <v>1</v>
       </c>
@@ -5882,7 +6126,7 @@
       <c r="AD128" s="10"/>
       <c r="AE128" s="7"/>
     </row>
-    <row r="129" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D129" s="18">
         <v>1</v>
       </c>
@@ -5903,7 +6147,7 @@
       <c r="AD129" s="10"/>
       <c r="AE129" s="7"/>
     </row>
-    <row r="130" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D130" s="19">
         <v>1</v>
       </c>
@@ -5924,7 +6168,7 @@
       <c r="AD130" s="10"/>
       <c r="AE130" s="7"/>
     </row>
-    <row r="131" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D131" s="18">
         <v>1</v>
       </c>
@@ -5945,7 +6189,7 @@
       <c r="AD131" s="10"/>
       <c r="AE131" s="7"/>
     </row>
-    <row r="132" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D132" s="19">
         <v>1</v>
       </c>
@@ -5966,14 +6210,16 @@
       <c r="AD132" s="10"/>
       <c r="AE132" s="7"/>
     </row>
-    <row r="133" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D133" s="18">
         <v>1</v>
       </c>
       <c r="E133" s="18"/>
       <c r="F133" s="66"/>
       <c r="I133" s="10"/>
-      <c r="J133" s="7"/>
+      <c r="J133" s="13"/>
+      <c r="L133" s="10"/>
+      <c r="M133" s="7"/>
       <c r="O133" s="10"/>
       <c r="P133" s="13"/>
       <c r="R133" s="10"/>
@@ -5985,14 +6231,16 @@
       <c r="AD133" s="10"/>
       <c r="AE133" s="7"/>
     </row>
-    <row r="134" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D134" s="19">
         <v>1</v>
       </c>
       <c r="E134" s="19"/>
       <c r="F134" s="67"/>
       <c r="I134" s="10"/>
-      <c r="J134" s="7"/>
+      <c r="J134" s="13"/>
+      <c r="L134" s="10"/>
+      <c r="M134" s="7"/>
       <c r="O134" s="10"/>
       <c r="P134" s="13"/>
       <c r="R134" s="10"/>
@@ -6004,75 +6252,91 @@
       <c r="AD134" s="10"/>
       <c r="AE134" s="7"/>
     </row>
-    <row r="135" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D135" s="18">
         <v>1</v>
       </c>
       <c r="E135" s="18"/>
       <c r="F135" s="66"/>
       <c r="I135" s="10"/>
-      <c r="J135" s="7"/>
+      <c r="J135" s="13"/>
+      <c r="L135" s="10"/>
+      <c r="M135" s="7"/>
       <c r="O135" s="10"/>
       <c r="P135" s="13"/>
       <c r="R135" s="10"/>
-      <c r="S135" s="7"/>
+      <c r="S135" s="13"/>
+      <c r="U135" s="10"/>
+      <c r="V135" s="7"/>
       <c r="AA135" s="10"/>
       <c r="AB135" s="7"/>
       <c r="AD135" s="10"/>
       <c r="AE135" s="7"/>
     </row>
-    <row r="136" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D136" s="19">
         <v>1</v>
       </c>
       <c r="E136" s="19"/>
       <c r="F136" s="67"/>
       <c r="I136" s="10"/>
-      <c r="J136" s="7"/>
+      <c r="J136" s="13"/>
+      <c r="L136" s="10"/>
+      <c r="M136" s="7"/>
       <c r="O136" s="10"/>
       <c r="P136" s="13"/>
       <c r="R136" s="10"/>
-      <c r="S136" s="7"/>
+      <c r="S136" s="13"/>
+      <c r="U136" s="10"/>
+      <c r="V136" s="7"/>
       <c r="AA136" s="10"/>
       <c r="AB136" s="7"/>
       <c r="AD136" s="10"/>
       <c r="AE136" s="7"/>
     </row>
-    <row r="137" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D137" s="18">
         <v>1</v>
       </c>
       <c r="E137" s="18"/>
       <c r="F137" s="66"/>
       <c r="I137" s="10"/>
-      <c r="J137" s="7"/>
+      <c r="J137" s="13"/>
+      <c r="L137" s="10"/>
+      <c r="M137" s="7"/>
       <c r="O137" s="10"/>
       <c r="P137" s="13"/>
       <c r="R137" s="10"/>
-      <c r="S137" s="7"/>
+      <c r="S137" s="13"/>
+      <c r="U137" s="10"/>
+      <c r="V137" s="7"/>
       <c r="AA137" s="10"/>
       <c r="AB137" s="7"/>
       <c r="AD137" s="10"/>
       <c r="AE137" s="7"/>
     </row>
-    <row r="138" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D138" s="19">
         <v>1</v>
       </c>
       <c r="E138" s="19"/>
       <c r="F138" s="67"/>
       <c r="I138" s="10"/>
-      <c r="J138" s="7"/>
+      <c r="J138" s="13"/>
+      <c r="L138" s="10"/>
+      <c r="M138" s="7"/>
       <c r="O138" s="10"/>
       <c r="P138" s="13"/>
       <c r="R138" s="10"/>
-      <c r="S138" s="7"/>
+      <c r="S138" s="13"/>
+      <c r="U138" s="10"/>
+      <c r="V138" s="7"/>
       <c r="AA138" s="10"/>
       <c r="AB138" s="7"/>
       <c r="AD138" s="10"/>
       <c r="AE138" s="7"/>
     </row>
-    <row r="139" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D139" s="18">
         <v>1</v>
       </c>
@@ -6083,13 +6347,15 @@
       <c r="O139" s="10"/>
       <c r="P139" s="13"/>
       <c r="R139" s="10"/>
-      <c r="S139" s="7"/>
+      <c r="S139" s="13"/>
+      <c r="U139" s="10"/>
+      <c r="V139" s="7"/>
       <c r="AA139" s="10"/>
       <c r="AB139" s="7"/>
       <c r="AD139" s="10"/>
       <c r="AE139" s="7"/>
     </row>
-    <row r="140" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D140" s="19">
         <v>1</v>
       </c>
@@ -6100,13 +6366,15 @@
       <c r="O140" s="10"/>
       <c r="P140" s="13"/>
       <c r="R140" s="10"/>
-      <c r="S140" s="7"/>
+      <c r="S140" s="13"/>
+      <c r="U140" s="10"/>
+      <c r="V140" s="7"/>
       <c r="AA140" s="10"/>
       <c r="AB140" s="7"/>
       <c r="AD140" s="10"/>
       <c r="AE140" s="7"/>
     </row>
-    <row r="141" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D141" s="18">
         <v>1</v>
       </c>
@@ -6123,7 +6391,7 @@
       <c r="AD141" s="10"/>
       <c r="AE141" s="7"/>
     </row>
-    <row r="142" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D142" s="19">
         <v>1</v>
       </c>
@@ -6140,7 +6408,7 @@
       <c r="AD142" s="10"/>
       <c r="AE142" s="7"/>
     </row>
-    <row r="143" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D143" s="18">
         <v>1</v>
       </c>
@@ -6157,7 +6425,7 @@
       <c r="AD143" s="10"/>
       <c r="AE143" s="7"/>
     </row>
-    <row r="144" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D144" s="19">
         <v>1</v>
       </c>
@@ -6174,7 +6442,7 @@
       <c r="AD144" s="10"/>
       <c r="AE144" s="7"/>
     </row>
-    <row r="145" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D145" s="18">
         <v>1</v>
       </c>
@@ -6191,7 +6459,7 @@
       <c r="AD145" s="10"/>
       <c r="AE145" s="7"/>
     </row>
-    <row r="146" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D146" s="19">
         <v>1</v>
       </c>
@@ -6208,7 +6476,7 @@
       <c r="AD146" s="10"/>
       <c r="AE146" s="7"/>
     </row>
-    <row r="147" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D147" s="18">
         <v>1</v>
       </c>
@@ -6225,7 +6493,7 @@
       <c r="AD147" s="10"/>
       <c r="AE147" s="7"/>
     </row>
-    <row r="148" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D148" s="19">
         <v>1</v>
       </c>
@@ -6242,7 +6510,7 @@
       <c r="AD148" s="10"/>
       <c r="AE148" s="7"/>
     </row>
-    <row r="149" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D149" s="18">
         <v>1</v>
       </c>
@@ -6259,7 +6527,7 @@
       <c r="AD149" s="10"/>
       <c r="AE149" s="7"/>
     </row>
-    <row r="150" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D150" s="19">
         <v>1</v>
       </c>
@@ -6276,7 +6544,7 @@
       <c r="AD150" s="10"/>
       <c r="AE150" s="7"/>
     </row>
-    <row r="151" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D151" s="18">
         <v>1</v>
       </c>
@@ -6293,7 +6561,7 @@
       <c r="AD151" s="10"/>
       <c r="AE151" s="7"/>
     </row>
-    <row r="152" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D152" s="19">
         <v>1</v>
       </c>
@@ -6310,7 +6578,7 @@
       <c r="AD152" s="10"/>
       <c r="AE152" s="7"/>
     </row>
-    <row r="153" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="153" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D153" s="18">
         <v>1</v>
       </c>
@@ -6327,7 +6595,7 @@
       <c r="AD153" s="10"/>
       <c r="AE153" s="7"/>
     </row>
-    <row r="154" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="154" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D154" s="19">
         <v>1</v>
       </c>
@@ -6344,7 +6612,7 @@
       <c r="AD154" s="10"/>
       <c r="AE154" s="7"/>
     </row>
-    <row r="155" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="155" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D155" s="18">
         <v>1</v>
       </c>
@@ -6361,7 +6629,7 @@
       <c r="AD155" s="10"/>
       <c r="AE155" s="7"/>
     </row>
-    <row r="156" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="156" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D156" s="19">
         <v>1</v>
       </c>
@@ -6378,7 +6646,7 @@
       <c r="AD156" s="10"/>
       <c r="AE156" s="7"/>
     </row>
-    <row r="157" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="157" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D157" s="18">
         <v>1</v>
       </c>
@@ -6395,7 +6663,7 @@
       <c r="AD157" s="10"/>
       <c r="AE157" s="7"/>
     </row>
-    <row r="158" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="158" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D158" s="19">
         <v>1</v>
       </c>
@@ -6412,7 +6680,7 @@
       <c r="AD158" s="10"/>
       <c r="AE158" s="7"/>
     </row>
-    <row r="159" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="159" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D159" s="18">
         <v>1</v>
       </c>
@@ -6429,7 +6697,7 @@
       <c r="AD159" s="10"/>
       <c r="AE159" s="7"/>
     </row>
-    <row r="160" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="160" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D160" s="19">
         <v>1</v>
       </c>
@@ -6446,7 +6714,7 @@
       <c r="AD160" s="10"/>
       <c r="AE160" s="7"/>
     </row>
-    <row r="161" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="161" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D161" s="18">
         <v>1</v>
       </c>
@@ -6463,7 +6731,7 @@
       <c r="AD161" s="10"/>
       <c r="AE161" s="7"/>
     </row>
-    <row r="162" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="162" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D162" s="19">
         <v>1</v>
       </c>
@@ -6480,7 +6748,7 @@
       <c r="AD162" s="10"/>
       <c r="AE162" s="7"/>
     </row>
-    <row r="163" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="163" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D163" s="18">
         <v>1</v>
       </c>
@@ -6497,7 +6765,7 @@
       <c r="AD163" s="10"/>
       <c r="AE163" s="7"/>
     </row>
-    <row r="164" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="164" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D164" s="19">
         <v>1</v>
       </c>
@@ -6514,7 +6782,7 @@
       <c r="AD164" s="10"/>
       <c r="AE164" s="7"/>
     </row>
-    <row r="165" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="165" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D165" s="18">
         <v>1</v>
       </c>
@@ -6531,7 +6799,7 @@
       <c r="AD165" s="10"/>
       <c r="AE165" s="7"/>
     </row>
-    <row r="166" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="166" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D166" s="19">
         <v>1</v>
       </c>
@@ -6548,7 +6816,7 @@
       <c r="AD166" s="10"/>
       <c r="AE166" s="7"/>
     </row>
-    <row r="167" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="167" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D167" s="18">
         <v>1</v>
       </c>
@@ -6565,7 +6833,7 @@
       <c r="AD167" s="10"/>
       <c r="AE167" s="7"/>
     </row>
-    <row r="168" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="168" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D168" s="19">
         <v>1</v>
       </c>
@@ -6582,7 +6850,7 @@
       <c r="AD168" s="10"/>
       <c r="AE168" s="7"/>
     </row>
-    <row r="169" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="169" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D169" s="18">
         <v>1</v>
       </c>
@@ -6599,7 +6867,7 @@
       <c r="AD169" s="10"/>
       <c r="AE169" s="7"/>
     </row>
-    <row r="170" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="170" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D170" s="19">
         <v>1</v>
       </c>
@@ -6616,7 +6884,7 @@
       <c r="AD170" s="10"/>
       <c r="AE170" s="7"/>
     </row>
-    <row r="171" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="171" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D171" s="18">
         <v>1</v>
       </c>
@@ -6633,7 +6901,7 @@
       <c r="AD171" s="10"/>
       <c r="AE171" s="7"/>
     </row>
-    <row r="172" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="172" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D172" s="19">
         <v>1</v>
       </c>
@@ -6650,7 +6918,7 @@
       <c r="AD172" s="10"/>
       <c r="AE172" s="7"/>
     </row>
-    <row r="173" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="173" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D173" s="18">
         <v>1</v>
       </c>
@@ -6667,7 +6935,7 @@
       <c r="AD173" s="10"/>
       <c r="AE173" s="7"/>
     </row>
-    <row r="174" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="174" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D174" s="19">
         <v>1</v>
       </c>
@@ -6684,7 +6952,7 @@
       <c r="AD174" s="10"/>
       <c r="AE174" s="7"/>
     </row>
-    <row r="175" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="175" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D175" s="18">
         <v>1</v>
       </c>
@@ -6701,7 +6969,7 @@
       <c r="AD175" s="10"/>
       <c r="AE175" s="7"/>
     </row>
-    <row r="176" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="176" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D176" s="19">
         <v>1</v>
       </c>
@@ -6718,7 +6986,7 @@
       <c r="AD176" s="10"/>
       <c r="AE176" s="7"/>
     </row>
-    <row r="177" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="177" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D177" s="18">
         <v>1</v>
       </c>
@@ -6735,7 +7003,7 @@
       <c r="AD177" s="10"/>
       <c r="AE177" s="7"/>
     </row>
-    <row r="178" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="178" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D178" s="19">
         <v>1</v>
       </c>
@@ -6752,7 +7020,7 @@
       <c r="AD178" s="10"/>
       <c r="AE178" s="7"/>
     </row>
-    <row r="179" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="179" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D179" s="18">
         <v>1</v>
       </c>
@@ -6769,7 +7037,7 @@
       <c r="AD179" s="10"/>
       <c r="AE179" s="7"/>
     </row>
-    <row r="180" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="180" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D180" s="19">
         <v>1</v>
       </c>
@@ -6786,7 +7054,7 @@
       <c r="AD180" s="10"/>
       <c r="AE180" s="7"/>
     </row>
-    <row r="181" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="181" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D181" s="18">
         <v>1</v>
       </c>
@@ -6803,7 +7071,7 @@
       <c r="AD181" s="10"/>
       <c r="AE181" s="7"/>
     </row>
-    <row r="182" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="182" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D182" s="19">
         <v>1</v>
       </c>
@@ -6820,7 +7088,7 @@
       <c r="AD182" s="10"/>
       <c r="AE182" s="7"/>
     </row>
-    <row r="183" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="183" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D183" s="18">
         <v>1</v>
       </c>
@@ -6837,7 +7105,7 @@
       <c r="AD183" s="10"/>
       <c r="AE183" s="7"/>
     </row>
-    <row r="184" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="184" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D184" s="19">
         <v>1</v>
       </c>
@@ -6854,7 +7122,7 @@
       <c r="AD184" s="10"/>
       <c r="AE184" s="7"/>
     </row>
-    <row r="185" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="185" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D185" s="18">
         <v>1</v>
       </c>
@@ -6871,7 +7139,7 @@
       <c r="AD185" s="10"/>
       <c r="AE185" s="7"/>
     </row>
-    <row r="186" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="186" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D186" s="19">
         <v>1</v>
       </c>
@@ -6888,7 +7156,7 @@
       <c r="AD186" s="10"/>
       <c r="AE186" s="7"/>
     </row>
-    <row r="187" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="187" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D187" s="18">
         <v>1</v>
       </c>
@@ -6905,7 +7173,7 @@
       <c r="AD187" s="10"/>
       <c r="AE187" s="7"/>
     </row>
-    <row r="188" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="188" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D188" s="19">
         <v>1</v>
       </c>
@@ -6922,7 +7190,7 @@
       <c r="AD188" s="10"/>
       <c r="AE188" s="7"/>
     </row>
-    <row r="189" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="189" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D189" s="18">
         <v>1</v>
       </c>
@@ -6939,7 +7207,7 @@
       <c r="AD189" s="10"/>
       <c r="AE189" s="7"/>
     </row>
-    <row r="190" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="190" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D190" s="19">
         <v>1</v>
       </c>
@@ -6956,7 +7224,7 @@
       <c r="AD190" s="10"/>
       <c r="AE190" s="7"/>
     </row>
-    <row r="191" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="191" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D191" s="18">
         <v>1</v>
       </c>
@@ -6973,7 +7241,7 @@
       <c r="AD191" s="10"/>
       <c r="AE191" s="7"/>
     </row>
-    <row r="192" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="192" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D192" s="19">
         <v>1</v>
       </c>
@@ -6990,12 +7258,14 @@
       <c r="AD192" s="10"/>
       <c r="AE192" s="7"/>
     </row>
-    <row r="193" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="193" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D193" s="18">
         <v>1</v>
       </c>
       <c r="E193" s="18"/>
       <c r="F193" s="66"/>
+      <c r="I193" s="10"/>
+      <c r="J193" s="7"/>
       <c r="O193" s="10"/>
       <c r="P193" s="13"/>
       <c r="R193" s="10"/>
@@ -7005,12 +7275,14 @@
       <c r="AD193" s="10"/>
       <c r="AE193" s="7"/>
     </row>
-    <row r="194" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="194" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D194" s="19">
         <v>1</v>
       </c>
       <c r="E194" s="19"/>
       <c r="F194" s="67"/>
+      <c r="I194" s="10"/>
+      <c r="J194" s="7"/>
       <c r="O194" s="10"/>
       <c r="P194" s="13"/>
       <c r="R194" s="10"/>
@@ -7020,12 +7292,14 @@
       <c r="AD194" s="10"/>
       <c r="AE194" s="7"/>
     </row>
-    <row r="195" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="195" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D195" s="18">
         <v>1</v>
       </c>
       <c r="E195" s="18"/>
       <c r="F195" s="66"/>
+      <c r="I195" s="10"/>
+      <c r="J195" s="7"/>
       <c r="O195" s="10"/>
       <c r="P195" s="13"/>
       <c r="R195" s="10"/>
@@ -7035,12 +7309,14 @@
       <c r="AD195" s="10"/>
       <c r="AE195" s="7"/>
     </row>
-    <row r="196" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="196" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D196" s="19">
         <v>1</v>
       </c>
       <c r="E196" s="19"/>
       <c r="F196" s="67"/>
+      <c r="I196" s="10"/>
+      <c r="J196" s="7"/>
       <c r="O196" s="10"/>
       <c r="P196" s="13"/>
       <c r="R196" s="10"/>
@@ -7050,85 +7326,101 @@
       <c r="AD196" s="10"/>
       <c r="AE196" s="7"/>
     </row>
-    <row r="197" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="197" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D197" s="18">
         <v>1</v>
       </c>
       <c r="E197" s="18"/>
       <c r="F197" s="66"/>
+      <c r="I197" s="10"/>
+      <c r="J197" s="7"/>
       <c r="O197" s="10"/>
-      <c r="P197" s="7"/>
+      <c r="P197" s="13"/>
+      <c r="R197" s="10"/>
+      <c r="S197" s="7"/>
       <c r="AA197" s="10"/>
       <c r="AB197" s="7"/>
       <c r="AD197" s="10"/>
       <c r="AE197" s="7"/>
     </row>
-    <row r="198" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="198" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D198" s="19">
         <v>1</v>
       </c>
       <c r="E198" s="19"/>
       <c r="F198" s="67"/>
+      <c r="I198" s="10"/>
+      <c r="J198" s="7"/>
       <c r="O198" s="10"/>
-      <c r="P198" s="7"/>
+      <c r="P198" s="13"/>
+      <c r="R198" s="10"/>
+      <c r="S198" s="7"/>
       <c r="AA198" s="10"/>
       <c r="AB198" s="7"/>
       <c r="AD198" s="10"/>
       <c r="AE198" s="7"/>
     </row>
-    <row r="199" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="199" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D199" s="18">
         <v>1</v>
       </c>
       <c r="E199" s="18"/>
       <c r="F199" s="66"/>
       <c r="O199" s="10"/>
-      <c r="P199" s="7"/>
+      <c r="P199" s="13"/>
+      <c r="R199" s="10"/>
+      <c r="S199" s="7"/>
       <c r="AA199" s="10"/>
       <c r="AB199" s="7"/>
       <c r="AD199" s="10"/>
       <c r="AE199" s="7"/>
     </row>
-    <row r="200" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="200" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D200" s="19">
         <v>1</v>
       </c>
       <c r="E200" s="19"/>
       <c r="F200" s="67"/>
       <c r="O200" s="10"/>
-      <c r="P200" s="7"/>
+      <c r="P200" s="13"/>
+      <c r="R200" s="10"/>
+      <c r="S200" s="7"/>
       <c r="AA200" s="10"/>
       <c r="AB200" s="7"/>
       <c r="AD200" s="10"/>
       <c r="AE200" s="7"/>
     </row>
-    <row r="201" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="201" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D201" s="18">
         <v>1</v>
       </c>
       <c r="E201" s="18"/>
       <c r="F201" s="66"/>
       <c r="O201" s="10"/>
-      <c r="P201" s="7"/>
+      <c r="P201" s="13"/>
+      <c r="R201" s="10"/>
+      <c r="S201" s="7"/>
       <c r="AA201" s="10"/>
       <c r="AB201" s="7"/>
       <c r="AD201" s="10"/>
       <c r="AE201" s="7"/>
     </row>
-    <row r="202" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="202" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D202" s="19">
         <v>1</v>
       </c>
       <c r="E202" s="19"/>
       <c r="F202" s="67"/>
       <c r="O202" s="10"/>
-      <c r="P202" s="7"/>
+      <c r="P202" s="13"/>
+      <c r="R202" s="10"/>
+      <c r="S202" s="7"/>
       <c r="AA202" s="10"/>
       <c r="AB202" s="7"/>
       <c r="AD202" s="10"/>
       <c r="AE202" s="7"/>
     </row>
-    <row r="203" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="203" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D203" s="18">
         <v>1</v>
       </c>
@@ -7141,7 +7433,7 @@
       <c r="AD203" s="10"/>
       <c r="AE203" s="7"/>
     </row>
-    <row r="204" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="204" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D204" s="19">
         <v>1</v>
       </c>
@@ -7154,7 +7446,7 @@
       <c r="AD204" s="10"/>
       <c r="AE204" s="7"/>
     </row>
-    <row r="205" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="205" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D205" s="18">
         <v>1</v>
       </c>
@@ -7167,7 +7459,7 @@
       <c r="AD205" s="10"/>
       <c r="AE205" s="7"/>
     </row>
-    <row r="206" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="206" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D206" s="19">
         <v>1</v>
       </c>
@@ -7180,7 +7472,7 @@
       <c r="AD206" s="10"/>
       <c r="AE206" s="7"/>
     </row>
-    <row r="207" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="207" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D207" s="18">
         <v>1</v>
       </c>
@@ -7193,7 +7485,7 @@
       <c r="AD207" s="10"/>
       <c r="AE207" s="7"/>
     </row>
-    <row r="208" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="208" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D208" s="19">
         <v>1</v>
       </c>
@@ -7206,7 +7498,7 @@
       <c r="AD208" s="10"/>
       <c r="AE208" s="7"/>
     </row>
-    <row r="209" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="209" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D209" s="18">
         <v>1</v>
       </c>
@@ -7219,7 +7511,7 @@
       <c r="AD209" s="10"/>
       <c r="AE209" s="7"/>
     </row>
-    <row r="210" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="210" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D210" s="19">
         <v>1</v>
       </c>
@@ -7232,7 +7524,7 @@
       <c r="AD210" s="10"/>
       <c r="AE210" s="7"/>
     </row>
-    <row r="211" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="211" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D211" s="18">
         <v>1</v>
       </c>
@@ -7245,7 +7537,7 @@
       <c r="AD211" s="10"/>
       <c r="AE211" s="7"/>
     </row>
-    <row r="212" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="212" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D212" s="19">
         <v>1</v>
       </c>
@@ -7258,7 +7550,7 @@
       <c r="AD212" s="10"/>
       <c r="AE212" s="7"/>
     </row>
-    <row r="213" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="213" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D213" s="18">
         <v>1</v>
       </c>
@@ -7271,7 +7563,7 @@
       <c r="AD213" s="10"/>
       <c r="AE213" s="7"/>
     </row>
-    <row r="214" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="214" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D214" s="19">
         <v>1</v>
       </c>
@@ -7284,7 +7576,7 @@
       <c r="AD214" s="10"/>
       <c r="AE214" s="7"/>
     </row>
-    <row r="215" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="215" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D215" s="18">
         <v>1</v>
       </c>
@@ -7297,7 +7589,7 @@
       <c r="AD215" s="10"/>
       <c r="AE215" s="7"/>
     </row>
-    <row r="216" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="216" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D216" s="19">
         <v>1</v>
       </c>
@@ -7310,7 +7602,7 @@
       <c r="AD216" s="10"/>
       <c r="AE216" s="7"/>
     </row>
-    <row r="217" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="217" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D217" s="18">
         <v>1</v>
       </c>
@@ -7323,7 +7615,7 @@
       <c r="AD217" s="10"/>
       <c r="AE217" s="7"/>
     </row>
-    <row r="218" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="218" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D218" s="19">
         <v>1</v>
       </c>
@@ -7336,7 +7628,7 @@
       <c r="AD218" s="10"/>
       <c r="AE218" s="7"/>
     </row>
-    <row r="219" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="219" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D219" s="18">
         <v>1</v>
       </c>
@@ -7349,7 +7641,7 @@
       <c r="AD219" s="10"/>
       <c r="AE219" s="7"/>
     </row>
-    <row r="220" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="220" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D220" s="19">
         <v>1</v>
       </c>
@@ -7362,7 +7654,7 @@
       <c r="AD220" s="10"/>
       <c r="AE220" s="7"/>
     </row>
-    <row r="221" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="221" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D221" s="18">
         <v>1</v>
       </c>
@@ -7375,7 +7667,7 @@
       <c r="AD221" s="10"/>
       <c r="AE221" s="7"/>
     </row>
-    <row r="222" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="222" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D222" s="19">
         <v>1</v>
       </c>
@@ -7388,7 +7680,7 @@
       <c r="AD222" s="10"/>
       <c r="AE222" s="7"/>
     </row>
-    <row r="223" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="223" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D223" s="18">
         <v>1</v>
       </c>
@@ -7401,7 +7693,7 @@
       <c r="AD223" s="10"/>
       <c r="AE223" s="7"/>
     </row>
-    <row r="224" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="224" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D224" s="19">
         <v>1</v>
       </c>
@@ -7414,7 +7706,7 @@
       <c r="AD224" s="10"/>
       <c r="AE224" s="7"/>
     </row>
-    <row r="225" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="225" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D225" s="18">
         <v>1</v>
       </c>
@@ -7427,7 +7719,7 @@
       <c r="AD225" s="10"/>
       <c r="AE225" s="7"/>
     </row>
-    <row r="226" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="226" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D226" s="19">
         <v>1</v>
       </c>
@@ -7440,7 +7732,7 @@
       <c r="AD226" s="10"/>
       <c r="AE226" s="7"/>
     </row>
-    <row r="227" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="227" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D227" s="18">
         <v>1</v>
       </c>
@@ -7453,7 +7745,7 @@
       <c r="AD227" s="10"/>
       <c r="AE227" s="7"/>
     </row>
-    <row r="228" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="228" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D228" s="19">
         <v>1</v>
       </c>
@@ -7466,7 +7758,7 @@
       <c r="AD228" s="10"/>
       <c r="AE228" s="7"/>
     </row>
-    <row r="229" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="229" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D229" s="18">
         <v>1</v>
       </c>
@@ -7479,7 +7771,7 @@
       <c r="AD229" s="10"/>
       <c r="AE229" s="7"/>
     </row>
-    <row r="230" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="230" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D230" s="19">
         <v>1</v>
       </c>
@@ -7492,7 +7784,7 @@
       <c r="AD230" s="10"/>
       <c r="AE230" s="7"/>
     </row>
-    <row r="231" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="231" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D231" s="18">
         <v>1</v>
       </c>
@@ -7505,7 +7797,7 @@
       <c r="AD231" s="10"/>
       <c r="AE231" s="7"/>
     </row>
-    <row r="232" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="232" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D232" s="19">
         <v>1</v>
       </c>
@@ -7518,7 +7810,7 @@
       <c r="AD232" s="10"/>
       <c r="AE232" s="7"/>
     </row>
-    <row r="233" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="233" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D233" s="18">
         <v>1</v>
       </c>
@@ -7531,7 +7823,7 @@
       <c r="AD233" s="10"/>
       <c r="AE233" s="7"/>
     </row>
-    <row r="234" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="234" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D234" s="19">
         <v>1</v>
       </c>
@@ -7544,7 +7836,7 @@
       <c r="AD234" s="10"/>
       <c r="AE234" s="7"/>
     </row>
-    <row r="235" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="235" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D235" s="18">
         <v>1</v>
       </c>
@@ -7557,7 +7849,7 @@
       <c r="AD235" s="10"/>
       <c r="AE235" s="7"/>
     </row>
-    <row r="236" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="236" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D236" s="19">
         <v>1</v>
       </c>
@@ -7570,7 +7862,7 @@
       <c r="AD236" s="10"/>
       <c r="AE236" s="7"/>
     </row>
-    <row r="237" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="237" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D237" s="18">
         <v>1</v>
       </c>
@@ -7583,7 +7875,7 @@
       <c r="AD237" s="10"/>
       <c r="AE237" s="7"/>
     </row>
-    <row r="238" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="238" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D238" s="19">
         <v>1</v>
       </c>
@@ -7596,7 +7888,7 @@
       <c r="AD238" s="10"/>
       <c r="AE238" s="7"/>
     </row>
-    <row r="239" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="239" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D239" s="18">
         <v>1</v>
       </c>
@@ -7609,7 +7901,7 @@
       <c r="AD239" s="10"/>
       <c r="AE239" s="7"/>
     </row>
-    <row r="240" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="240" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D240" s="19">
         <v>1</v>
       </c>
@@ -7622,7 +7914,7 @@
       <c r="AD240" s="10"/>
       <c r="AE240" s="7"/>
     </row>
-    <row r="241" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="241" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D241" s="18">
         <v>1</v>
       </c>
@@ -7635,7 +7927,7 @@
       <c r="AD241" s="10"/>
       <c r="AE241" s="7"/>
     </row>
-    <row r="242" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="242" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D242" s="19">
         <v>1</v>
       </c>
@@ -7648,7 +7940,7 @@
       <c r="AD242" s="10"/>
       <c r="AE242" s="7"/>
     </row>
-    <row r="243" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="243" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D243" s="18">
         <v>1</v>
       </c>
@@ -7661,7 +7953,7 @@
       <c r="AD243" s="10"/>
       <c r="AE243" s="7"/>
     </row>
-    <row r="244" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="244" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D244" s="19">
         <v>1</v>
       </c>
@@ -7674,7 +7966,7 @@
       <c r="AD244" s="10"/>
       <c r="AE244" s="7"/>
     </row>
-    <row r="245" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="245" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D245" s="18">
         <v>1</v>
       </c>
@@ -7687,7 +7979,7 @@
       <c r="AD245" s="10"/>
       <c r="AE245" s="7"/>
     </row>
-    <row r="246" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="246" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D246" s="19">
         <v>1</v>
       </c>
@@ -7700,7 +7992,7 @@
       <c r="AD246" s="10"/>
       <c r="AE246" s="7"/>
     </row>
-    <row r="247" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="247" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D247" s="18">
         <v>1</v>
       </c>
@@ -7713,7 +8005,7 @@
       <c r="AD247" s="10"/>
       <c r="AE247" s="7"/>
     </row>
-    <row r="248" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="248" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D248" s="19">
         <v>1</v>
       </c>
@@ -7726,7 +8018,7 @@
       <c r="AD248" s="10"/>
       <c r="AE248" s="7"/>
     </row>
-    <row r="249" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="249" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D249" s="18">
         <v>1</v>
       </c>
@@ -7739,7 +8031,7 @@
       <c r="AD249" s="10"/>
       <c r="AE249" s="7"/>
     </row>
-    <row r="250" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="250" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D250" s="19">
         <v>1</v>
       </c>
@@ -7752,7 +8044,7 @@
       <c r="AD250" s="10"/>
       <c r="AE250" s="7"/>
     </row>
-    <row r="251" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="251" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D251" s="18">
         <v>1</v>
       </c>
@@ -7765,72 +8057,96 @@
       <c r="AD251" s="10"/>
       <c r="AE251" s="7"/>
     </row>
-    <row r="252" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="252" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D252" s="19">
         <v>1</v>
       </c>
       <c r="E252" s="19"/>
       <c r="F252" s="67"/>
+      <c r="O252" s="10"/>
+      <c r="P252" s="7"/>
       <c r="AA252" s="10"/>
       <c r="AB252" s="7"/>
       <c r="AD252" s="10"/>
       <c r="AE252" s="7"/>
     </row>
-    <row r="253" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="253" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D253" s="18">
         <v>1</v>
       </c>
       <c r="E253" s="18"/>
       <c r="F253" s="66"/>
+      <c r="O253" s="10"/>
+      <c r="P253" s="7"/>
+      <c r="AA253" s="10"/>
+      <c r="AB253" s="7"/>
       <c r="AD253" s="10"/>
       <c r="AE253" s="7"/>
     </row>
-    <row r="254" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="254" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D254" s="19">
         <v>1</v>
       </c>
       <c r="E254" s="19"/>
       <c r="F254" s="67"/>
+      <c r="O254" s="10"/>
+      <c r="P254" s="7"/>
+      <c r="AA254" s="10"/>
+      <c r="AB254" s="7"/>
       <c r="AD254" s="10"/>
       <c r="AE254" s="7"/>
     </row>
-    <row r="255" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="255" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D255" s="18">
         <v>1</v>
       </c>
       <c r="E255" s="18"/>
       <c r="F255" s="66"/>
+      <c r="O255" s="10"/>
+      <c r="P255" s="7"/>
+      <c r="AA255" s="10"/>
+      <c r="AB255" s="7"/>
       <c r="AD255" s="10"/>
       <c r="AE255" s="7"/>
     </row>
-    <row r="256" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="256" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D256" s="19">
         <v>1</v>
       </c>
       <c r="E256" s="19"/>
       <c r="F256" s="67"/>
+      <c r="O256" s="10"/>
+      <c r="P256" s="7"/>
+      <c r="AA256" s="10"/>
+      <c r="AB256" s="7"/>
       <c r="AD256" s="10"/>
       <c r="AE256" s="7"/>
     </row>
-    <row r="257" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="257" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D257" s="18">
         <v>1</v>
       </c>
       <c r="E257" s="18"/>
       <c r="F257" s="66"/>
+      <c r="O257" s="10"/>
+      <c r="P257" s="7"/>
+      <c r="AA257" s="10"/>
+      <c r="AB257" s="7"/>
       <c r="AD257" s="10"/>
       <c r="AE257" s="7"/>
     </row>
-    <row r="258" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="258" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D258" s="19">
         <v>1</v>
       </c>
       <c r="E258" s="19"/>
       <c r="F258" s="67"/>
+      <c r="AA258" s="10"/>
+      <c r="AB258" s="7"/>
       <c r="AD258" s="10"/>
       <c r="AE258" s="7"/>
     </row>
-    <row r="259" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="259" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D259" s="18">
         <v>1</v>
       </c>
@@ -7839,7 +8155,7 @@
       <c r="AD259" s="10"/>
       <c r="AE259" s="7"/>
     </row>
-    <row r="260" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="260" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D260" s="19">
         <v>1</v>
       </c>
@@ -7848,7 +8164,7 @@
       <c r="AD260" s="10"/>
       <c r="AE260" s="7"/>
     </row>
-    <row r="261" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="261" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D261" s="18">
         <v>1</v>
       </c>
@@ -7857,7 +8173,7 @@
       <c r="AD261" s="10"/>
       <c r="AE261" s="7"/>
     </row>
-    <row r="262" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="262" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D262" s="19">
         <v>1</v>
       </c>
@@ -7866,7 +8182,7 @@
       <c r="AD262" s="10"/>
       <c r="AE262" s="7"/>
     </row>
-    <row r="263" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="263" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D263" s="18">
         <v>1</v>
       </c>
@@ -7875,7 +8191,7 @@
       <c r="AD263" s="10"/>
       <c r="AE263" s="7"/>
     </row>
-    <row r="264" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="264" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D264" s="19">
         <v>1</v>
       </c>
@@ -7884,7 +8200,7 @@
       <c r="AD264" s="10"/>
       <c r="AE264" s="7"/>
     </row>
-    <row r="265" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="265" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D265" s="18">
         <v>1</v>
       </c>
@@ -7893,7 +8209,7 @@
       <c r="AD265" s="10"/>
       <c r="AE265" s="7"/>
     </row>
-    <row r="266" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="266" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D266" s="19">
         <v>1</v>
       </c>
@@ -7902,7 +8218,7 @@
       <c r="AD266" s="10"/>
       <c r="AE266" s="7"/>
     </row>
-    <row r="267" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="267" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D267" s="18">
         <v>1</v>
       </c>
@@ -7911,7 +8227,7 @@
       <c r="AD267" s="10"/>
       <c r="AE267" s="7"/>
     </row>
-    <row r="268" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="268" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D268" s="19">
         <v>1</v>
       </c>
@@ -7920,7 +8236,7 @@
       <c r="AD268" s="10"/>
       <c r="AE268" s="7"/>
     </row>
-    <row r="269" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="269" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D269" s="18">
         <v>1</v>
       </c>
@@ -7929,7 +8245,7 @@
       <c r="AD269" s="10"/>
       <c r="AE269" s="7"/>
     </row>
-    <row r="270" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="270" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D270" s="19">
         <v>1</v>
       </c>
@@ -7938,7 +8254,7 @@
       <c r="AD270" s="10"/>
       <c r="AE270" s="7"/>
     </row>
-    <row r="271" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="271" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D271" s="18">
         <v>1</v>
       </c>
@@ -7947,7 +8263,7 @@
       <c r="AD271" s="10"/>
       <c r="AE271" s="7"/>
     </row>
-    <row r="272" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="272" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D272" s="19">
         <v>1</v>
       </c>
@@ -7956,7 +8272,7 @@
       <c r="AD272" s="10"/>
       <c r="AE272" s="7"/>
     </row>
-    <row r="273" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="273" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D273" s="18">
         <v>1</v>
       </c>
@@ -7965,320 +8281,374 @@
       <c r="AD273" s="10"/>
       <c r="AE273" s="7"/>
     </row>
-    <row r="274" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="274" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D274" s="19">
         <v>1</v>
       </c>
       <c r="E274" s="19"/>
       <c r="F274" s="67"/>
-    </row>
-    <row r="275" spans="4:31" x14ac:dyDescent="0.2">
+      <c r="AD274" s="10"/>
+      <c r="AE274" s="7"/>
+    </row>
+    <row r="275" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D275" s="18">
         <v>1</v>
       </c>
       <c r="E275" s="18"/>
       <c r="F275" s="66"/>
-    </row>
-    <row r="276" spans="4:31" x14ac:dyDescent="0.2">
+      <c r="AD275" s="10"/>
+      <c r="AE275" s="7"/>
+    </row>
+    <row r="276" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D276" s="19">
         <v>1</v>
       </c>
       <c r="E276" s="19"/>
       <c r="F276" s="67"/>
-    </row>
-    <row r="277" spans="4:31" x14ac:dyDescent="0.2">
+      <c r="AD276" s="10"/>
+      <c r="AE276" s="7"/>
+    </row>
+    <row r="277" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D277" s="18">
         <v>1</v>
       </c>
       <c r="E277" s="18"/>
       <c r="F277" s="66"/>
-    </row>
-    <row r="278" spans="4:31" x14ac:dyDescent="0.2">
+      <c r="AD277" s="10"/>
+      <c r="AE277" s="7"/>
+    </row>
+    <row r="278" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D278" s="19">
         <v>1</v>
       </c>
       <c r="E278" s="19"/>
       <c r="F278" s="67"/>
-    </row>
-    <row r="279" spans="4:31" x14ac:dyDescent="0.2">
+      <c r="AD278" s="10"/>
+      <c r="AE278" s="7"/>
+    </row>
+    <row r="279" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D279" s="18">
         <v>1</v>
       </c>
       <c r="E279" s="18"/>
       <c r="F279" s="66"/>
-    </row>
-    <row r="280" spans="4:31" x14ac:dyDescent="0.2">
+      <c r="AD279" s="10"/>
+      <c r="AE279" s="7"/>
+    </row>
+    <row r="280" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D280" s="19">
         <v>1</v>
       </c>
       <c r="E280" s="19"/>
       <c r="F280" s="67"/>
     </row>
-    <row r="281" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="281" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D281" s="18">
         <v>1</v>
       </c>
       <c r="E281" s="18"/>
       <c r="F281" s="66"/>
     </row>
-    <row r="282" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="282" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D282" s="19">
         <v>1</v>
       </c>
       <c r="E282" s="19"/>
       <c r="F282" s="67"/>
     </row>
-    <row r="283" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="283" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D283" s="18">
         <v>1</v>
       </c>
       <c r="E283" s="18"/>
       <c r="F283" s="66"/>
     </row>
-    <row r="284" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="284" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D284" s="19">
         <v>1</v>
       </c>
       <c r="E284" s="19"/>
       <c r="F284" s="67"/>
     </row>
-    <row r="285" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="285" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D285" s="18">
         <v>1</v>
       </c>
       <c r="E285" s="18"/>
       <c r="F285" s="66"/>
     </row>
-    <row r="286" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="286" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D286" s="19">
         <v>1</v>
       </c>
       <c r="E286" s="19"/>
       <c r="F286" s="67"/>
     </row>
-    <row r="287" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="287" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D287" s="18">
         <v>1</v>
       </c>
       <c r="E287" s="18"/>
       <c r="F287" s="66"/>
     </row>
-    <row r="288" spans="4:31" x14ac:dyDescent="0.2">
+    <row r="288" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D288" s="19">
         <v>1</v>
       </c>
       <c r="E288" s="19"/>
       <c r="F288" s="67"/>
     </row>
-    <row r="289" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D289" s="18">
         <v>1</v>
       </c>
       <c r="E289" s="18"/>
       <c r="F289" s="66"/>
     </row>
-    <row r="290" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D290" s="19">
         <v>1</v>
       </c>
       <c r="E290" s="19"/>
       <c r="F290" s="67"/>
     </row>
-    <row r="291" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D291" s="18">
         <v>1</v>
       </c>
       <c r="E291" s="18"/>
       <c r="F291" s="66"/>
     </row>
-    <row r="292" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D292" s="19">
         <v>1</v>
       </c>
       <c r="E292" s="19"/>
       <c r="F292" s="67"/>
     </row>
-    <row r="293" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D293" s="18">
         <v>1</v>
       </c>
       <c r="E293" s="18"/>
       <c r="F293" s="66"/>
     </row>
-    <row r="294" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D294" s="19">
         <v>1</v>
       </c>
       <c r="E294" s="19"/>
       <c r="F294" s="67"/>
     </row>
-    <row r="295" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D295" s="18">
         <v>1</v>
       </c>
       <c r="E295" s="18"/>
       <c r="F295" s="66"/>
     </row>
-    <row r="296" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D296" s="19">
         <v>1</v>
       </c>
       <c r="E296" s="19"/>
       <c r="F296" s="67"/>
     </row>
-    <row r="297" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D297" s="18">
         <v>1</v>
       </c>
       <c r="E297" s="18"/>
       <c r="F297" s="66"/>
     </row>
-    <row r="298" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D298" s="19">
         <v>1</v>
       </c>
       <c r="E298" s="19"/>
       <c r="F298" s="67"/>
     </row>
-    <row r="299" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D299" s="18">
         <v>1</v>
       </c>
       <c r="E299" s="18"/>
       <c r="F299" s="66"/>
     </row>
-    <row r="300" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D300" s="19">
         <v>1</v>
       </c>
       <c r="E300" s="19"/>
       <c r="F300" s="67"/>
     </row>
-    <row r="301" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D301" s="18">
         <v>1</v>
       </c>
       <c r="E301" s="18"/>
       <c r="F301" s="66"/>
     </row>
-    <row r="302" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D302" s="19">
         <v>1</v>
       </c>
       <c r="E302" s="19"/>
       <c r="F302" s="67"/>
     </row>
-    <row r="303" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D303" s="18">
         <v>1</v>
       </c>
       <c r="E303" s="18"/>
       <c r="F303" s="66"/>
     </row>
-    <row r="304" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D304" s="19">
         <v>1</v>
       </c>
       <c r="E304" s="19"/>
       <c r="F304" s="67"/>
     </row>
-    <row r="305" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D305" s="18">
         <v>1</v>
       </c>
       <c r="E305" s="18"/>
       <c r="F305" s="66"/>
     </row>
-    <row r="306" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D306" s="19">
         <v>1</v>
       </c>
       <c r="E306" s="19"/>
       <c r="F306" s="67"/>
     </row>
-    <row r="307" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D307" s="18">
         <v>1</v>
       </c>
       <c r="E307" s="18"/>
       <c r="F307" s="66"/>
     </row>
-    <row r="308" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D308" s="19">
         <v>1</v>
       </c>
       <c r="E308" s="19"/>
       <c r="F308" s="67"/>
     </row>
-    <row r="309" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D309" s="18">
         <v>1</v>
       </c>
       <c r="E309" s="18"/>
       <c r="F309" s="66"/>
     </row>
-    <row r="310" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D310" s="19">
         <v>1</v>
       </c>
       <c r="E310" s="19"/>
       <c r="F310" s="67"/>
     </row>
-    <row r="311" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D311" s="18">
         <v>1</v>
       </c>
       <c r="E311" s="18"/>
       <c r="F311" s="66"/>
     </row>
-    <row r="312" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D312" s="19">
         <v>1</v>
       </c>
       <c r="E312" s="19"/>
       <c r="F312" s="67"/>
     </row>
-    <row r="313" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D313" s="18">
         <v>1</v>
       </c>
       <c r="E313" s="18"/>
       <c r="F313" s="66"/>
     </row>
-    <row r="314" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D314" s="19">
         <v>1</v>
       </c>
       <c r="E314" s="19"/>
       <c r="F314" s="67"/>
     </row>
-    <row r="315" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D315" s="18">
         <v>1</v>
       </c>
       <c r="E315" s="18"/>
       <c r="F315" s="66"/>
     </row>
-    <row r="316" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D316" s="19">
         <v>1</v>
       </c>
       <c r="E316" s="19"/>
       <c r="F316" s="67"/>
     </row>
-    <row r="317" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D317" s="18">
         <v>1</v>
       </c>
       <c r="E317" s="18"/>
       <c r="F317" s="66"/>
     </row>
-    <row r="318" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D318" s="19">
         <v>1</v>
       </c>
       <c r="E318" s="19"/>
       <c r="F318" s="67"/>
+    </row>
+    <row r="319" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D319" s="18">
+        <v>1</v>
+      </c>
+      <c r="E319" s="18"/>
+      <c r="F319" s="66"/>
+    </row>
+    <row r="320" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D320" s="19">
+        <v>1</v>
+      </c>
+      <c r="E320" s="19"/>
+      <c r="F320" s="67"/>
+    </row>
+    <row r="321" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D321" s="18">
+        <v>1</v>
+      </c>
+      <c r="E321" s="18"/>
+      <c r="F321" s="66"/>
+    </row>
+    <row r="322" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D322" s="19">
+        <v>1</v>
+      </c>
+      <c r="E322" s="19"/>
+      <c r="F322" s="67"/>
+    </row>
+    <row r="323" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D323" s="18">
+        <v>1</v>
+      </c>
+      <c r="E323" s="18"/>
+      <c r="F323" s="66"/>
+    </row>
+    <row r="324" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D324" s="19">
+        <v>1</v>
+      </c>
+      <c r="E324" s="19"/>
+      <c r="F324" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -8302,17 +8672,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.1640625" customWidth="1"/>
+    <col min="1" max="1" width="61.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>126</v>
       </c>
@@ -8323,25 +8693,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C21"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="56" t="s">
         <v>92</v>
       </c>
       <c r="C4" s="56"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="56" t="s">
         <v>93</v>
       </c>
@@ -8349,7 +8719,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="56" t="s">
         <v>95</v>
       </c>
@@ -8357,7 +8727,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="56" t="s">
         <v>97</v>
       </c>
@@ -8365,7 +8735,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="56" t="s">
         <v>99</v>
       </c>
@@ -8373,7 +8743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="56" t="s">
         <v>101</v>
       </c>
@@ -8381,7 +8751,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="56" t="s">
         <v>103</v>
       </c>
@@ -8389,47 +8759,47 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="56" t="s">
         <v>105</v>
       </c>
       <c r="C13" s="56"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="56" t="s">
         <v>106</v>
       </c>
       <c r="C14" s="56"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="56" t="s">
         <v>107</v>
       </c>
       <c r="C15" s="56"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="56" t="s">
         <v>108</v>
       </c>
       <c r="C16" s="56"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="56" t="s">
         <v>109</v>
       </c>
       <c r="C17" s="56"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="56" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="56" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="56" t="s">
         <v>112</v>
       </c>

--- a/gantt_chart_update.xlsx
+++ b/gantt_chart_update.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcmania\Documents\Projects\AOP\FY18-AOP\FY18_HFM\ProjectPlanning\RePlan2018\Plans_Take1\PlansTake2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mlawson/Documents/GitHub/hfm_integration_demonstration_plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854CA85C-E782-5B44-91B5-39A811243285}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13320" tabRatio="500"/>
+    <workbookView xWindow="1140" yWindow="460" windowWidth="32460" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ECP Integration &amp; Demonstration" sheetId="1" r:id="rId1"/>
     <sheet name="Notes" sheetId="4" r:id="rId2"/>
     <sheet name="ValidationCases" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -262,12 +263,6 @@
     <t>3.1.12</t>
   </si>
   <si>
-    <t>Stable boundary layer precursor</t>
-  </si>
-  <si>
-    <t>Unstable boundary layer precursor</t>
-  </si>
-  <si>
     <t>2-3 Turbine simulation with all 3 ABL types (Siemens 2.3 or SWiFT blades)</t>
   </si>
   <si>
@@ -551,16 +546,42 @@
   </si>
   <si>
     <t>moved to UQ, overlap WD</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stable boundary layer precursor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>[Critical, work will be performed in ABL area]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unstable boundary layer precursor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>[Critical, work will be performed in ABL area]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -634,6 +655,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)_x0000_"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1010,6 +1036,11 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="5" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1025,11 +1056,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="5" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1037,7 +1063,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1314,155 +1340,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL324"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="67.125" customWidth="1"/>
-    <col min="3" max="3" width="23.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="36.125" style="68" customWidth="1"/>
-    <col min="7" max="7" width="4.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="36.1640625" style="68" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="3.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.5" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="4.5" style="5" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.875" customWidth="1"/>
+    <col min="32" max="32" width="4.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" s="2" customFormat="1" ht="19">
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="F1" s="63"/>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84" t="s">
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84" t="s">
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="84"/>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="84"/>
-    </row>
-    <row r="2" spans="1:38" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="87"/>
+      <c r="AJ1" s="87"/>
+    </row>
+    <row r="2" spans="1:38" s="2" customFormat="1" ht="19">
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="63"/>
-      <c r="G2" s="86" t="s">
+      <c r="G2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="88" t="s">
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="86"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="86" t="s">
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="86"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="88" t="s">
+      <c r="N2" s="89"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="88" t="s">
+      <c r="Q2" s="89"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="86"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="88" t="s">
+      <c r="T2" s="89"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="86"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="86" t="s">
+      <c r="W2" s="89"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="86" t="s">
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="88" t="s">
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="87"/>
-      <c r="AH2" s="86" t="s">
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="87"/>
-    </row>
-    <row r="3" spans="1:38" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="90"/>
+    </row>
+    <row r="3" spans="1:38" s="2" customFormat="1" ht="19">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1569,7 +1595,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="48">
       <c r="A4" s="23" t="s">
         <v>15</v>
       </c>
@@ -1582,7 +1608,7 @@
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
       <c r="F4" s="48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="8"/>
@@ -1615,12 +1641,12 @@
       <c r="AI4" s="8"/>
       <c r="AJ4" s="14"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38">
       <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>51</v>
@@ -1660,15 +1686,15 @@
       <c r="AJ5" s="14"/>
       <c r="AL5" s="21"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38">
       <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -1705,24 +1731,24 @@
       <c r="AJ6" s="14"/>
       <c r="AL6" s="21"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38">
       <c r="A7" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="E7" s="32">
+        <v>1</v>
+      </c>
+      <c r="F7" s="62" t="s">
         <v>128</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="32">
-        <v>1</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>130</v>
       </c>
       <c r="G7"/>
       <c r="H7" s="8"/>
@@ -1756,24 +1782,24 @@
       <c r="AJ7" s="14"/>
       <c r="AL7" s="21"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38">
       <c r="A8" s="81" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="89" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="89">
+        <v>129</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="84">
         <v>0</v>
       </c>
-      <c r="F8" s="90" t="s">
-        <v>172</v>
+      <c r="F8" s="85" t="s">
+        <v>170</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="8"/>
@@ -1806,24 +1832,24 @@
       <c r="AI8" s="8"/>
       <c r="AJ8" s="14"/>
     </row>
-    <row r="9" spans="1:38" s="59" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" s="59" customFormat="1" ht="32">
       <c r="A9" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E9" s="32">
         <v>3</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="8"/>
@@ -1857,24 +1883,24 @@
       <c r="AJ9" s="14"/>
       <c r="AK9"/>
     </row>
-    <row r="10" spans="1:38" s="59" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" s="59" customFormat="1" ht="32">
       <c r="A10" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E10" s="32">
         <v>1</v>
       </c>
       <c r="F10" s="62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="8"/>
@@ -1908,24 +1934,24 @@
       <c r="AJ10" s="14"/>
       <c r="AK10"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38">
       <c r="A11" s="81" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B11" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="89" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="89">
+        <v>88</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="84">
         <v>0</v>
       </c>
-      <c r="F11" s="90" t="s">
-        <v>173</v>
+      <c r="F11" s="85" t="s">
+        <v>171</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="8"/>
@@ -1958,24 +1984,24 @@
       <c r="AI11" s="8"/>
       <c r="AJ11" s="14"/>
     </row>
-    <row r="12" spans="1:38" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" s="3" customFormat="1" ht="32">
       <c r="A12" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E12" s="32">
         <v>3</v>
       </c>
       <c r="F12" s="62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="8"/>
@@ -2009,15 +2035,15 @@
       <c r="AJ12" s="14"/>
       <c r="AK12"/>
     </row>
-    <row r="13" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" s="3" customFormat="1">
       <c r="A13" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D13" s="32">
         <v>1</v>
@@ -2026,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="8"/>
@@ -2060,24 +2086,24 @@
       <c r="AJ13" s="14"/>
       <c r="AK13"/>
     </row>
-    <row r="14" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" s="3" customFormat="1">
       <c r="A14" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>154</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>156</v>
       </c>
       <c r="E14" s="32">
         <v>2</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="8"/>
@@ -2111,24 +2137,24 @@
       <c r="AJ14" s="14"/>
       <c r="AK14"/>
     </row>
-    <row r="15" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" s="3" customFormat="1">
       <c r="A15" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E15" s="32">
         <v>1</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="8"/>
@@ -2162,24 +2188,24 @@
       <c r="AJ15" s="14"/>
       <c r="AK15"/>
     </row>
-    <row r="16" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" s="3" customFormat="1">
       <c r="A16" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E16" s="32">
         <v>3</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="8"/>
@@ -2213,24 +2239,24 @@
       <c r="AJ16" s="14"/>
       <c r="AK16"/>
     </row>
-    <row r="17" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" s="3" customFormat="1">
       <c r="A17" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E17" s="32">
         <v>3</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="8"/>
@@ -2264,7 +2290,7 @@
       <c r="AJ17" s="14"/>
       <c r="AK17"/>
     </row>
-    <row r="18" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" s="3" customFormat="1">
       <c r="A18" s="20"/>
       <c r="B18"/>
       <c r="C18" s="21"/>
@@ -2303,12 +2329,12 @@
       <c r="AJ18" s="14"/>
       <c r="AK18"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37">
       <c r="A19" s="20"/>
       <c r="B19" s="48"/>
       <c r="C19" s="21"/>
       <c r="D19" s="32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E19" s="25">
         <f>SUM(E7:E17)</f>
@@ -2346,7 +2372,7 @@
       <c r="AI19" s="8"/>
       <c r="AJ19" s="14"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37">
       <c r="A20" s="20"/>
       <c r="B20" s="48"/>
       <c r="C20" s="21"/>
@@ -2384,7 +2410,7 @@
       <c r="AI20" s="8"/>
       <c r="AJ20" s="14"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37">
       <c r="A21" s="20"/>
       <c r="B21" s="48"/>
       <c r="C21" s="21"/>
@@ -2422,7 +2448,7 @@
       <c r="AI21" s="8"/>
       <c r="AJ21" s="14"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37">
       <c r="A22" s="24" t="s">
         <v>33</v>
       </c>
@@ -2466,24 +2492,24 @@
       <c r="AI22" s="40"/>
       <c r="AJ22" s="41"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37">
       <c r="A23" t="s">
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="C23" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D23" s="71" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E23" s="71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="81" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G23" s="39"/>
       <c r="H23" s="72"/>
@@ -2516,24 +2542,24 @@
       <c r="AI23" s="72"/>
       <c r="AJ23" s="73"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37">
       <c r="A24" t="s">
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="C24" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D24" s="71" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E24" s="71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="81" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G24" s="39"/>
       <c r="H24" s="72"/>
@@ -2566,18 +2592,18 @@
       <c r="AI24" s="72"/>
       <c r="AJ24" s="73"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37">
       <c r="A25" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C25" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="32" t="s">
         <v>122</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>124</v>
       </c>
       <c r="E25" s="32">
         <v>2</v>
@@ -2616,20 +2642,20 @@
       <c r="AI25" s="8"/>
       <c r="AJ25" s="14"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37">
       <c r="A26" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" s="91">
+        <v>122</v>
+      </c>
+      <c r="E26" s="86">
         <v>6</v>
       </c>
       <c r="F26" s="25"/>
@@ -2664,24 +2690,24 @@
       <c r="AI26" s="8"/>
       <c r="AJ26" s="14"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37">
       <c r="A27" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C27" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="32" t="s">
         <v>123</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>125</v>
       </c>
       <c r="E27" s="32">
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="8"/>
@@ -2714,16 +2740,16 @@
       <c r="AI27" s="77"/>
       <c r="AJ27" s="78"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37">
       <c r="A28" s="20"/>
       <c r="B28" s="49"/>
       <c r="C28" s="21"/>
       <c r="D28" s="32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E28" s="32">
         <f>SUM(E23:E27)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F28" s="62"/>
       <c r="G28" s="12"/>
@@ -2757,15 +2783,15 @@
       <c r="AI28" s="8"/>
       <c r="AJ28" s="14"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37">
       <c r="A29" s="20"/>
       <c r="B29" s="49"/>
       <c r="C29" s="46" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D29" s="32">
         <f>E19+E28</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="62"/>
@@ -2800,15 +2826,15 @@
       <c r="AI29" s="8"/>
       <c r="AJ29" s="14"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37">
       <c r="A30" s="20"/>
       <c r="B30" s="49"/>
       <c r="C30" s="46" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D30" s="83">
         <f>D29/27</f>
-        <v>1.037037037037037</v>
+        <v>0.96296296296296291</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="62"/>
@@ -2843,7 +2869,7 @@
       <c r="AI30" s="8"/>
       <c r="AJ30" s="14"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37">
       <c r="A31" s="23" t="s">
         <v>39</v>
       </c>
@@ -2854,7 +2880,7 @@
         <v>67</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="47"/>
@@ -2889,7 +2915,7 @@
       <c r="AI31" s="8"/>
       <c r="AJ31" s="14"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37">
       <c r="A32" s="20" t="s">
         <v>40</v>
       </c>
@@ -2940,12 +2966,12 @@
       <c r="AI32" s="8"/>
       <c r="AJ32" s="14"/>
     </row>
-    <row r="33" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" ht="32">
       <c r="A33" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>67</v>
@@ -2986,15 +3012,15 @@
       <c r="AI33" s="8"/>
       <c r="AJ33" s="14"/>
     </row>
-    <row r="34" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" s="1" customFormat="1">
       <c r="A34" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D34" s="32"/>
       <c r="E34" s="32">
@@ -3033,7 +3059,7 @@
       <c r="AI34" s="8"/>
       <c r="AJ34" s="14"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36">
       <c r="A35" s="20" t="s">
         <v>43</v>
       </c>
@@ -3051,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="8"/>
@@ -3084,7 +3110,7 @@
       <c r="AI35" s="8"/>
       <c r="AJ35" s="14"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36">
       <c r="A36" s="20" t="s">
         <v>49</v>
       </c>
@@ -3132,7 +3158,7 @@
       <c r="AI36" s="8"/>
       <c r="AJ36" s="14"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36">
       <c r="A37" s="20" t="s">
         <v>44</v>
       </c>
@@ -3180,7 +3206,7 @@
       <c r="AI37" s="8"/>
       <c r="AJ37" s="14"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36">
       <c r="A38" s="20" t="s">
         <v>45</v>
       </c>
@@ -3228,7 +3254,7 @@
       <c r="AI38" s="8"/>
       <c r="AJ38" s="14"/>
     </row>
-    <row r="39" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" s="1" customFormat="1">
       <c r="A39" s="20" t="s">
         <v>46</v>
       </c>
@@ -3277,7 +3303,7 @@
       <c r="AI39" s="8"/>
       <c r="AJ39" s="14"/>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36">
       <c r="A40" s="20" t="s">
         <v>47</v>
       </c>
@@ -3326,7 +3352,7 @@
       <c r="AI40" s="8"/>
       <c r="AJ40" s="14"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36">
       <c r="A41" s="20" t="s">
         <v>70</v>
       </c>
@@ -3375,7 +3401,7 @@
       <c r="AI41" s="8"/>
       <c r="AJ41" s="14"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36">
       <c r="A42" s="20" t="s">
         <v>73</v>
       </c>
@@ -3424,7 +3450,7 @@
       <c r="AI42" s="27"/>
       <c r="AJ42" s="28"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36">
       <c r="A43" s="20" t="s">
         <v>76</v>
       </c>
@@ -3473,9 +3499,9 @@
       <c r="AI43" s="61"/>
       <c r="AJ43" s="14"/>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36">
       <c r="A44" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B44" s="48" t="s">
         <v>74</v>
@@ -3522,12 +3548,12 @@
       <c r="AI44" s="53"/>
       <c r="AJ44" s="54"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36">
       <c r="A45" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B45" s="48" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>67</v>
@@ -3571,12 +3597,12 @@
       <c r="AI45" s="8"/>
       <c r="AJ45" s="14"/>
     </row>
-    <row r="46" spans="1:36" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" s="38" customFormat="1">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="21"/>
       <c r="D46" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E46" s="25">
         <f>SUM(E32:E45)</f>
@@ -3614,7 +3640,7 @@
       <c r="AI46" s="8"/>
       <c r="AJ46" s="14"/>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36">
       <c r="A47" s="20"/>
       <c r="B47" s="48"/>
       <c r="C47" s="21"/>
@@ -3622,7 +3648,7 @@
       <c r="E47" s="25"/>
       <c r="F47" s="50">
         <f>E46+E28+E19</f>
-        <v>42.5</v>
+        <v>40.5</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="8"/>
@@ -3655,18 +3681,18 @@
       <c r="AI47" s="8"/>
       <c r="AJ47" s="14"/>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36">
       <c r="A48" s="33"/>
       <c r="B48" s="69" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C48" s="32"/>
       <c r="D48" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E48" s="32">
         <f>F47/27</f>
-        <v>1.5740740740740742</v>
+        <v>1.5</v>
       </c>
       <c r="F48" s="62"/>
       <c r="G48" s="34"/>
@@ -3700,10 +3726,10 @@
       <c r="AI48" s="35"/>
       <c r="AJ48" s="36"/>
     </row>
-    <row r="49" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" ht="32">
       <c r="A49" s="33"/>
       <c r="B49" s="82" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C49" s="32"/>
       <c r="D49" s="25"/>
@@ -3740,7 +3766,7 @@
       <c r="AI49" s="35"/>
       <c r="AJ49" s="36"/>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36">
       <c r="A50" s="33"/>
       <c r="B50" s="48"/>
       <c r="C50" s="21"/>
@@ -3778,7 +3804,7 @@
       <c r="AI50" s="8"/>
       <c r="AJ50" s="14"/>
     </row>
-    <row r="51" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" s="23" customFormat="1">
       <c r="A51" s="20"/>
       <c r="B51" s="48"/>
       <c r="C51" s="21"/>
@@ -3816,7 +3842,7 @@
       <c r="AI51" s="8"/>
       <c r="AJ51" s="14"/>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="21"/>
@@ -3854,7 +3880,7 @@
       <c r="AI52" s="8"/>
       <c r="AJ52" s="14"/>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36">
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="21"/>
@@ -3892,7 +3918,7 @@
       <c r="AI53" s="8"/>
       <c r="AJ53" s="14"/>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36">
       <c r="A54" s="23"/>
       <c r="B54" s="24"/>
       <c r="C54" s="25"/>
@@ -3930,7 +3956,7 @@
       <c r="AI54" s="8"/>
       <c r="AJ54" s="14"/>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36">
       <c r="A55" s="20"/>
       <c r="B55" s="31"/>
       <c r="C55" s="21"/>
@@ -3968,7 +3994,7 @@
       <c r="AI55" s="8"/>
       <c r="AJ55" s="14"/>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36">
       <c r="A56" s="20"/>
       <c r="B56" s="31"/>
       <c r="C56" s="21"/>
@@ -4006,7 +4032,7 @@
       <c r="AI56" s="27"/>
       <c r="AJ56" s="28"/>
     </row>
-    <row r="57" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" s="1" customFormat="1">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="21"/>
@@ -4044,7 +4070,7 @@
       <c r="AI57" s="8"/>
       <c r="AJ57" s="14"/>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
       <c r="C58" s="21"/>
@@ -4082,7 +4108,7 @@
       <c r="AI58" s="8"/>
       <c r="AJ58" s="14"/>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36">
       <c r="A59" s="20"/>
       <c r="B59" s="23"/>
       <c r="C59" s="21"/>
@@ -4120,7 +4146,7 @@
       <c r="AI59" s="8"/>
       <c r="AJ59" s="14"/>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36">
       <c r="A60" s="23"/>
       <c r="B60" s="23"/>
       <c r="C60" s="25"/>
@@ -4158,7 +4184,7 @@
       <c r="AI60" s="8"/>
       <c r="AJ60" s="14"/>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36">
       <c r="A61" s="20"/>
       <c r="B61" s="31"/>
       <c r="C61" s="21"/>
@@ -4196,7 +4222,7 @@
       <c r="AI61" s="8"/>
       <c r="AJ61" s="14"/>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36">
       <c r="A62" s="20"/>
       <c r="B62" s="31"/>
       <c r="C62" s="21"/>
@@ -4234,7 +4260,7 @@
       <c r="AI62" s="8"/>
       <c r="AJ62" s="14"/>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36">
       <c r="A63" s="20"/>
       <c r="B63" s="31"/>
       <c r="C63" s="21"/>
@@ -4272,7 +4298,7 @@
       <c r="AI63" s="8"/>
       <c r="AJ63" s="14"/>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36">
       <c r="A64" s="20"/>
       <c r="B64" s="31"/>
       <c r="C64" s="21"/>
@@ -4310,7 +4336,7 @@
       <c r="AI64" s="8"/>
       <c r="AJ64" s="14"/>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36">
       <c r="A65" s="20"/>
       <c r="B65" s="31"/>
       <c r="C65" s="21"/>
@@ -4348,7 +4374,7 @@
       <c r="AI65" s="8"/>
       <c r="AJ65" s="14"/>
     </row>
-    <row r="66" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" s="1" customFormat="1">
       <c r="A66" s="20"/>
       <c r="B66" s="31"/>
       <c r="C66" s="21"/>
@@ -4386,7 +4412,7 @@
       <c r="AI66" s="8"/>
       <c r="AJ66" s="14"/>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36">
       <c r="A67" s="20"/>
       <c r="B67" s="20"/>
       <c r="C67" s="21"/>
@@ -4424,7 +4450,7 @@
       <c r="AI67" s="8"/>
       <c r="AJ67" s="14"/>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36">
       <c r="A68" s="20"/>
       <c r="B68" s="20"/>
       <c r="C68" s="21"/>
@@ -4462,7 +4488,7 @@
       <c r="AI68" s="8"/>
       <c r="AJ68" s="14"/>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36">
       <c r="A69" s="23"/>
       <c r="B69" s="24"/>
       <c r="C69" s="25"/>
@@ -4500,7 +4526,7 @@
       <c r="AI69" s="27"/>
       <c r="AJ69" s="28"/>
     </row>
-    <row r="70" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" s="1" customFormat="1">
       <c r="A70" s="20"/>
       <c r="B70" s="31"/>
       <c r="C70" s="21"/>
@@ -4538,7 +4564,7 @@
       <c r="AI70" s="8"/>
       <c r="AJ70" s="14"/>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36">
       <c r="A71" s="20"/>
       <c r="B71" s="31"/>
       <c r="C71" s="21"/>
@@ -4576,7 +4602,7 @@
       <c r="AI71" s="8"/>
       <c r="AJ71" s="14"/>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36">
       <c r="A72" s="20"/>
       <c r="B72" s="20"/>
       <c r="C72" s="21"/>
@@ -4614,7 +4640,7 @@
       <c r="AI72" s="8"/>
       <c r="AJ72" s="14"/>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36">
       <c r="A73" s="23"/>
       <c r="B73" s="24"/>
       <c r="C73" s="25"/>
@@ -4652,7 +4678,7 @@
       <c r="AI73" s="27"/>
       <c r="AJ73" s="28"/>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36">
       <c r="A74" s="20"/>
       <c r="B74" s="31"/>
       <c r="C74" s="21"/>
@@ -4690,7 +4716,7 @@
       <c r="AI74" s="8"/>
       <c r="AJ74" s="14"/>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36">
       <c r="A75" s="20"/>
       <c r="B75" s="31"/>
       <c r="C75" s="21"/>
@@ -4728,7 +4754,7 @@
       <c r="AI75" s="8"/>
       <c r="AJ75" s="14"/>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36">
       <c r="A76" s="20"/>
       <c r="B76" s="31"/>
       <c r="C76" s="21"/>
@@ -4766,7 +4792,7 @@
       <c r="AI76" s="8"/>
       <c r="AJ76" s="14"/>
     </row>
-    <row r="77" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" s="1" customFormat="1">
       <c r="A77" s="20"/>
       <c r="B77" s="31"/>
       <c r="C77" s="21"/>
@@ -4804,7 +4830,7 @@
       <c r="AI77" s="8"/>
       <c r="AJ77" s="14"/>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36">
       <c r="A78" s="20"/>
       <c r="B78" s="31"/>
       <c r="C78" s="21"/>
@@ -4842,7 +4868,7 @@
       <c r="AI78" s="8"/>
       <c r="AJ78" s="14"/>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36">
       <c r="A79" s="20"/>
       <c r="B79" s="20"/>
       <c r="C79" s="21"/>
@@ -4880,7 +4906,7 @@
       <c r="AI79" s="8"/>
       <c r="AJ79" s="14"/>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36">
       <c r="A80" s="23"/>
       <c r="B80" s="24"/>
       <c r="C80" s="25"/>
@@ -4918,7 +4944,7 @@
       <c r="AI80" s="27"/>
       <c r="AJ80" s="28"/>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36">
       <c r="A81" s="20"/>
       <c r="B81" s="31"/>
       <c r="C81" s="21"/>
@@ -4956,7 +4982,7 @@
       <c r="AI81" s="8"/>
       <c r="AJ81" s="14"/>
     </row>
-    <row r="82" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" s="1" customFormat="1">
       <c r="A82" s="20"/>
       <c r="B82" s="31"/>
       <c r="C82" s="21"/>
@@ -4994,7 +5020,7 @@
       <c r="AI82" s="8"/>
       <c r="AJ82" s="14"/>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36">
       <c r="A83" s="20"/>
       <c r="B83" s="31"/>
       <c r="C83" s="21"/>
@@ -5032,7 +5058,7 @@
       <c r="AI83" s="8"/>
       <c r="AJ83" s="14"/>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36">
       <c r="A84" s="20"/>
       <c r="B84" s="20"/>
       <c r="C84" s="21"/>
@@ -5070,7 +5096,7 @@
       <c r="AI84" s="8"/>
       <c r="AJ84" s="14"/>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36">
       <c r="A85" s="23"/>
       <c r="B85" s="24"/>
       <c r="C85" s="25"/>
@@ -5108,7 +5134,7 @@
       <c r="AI85" s="27"/>
       <c r="AJ85" s="28"/>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36">
       <c r="A86" s="20"/>
       <c r="B86" s="31"/>
       <c r="C86" s="21"/>
@@ -5146,7 +5172,7 @@
       <c r="AI86" s="8"/>
       <c r="AJ86" s="14"/>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36">
       <c r="A87" s="20"/>
       <c r="B87" s="31"/>
       <c r="C87" s="21"/>
@@ -5184,7 +5210,7 @@
       <c r="AI87" s="8"/>
       <c r="AJ87" s="14"/>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36">
       <c r="A88" s="20"/>
       <c r="B88" s="31"/>
       <c r="C88" s="21"/>
@@ -5222,7 +5248,7 @@
       <c r="AI88" s="8"/>
       <c r="AJ88" s="14"/>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36">
       <c r="D89" s="18">
         <v>1</v>
       </c>
@@ -5245,7 +5271,7 @@
       <c r="AD89" s="10"/>
       <c r="AE89" s="13"/>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36">
       <c r="D90" s="19">
         <v>1</v>
       </c>
@@ -5268,7 +5294,7 @@
       <c r="AD90" s="10"/>
       <c r="AE90" s="13"/>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36">
       <c r="D91" s="18">
         <v>1</v>
       </c>
@@ -5291,7 +5317,7 @@
       <c r="AD91" s="10"/>
       <c r="AE91" s="13"/>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36">
       <c r="D92" s="19">
         <v>1</v>
       </c>
@@ -5314,7 +5340,7 @@
       <c r="AD92" s="10"/>
       <c r="AE92" s="13"/>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36">
       <c r="D93" s="18">
         <v>1</v>
       </c>
@@ -5337,7 +5363,7 @@
       <c r="AD93" s="10"/>
       <c r="AE93" s="13"/>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36">
       <c r="D94" s="19">
         <v>1</v>
       </c>
@@ -5360,7 +5386,7 @@
       <c r="AD94" s="10"/>
       <c r="AE94" s="13"/>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36">
       <c r="D95" s="18">
         <v>1</v>
       </c>
@@ -5383,7 +5409,7 @@
       <c r="AD95" s="10"/>
       <c r="AE95" s="13"/>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36">
       <c r="D96" s="19">
         <v>1</v>
       </c>
@@ -5406,7 +5432,7 @@
       <c r="AD96" s="10"/>
       <c r="AE96" s="13"/>
     </row>
-    <row r="97" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:31">
       <c r="D97" s="18">
         <v>1</v>
       </c>
@@ -5429,7 +5455,7 @@
       <c r="AD97" s="10"/>
       <c r="AE97" s="13"/>
     </row>
-    <row r="98" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:31">
       <c r="D98" s="19">
         <v>1</v>
       </c>
@@ -5452,7 +5478,7 @@
       <c r="AD98" s="10"/>
       <c r="AE98" s="13"/>
     </row>
-    <row r="99" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:31">
       <c r="D99" s="18">
         <v>1</v>
       </c>
@@ -5475,7 +5501,7 @@
       <c r="AD99" s="10"/>
       <c r="AE99" s="13"/>
     </row>
-    <row r="100" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:31">
       <c r="D100" s="19">
         <v>1</v>
       </c>
@@ -5498,7 +5524,7 @@
       <c r="AD100" s="10"/>
       <c r="AE100" s="13"/>
     </row>
-    <row r="101" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:31">
       <c r="D101" s="18">
         <v>1</v>
       </c>
@@ -5521,7 +5547,7 @@
       <c r="AD101" s="10"/>
       <c r="AE101" s="13"/>
     </row>
-    <row r="102" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:31">
       <c r="D102" s="19">
         <v>1</v>
       </c>
@@ -5544,7 +5570,7 @@
       <c r="AD102" s="10"/>
       <c r="AE102" s="13"/>
     </row>
-    <row r="103" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:31">
       <c r="D103" s="18">
         <v>1</v>
       </c>
@@ -5567,7 +5593,7 @@
       <c r="AD103" s="10"/>
       <c r="AE103" s="13"/>
     </row>
-    <row r="104" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:31">
       <c r="D104" s="19">
         <v>1</v>
       </c>
@@ -5590,7 +5616,7 @@
       <c r="AD104" s="10"/>
       <c r="AE104" s="13"/>
     </row>
-    <row r="105" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:31">
       <c r="D105" s="18">
         <v>1</v>
       </c>
@@ -5613,7 +5639,7 @@
       <c r="AD105" s="10"/>
       <c r="AE105" s="7"/>
     </row>
-    <row r="106" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:31">
       <c r="D106" s="19">
         <v>1</v>
       </c>
@@ -5636,7 +5662,7 @@
       <c r="AD106" s="10"/>
       <c r="AE106" s="7"/>
     </row>
-    <row r="107" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:31">
       <c r="D107" s="18">
         <v>1</v>
       </c>
@@ -5659,7 +5685,7 @@
       <c r="AD107" s="10"/>
       <c r="AE107" s="7"/>
     </row>
-    <row r="108" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:31">
       <c r="D108" s="19">
         <v>1</v>
       </c>
@@ -5682,7 +5708,7 @@
       <c r="AD108" s="10"/>
       <c r="AE108" s="7"/>
     </row>
-    <row r="109" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:31">
       <c r="D109" s="18">
         <v>1</v>
       </c>
@@ -5705,7 +5731,7 @@
       <c r="AD109" s="10"/>
       <c r="AE109" s="7"/>
     </row>
-    <row r="110" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:31">
       <c r="D110" s="19">
         <v>1</v>
       </c>
@@ -5728,7 +5754,7 @@
       <c r="AD110" s="10"/>
       <c r="AE110" s="7"/>
     </row>
-    <row r="111" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:31">
       <c r="D111" s="18">
         <v>1</v>
       </c>
@@ -5751,7 +5777,7 @@
       <c r="AD111" s="10"/>
       <c r="AE111" s="7"/>
     </row>
-    <row r="112" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:31">
       <c r="D112" s="19">
         <v>1</v>
       </c>
@@ -5774,7 +5800,7 @@
       <c r="AD112" s="10"/>
       <c r="AE112" s="7"/>
     </row>
-    <row r="113" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:31">
       <c r="D113" s="18">
         <v>1</v>
       </c>
@@ -5797,7 +5823,7 @@
       <c r="AD113" s="10"/>
       <c r="AE113" s="7"/>
     </row>
-    <row r="114" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:31">
       <c r="D114" s="19">
         <v>1</v>
       </c>
@@ -5820,7 +5846,7 @@
       <c r="AD114" s="10"/>
       <c r="AE114" s="7"/>
     </row>
-    <row r="115" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:31">
       <c r="D115" s="18">
         <v>1</v>
       </c>
@@ -5843,7 +5869,7 @@
       <c r="AD115" s="10"/>
       <c r="AE115" s="7"/>
     </row>
-    <row r="116" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:31">
       <c r="D116" s="19">
         <v>1</v>
       </c>
@@ -5866,7 +5892,7 @@
       <c r="AD116" s="10"/>
       <c r="AE116" s="7"/>
     </row>
-    <row r="117" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:31">
       <c r="D117" s="18">
         <v>1</v>
       </c>
@@ -5889,7 +5915,7 @@
       <c r="AD117" s="10"/>
       <c r="AE117" s="7"/>
     </row>
-    <row r="118" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:31">
       <c r="D118" s="19">
         <v>1</v>
       </c>
@@ -5912,7 +5938,7 @@
       <c r="AD118" s="10"/>
       <c r="AE118" s="7"/>
     </row>
-    <row r="119" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:31">
       <c r="D119" s="18">
         <v>1</v>
       </c>
@@ -5935,7 +5961,7 @@
       <c r="AD119" s="10"/>
       <c r="AE119" s="7"/>
     </row>
-    <row r="120" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:31">
       <c r="D120" s="19">
         <v>1</v>
       </c>
@@ -5958,7 +5984,7 @@
       <c r="AD120" s="10"/>
       <c r="AE120" s="7"/>
     </row>
-    <row r="121" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:31">
       <c r="D121" s="18">
         <v>1</v>
       </c>
@@ -5979,7 +6005,7 @@
       <c r="AD121" s="10"/>
       <c r="AE121" s="7"/>
     </row>
-    <row r="122" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:31">
       <c r="D122" s="19">
         <v>1</v>
       </c>
@@ -6000,7 +6026,7 @@
       <c r="AD122" s="10"/>
       <c r="AE122" s="7"/>
     </row>
-    <row r="123" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:31">
       <c r="D123" s="18">
         <v>1</v>
       </c>
@@ -6021,7 +6047,7 @@
       <c r="AD123" s="10"/>
       <c r="AE123" s="7"/>
     </row>
-    <row r="124" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:31">
       <c r="D124" s="19">
         <v>1</v>
       </c>
@@ -6042,7 +6068,7 @@
       <c r="AD124" s="10"/>
       <c r="AE124" s="7"/>
     </row>
-    <row r="125" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:31">
       <c r="D125" s="18">
         <v>1</v>
       </c>
@@ -6063,7 +6089,7 @@
       <c r="AD125" s="10"/>
       <c r="AE125" s="7"/>
     </row>
-    <row r="126" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:31">
       <c r="D126" s="19">
         <v>1</v>
       </c>
@@ -6084,7 +6110,7 @@
       <c r="AD126" s="10"/>
       <c r="AE126" s="7"/>
     </row>
-    <row r="127" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:31">
       <c r="D127" s="18">
         <v>1</v>
       </c>
@@ -6105,7 +6131,7 @@
       <c r="AD127" s="10"/>
       <c r="AE127" s="7"/>
     </row>
-    <row r="128" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:31">
       <c r="D128" s="19">
         <v>1</v>
       </c>
@@ -6126,7 +6152,7 @@
       <c r="AD128" s="10"/>
       <c r="AE128" s="7"/>
     </row>
-    <row r="129" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:31">
       <c r="D129" s="18">
         <v>1</v>
       </c>
@@ -6147,7 +6173,7 @@
       <c r="AD129" s="10"/>
       <c r="AE129" s="7"/>
     </row>
-    <row r="130" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:31">
       <c r="D130" s="19">
         <v>1</v>
       </c>
@@ -6168,7 +6194,7 @@
       <c r="AD130" s="10"/>
       <c r="AE130" s="7"/>
     </row>
-    <row r="131" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:31">
       <c r="D131" s="18">
         <v>1</v>
       </c>
@@ -6189,7 +6215,7 @@
       <c r="AD131" s="10"/>
       <c r="AE131" s="7"/>
     </row>
-    <row r="132" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:31">
       <c r="D132" s="19">
         <v>1</v>
       </c>
@@ -6210,7 +6236,7 @@
       <c r="AD132" s="10"/>
       <c r="AE132" s="7"/>
     </row>
-    <row r="133" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:31">
       <c r="D133" s="18">
         <v>1</v>
       </c>
@@ -6231,7 +6257,7 @@
       <c r="AD133" s="10"/>
       <c r="AE133" s="7"/>
     </row>
-    <row r="134" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:31">
       <c r="D134" s="19">
         <v>1</v>
       </c>
@@ -6252,7 +6278,7 @@
       <c r="AD134" s="10"/>
       <c r="AE134" s="7"/>
     </row>
-    <row r="135" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:31">
       <c r="D135" s="18">
         <v>1</v>
       </c>
@@ -6273,7 +6299,7 @@
       <c r="AD135" s="10"/>
       <c r="AE135" s="7"/>
     </row>
-    <row r="136" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:31">
       <c r="D136" s="19">
         <v>1</v>
       </c>
@@ -6294,7 +6320,7 @@
       <c r="AD136" s="10"/>
       <c r="AE136" s="7"/>
     </row>
-    <row r="137" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:31">
       <c r="D137" s="18">
         <v>1</v>
       </c>
@@ -6315,7 +6341,7 @@
       <c r="AD137" s="10"/>
       <c r="AE137" s="7"/>
     </row>
-    <row r="138" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:31">
       <c r="D138" s="19">
         <v>1</v>
       </c>
@@ -6336,7 +6362,7 @@
       <c r="AD138" s="10"/>
       <c r="AE138" s="7"/>
     </row>
-    <row r="139" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:31">
       <c r="D139" s="18">
         <v>1</v>
       </c>
@@ -6355,7 +6381,7 @@
       <c r="AD139" s="10"/>
       <c r="AE139" s="7"/>
     </row>
-    <row r="140" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:31">
       <c r="D140" s="19">
         <v>1</v>
       </c>
@@ -6374,7 +6400,7 @@
       <c r="AD140" s="10"/>
       <c r="AE140" s="7"/>
     </row>
-    <row r="141" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:31">
       <c r="D141" s="18">
         <v>1</v>
       </c>
@@ -6391,7 +6417,7 @@
       <c r="AD141" s="10"/>
       <c r="AE141" s="7"/>
     </row>
-    <row r="142" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:31">
       <c r="D142" s="19">
         <v>1</v>
       </c>
@@ -6408,7 +6434,7 @@
       <c r="AD142" s="10"/>
       <c r="AE142" s="7"/>
     </row>
-    <row r="143" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:31">
       <c r="D143" s="18">
         <v>1</v>
       </c>
@@ -6425,7 +6451,7 @@
       <c r="AD143" s="10"/>
       <c r="AE143" s="7"/>
     </row>
-    <row r="144" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:31">
       <c r="D144" s="19">
         <v>1</v>
       </c>
@@ -6442,7 +6468,7 @@
       <c r="AD144" s="10"/>
       <c r="AE144" s="7"/>
     </row>
-    <row r="145" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:31">
       <c r="D145" s="18">
         <v>1</v>
       </c>
@@ -6459,7 +6485,7 @@
       <c r="AD145" s="10"/>
       <c r="AE145" s="7"/>
     </row>
-    <row r="146" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:31">
       <c r="D146" s="19">
         <v>1</v>
       </c>
@@ -6476,7 +6502,7 @@
       <c r="AD146" s="10"/>
       <c r="AE146" s="7"/>
     </row>
-    <row r="147" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:31">
       <c r="D147" s="18">
         <v>1</v>
       </c>
@@ -6493,7 +6519,7 @@
       <c r="AD147" s="10"/>
       <c r="AE147" s="7"/>
     </row>
-    <row r="148" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:31">
       <c r="D148" s="19">
         <v>1</v>
       </c>
@@ -6510,7 +6536,7 @@
       <c r="AD148" s="10"/>
       <c r="AE148" s="7"/>
     </row>
-    <row r="149" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:31">
       <c r="D149" s="18">
         <v>1</v>
       </c>
@@ -6527,7 +6553,7 @@
       <c r="AD149" s="10"/>
       <c r="AE149" s="7"/>
     </row>
-    <row r="150" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:31">
       <c r="D150" s="19">
         <v>1</v>
       </c>
@@ -6544,7 +6570,7 @@
       <c r="AD150" s="10"/>
       <c r="AE150" s="7"/>
     </row>
-    <row r="151" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:31">
       <c r="D151" s="18">
         <v>1</v>
       </c>
@@ -6561,7 +6587,7 @@
       <c r="AD151" s="10"/>
       <c r="AE151" s="7"/>
     </row>
-    <row r="152" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:31">
       <c r="D152" s="19">
         <v>1</v>
       </c>
@@ -6578,7 +6604,7 @@
       <c r="AD152" s="10"/>
       <c r="AE152" s="7"/>
     </row>
-    <row r="153" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:31">
       <c r="D153" s="18">
         <v>1</v>
       </c>
@@ -6595,7 +6621,7 @@
       <c r="AD153" s="10"/>
       <c r="AE153" s="7"/>
     </row>
-    <row r="154" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:31">
       <c r="D154" s="19">
         <v>1</v>
       </c>
@@ -6612,7 +6638,7 @@
       <c r="AD154" s="10"/>
       <c r="AE154" s="7"/>
     </row>
-    <row r="155" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:31">
       <c r="D155" s="18">
         <v>1</v>
       </c>
@@ -6629,7 +6655,7 @@
       <c r="AD155" s="10"/>
       <c r="AE155" s="7"/>
     </row>
-    <row r="156" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:31">
       <c r="D156" s="19">
         <v>1</v>
       </c>
@@ -6646,7 +6672,7 @@
       <c r="AD156" s="10"/>
       <c r="AE156" s="7"/>
     </row>
-    <row r="157" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:31">
       <c r="D157" s="18">
         <v>1</v>
       </c>
@@ -6663,7 +6689,7 @@
       <c r="AD157" s="10"/>
       <c r="AE157" s="7"/>
     </row>
-    <row r="158" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:31">
       <c r="D158" s="19">
         <v>1</v>
       </c>
@@ -6680,7 +6706,7 @@
       <c r="AD158" s="10"/>
       <c r="AE158" s="7"/>
     </row>
-    <row r="159" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:31">
       <c r="D159" s="18">
         <v>1</v>
       </c>
@@ -6697,7 +6723,7 @@
       <c r="AD159" s="10"/>
       <c r="AE159" s="7"/>
     </row>
-    <row r="160" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:31">
       <c r="D160" s="19">
         <v>1</v>
       </c>
@@ -6714,7 +6740,7 @@
       <c r="AD160" s="10"/>
       <c r="AE160" s="7"/>
     </row>
-    <row r="161" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:31">
       <c r="D161" s="18">
         <v>1</v>
       </c>
@@ -6731,7 +6757,7 @@
       <c r="AD161" s="10"/>
       <c r="AE161" s="7"/>
     </row>
-    <row r="162" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:31">
       <c r="D162" s="19">
         <v>1</v>
       </c>
@@ -6748,7 +6774,7 @@
       <c r="AD162" s="10"/>
       <c r="AE162" s="7"/>
     </row>
-    <row r="163" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:31">
       <c r="D163" s="18">
         <v>1</v>
       </c>
@@ -6765,7 +6791,7 @@
       <c r="AD163" s="10"/>
       <c r="AE163" s="7"/>
     </row>
-    <row r="164" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:31">
       <c r="D164" s="19">
         <v>1</v>
       </c>
@@ -6782,7 +6808,7 @@
       <c r="AD164" s="10"/>
       <c r="AE164" s="7"/>
     </row>
-    <row r="165" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:31">
       <c r="D165" s="18">
         <v>1</v>
       </c>
@@ -6799,7 +6825,7 @@
       <c r="AD165" s="10"/>
       <c r="AE165" s="7"/>
     </row>
-    <row r="166" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:31">
       <c r="D166" s="19">
         <v>1</v>
       </c>
@@ -6816,7 +6842,7 @@
       <c r="AD166" s="10"/>
       <c r="AE166" s="7"/>
     </row>
-    <row r="167" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:31">
       <c r="D167" s="18">
         <v>1</v>
       </c>
@@ -6833,7 +6859,7 @@
       <c r="AD167" s="10"/>
       <c r="AE167" s="7"/>
     </row>
-    <row r="168" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:31">
       <c r="D168" s="19">
         <v>1</v>
       </c>
@@ -6850,7 +6876,7 @@
       <c r="AD168" s="10"/>
       <c r="AE168" s="7"/>
     </row>
-    <row r="169" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:31">
       <c r="D169" s="18">
         <v>1</v>
       </c>
@@ -6867,7 +6893,7 @@
       <c r="AD169" s="10"/>
       <c r="AE169" s="7"/>
     </row>
-    <row r="170" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:31">
       <c r="D170" s="19">
         <v>1</v>
       </c>
@@ -6884,7 +6910,7 @@
       <c r="AD170" s="10"/>
       <c r="AE170" s="7"/>
     </row>
-    <row r="171" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:31">
       <c r="D171" s="18">
         <v>1</v>
       </c>
@@ -6901,7 +6927,7 @@
       <c r="AD171" s="10"/>
       <c r="AE171" s="7"/>
     </row>
-    <row r="172" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:31">
       <c r="D172" s="19">
         <v>1</v>
       </c>
@@ -6918,7 +6944,7 @@
       <c r="AD172" s="10"/>
       <c r="AE172" s="7"/>
     </row>
-    <row r="173" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:31">
       <c r="D173" s="18">
         <v>1</v>
       </c>
@@ -6935,7 +6961,7 @@
       <c r="AD173" s="10"/>
       <c r="AE173" s="7"/>
     </row>
-    <row r="174" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:31">
       <c r="D174" s="19">
         <v>1</v>
       </c>
@@ -6952,7 +6978,7 @@
       <c r="AD174" s="10"/>
       <c r="AE174" s="7"/>
     </row>
-    <row r="175" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:31">
       <c r="D175" s="18">
         <v>1</v>
       </c>
@@ -6969,7 +6995,7 @@
       <c r="AD175" s="10"/>
       <c r="AE175" s="7"/>
     </row>
-    <row r="176" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:31">
       <c r="D176" s="19">
         <v>1</v>
       </c>
@@ -6986,7 +7012,7 @@
       <c r="AD176" s="10"/>
       <c r="AE176" s="7"/>
     </row>
-    <row r="177" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:31">
       <c r="D177" s="18">
         <v>1</v>
       </c>
@@ -7003,7 +7029,7 @@
       <c r="AD177" s="10"/>
       <c r="AE177" s="7"/>
     </row>
-    <row r="178" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:31">
       <c r="D178" s="19">
         <v>1</v>
       </c>
@@ -7020,7 +7046,7 @@
       <c r="AD178" s="10"/>
       <c r="AE178" s="7"/>
     </row>
-    <row r="179" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:31">
       <c r="D179" s="18">
         <v>1</v>
       </c>
@@ -7037,7 +7063,7 @@
       <c r="AD179" s="10"/>
       <c r="AE179" s="7"/>
     </row>
-    <row r="180" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:31">
       <c r="D180" s="19">
         <v>1</v>
       </c>
@@ -7054,7 +7080,7 @@
       <c r="AD180" s="10"/>
       <c r="AE180" s="7"/>
     </row>
-    <row r="181" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:31">
       <c r="D181" s="18">
         <v>1</v>
       </c>
@@ -7071,7 +7097,7 @@
       <c r="AD181" s="10"/>
       <c r="AE181" s="7"/>
     </row>
-    <row r="182" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:31">
       <c r="D182" s="19">
         <v>1</v>
       </c>
@@ -7088,7 +7114,7 @@
       <c r="AD182" s="10"/>
       <c r="AE182" s="7"/>
     </row>
-    <row r="183" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:31">
       <c r="D183" s="18">
         <v>1</v>
       </c>
@@ -7105,7 +7131,7 @@
       <c r="AD183" s="10"/>
       <c r="AE183" s="7"/>
     </row>
-    <row r="184" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:31">
       <c r="D184" s="19">
         <v>1</v>
       </c>
@@ -7122,7 +7148,7 @@
       <c r="AD184" s="10"/>
       <c r="AE184" s="7"/>
     </row>
-    <row r="185" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:31">
       <c r="D185" s="18">
         <v>1</v>
       </c>
@@ -7139,7 +7165,7 @@
       <c r="AD185" s="10"/>
       <c r="AE185" s="7"/>
     </row>
-    <row r="186" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:31">
       <c r="D186" s="19">
         <v>1</v>
       </c>
@@ -7156,7 +7182,7 @@
       <c r="AD186" s="10"/>
       <c r="AE186" s="7"/>
     </row>
-    <row r="187" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:31">
       <c r="D187" s="18">
         <v>1</v>
       </c>
@@ -7173,7 +7199,7 @@
       <c r="AD187" s="10"/>
       <c r="AE187" s="7"/>
     </row>
-    <row r="188" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:31">
       <c r="D188" s="19">
         <v>1</v>
       </c>
@@ -7190,7 +7216,7 @@
       <c r="AD188" s="10"/>
       <c r="AE188" s="7"/>
     </row>
-    <row r="189" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:31">
       <c r="D189" s="18">
         <v>1</v>
       </c>
@@ -7207,7 +7233,7 @@
       <c r="AD189" s="10"/>
       <c r="AE189" s="7"/>
     </row>
-    <row r="190" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:31">
       <c r="D190" s="19">
         <v>1</v>
       </c>
@@ -7224,7 +7250,7 @@
       <c r="AD190" s="10"/>
       <c r="AE190" s="7"/>
     </row>
-    <row r="191" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:31">
       <c r="D191" s="18">
         <v>1</v>
       </c>
@@ -7241,7 +7267,7 @@
       <c r="AD191" s="10"/>
       <c r="AE191" s="7"/>
     </row>
-    <row r="192" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:31">
       <c r="D192" s="19">
         <v>1</v>
       </c>
@@ -7258,7 +7284,7 @@
       <c r="AD192" s="10"/>
       <c r="AE192" s="7"/>
     </row>
-    <row r="193" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:31">
       <c r="D193" s="18">
         <v>1</v>
       </c>
@@ -7275,7 +7301,7 @@
       <c r="AD193" s="10"/>
       <c r="AE193" s="7"/>
     </row>
-    <row r="194" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:31">
       <c r="D194" s="19">
         <v>1</v>
       </c>
@@ -7292,7 +7318,7 @@
       <c r="AD194" s="10"/>
       <c r="AE194" s="7"/>
     </row>
-    <row r="195" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:31">
       <c r="D195" s="18">
         <v>1</v>
       </c>
@@ -7309,7 +7335,7 @@
       <c r="AD195" s="10"/>
       <c r="AE195" s="7"/>
     </row>
-    <row r="196" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:31">
       <c r="D196" s="19">
         <v>1</v>
       </c>
@@ -7326,7 +7352,7 @@
       <c r="AD196" s="10"/>
       <c r="AE196" s="7"/>
     </row>
-    <row r="197" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:31">
       <c r="D197" s="18">
         <v>1</v>
       </c>
@@ -7343,7 +7369,7 @@
       <c r="AD197" s="10"/>
       <c r="AE197" s="7"/>
     </row>
-    <row r="198" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:31">
       <c r="D198" s="19">
         <v>1</v>
       </c>
@@ -7360,7 +7386,7 @@
       <c r="AD198" s="10"/>
       <c r="AE198" s="7"/>
     </row>
-    <row r="199" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:31">
       <c r="D199" s="18">
         <v>1</v>
       </c>
@@ -7375,7 +7401,7 @@
       <c r="AD199" s="10"/>
       <c r="AE199" s="7"/>
     </row>
-    <row r="200" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:31">
       <c r="D200" s="19">
         <v>1</v>
       </c>
@@ -7390,7 +7416,7 @@
       <c r="AD200" s="10"/>
       <c r="AE200" s="7"/>
     </row>
-    <row r="201" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:31">
       <c r="D201" s="18">
         <v>1</v>
       </c>
@@ -7405,7 +7431,7 @@
       <c r="AD201" s="10"/>
       <c r="AE201" s="7"/>
     </row>
-    <row r="202" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:31">
       <c r="D202" s="19">
         <v>1</v>
       </c>
@@ -7420,7 +7446,7 @@
       <c r="AD202" s="10"/>
       <c r="AE202" s="7"/>
     </row>
-    <row r="203" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:31">
       <c r="D203" s="18">
         <v>1</v>
       </c>
@@ -7433,7 +7459,7 @@
       <c r="AD203" s="10"/>
       <c r="AE203" s="7"/>
     </row>
-    <row r="204" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:31">
       <c r="D204" s="19">
         <v>1</v>
       </c>
@@ -7446,7 +7472,7 @@
       <c r="AD204" s="10"/>
       <c r="AE204" s="7"/>
     </row>
-    <row r="205" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:31">
       <c r="D205" s="18">
         <v>1</v>
       </c>
@@ -7459,7 +7485,7 @@
       <c r="AD205" s="10"/>
       <c r="AE205" s="7"/>
     </row>
-    <row r="206" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:31">
       <c r="D206" s="19">
         <v>1</v>
       </c>
@@ -7472,7 +7498,7 @@
       <c r="AD206" s="10"/>
       <c r="AE206" s="7"/>
     </row>
-    <row r="207" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:31">
       <c r="D207" s="18">
         <v>1</v>
       </c>
@@ -7485,7 +7511,7 @@
       <c r="AD207" s="10"/>
       <c r="AE207" s="7"/>
     </row>
-    <row r="208" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:31">
       <c r="D208" s="19">
         <v>1</v>
       </c>
@@ -7498,7 +7524,7 @@
       <c r="AD208" s="10"/>
       <c r="AE208" s="7"/>
     </row>
-    <row r="209" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:31">
       <c r="D209" s="18">
         <v>1</v>
       </c>
@@ -7511,7 +7537,7 @@
       <c r="AD209" s="10"/>
       <c r="AE209" s="7"/>
     </row>
-    <row r="210" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:31">
       <c r="D210" s="19">
         <v>1</v>
       </c>
@@ -7524,7 +7550,7 @@
       <c r="AD210" s="10"/>
       <c r="AE210" s="7"/>
     </row>
-    <row r="211" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:31">
       <c r="D211" s="18">
         <v>1</v>
       </c>
@@ -7537,7 +7563,7 @@
       <c r="AD211" s="10"/>
       <c r="AE211" s="7"/>
     </row>
-    <row r="212" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:31">
       <c r="D212" s="19">
         <v>1</v>
       </c>
@@ -7550,7 +7576,7 @@
       <c r="AD212" s="10"/>
       <c r="AE212" s="7"/>
     </row>
-    <row r="213" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:31">
       <c r="D213" s="18">
         <v>1</v>
       </c>
@@ -7563,7 +7589,7 @@
       <c r="AD213" s="10"/>
       <c r="AE213" s="7"/>
     </row>
-    <row r="214" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:31">
       <c r="D214" s="19">
         <v>1</v>
       </c>
@@ -7576,7 +7602,7 @@
       <c r="AD214" s="10"/>
       <c r="AE214" s="7"/>
     </row>
-    <row r="215" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:31">
       <c r="D215" s="18">
         <v>1</v>
       </c>
@@ -7589,7 +7615,7 @@
       <c r="AD215" s="10"/>
       <c r="AE215" s="7"/>
     </row>
-    <row r="216" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:31">
       <c r="D216" s="19">
         <v>1</v>
       </c>
@@ -7602,7 +7628,7 @@
       <c r="AD216" s="10"/>
       <c r="AE216" s="7"/>
     </row>
-    <row r="217" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:31">
       <c r="D217" s="18">
         <v>1</v>
       </c>
@@ -7615,7 +7641,7 @@
       <c r="AD217" s="10"/>
       <c r="AE217" s="7"/>
     </row>
-    <row r="218" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:31">
       <c r="D218" s="19">
         <v>1</v>
       </c>
@@ -7628,7 +7654,7 @@
       <c r="AD218" s="10"/>
       <c r="AE218" s="7"/>
     </row>
-    <row r="219" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:31">
       <c r="D219" s="18">
         <v>1</v>
       </c>
@@ -7641,7 +7667,7 @@
       <c r="AD219" s="10"/>
       <c r="AE219" s="7"/>
     </row>
-    <row r="220" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:31">
       <c r="D220" s="19">
         <v>1</v>
       </c>
@@ -7654,7 +7680,7 @@
       <c r="AD220" s="10"/>
       <c r="AE220" s="7"/>
     </row>
-    <row r="221" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:31">
       <c r="D221" s="18">
         <v>1</v>
       </c>
@@ -7667,7 +7693,7 @@
       <c r="AD221" s="10"/>
       <c r="AE221" s="7"/>
     </row>
-    <row r="222" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:31">
       <c r="D222" s="19">
         <v>1</v>
       </c>
@@ -7680,7 +7706,7 @@
       <c r="AD222" s="10"/>
       <c r="AE222" s="7"/>
     </row>
-    <row r="223" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:31">
       <c r="D223" s="18">
         <v>1</v>
       </c>
@@ -7693,7 +7719,7 @@
       <c r="AD223" s="10"/>
       <c r="AE223" s="7"/>
     </row>
-    <row r="224" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:31">
       <c r="D224" s="19">
         <v>1</v>
       </c>
@@ -7706,7 +7732,7 @@
       <c r="AD224" s="10"/>
       <c r="AE224" s="7"/>
     </row>
-    <row r="225" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:31">
       <c r="D225" s="18">
         <v>1</v>
       </c>
@@ -7719,7 +7745,7 @@
       <c r="AD225" s="10"/>
       <c r="AE225" s="7"/>
     </row>
-    <row r="226" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:31">
       <c r="D226" s="19">
         <v>1</v>
       </c>
@@ -7732,7 +7758,7 @@
       <c r="AD226" s="10"/>
       <c r="AE226" s="7"/>
     </row>
-    <row r="227" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:31">
       <c r="D227" s="18">
         <v>1</v>
       </c>
@@ -7745,7 +7771,7 @@
       <c r="AD227" s="10"/>
       <c r="AE227" s="7"/>
     </row>
-    <row r="228" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:31">
       <c r="D228" s="19">
         <v>1</v>
       </c>
@@ -7758,7 +7784,7 @@
       <c r="AD228" s="10"/>
       <c r="AE228" s="7"/>
     </row>
-    <row r="229" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:31">
       <c r="D229" s="18">
         <v>1</v>
       </c>
@@ -7771,7 +7797,7 @@
       <c r="AD229" s="10"/>
       <c r="AE229" s="7"/>
     </row>
-    <row r="230" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:31">
       <c r="D230" s="19">
         <v>1</v>
       </c>
@@ -7784,7 +7810,7 @@
       <c r="AD230" s="10"/>
       <c r="AE230" s="7"/>
     </row>
-    <row r="231" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:31">
       <c r="D231" s="18">
         <v>1</v>
       </c>
@@ -7797,7 +7823,7 @@
       <c r="AD231" s="10"/>
       <c r="AE231" s="7"/>
     </row>
-    <row r="232" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:31">
       <c r="D232" s="19">
         <v>1</v>
       </c>
@@ -7810,7 +7836,7 @@
       <c r="AD232" s="10"/>
       <c r="AE232" s="7"/>
     </row>
-    <row r="233" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:31">
       <c r="D233" s="18">
         <v>1</v>
       </c>
@@ -7823,7 +7849,7 @@
       <c r="AD233" s="10"/>
       <c r="AE233" s="7"/>
     </row>
-    <row r="234" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:31">
       <c r="D234" s="19">
         <v>1</v>
       </c>
@@ -7836,7 +7862,7 @@
       <c r="AD234" s="10"/>
       <c r="AE234" s="7"/>
     </row>
-    <row r="235" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:31">
       <c r="D235" s="18">
         <v>1</v>
       </c>
@@ -7849,7 +7875,7 @@
       <c r="AD235" s="10"/>
       <c r="AE235" s="7"/>
     </row>
-    <row r="236" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:31">
       <c r="D236" s="19">
         <v>1</v>
       </c>
@@ -7862,7 +7888,7 @@
       <c r="AD236" s="10"/>
       <c r="AE236" s="7"/>
     </row>
-    <row r="237" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:31">
       <c r="D237" s="18">
         <v>1</v>
       </c>
@@ -7875,7 +7901,7 @@
       <c r="AD237" s="10"/>
       <c r="AE237" s="7"/>
     </row>
-    <row r="238" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:31">
       <c r="D238" s="19">
         <v>1</v>
       </c>
@@ -7888,7 +7914,7 @@
       <c r="AD238" s="10"/>
       <c r="AE238" s="7"/>
     </row>
-    <row r="239" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:31">
       <c r="D239" s="18">
         <v>1</v>
       </c>
@@ -7901,7 +7927,7 @@
       <c r="AD239" s="10"/>
       <c r="AE239" s="7"/>
     </row>
-    <row r="240" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:31">
       <c r="D240" s="19">
         <v>1</v>
       </c>
@@ -7914,7 +7940,7 @@
       <c r="AD240" s="10"/>
       <c r="AE240" s="7"/>
     </row>
-    <row r="241" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:31">
       <c r="D241" s="18">
         <v>1</v>
       </c>
@@ -7927,7 +7953,7 @@
       <c r="AD241" s="10"/>
       <c r="AE241" s="7"/>
     </row>
-    <row r="242" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:31">
       <c r="D242" s="19">
         <v>1</v>
       </c>
@@ -7940,7 +7966,7 @@
       <c r="AD242" s="10"/>
       <c r="AE242" s="7"/>
     </row>
-    <row r="243" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:31">
       <c r="D243" s="18">
         <v>1</v>
       </c>
@@ -7953,7 +7979,7 @@
       <c r="AD243" s="10"/>
       <c r="AE243" s="7"/>
     </row>
-    <row r="244" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:31">
       <c r="D244" s="19">
         <v>1</v>
       </c>
@@ -7966,7 +7992,7 @@
       <c r="AD244" s="10"/>
       <c r="AE244" s="7"/>
     </row>
-    <row r="245" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:31">
       <c r="D245" s="18">
         <v>1</v>
       </c>
@@ -7979,7 +8005,7 @@
       <c r="AD245" s="10"/>
       <c r="AE245" s="7"/>
     </row>
-    <row r="246" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:31">
       <c r="D246" s="19">
         <v>1</v>
       </c>
@@ -7992,7 +8018,7 @@
       <c r="AD246" s="10"/>
       <c r="AE246" s="7"/>
     </row>
-    <row r="247" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:31">
       <c r="D247" s="18">
         <v>1</v>
       </c>
@@ -8005,7 +8031,7 @@
       <c r="AD247" s="10"/>
       <c r="AE247" s="7"/>
     </row>
-    <row r="248" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:31">
       <c r="D248" s="19">
         <v>1</v>
       </c>
@@ -8018,7 +8044,7 @@
       <c r="AD248" s="10"/>
       <c r="AE248" s="7"/>
     </row>
-    <row r="249" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:31">
       <c r="D249" s="18">
         <v>1</v>
       </c>
@@ -8031,7 +8057,7 @@
       <c r="AD249" s="10"/>
       <c r="AE249" s="7"/>
     </row>
-    <row r="250" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:31">
       <c r="D250" s="19">
         <v>1</v>
       </c>
@@ -8044,7 +8070,7 @@
       <c r="AD250" s="10"/>
       <c r="AE250" s="7"/>
     </row>
-    <row r="251" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:31">
       <c r="D251" s="18">
         <v>1</v>
       </c>
@@ -8057,7 +8083,7 @@
       <c r="AD251" s="10"/>
       <c r="AE251" s="7"/>
     </row>
-    <row r="252" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:31">
       <c r="D252" s="19">
         <v>1</v>
       </c>
@@ -8070,7 +8096,7 @@
       <c r="AD252" s="10"/>
       <c r="AE252" s="7"/>
     </row>
-    <row r="253" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:31">
       <c r="D253" s="18">
         <v>1</v>
       </c>
@@ -8083,7 +8109,7 @@
       <c r="AD253" s="10"/>
       <c r="AE253" s="7"/>
     </row>
-    <row r="254" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:31">
       <c r="D254" s="19">
         <v>1</v>
       </c>
@@ -8096,7 +8122,7 @@
       <c r="AD254" s="10"/>
       <c r="AE254" s="7"/>
     </row>
-    <row r="255" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:31">
       <c r="D255" s="18">
         <v>1</v>
       </c>
@@ -8109,7 +8135,7 @@
       <c r="AD255" s="10"/>
       <c r="AE255" s="7"/>
     </row>
-    <row r="256" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:31">
       <c r="D256" s="19">
         <v>1</v>
       </c>
@@ -8122,7 +8148,7 @@
       <c r="AD256" s="10"/>
       <c r="AE256" s="7"/>
     </row>
-    <row r="257" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:31">
       <c r="D257" s="18">
         <v>1</v>
       </c>
@@ -8135,7 +8161,7 @@
       <c r="AD257" s="10"/>
       <c r="AE257" s="7"/>
     </row>
-    <row r="258" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:31">
       <c r="D258" s="19">
         <v>1</v>
       </c>
@@ -8146,7 +8172,7 @@
       <c r="AD258" s="10"/>
       <c r="AE258" s="7"/>
     </row>
-    <row r="259" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:31">
       <c r="D259" s="18">
         <v>1</v>
       </c>
@@ -8155,7 +8181,7 @@
       <c r="AD259" s="10"/>
       <c r="AE259" s="7"/>
     </row>
-    <row r="260" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:31">
       <c r="D260" s="19">
         <v>1</v>
       </c>
@@ -8164,7 +8190,7 @@
       <c r="AD260" s="10"/>
       <c r="AE260" s="7"/>
     </row>
-    <row r="261" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:31">
       <c r="D261" s="18">
         <v>1</v>
       </c>
@@ -8173,7 +8199,7 @@
       <c r="AD261" s="10"/>
       <c r="AE261" s="7"/>
     </row>
-    <row r="262" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:31">
       <c r="D262" s="19">
         <v>1</v>
       </c>
@@ -8182,7 +8208,7 @@
       <c r="AD262" s="10"/>
       <c r="AE262" s="7"/>
     </row>
-    <row r="263" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:31">
       <c r="D263" s="18">
         <v>1</v>
       </c>
@@ -8191,7 +8217,7 @@
       <c r="AD263" s="10"/>
       <c r="AE263" s="7"/>
     </row>
-    <row r="264" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:31">
       <c r="D264" s="19">
         <v>1</v>
       </c>
@@ -8200,7 +8226,7 @@
       <c r="AD264" s="10"/>
       <c r="AE264" s="7"/>
     </row>
-    <row r="265" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:31">
       <c r="D265" s="18">
         <v>1</v>
       </c>
@@ -8209,7 +8235,7 @@
       <c r="AD265" s="10"/>
       <c r="AE265" s="7"/>
     </row>
-    <row r="266" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:31">
       <c r="D266" s="19">
         <v>1</v>
       </c>
@@ -8218,7 +8244,7 @@
       <c r="AD266" s="10"/>
       <c r="AE266" s="7"/>
     </row>
-    <row r="267" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:31">
       <c r="D267" s="18">
         <v>1</v>
       </c>
@@ -8227,7 +8253,7 @@
       <c r="AD267" s="10"/>
       <c r="AE267" s="7"/>
     </row>
-    <row r="268" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:31">
       <c r="D268" s="19">
         <v>1</v>
       </c>
@@ -8236,7 +8262,7 @@
       <c r="AD268" s="10"/>
       <c r="AE268" s="7"/>
     </row>
-    <row r="269" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:31">
       <c r="D269" s="18">
         <v>1</v>
       </c>
@@ -8245,7 +8271,7 @@
       <c r="AD269" s="10"/>
       <c r="AE269" s="7"/>
     </row>
-    <row r="270" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:31">
       <c r="D270" s="19">
         <v>1</v>
       </c>
@@ -8254,7 +8280,7 @@
       <c r="AD270" s="10"/>
       <c r="AE270" s="7"/>
     </row>
-    <row r="271" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:31">
       <c r="D271" s="18">
         <v>1</v>
       </c>
@@ -8263,7 +8289,7 @@
       <c r="AD271" s="10"/>
       <c r="AE271" s="7"/>
     </row>
-    <row r="272" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:31">
       <c r="D272" s="19">
         <v>1</v>
       </c>
@@ -8272,7 +8298,7 @@
       <c r="AD272" s="10"/>
       <c r="AE272" s="7"/>
     </row>
-    <row r="273" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:31">
       <c r="D273" s="18">
         <v>1</v>
       </c>
@@ -8281,7 +8307,7 @@
       <c r="AD273" s="10"/>
       <c r="AE273" s="7"/>
     </row>
-    <row r="274" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:31">
       <c r="D274" s="19">
         <v>1</v>
       </c>
@@ -8290,7 +8316,7 @@
       <c r="AD274" s="10"/>
       <c r="AE274" s="7"/>
     </row>
-    <row r="275" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:31">
       <c r="D275" s="18">
         <v>1</v>
       </c>
@@ -8299,7 +8325,7 @@
       <c r="AD275" s="10"/>
       <c r="AE275" s="7"/>
     </row>
-    <row r="276" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:31">
       <c r="D276" s="19">
         <v>1</v>
       </c>
@@ -8308,7 +8334,7 @@
       <c r="AD276" s="10"/>
       <c r="AE276" s="7"/>
     </row>
-    <row r="277" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:31">
       <c r="D277" s="18">
         <v>1</v>
       </c>
@@ -8317,7 +8343,7 @@
       <c r="AD277" s="10"/>
       <c r="AE277" s="7"/>
     </row>
-    <row r="278" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:31">
       <c r="D278" s="19">
         <v>1</v>
       </c>
@@ -8326,7 +8352,7 @@
       <c r="AD278" s="10"/>
       <c r="AE278" s="7"/>
     </row>
-    <row r="279" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:31">
       <c r="D279" s="18">
         <v>1</v>
       </c>
@@ -8335,315 +8361,315 @@
       <c r="AD279" s="10"/>
       <c r="AE279" s="7"/>
     </row>
-    <row r="280" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:31">
       <c r="D280" s="19">
         <v>1</v>
       </c>
       <c r="E280" s="19"/>
       <c r="F280" s="67"/>
     </row>
-    <row r="281" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:31">
       <c r="D281" s="18">
         <v>1</v>
       </c>
       <c r="E281" s="18"/>
       <c r="F281" s="66"/>
     </row>
-    <row r="282" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:31">
       <c r="D282" s="19">
         <v>1</v>
       </c>
       <c r="E282" s="19"/>
       <c r="F282" s="67"/>
     </row>
-    <row r="283" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:31">
       <c r="D283" s="18">
         <v>1</v>
       </c>
       <c r="E283" s="18"/>
       <c r="F283" s="66"/>
     </row>
-    <row r="284" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:31">
       <c r="D284" s="19">
         <v>1</v>
       </c>
       <c r="E284" s="19"/>
       <c r="F284" s="67"/>
     </row>
-    <row r="285" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:31">
       <c r="D285" s="18">
         <v>1</v>
       </c>
       <c r="E285" s="18"/>
       <c r="F285" s="66"/>
     </row>
-    <row r="286" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:31">
       <c r="D286" s="19">
         <v>1</v>
       </c>
       <c r="E286" s="19"/>
       <c r="F286" s="67"/>
     </row>
-    <row r="287" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:31">
       <c r="D287" s="18">
         <v>1</v>
       </c>
       <c r="E287" s="18"/>
       <c r="F287" s="66"/>
     </row>
-    <row r="288" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:31">
       <c r="D288" s="19">
         <v>1</v>
       </c>
       <c r="E288" s="19"/>
       <c r="F288" s="67"/>
     </row>
-    <row r="289" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:6">
       <c r="D289" s="18">
         <v>1</v>
       </c>
       <c r="E289" s="18"/>
       <c r="F289" s="66"/>
     </row>
-    <row r="290" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:6">
       <c r="D290" s="19">
         <v>1</v>
       </c>
       <c r="E290" s="19"/>
       <c r="F290" s="67"/>
     </row>
-    <row r="291" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:6">
       <c r="D291" s="18">
         <v>1</v>
       </c>
       <c r="E291" s="18"/>
       <c r="F291" s="66"/>
     </row>
-    <row r="292" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:6">
       <c r="D292" s="19">
         <v>1</v>
       </c>
       <c r="E292" s="19"/>
       <c r="F292" s="67"/>
     </row>
-    <row r="293" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:6">
       <c r="D293" s="18">
         <v>1</v>
       </c>
       <c r="E293" s="18"/>
       <c r="F293" s="66"/>
     </row>
-    <row r="294" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:6">
       <c r="D294" s="19">
         <v>1</v>
       </c>
       <c r="E294" s="19"/>
       <c r="F294" s="67"/>
     </row>
-    <row r="295" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:6">
       <c r="D295" s="18">
         <v>1</v>
       </c>
       <c r="E295" s="18"/>
       <c r="F295" s="66"/>
     </row>
-    <row r="296" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:6">
       <c r="D296" s="19">
         <v>1</v>
       </c>
       <c r="E296" s="19"/>
       <c r="F296" s="67"/>
     </row>
-    <row r="297" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:6">
       <c r="D297" s="18">
         <v>1</v>
       </c>
       <c r="E297" s="18"/>
       <c r="F297" s="66"/>
     </row>
-    <row r="298" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:6">
       <c r="D298" s="19">
         <v>1</v>
       </c>
       <c r="E298" s="19"/>
       <c r="F298" s="67"/>
     </row>
-    <row r="299" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:6">
       <c r="D299" s="18">
         <v>1</v>
       </c>
       <c r="E299" s="18"/>
       <c r="F299" s="66"/>
     </row>
-    <row r="300" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:6">
       <c r="D300" s="19">
         <v>1</v>
       </c>
       <c r="E300" s="19"/>
       <c r="F300" s="67"/>
     </row>
-    <row r="301" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:6">
       <c r="D301" s="18">
         <v>1</v>
       </c>
       <c r="E301" s="18"/>
       <c r="F301" s="66"/>
     </row>
-    <row r="302" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:6">
       <c r="D302" s="19">
         <v>1</v>
       </c>
       <c r="E302" s="19"/>
       <c r="F302" s="67"/>
     </row>
-    <row r="303" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:6">
       <c r="D303" s="18">
         <v>1</v>
       </c>
       <c r="E303" s="18"/>
       <c r="F303" s="66"/>
     </row>
-    <row r="304" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:6">
       <c r="D304" s="19">
         <v>1</v>
       </c>
       <c r="E304" s="19"/>
       <c r="F304" s="67"/>
     </row>
-    <row r="305" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:6">
       <c r="D305" s="18">
         <v>1</v>
       </c>
       <c r="E305" s="18"/>
       <c r="F305" s="66"/>
     </row>
-    <row r="306" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:6">
       <c r="D306" s="19">
         <v>1</v>
       </c>
       <c r="E306" s="19"/>
       <c r="F306" s="67"/>
     </row>
-    <row r="307" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:6">
       <c r="D307" s="18">
         <v>1</v>
       </c>
       <c r="E307" s="18"/>
       <c r="F307" s="66"/>
     </row>
-    <row r="308" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:6">
       <c r="D308" s="19">
         <v>1</v>
       </c>
       <c r="E308" s="19"/>
       <c r="F308" s="67"/>
     </row>
-    <row r="309" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:6">
       <c r="D309" s="18">
         <v>1</v>
       </c>
       <c r="E309" s="18"/>
       <c r="F309" s="66"/>
     </row>
-    <row r="310" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:6">
       <c r="D310" s="19">
         <v>1</v>
       </c>
       <c r="E310" s="19"/>
       <c r="F310" s="67"/>
     </row>
-    <row r="311" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:6">
       <c r="D311" s="18">
         <v>1</v>
       </c>
       <c r="E311" s="18"/>
       <c r="F311" s="66"/>
     </row>
-    <row r="312" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:6">
       <c r="D312" s="19">
         <v>1</v>
       </c>
       <c r="E312" s="19"/>
       <c r="F312" s="67"/>
     </row>
-    <row r="313" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:6">
       <c r="D313" s="18">
         <v>1</v>
       </c>
       <c r="E313" s="18"/>
       <c r="F313" s="66"/>
     </row>
-    <row r="314" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:6">
       <c r="D314" s="19">
         <v>1</v>
       </c>
       <c r="E314" s="19"/>
       <c r="F314" s="67"/>
     </row>
-    <row r="315" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:6">
       <c r="D315" s="18">
         <v>1</v>
       </c>
       <c r="E315" s="18"/>
       <c r="F315" s="66"/>
     </row>
-    <row r="316" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:6">
       <c r="D316" s="19">
         <v>1</v>
       </c>
       <c r="E316" s="19"/>
       <c r="F316" s="67"/>
     </row>
-    <row r="317" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:6">
       <c r="D317" s="18">
         <v>1</v>
       </c>
       <c r="E317" s="18"/>
       <c r="F317" s="66"/>
     </row>
-    <row r="318" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:6">
       <c r="D318" s="19">
         <v>1</v>
       </c>
       <c r="E318" s="19"/>
       <c r="F318" s="67"/>
     </row>
-    <row r="319" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:6">
       <c r="D319" s="18">
         <v>1</v>
       </c>
       <c r="E319" s="18"/>
       <c r="F319" s="66"/>
     </row>
-    <row r="320" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:6">
       <c r="D320" s="19">
         <v>1</v>
       </c>
       <c r="E320" s="19"/>
       <c r="F320" s="67"/>
     </row>
-    <row r="321" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:6">
       <c r="D321" s="18">
         <v>1</v>
       </c>
       <c r="E321" s="18"/>
       <c r="F321" s="66"/>
     </row>
-    <row r="322" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:6">
       <c r="D322" s="19">
         <v>1</v>
       </c>
       <c r="E322" s="19"/>
       <c r="F322" s="67"/>
     </row>
-    <row r="323" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:6">
       <c r="D323" s="18">
         <v>1</v>
       </c>
       <c r="E323" s="18"/>
       <c r="F323" s="66"/>
     </row>
-    <row r="324" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:6">
       <c r="D324" s="19">
         <v>1</v>
       </c>
@@ -8672,19 +8698,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="61.125" customWidth="1"/>
+    <col min="1" max="1" width="61.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="32">
       <c r="A1" s="51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -8693,115 +8719,115 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4:C21"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3">
       <c r="B4" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="56"/>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="56"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="56" t="s">
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C7" s="56" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="56" t="s">
+    <row r="8" spans="2:3">
+      <c r="B8" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C8" s="56" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="56" t="s">
+    <row r="9" spans="2:3">
+      <c r="B9" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C9" s="56" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="56" t="s">
+    <row r="10" spans="2:3">
+      <c r="B10" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C10" s="56" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="56" t="s">
+    <row r="11" spans="2:3">
+      <c r="B11" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C11" s="56" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="56" t="s">
+    <row r="13" spans="2:3">
+      <c r="B13" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C13" s="56"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="56" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="56" t="s">
+      <c r="C14" s="56"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="56"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="56" t="s">
+      <c r="C15" s="56"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="56"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="56" t="s">
+      <c r="C16" s="56"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="56"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="56" t="s">
+      <c r="C17" s="56"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="56"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="56" t="s">
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="56"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="56" t="s">
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="56" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="56" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/gantt_chart_update.xlsx
+++ b/gantt_chart_update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mlawson/Documents/GitHub/hfm_integration_demonstration_plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854CA85C-E782-5B44-91B5-39A811243285}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C8EDC6-C416-584C-A497-779626EB1FE8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="460" windowWidth="32460" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/gantt_chart_update.xlsx
+++ b/gantt_chart_update.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mlawson/Documents/GitHub/hfm_integration_demonstration_plan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcmania\Documents\GitHub\hfm_integration_demonstration_plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C8EDC6-C416-584C-A497-779626EB1FE8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="460" windowWidth="32460" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="465" windowWidth="32460" windowHeight="20535" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ECP Integration &amp; Demonstration" sheetId="1" r:id="rId1"/>
     <sheet name="Notes" sheetId="4" r:id="rId2"/>
     <sheet name="ValidationCases" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="187">
   <si>
     <t>1.1.1</t>
   </si>
@@ -464,19 +463,7 @@
     <t>Uncertinity and coordination between the ABL team and the integration/demo team is needed</t>
   </si>
   <si>
-    <t>Months</t>
-  </si>
-  <si>
-    <t>FTE</t>
-  </si>
-  <si>
     <t>Wake Dynamics</t>
-  </si>
-  <si>
-    <t>Total Task 1+2 months</t>
-  </si>
-  <si>
-    <t>Total Task 1+2 FTE</t>
   </si>
   <si>
     <t>3.1.13</t>
@@ -573,17 +560,75 @@
       <t>[Critical, work will be performed in ABL area]</t>
     </r>
   </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>Person Months</t>
+  </si>
+  <si>
+    <t>4.1.0</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>4.1.2</t>
+  </si>
+  <si>
+    <t>Integrated Airfoil Analysis</t>
+  </si>
+  <si>
+    <t>Compile wind tunnel test data from literature</t>
+  </si>
+  <si>
+    <t>Mesh each airfoil and analyze in 2D or quasi-2D in Nalu</t>
+  </si>
+  <si>
+    <t>4.1.3</t>
+  </si>
+  <si>
+    <t>Quantify error and propagate to blade/rotor</t>
+  </si>
+  <si>
+    <t>Hybrid RANS-LES tests 1 airfoil, no unsteady</t>
+  </si>
+  <si>
+    <t>Maniaci</t>
+  </si>
+  <si>
+    <t>Blaylock / Maniaci/ Lawson</t>
+  </si>
+  <si>
+    <t>Compare to wind tunnel data, report results</t>
+  </si>
+  <si>
+    <t>4.1.4</t>
+  </si>
+  <si>
+    <t>Total PM</t>
+  </si>
+  <si>
+    <t>Total FTE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="11">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -649,20 +694,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)_x0000_"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -696,13 +733,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -894,51 +926,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -949,29 +1037,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -980,90 +1068,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Calculation" xfId="5" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1340,155 +1433,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL324"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC51" sqref="AC51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="67.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="36.1640625" style="68" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.125" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="36.125" style="68" customWidth="1"/>
+    <col min="7" max="7" width="4.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="3.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.875" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.5" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.125" style="5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.875" style="5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="4.5" style="5" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.83203125" customWidth="1"/>
+    <col min="32" max="32" width="4.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" ht="19">
+    <row r="1" spans="1:38" s="2" customFormat="1" ht="18.75">
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="F1" s="63"/>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87" t="s">
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87" t="s">
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="87"/>
-    </row>
-    <row r="2" spans="1:38" s="2" customFormat="1" ht="19">
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="93"/>
+      <c r="AJ1" s="93"/>
+    </row>
+    <row r="2" spans="1:38" s="2" customFormat="1" ht="18.75">
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="63"/>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="91" t="s">
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="89"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="89" t="s">
+      <c r="K2" s="95"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="89"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="91" t="s">
+      <c r="N2" s="95"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="91" t="s">
+      <c r="Q2" s="95"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="89"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="91" t="s">
+      <c r="T2" s="95"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="89"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="89" t="s">
+      <c r="W2" s="95"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="89" t="s">
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="90"/>
-      <c r="AE2" s="91" t="s">
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="89"/>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="89" t="s">
+      <c r="AF2" s="95"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="AI2" s="89"/>
-      <c r="AJ2" s="90"/>
-    </row>
-    <row r="3" spans="1:38" s="2" customFormat="1" ht="19">
+      <c r="AI2" s="95"/>
+      <c r="AJ2" s="96"/>
+    </row>
+    <row r="3" spans="1:38" s="2" customFormat="1" ht="18.75">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1595,7 +1688,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="48">
+    <row r="4" spans="1:38" ht="47.25">
       <c r="A4" s="23" t="s">
         <v>15</v>
       </c>
@@ -1652,8 +1745,12 @@
         <v>51</v>
       </c>
       <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="62"/>
+      <c r="E5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>170</v>
+      </c>
       <c r="G5" s="52"/>
       <c r="H5" s="53"/>
       <c r="I5"/>
@@ -1697,8 +1794,12 @@
         <v>83</v>
       </c>
       <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="47"/>
+      <c r="E6" s="32">
+        <v>1</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>170</v>
+      </c>
       <c r="G6" s="12"/>
       <c r="H6" s="53"/>
       <c r="I6" s="54"/>
@@ -1799,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="8"/>
@@ -1832,7 +1933,7 @@
       <c r="AI8" s="8"/>
       <c r="AJ8" s="14"/>
     </row>
-    <row r="9" spans="1:38" s="59" customFormat="1" ht="32">
+    <row r="9" spans="1:38" s="59" customFormat="1" ht="31.5">
       <c r="A9" s="20" t="s">
         <v>4</v>
       </c>
@@ -1883,7 +1984,7 @@
       <c r="AJ9" s="14"/>
       <c r="AK9"/>
     </row>
-    <row r="10" spans="1:38" s="59" customFormat="1" ht="32">
+    <row r="10" spans="1:38" s="59" customFormat="1" ht="31.5">
       <c r="A10" s="20" t="s">
         <v>5</v>
       </c>
@@ -1951,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="8"/>
@@ -1984,7 +2085,7 @@
       <c r="AI11" s="8"/>
       <c r="AJ11" s="14"/>
     </row>
-    <row r="12" spans="1:38" s="3" customFormat="1" ht="32">
+    <row r="12" spans="1:38" s="3" customFormat="1" ht="31.5">
       <c r="A12" s="20" t="s">
         <v>86</v>
       </c>
@@ -2037,13 +2138,13 @@
     </row>
     <row r="13" spans="1:38" s="3" customFormat="1">
       <c r="A13" s="20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D13" s="32">
         <v>1</v>
@@ -2052,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="8"/>
@@ -2088,22 +2189,22 @@
     </row>
     <row r="14" spans="1:38" s="3" customFormat="1">
       <c r="A14" s="20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E14" s="32">
         <v>2</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="8"/>
@@ -2139,13 +2240,13 @@
     </row>
     <row r="15" spans="1:38" s="3" customFormat="1">
       <c r="A15" s="20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>116</v>
@@ -2154,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="8"/>
@@ -2190,22 +2291,22 @@
     </row>
     <row r="16" spans="1:38" s="3" customFormat="1">
       <c r="A16" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E16" s="32">
         <v>3</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="8"/>
@@ -2241,22 +2342,22 @@
     </row>
     <row r="17" spans="1:37" s="3" customFormat="1">
       <c r="A17" s="20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E17" s="32">
         <v>3</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="8"/>
@@ -2290,12 +2391,17 @@
       <c r="AJ17" s="14"/>
       <c r="AK17"/>
     </row>
-    <row r="18" spans="1:37" s="3" customFormat="1">
+    <row r="18" spans="1:37">
       <c r="A18" s="20"/>
-      <c r="B18"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="21"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
+      <c r="D18" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="92">
+        <f>SUM(E5:E17)</f>
+        <v>19.5</v>
+      </c>
       <c r="F18" s="62"/>
       <c r="G18" s="12"/>
       <c r="H18" s="8"/>
@@ -2303,18 +2409,18 @@
       <c r="J18" s="15"/>
       <c r="K18" s="8"/>
       <c r="L18" s="45"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="60"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="14"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="8"/>
       <c r="AA18" s="14"/>
@@ -2327,19 +2433,13 @@
       <c r="AH18" s="12"/>
       <c r="AI18" s="8"/>
       <c r="AJ18" s="14"/>
-      <c r="AK18"/>
     </row>
     <row r="19" spans="1:37">
       <c r="A19" s="20"/>
       <c r="B19" s="48"/>
       <c r="C19" s="21"/>
-      <c r="D19" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="25">
-        <f>SUM(E7:E17)</f>
-        <v>18</v>
-      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="62"/>
       <c r="G19" s="12"/>
       <c r="H19" s="8"/>
@@ -2350,10 +2450,10 @@
       <c r="M19" s="12"/>
       <c r="N19" s="8"/>
       <c r="O19" s="14"/>
-      <c r="P19" s="12"/>
+      <c r="P19" s="15"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="14"/>
-      <c r="S19" s="12"/>
+      <c r="S19" s="15"/>
       <c r="T19" s="8"/>
       <c r="U19" s="14"/>
       <c r="V19" s="15"/>
@@ -2383,8 +2483,8 @@
       <c r="H20" s="8"/>
       <c r="I20" s="14"/>
       <c r="J20" s="15"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="45"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="58"/>
       <c r="M20" s="12"/>
       <c r="N20" s="8"/>
       <c r="O20" s="14"/>
@@ -2411,93 +2511,105 @@
       <c r="AJ20" s="14"/>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="20"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="12"/>
+      <c r="A21" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="15"/>
       <c r="N21" s="8"/>
       <c r="O21" s="14"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="14"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="40"/>
+      <c r="AJ21" s="41"/>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="71">
+        <v>0</v>
+      </c>
+      <c r="F22" s="81" t="s">
+        <v>141</v>
+      </c>
       <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="40"/>
-      <c r="AG22" s="41"/>
-      <c r="AH22" s="39"/>
-      <c r="AI22" s="40"/>
-      <c r="AJ22" s="41"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="72"/>
+      <c r="AD22" s="73"/>
+      <c r="AE22" s="74"/>
+      <c r="AF22" s="72"/>
+      <c r="AG22" s="73"/>
+      <c r="AH22" s="75"/>
+      <c r="AI22" s="72"/>
+      <c r="AJ22" s="73"/>
     </row>
     <row r="23" spans="1:37">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C23" s="70" t="s">
         <v>119</v>
@@ -2509,12 +2621,12 @@
         <v>0</v>
       </c>
       <c r="F23" s="81" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G23" s="39"/>
       <c r="H23" s="72"/>
       <c r="I23" s="73"/>
-      <c r="J23" s="74"/>
+      <c r="J23" s="75"/>
       <c r="K23" s="72"/>
       <c r="L23" s="73"/>
       <c r="M23" s="55"/>
@@ -2543,75 +2655,73 @@
       <c r="AJ23" s="73"/>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="71">
-        <v>0</v>
-      </c>
-      <c r="F24" s="81" t="s">
-        <v>142</v>
+      <c r="A24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="32">
+        <v>3</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>64</v>
       </c>
       <c r="G24" s="39"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="73"/>
-      <c r="Y24" s="75"/>
-      <c r="Z24" s="72"/>
-      <c r="AA24" s="73"/>
-      <c r="AB24" s="75"/>
-      <c r="AC24" s="72"/>
-      <c r="AD24" s="73"/>
-      <c r="AE24" s="74"/>
-      <c r="AF24" s="72"/>
-      <c r="AG24" s="73"/>
-      <c r="AH24" s="75"/>
-      <c r="AI24" s="72"/>
-      <c r="AJ24" s="73"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="14"/>
     </row>
     <row r="25" spans="1:37">
       <c r="A25" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="32">
-        <v>2</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="39"/>
+      <c r="E25" s="56">
+        <v>6</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="8"/>
       <c r="I25" s="14"/>
       <c r="J25" s="15"/>
@@ -2620,105 +2730,100 @@
       <c r="M25" s="15"/>
       <c r="N25" s="8"/>
       <c r="O25" s="14"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="14"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="60"/>
+      <c r="AB25" s="76"/>
+      <c r="AC25" s="77"/>
+      <c r="AD25" s="78"/>
+      <c r="AE25" s="79"/>
+      <c r="AF25" s="77"/>
+      <c r="AG25" s="78"/>
       <c r="AH25" s="12"/>
       <c r="AI25" s="8"/>
       <c r="AJ25" s="14"/>
     </row>
     <row r="26" spans="1:37">
       <c r="A26" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C26" s="46" t="s">
         <v>121</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="86">
-        <v>6</v>
-      </c>
-      <c r="F26" s="25"/>
+        <v>123</v>
+      </c>
+      <c r="E26" s="32">
+        <v>0</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>144</v>
+      </c>
       <c r="G26" s="12"/>
       <c r="H26" s="8"/>
       <c r="I26" s="14"/>
       <c r="J26" s="15"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="15"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="12"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="14"/>
       <c r="S26" s="15"/>
       <c r="T26" s="8"/>
       <c r="U26" s="14"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="60"/>
-      <c r="AB26" s="76"/>
-      <c r="AC26" s="77"/>
-      <c r="AD26" s="78"/>
-      <c r="AE26" s="79"/>
-      <c r="AF26" s="77"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="53"/>
+      <c r="AD26" s="54"/>
+      <c r="AE26" s="80"/>
+      <c r="AF26" s="8"/>
       <c r="AG26" s="78"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="8"/>
-      <c r="AJ26" s="14"/>
+      <c r="AH26" s="76"/>
+      <c r="AI26" s="77"/>
+      <c r="AJ26" s="78"/>
     </row>
     <row r="27" spans="1:37">
-      <c r="A27" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="32">
-        <v>0</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>146</v>
-      </c>
+      <c r="A27" s="20"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" s="92">
+        <f>SUM(E22:E26)</f>
+        <v>9</v>
+      </c>
+      <c r="F27" s="62"/>
       <c r="G27" s="12"/>
       <c r="H27" s="8"/>
       <c r="I27" s="14"/>
       <c r="J27" s="15"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="12"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="15"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="14"/>
       <c r="S27" s="15"/>
@@ -2729,28 +2834,23 @@
       <c r="X27" s="14"/>
       <c r="Y27" s="12"/>
       <c r="Z27" s="8"/>
-      <c r="AA27" s="54"/>
-      <c r="AB27" s="52"/>
-      <c r="AC27" s="53"/>
-      <c r="AD27" s="54"/>
-      <c r="AE27" s="80"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="15"/>
       <c r="AF27" s="8"/>
-      <c r="AG27" s="78"/>
-      <c r="AH27" s="76"/>
-      <c r="AI27" s="77"/>
-      <c r="AJ27" s="78"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="14"/>
     </row>
     <row r="28" spans="1:37">
       <c r="A28" s="20"/>
       <c r="B28" s="49"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="32">
-        <f>SUM(E23:E27)</f>
-        <v>8</v>
-      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="62"/>
       <c r="G28" s="12"/>
       <c r="H28" s="8"/>
@@ -2786,13 +2886,8 @@
     <row r="29" spans="1:37">
       <c r="A29" s="20"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="32">
-        <f>E19+E28</f>
-        <v>26</v>
-      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="83"/>
       <c r="E29" s="32"/>
       <c r="F29" s="62"/>
       <c r="G29" s="12"/>
@@ -2827,17 +2922,20 @@
       <c r="AJ29" s="14"/>
     </row>
     <row r="30" spans="1:37">
-      <c r="A30" s="20"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="83">
-        <f>D29/27</f>
-        <v>0.96296296296296291</v>
-      </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="62"/>
+      <c r="A30" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="47"/>
       <c r="G30" s="12"/>
       <c r="H30" s="8"/>
       <c r="I30" s="14"/>
@@ -2870,20 +2968,25 @@
       <c r="AJ30" s="14"/>
     </row>
     <row r="31" spans="1:37">
-      <c r="A31" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>54</v>
+      <c r="A31" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>61</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="47"/>
+        <v>66</v>
+      </c>
+      <c r="D31" s="32">
+        <v>2</v>
+      </c>
+      <c r="E31" s="32">
+        <f>D31/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="62" t="s">
+        <v>65</v>
+      </c>
       <c r="G31" s="12"/>
       <c r="H31" s="8"/>
       <c r="I31" s="14"/>
@@ -2893,9 +2996,9 @@
       <c r="M31" s="15"/>
       <c r="N31" s="8"/>
       <c r="O31" s="14"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="14"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="60"/>
       <c r="S31" s="15"/>
       <c r="T31" s="8"/>
       <c r="U31" s="14"/>
@@ -2915,26 +3018,21 @@
       <c r="AI31" s="8"/>
       <c r="AJ31" s="14"/>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" ht="31.5">
       <c r="A32" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D32" s="32">
         <v>2</v>
       </c>
-      <c r="E32" s="32">
-        <f>D32/4</f>
-        <v>0.5</v>
-      </c>
-      <c r="F32" s="62" t="s">
-        <v>65</v>
-      </c>
+      <c r="E32" s="32"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="12"/>
       <c r="H32" s="8"/>
       <c r="I32" s="14"/>
@@ -2966,20 +3064,21 @@
       <c r="AI32" s="8"/>
       <c r="AJ32" s="14"/>
     </row>
-    <row r="33" spans="1:36" ht="32">
+    <row r="33" spans="1:36" s="1" customFormat="1">
       <c r="A33" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="32">
-        <v>2</v>
-      </c>
-      <c r="E33" s="32"/>
+        <v>138</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32">
+        <f t="shared" ref="E33:E44" si="0">D33/4</f>
+        <v>0</v>
+      </c>
       <c r="F33" s="62"/>
       <c r="G33" s="12"/>
       <c r="H33" s="8"/>
@@ -2987,9 +3086,9 @@
       <c r="J33" s="15"/>
       <c r="K33" s="8"/>
       <c r="L33" s="14"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="14"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="28"/>
       <c r="P33" s="55"/>
       <c r="Q33" s="53"/>
       <c r="R33" s="60"/>
@@ -3002,9 +3101,9 @@
       <c r="Y33" s="12"/>
       <c r="Z33" s="8"/>
       <c r="AA33" s="14"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="14"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="36"/>
       <c r="AE33" s="15"/>
       <c r="AF33" s="8"/>
       <c r="AG33" s="14"/>
@@ -3012,46 +3111,50 @@
       <c r="AI33" s="8"/>
       <c r="AJ33" s="14"/>
     </row>
-    <row r="34" spans="1:36" s="1" customFormat="1">
+    <row r="34" spans="1:36">
       <c r="A34" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" s="32"/>
+        <v>67</v>
+      </c>
+      <c r="D34" s="32">
+        <v>4</v>
+      </c>
       <c r="E34" s="32">
-        <f t="shared" ref="E34:E45" si="0">D34/4</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="62"/>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F34" s="62" t="s">
+        <v>139</v>
+      </c>
       <c r="G34" s="12"/>
       <c r="H34" s="8"/>
       <c r="I34" s="14"/>
       <c r="J34" s="15"/>
       <c r="K34" s="8"/>
       <c r="L34" s="14"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="14"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="54"/>
       <c r="Y34" s="12"/>
       <c r="Z34" s="8"/>
       <c r="AA34" s="14"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="35"/>
-      <c r="AD34" s="36"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="14"/>
       <c r="AE34" s="15"/>
       <c r="AF34" s="8"/>
       <c r="AG34" s="14"/>
@@ -3061,24 +3164,22 @@
     </row>
     <row r="35" spans="1:36">
       <c r="A35" s="20" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D35" s="32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E35" s="32">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F35" s="62" t="s">
-        <v>139</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="62"/>
       <c r="G35" s="12"/>
       <c r="H35" s="8"/>
       <c r="I35" s="14"/>
@@ -3091,14 +3192,13 @@
       <c r="P35" s="15"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="14"/>
-      <c r="S35" s="55"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="54"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="14"/>
       <c r="V35" s="55"/>
       <c r="W35" s="53"/>
-      <c r="X35" s="54"/>
+      <c r="X35" s="14"/>
       <c r="Y35" s="12"/>
-      <c r="Z35" s="8"/>
       <c r="AA35" s="14"/>
       <c r="AB35" s="12"/>
       <c r="AC35" s="8"/>
@@ -3112,13 +3212,13 @@
     </row>
     <row r="36" spans="1:36">
       <c r="A36" s="20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="32">
         <v>2</v>
@@ -3134,9 +3234,9 @@
       <c r="J36" s="15"/>
       <c r="K36" s="8"/>
       <c r="L36" s="14"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="14"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="36"/>
       <c r="P36" s="15"/>
       <c r="Q36" s="8"/>
       <c r="R36" s="14"/>
@@ -3160,20 +3260,20 @@
     </row>
     <row r="37" spans="1:36">
       <c r="A37" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D37" s="32">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E37" s="32">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F37" s="62"/>
       <c r="G37" s="12"/>
@@ -3182,18 +3282,18 @@
       <c r="J37" s="15"/>
       <c r="K37" s="8"/>
       <c r="L37" s="14"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="15"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="12"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="14"/>
-      <c r="S37" s="15"/>
+      <c r="S37" s="12"/>
       <c r="T37" s="8"/>
       <c r="U37" s="14"/>
       <c r="V37" s="55"/>
       <c r="W37" s="53"/>
-      <c r="X37" s="14"/>
+      <c r="X37" s="60"/>
       <c r="Y37" s="12"/>
       <c r="AA37" s="14"/>
       <c r="AB37" s="12"/>
@@ -3206,15 +3306,15 @@
       <c r="AI37" s="8"/>
       <c r="AJ37" s="14"/>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" s="1" customFormat="1">
       <c r="A38" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D38" s="32">
         <v>6</v>
@@ -3227,7 +3327,7 @@
       <c r="G38" s="12"/>
       <c r="H38" s="8"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="15"/>
+      <c r="J38" s="12"/>
       <c r="K38" s="8"/>
       <c r="L38" s="14"/>
       <c r="M38" s="12"/>
@@ -3239,13 +3339,14 @@
       <c r="S38" s="12"/>
       <c r="T38" s="8"/>
       <c r="U38" s="14"/>
-      <c r="V38" s="55"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="60"/>
-      <c r="Y38" s="12"/>
-      <c r="AA38" s="14"/>
-      <c r="AB38" s="12"/>
-      <c r="AC38" s="8"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="53"/>
+      <c r="Z38" s="53"/>
+      <c r="AA38" s="54"/>
+      <c r="AB38" s="52"/>
+      <c r="AC38" s="53"/>
       <c r="AD38" s="14"/>
       <c r="AE38" s="15"/>
       <c r="AF38" s="8"/>
@@ -3254,22 +3355,22 @@
       <c r="AI38" s="8"/>
       <c r="AJ38" s="14"/>
     </row>
-    <row r="39" spans="1:36" s="1" customFormat="1">
+    <row r="39" spans="1:36">
       <c r="A39" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D39" s="32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E39" s="32">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F39" s="62"/>
       <c r="G39" s="12"/>
@@ -3290,14 +3391,14 @@
       <c r="V39" s="12"/>
       <c r="W39" s="8"/>
       <c r="X39" s="14"/>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="54"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="14"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="8"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="35"/>
+      <c r="AD39" s="54"/>
+      <c r="AE39" s="55"/>
+      <c r="AF39" s="53"/>
       <c r="AG39" s="14"/>
       <c r="AH39" s="12"/>
       <c r="AI39" s="8"/>
@@ -3305,62 +3406,62 @@
     </row>
     <row r="40" spans="1:36">
       <c r="A40" s="20" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D40" s="32">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E40" s="32">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="F40" s="62"/>
       <c r="G40" s="12"/>
       <c r="H40" s="8"/>
       <c r="I40" s="14"/>
-      <c r="J40" s="12"/>
+      <c r="J40" s="15"/>
       <c r="K40" s="8"/>
       <c r="L40" s="14"/>
       <c r="M40" s="12"/>
       <c r="N40" s="8"/>
       <c r="O40" s="14"/>
-      <c r="P40" s="12"/>
+      <c r="P40" s="15"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="14"/>
-      <c r="S40" s="12"/>
+      <c r="S40" s="15"/>
       <c r="T40" s="8"/>
       <c r="U40" s="14"/>
-      <c r="V40" s="12"/>
+      <c r="V40" s="15"/>
       <c r="W40" s="8"/>
       <c r="X40" s="14"/>
       <c r="Y40" s="15"/>
       <c r="Z40" s="8"/>
       <c r="AA40" s="14"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="35"/>
-      <c r="AD40" s="54"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="14"/>
       <c r="AE40" s="55"/>
       <c r="AF40" s="53"/>
-      <c r="AG40" s="14"/>
+      <c r="AG40" s="54"/>
       <c r="AH40" s="12"/>
       <c r="AI40" s="8"/>
       <c r="AJ40" s="14"/>
     </row>
     <row r="41" spans="1:36">
       <c r="A41" s="20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B41" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D41" s="32">
         <v>2</v>
@@ -3369,14 +3470,14 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F41" s="62"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="12"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="15"/>
       <c r="N41" s="8"/>
       <c r="O41" s="14"/>
       <c r="P41" s="15"/>
@@ -3391,40 +3492,40 @@
       <c r="Y41" s="15"/>
       <c r="Z41" s="8"/>
       <c r="AA41" s="14"/>
-      <c r="AB41" s="15"/>
+      <c r="AB41" s="12"/>
       <c r="AC41" s="8"/>
       <c r="AD41" s="14"/>
       <c r="AE41" s="55"/>
       <c r="AF41" s="53"/>
       <c r="AG41" s="54"/>
-      <c r="AH41" s="12"/>
-      <c r="AI41" s="8"/>
-      <c r="AJ41" s="14"/>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="27"/>
+      <c r="AJ41" s="28"/>
     </row>
     <row r="42" spans="1:36">
       <c r="A42" s="20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D42" s="32">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E42" s="32">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F42" s="47"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="28"/>
+        <v>2</v>
+      </c>
+      <c r="F42" s="62"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="14"/>
       <c r="M42" s="15"/>
       <c r="N42" s="8"/>
       <c r="O42" s="14"/>
@@ -3443,31 +3544,31 @@
       <c r="AB42" s="12"/>
       <c r="AC42" s="8"/>
       <c r="AD42" s="14"/>
-      <c r="AE42" s="55"/>
-      <c r="AF42" s="53"/>
+      <c r="AE42" s="15"/>
+      <c r="AF42" s="8"/>
       <c r="AG42" s="54"/>
-      <c r="AH42" s="26"/>
-      <c r="AI42" s="27"/>
-      <c r="AJ42" s="28"/>
+      <c r="AH42" s="52"/>
+      <c r="AI42" s="61"/>
+      <c r="AJ42" s="14"/>
     </row>
     <row r="43" spans="1:36">
       <c r="A43" s="20" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D43" s="32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E43" s="32">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F43" s="62"/>
+        <v>1.5</v>
+      </c>
+      <c r="F43" s="47"/>
       <c r="G43" s="12"/>
       <c r="H43" s="8"/>
       <c r="I43" s="14"/>
@@ -3477,16 +3578,16 @@
       <c r="M43" s="15"/>
       <c r="N43" s="8"/>
       <c r="O43" s="14"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="14"/>
-      <c r="Y43" s="15"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="12"/>
       <c r="Z43" s="8"/>
       <c r="AA43" s="14"/>
       <c r="AB43" s="12"/>
@@ -3494,47 +3595,47 @@
       <c r="AD43" s="14"/>
       <c r="AE43" s="15"/>
       <c r="AF43" s="8"/>
-      <c r="AG43" s="54"/>
-      <c r="AH43" s="52"/>
-      <c r="AI43" s="61"/>
-      <c r="AJ43" s="14"/>
+      <c r="AG43" s="14"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="53"/>
+      <c r="AJ43" s="54"/>
     </row>
     <row r="44" spans="1:36">
       <c r="A44" s="20" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D44" s="32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E44" s="32">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="F44" s="47"/>
+        <v>2</v>
+      </c>
+      <c r="F44" s="62"/>
       <c r="G44" s="12"/>
       <c r="H44" s="8"/>
       <c r="I44" s="14"/>
       <c r="J44" s="15"/>
       <c r="K44" s="8"/>
       <c r="L44" s="14"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="28"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="27"/>
-      <c r="X44" s="28"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="14"/>
       <c r="Y44" s="12"/>
       <c r="Z44" s="8"/>
       <c r="AA44" s="14"/>
@@ -3545,36 +3646,30 @@
       <c r="AF44" s="8"/>
       <c r="AG44" s="14"/>
       <c r="AH44" s="12"/>
-      <c r="AI44" s="53"/>
-      <c r="AJ44" s="54"/>
-    </row>
-    <row r="45" spans="1:36">
-      <c r="A45" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="B45" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="32">
-        <v>8</v>
-      </c>
-      <c r="E45" s="32">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F45" s="62"/>
+      <c r="AI44" s="8"/>
+      <c r="AJ44" s="14"/>
+    </row>
+    <row r="45" spans="1:36" s="38" customFormat="1">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" s="92">
+        <f>SUM(E31:E44)</f>
+        <v>14.5</v>
+      </c>
+      <c r="F45" s="47"/>
       <c r="G45" s="12"/>
       <c r="H45" s="8"/>
       <c r="I45" s="14"/>
       <c r="J45" s="15"/>
       <c r="K45" s="8"/>
       <c r="L45" s="14"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="60"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="14"/>
       <c r="P45" s="15"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="14"/>
@@ -3590,9 +3685,9 @@
       <c r="AB45" s="12"/>
       <c r="AC45" s="8"/>
       <c r="AD45" s="14"/>
-      <c r="AE45" s="15"/>
-      <c r="AF45" s="8"/>
-      <c r="AG45" s="14"/>
+      <c r="AE45" s="29"/>
+      <c r="AF45" s="27"/>
+      <c r="AG45" s="28"/>
       <c r="AH45" s="12"/>
       <c r="AI45" s="8"/>
       <c r="AJ45" s="14"/>
@@ -3601,13 +3696,8 @@
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="21"/>
-      <c r="D46" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" s="25">
-        <f>SUM(E32:E45)</f>
-        <v>14.5</v>
-      </c>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
       <c r="F46" s="47"/>
       <c r="G46" s="12"/>
       <c r="H46" s="8"/>
@@ -3640,16 +3730,19 @@
       <c r="AI46" s="8"/>
       <c r="AJ46" s="14"/>
     </row>
-    <row r="47" spans="1:36">
-      <c r="A47" s="20"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="50">
-        <f>E46+E28+E19</f>
-        <v>40.5</v>
-      </c>
+    <row r="47" spans="1:36" s="38" customFormat="1">
+      <c r="A47" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
       <c r="G47" s="12"/>
       <c r="H47" s="8"/>
       <c r="I47" s="14"/>
@@ -3671,76 +3764,85 @@
       <c r="Y47" s="12"/>
       <c r="Z47" s="8"/>
       <c r="AA47" s="14"/>
-      <c r="AB47" s="34"/>
-      <c r="AC47" s="35"/>
-      <c r="AD47" s="36"/>
-      <c r="AE47" s="15"/>
-      <c r="AF47" s="8"/>
-      <c r="AG47" s="14"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="14"/>
+      <c r="AE47" s="29"/>
+      <c r="AF47" s="27"/>
+      <c r="AG47" s="28"/>
       <c r="AH47" s="12"/>
       <c r="AI47" s="8"/>
       <c r="AJ47" s="14"/>
     </row>
-    <row r="48" spans="1:36">
-      <c r="A48" s="33"/>
-      <c r="B48" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="E48" s="32">
-        <f>F47/27</f>
-        <v>1.5</v>
-      </c>
-      <c r="F48" s="62"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="36"/>
+    <row r="48" spans="1:36" s="38" customFormat="1">
+      <c r="A48" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" s="86" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="86" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="F48" s="56"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="14"/>
       <c r="M48" s="15"/>
       <c r="N48" s="8"/>
       <c r="O48" s="14"/>
       <c r="P48" s="15"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="14"/>
-      <c r="S48" s="15"/>
+      <c r="S48" s="55"/>
       <c r="T48" s="8"/>
       <c r="U48" s="14"/>
       <c r="V48" s="15"/>
       <c r="W48" s="8"/>
       <c r="X48" s="14"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="35"/>
-      <c r="AA48" s="36"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="14"/>
       <c r="AB48" s="12"/>
       <c r="AC48" s="8"/>
       <c r="AD48" s="14"/>
-      <c r="AE48" s="15"/>
-      <c r="AF48" s="8"/>
-      <c r="AG48" s="14"/>
-      <c r="AH48" s="34"/>
-      <c r="AI48" s="35"/>
-      <c r="AJ48" s="36"/>
-    </row>
-    <row r="49" spans="1:36" ht="32">
-      <c r="A49" s="33"/>
-      <c r="B49" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="28"/>
+      <c r="AE48" s="29"/>
+      <c r="AF48" s="27"/>
+      <c r="AG48" s="28"/>
+      <c r="AH48" s="12"/>
+      <c r="AI48" s="8"/>
+      <c r="AJ48" s="14"/>
+    </row>
+    <row r="49" spans="1:36" s="38" customFormat="1">
+      <c r="A49" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="86" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" s="86" t="s">
+        <v>182</v>
+      </c>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56">
+        <v>1.5</v>
+      </c>
+      <c r="F49" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="G49" s="12"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="14"/>
       <c r="M49" s="15"/>
       <c r="N49" s="8"/>
       <c r="O49" s="14"/>
@@ -3748,31 +3850,39 @@
       <c r="Q49" s="8"/>
       <c r="R49" s="14"/>
       <c r="S49" s="15"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="15"/>
-      <c r="W49" s="8"/>
+      <c r="T49" s="53"/>
+      <c r="U49" s="54"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="53"/>
       <c r="X49" s="14"/>
-      <c r="Y49" s="26"/>
-      <c r="Z49" s="27"/>
-      <c r="AA49" s="28"/>
-      <c r="AB49" s="15"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="14"/>
+      <c r="AB49" s="12"/>
       <c r="AC49" s="8"/>
       <c r="AD49" s="14"/>
-      <c r="AE49" s="15"/>
-      <c r="AF49" s="8"/>
-      <c r="AG49" s="14"/>
-      <c r="AH49" s="34"/>
-      <c r="AI49" s="35"/>
-      <c r="AJ49" s="36"/>
-    </row>
-    <row r="50" spans="1:36">
-      <c r="A50" s="33"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="64"/>
+      <c r="AE49" s="29"/>
+      <c r="AF49" s="27"/>
+      <c r="AG49" s="28"/>
+      <c r="AH49" s="12"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="14"/>
+    </row>
+    <row r="50" spans="1:36" s="38" customFormat="1">
+      <c r="A50" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" s="86" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="86" t="s">
+        <v>182</v>
+      </c>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56">
+        <v>1</v>
+      </c>
+      <c r="F50" s="56"/>
       <c r="G50" s="12"/>
       <c r="H50" s="8"/>
       <c r="I50" s="14"/>
@@ -3789,28 +3899,36 @@
       <c r="T50" s="8"/>
       <c r="U50" s="14"/>
       <c r="V50" s="15"/>
-      <c r="W50" s="8"/>
-      <c r="X50" s="14"/>
-      <c r="Y50" s="12"/>
+      <c r="W50" s="53"/>
+      <c r="X50" s="54"/>
+      <c r="Y50" s="52"/>
       <c r="Z50" s="8"/>
       <c r="AA50" s="14"/>
-      <c r="AB50" s="15"/>
+      <c r="AB50" s="12"/>
       <c r="AC50" s="8"/>
       <c r="AD50" s="14"/>
-      <c r="AE50" s="15"/>
-      <c r="AF50" s="8"/>
-      <c r="AG50" s="14"/>
+      <c r="AE50" s="29"/>
+      <c r="AF50" s="27"/>
+      <c r="AG50" s="28"/>
       <c r="AH50" s="12"/>
       <c r="AI50" s="8"/>
       <c r="AJ50" s="14"/>
     </row>
-    <row r="51" spans="1:36" s="23" customFormat="1">
-      <c r="A51" s="20"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="64"/>
+    <row r="51" spans="1:36" s="38" customFormat="1">
+      <c r="A51" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="86" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56">
+        <v>1</v>
+      </c>
+      <c r="F51" s="56"/>
       <c r="G51" s="12"/>
       <c r="H51" s="8"/>
       <c r="I51" s="14"/>
@@ -3830,25 +3948,30 @@
       <c r="W51" s="8"/>
       <c r="X51" s="14"/>
       <c r="Y51" s="12"/>
-      <c r="Z51" s="8"/>
-      <c r="AA51" s="14"/>
-      <c r="AB51" s="15"/>
-      <c r="AC51" s="8"/>
+      <c r="Z51" s="53"/>
+      <c r="AA51" s="54"/>
+      <c r="AB51" s="52"/>
+      <c r="AC51" s="53"/>
       <c r="AD51" s="14"/>
-      <c r="AE51" s="15"/>
-      <c r="AF51" s="8"/>
-      <c r="AG51" s="14"/>
-      <c r="AH51" s="15"/>
+      <c r="AE51" s="29"/>
+      <c r="AF51" s="27"/>
+      <c r="AG51" s="28"/>
+      <c r="AH51" s="12"/>
       <c r="AI51" s="8"/>
       <c r="AJ51" s="14"/>
     </row>
-    <row r="52" spans="1:36">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="65"/>
+    <row r="52" spans="1:36" s="38" customFormat="1">
+      <c r="A52" s="24"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52" s="92">
+        <f>SUM(E48:E51)</f>
+        <v>3.75</v>
+      </c>
+      <c r="F52" s="56"/>
       <c r="G52" s="12"/>
       <c r="H52" s="8"/>
       <c r="I52" s="14"/>
@@ -3870,32 +3993,29 @@
       <c r="Y52" s="12"/>
       <c r="Z52" s="8"/>
       <c r="AA52" s="14"/>
-      <c r="AB52" s="15"/>
+      <c r="AB52" s="12"/>
       <c r="AC52" s="8"/>
       <c r="AD52" s="14"/>
-      <c r="AE52" s="15"/>
-      <c r="AF52" s="8"/>
-      <c r="AG52" s="14"/>
-      <c r="AH52" s="15"/>
+      <c r="AE52" s="29"/>
+      <c r="AF52" s="27"/>
+      <c r="AG52" s="28"/>
+      <c r="AH52" s="12"/>
       <c r="AI52" s="8"/>
       <c r="AJ52" s="14"/>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:36" ht="16.5" thickBot="1">
       <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="65"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
       <c r="G53" s="12"/>
       <c r="H53" s="8"/>
       <c r="I53" s="14"/>
       <c r="J53" s="15"/>
       <c r="K53" s="8"/>
       <c r="L53" s="14"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="36"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="14"/>
       <c r="P53" s="15"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="14"/>
@@ -3908,68 +4028,76 @@
       <c r="Y53" s="12"/>
       <c r="Z53" s="8"/>
       <c r="AA53" s="14"/>
-      <c r="AB53" s="15"/>
-      <c r="AC53" s="8"/>
-      <c r="AD53" s="14"/>
+      <c r="AB53" s="34"/>
+      <c r="AC53" s="35"/>
+      <c r="AD53" s="36"/>
       <c r="AE53" s="15"/>
       <c r="AF53" s="8"/>
       <c r="AG53" s="14"/>
-      <c r="AH53" s="15"/>
+      <c r="AH53" s="12"/>
       <c r="AI53" s="8"/>
       <c r="AJ53" s="14"/>
     </row>
     <row r="54" spans="1:36">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="29"/>
-      <c r="T54" s="27"/>
-      <c r="U54" s="28"/>
-      <c r="V54" s="29"/>
-      <c r="W54" s="27"/>
-      <c r="X54" s="28"/>
-      <c r="Y54" s="26"/>
-      <c r="Z54" s="27"/>
-      <c r="AA54" s="28"/>
-      <c r="AB54" s="29"/>
-      <c r="AC54" s="27"/>
-      <c r="AD54" s="28"/>
-      <c r="AE54" s="29"/>
-      <c r="AF54" s="27"/>
-      <c r="AG54" s="28"/>
-      <c r="AH54" s="15"/>
-      <c r="AI54" s="8"/>
-      <c r="AJ54" s="14"/>
-    </row>
-    <row r="55" spans="1:36">
-      <c r="A55" s="20"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="12"/>
+      <c r="A54" s="33"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="87" t="s">
+        <v>185</v>
+      </c>
+      <c r="E54" s="88">
+        <f>E45+E27+E18+E52</f>
+        <v>46.75</v>
+      </c>
+      <c r="F54" s="62"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="14"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="35"/>
+      <c r="AA54" s="36"/>
+      <c r="AB54" s="12"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="14"/>
+      <c r="AE54" s="15"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="14"/>
+      <c r="AH54" s="34"/>
+      <c r="AI54" s="35"/>
+      <c r="AJ54" s="36"/>
+    </row>
+    <row r="55" spans="1:36" ht="16.5" thickBot="1">
+      <c r="A55" s="33"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="E55" s="90">
+        <f>E54/27</f>
+        <v>1.7314814814814814</v>
+      </c>
+      <c r="F55" s="47"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="15"/>
       <c r="N55" s="8"/>
       <c r="O55" s="14"/>
       <c r="P55" s="15"/>
@@ -3981,33 +4109,33 @@
       <c r="V55" s="15"/>
       <c r="W55" s="8"/>
       <c r="X55" s="14"/>
-      <c r="Y55" s="12"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="14"/>
+      <c r="Y55" s="26"/>
+      <c r="Z55" s="27"/>
+      <c r="AA55" s="28"/>
       <c r="AB55" s="15"/>
       <c r="AC55" s="8"/>
       <c r="AD55" s="14"/>
       <c r="AE55" s="15"/>
       <c r="AF55" s="8"/>
       <c r="AG55" s="14"/>
-      <c r="AH55" s="15"/>
-      <c r="AI55" s="8"/>
-      <c r="AJ55" s="14"/>
+      <c r="AH55" s="34"/>
+      <c r="AI55" s="35"/>
+      <c r="AJ55" s="36"/>
     </row>
     <row r="56" spans="1:36">
-      <c r="A56" s="20"/>
-      <c r="B56" s="31"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="21"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="65"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="64"/>
       <c r="G56" s="12"/>
       <c r="H56" s="8"/>
       <c r="I56" s="14"/>
       <c r="J56" s="15"/>
       <c r="K56" s="8"/>
       <c r="L56" s="14"/>
-      <c r="M56" s="12"/>
+      <c r="M56" s="15"/>
       <c r="N56" s="8"/>
       <c r="O56" s="14"/>
       <c r="P56" s="15"/>
@@ -4028,24 +4156,26 @@
       <c r="AE56" s="15"/>
       <c r="AF56" s="8"/>
       <c r="AG56" s="14"/>
-      <c r="AH56" s="29"/>
-      <c r="AI56" s="27"/>
-      <c r="AJ56" s="28"/>
-    </row>
-    <row r="57" spans="1:36" s="1" customFormat="1">
+      <c r="AH56" s="12"/>
+      <c r="AI56" s="8"/>
+      <c r="AJ56" s="14"/>
+    </row>
+    <row r="57" spans="1:36" s="23" customFormat="1">
       <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
+      <c r="B57" s="69" t="s">
+        <v>140</v>
+      </c>
       <c r="C57" s="21"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="65"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="64"/>
       <c r="G57" s="12"/>
       <c r="H57" s="8"/>
       <c r="I57" s="14"/>
       <c r="J57" s="15"/>
       <c r="K57" s="8"/>
       <c r="L57" s="14"/>
-      <c r="M57" s="12"/>
+      <c r="M57" s="15"/>
       <c r="N57" s="8"/>
       <c r="O57" s="14"/>
       <c r="P57" s="15"/>
@@ -4070,9 +4200,11 @@
       <c r="AI57" s="8"/>
       <c r="AJ57" s="14"/>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:36" ht="31.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
+      <c r="B58" s="82" t="s">
+        <v>143</v>
+      </c>
       <c r="C58" s="21"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
@@ -4083,7 +4215,7 @@
       <c r="J58" s="15"/>
       <c r="K58" s="8"/>
       <c r="L58" s="14"/>
-      <c r="M58" s="12"/>
+      <c r="M58" s="15"/>
       <c r="N58" s="8"/>
       <c r="O58" s="14"/>
       <c r="P58" s="15"/>
@@ -4110,20 +4242,20 @@
     </row>
     <row r="59" spans="1:36">
       <c r="A59" s="20"/>
-      <c r="B59" s="23"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="21"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="64"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="65"/>
       <c r="G59" s="12"/>
       <c r="H59" s="8"/>
       <c r="I59" s="14"/>
       <c r="J59" s="15"/>
       <c r="K59" s="8"/>
       <c r="L59" s="14"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="14"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="36"/>
       <c r="P59" s="15"/>
       <c r="Q59" s="8"/>
       <c r="R59" s="14"/>
@@ -4148,7 +4280,6 @@
     </row>
     <row r="60" spans="1:36">
       <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
       <c r="C60" s="25"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
@@ -4159,7 +4290,7 @@
       <c r="J60" s="29"/>
       <c r="K60" s="27"/>
       <c r="L60" s="28"/>
-      <c r="M60" s="26"/>
+      <c r="M60" s="29"/>
       <c r="N60" s="27"/>
       <c r="O60" s="28"/>
       <c r="P60" s="29"/>
@@ -4174,9 +4305,9 @@
       <c r="Y60" s="26"/>
       <c r="Z60" s="27"/>
       <c r="AA60" s="28"/>
-      <c r="AB60" s="15"/>
-      <c r="AC60" s="8"/>
-      <c r="AD60" s="14"/>
+      <c r="AB60" s="29"/>
+      <c r="AC60" s="27"/>
+      <c r="AD60" s="28"/>
       <c r="AE60" s="29"/>
       <c r="AF60" s="27"/>
       <c r="AG60" s="28"/>
@@ -4186,11 +4317,10 @@
     </row>
     <row r="61" spans="1:36">
       <c r="A61" s="20"/>
-      <c r="B61" s="31"/>
       <c r="C61" s="21"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="64"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="65"/>
       <c r="G61" s="12"/>
       <c r="H61" s="8"/>
       <c r="I61" s="14"/>
@@ -4212,7 +4342,7 @@
       <c r="Y61" s="12"/>
       <c r="Z61" s="8"/>
       <c r="AA61" s="14"/>
-      <c r="AB61" s="12"/>
+      <c r="AB61" s="15"/>
       <c r="AC61" s="8"/>
       <c r="AD61" s="14"/>
       <c r="AE61" s="15"/>
@@ -4250,23 +4380,23 @@
       <c r="Y62" s="12"/>
       <c r="Z62" s="8"/>
       <c r="AA62" s="14"/>
-      <c r="AB62" s="12"/>
+      <c r="AB62" s="15"/>
       <c r="AC62" s="8"/>
       <c r="AD62" s="14"/>
       <c r="AE62" s="15"/>
       <c r="AF62" s="8"/>
       <c r="AG62" s="14"/>
-      <c r="AH62" s="15"/>
-      <c r="AI62" s="8"/>
-      <c r="AJ62" s="14"/>
-    </row>
-    <row r="63" spans="1:36">
+      <c r="AH62" s="29"/>
+      <c r="AI62" s="27"/>
+      <c r="AJ62" s="28"/>
+    </row>
+    <row r="63" spans="1:36" s="1" customFormat="1">
       <c r="A63" s="20"/>
-      <c r="B63" s="31"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="21"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="64"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="65"/>
       <c r="G63" s="12"/>
       <c r="H63" s="8"/>
       <c r="I63" s="14"/>
@@ -4288,19 +4418,19 @@
       <c r="Y63" s="12"/>
       <c r="Z63" s="8"/>
       <c r="AA63" s="14"/>
-      <c r="AB63" s="12"/>
+      <c r="AB63" s="15"/>
       <c r="AC63" s="8"/>
       <c r="AD63" s="14"/>
       <c r="AE63" s="15"/>
       <c r="AF63" s="8"/>
       <c r="AG63" s="14"/>
-      <c r="AH63" s="12"/>
+      <c r="AH63" s="15"/>
       <c r="AI63" s="8"/>
       <c r="AJ63" s="14"/>
     </row>
     <row r="64" spans="1:36">
       <c r="A64" s="20"/>
-      <c r="B64" s="31"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="21"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22"/>
@@ -4326,19 +4456,19 @@
       <c r="Y64" s="12"/>
       <c r="Z64" s="8"/>
       <c r="AA64" s="14"/>
-      <c r="AB64" s="12"/>
+      <c r="AB64" s="15"/>
       <c r="AC64" s="8"/>
       <c r="AD64" s="14"/>
       <c r="AE64" s="15"/>
       <c r="AF64" s="8"/>
       <c r="AG64" s="14"/>
-      <c r="AH64" s="12"/>
+      <c r="AH64" s="15"/>
       <c r="AI64" s="8"/>
       <c r="AJ64" s="14"/>
     </row>
     <row r="65" spans="1:36">
       <c r="A65" s="20"/>
-      <c r="B65" s="31"/>
+      <c r="B65" s="23"/>
       <c r="C65" s="21"/>
       <c r="D65" s="30"/>
       <c r="E65" s="30"/>
@@ -4364,57 +4494,57 @@
       <c r="Y65" s="12"/>
       <c r="Z65" s="8"/>
       <c r="AA65" s="14"/>
-      <c r="AB65" s="12"/>
+      <c r="AB65" s="15"/>
       <c r="AC65" s="8"/>
       <c r="AD65" s="14"/>
       <c r="AE65" s="15"/>
       <c r="AF65" s="8"/>
       <c r="AG65" s="14"/>
-      <c r="AH65" s="12"/>
+      <c r="AH65" s="15"/>
       <c r="AI65" s="8"/>
       <c r="AJ65" s="14"/>
     </row>
-    <row r="66" spans="1:36" s="1" customFormat="1">
-      <c r="A66" s="20"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="21"/>
+    <row r="66" spans="1:36">
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="22"/>
       <c r="E66" s="22"/>
       <c r="F66" s="65"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="14"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="14"/>
-      <c r="S66" s="15"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="14"/>
-      <c r="V66" s="15"/>
-      <c r="W66" s="8"/>
-      <c r="X66" s="14"/>
-      <c r="Y66" s="12"/>
-      <c r="Z66" s="8"/>
-      <c r="AA66" s="14"/>
-      <c r="AB66" s="12"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="27"/>
+      <c r="U66" s="28"/>
+      <c r="V66" s="29"/>
+      <c r="W66" s="27"/>
+      <c r="X66" s="28"/>
+      <c r="Y66" s="26"/>
+      <c r="Z66" s="27"/>
+      <c r="AA66" s="28"/>
+      <c r="AB66" s="15"/>
       <c r="AC66" s="8"/>
       <c r="AD66" s="14"/>
-      <c r="AE66" s="15"/>
-      <c r="AF66" s="8"/>
-      <c r="AG66" s="14"/>
-      <c r="AH66" s="12"/>
+      <c r="AE66" s="29"/>
+      <c r="AF66" s="27"/>
+      <c r="AG66" s="28"/>
+      <c r="AH66" s="15"/>
       <c r="AI66" s="8"/>
       <c r="AJ66" s="14"/>
     </row>
     <row r="67" spans="1:36">
       <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="21"/>
       <c r="D67" s="30"/>
       <c r="E67" s="30"/>
@@ -4446,13 +4576,13 @@
       <c r="AE67" s="15"/>
       <c r="AF67" s="8"/>
       <c r="AG67" s="14"/>
-      <c r="AH67" s="12"/>
+      <c r="AH67" s="15"/>
       <c r="AI67" s="8"/>
       <c r="AJ67" s="14"/>
     </row>
     <row r="68" spans="1:36">
       <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="21"/>
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
@@ -4484,49 +4614,49 @@
       <c r="AE68" s="15"/>
       <c r="AF68" s="8"/>
       <c r="AG68" s="14"/>
-      <c r="AH68" s="12"/>
+      <c r="AH68" s="15"/>
       <c r="AI68" s="8"/>
       <c r="AJ68" s="14"/>
     </row>
     <row r="69" spans="1:36">
-      <c r="A69" s="23"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="28"/>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="27"/>
-      <c r="R69" s="28"/>
-      <c r="S69" s="29"/>
-      <c r="T69" s="27"/>
-      <c r="U69" s="28"/>
-      <c r="V69" s="29"/>
-      <c r="W69" s="27"/>
-      <c r="X69" s="28"/>
-      <c r="Y69" s="26"/>
-      <c r="Z69" s="27"/>
-      <c r="AA69" s="28"/>
-      <c r="AB69" s="26"/>
-      <c r="AC69" s="27"/>
-      <c r="AD69" s="28"/>
-      <c r="AE69" s="29"/>
-      <c r="AF69" s="27"/>
-      <c r="AG69" s="28"/>
-      <c r="AH69" s="26"/>
-      <c r="AI69" s="27"/>
-      <c r="AJ69" s="28"/>
-    </row>
-    <row r="70" spans="1:36" s="1" customFormat="1">
+      <c r="A69" s="20"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="14"/>
+      <c r="V69" s="15"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="14"/>
+      <c r="Y69" s="12"/>
+      <c r="Z69" s="8"/>
+      <c r="AA69" s="14"/>
+      <c r="AB69" s="12"/>
+      <c r="AC69" s="8"/>
+      <c r="AD69" s="14"/>
+      <c r="AE69" s="15"/>
+      <c r="AF69" s="8"/>
+      <c r="AG69" s="14"/>
+      <c r="AH69" s="12"/>
+      <c r="AI69" s="8"/>
+      <c r="AJ69" s="14"/>
+    </row>
+    <row r="70" spans="1:36">
       <c r="A70" s="20"/>
       <c r="B70" s="31"/>
       <c r="C70" s="21"/>
@@ -4602,13 +4732,13 @@
       <c r="AI71" s="8"/>
       <c r="AJ71" s="14"/>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:36" s="1" customFormat="1">
       <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="21"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="64"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="65"/>
       <c r="G72" s="12"/>
       <c r="H72" s="8"/>
       <c r="I72" s="14"/>
@@ -4641,50 +4771,50 @@
       <c r="AJ72" s="14"/>
     </row>
     <row r="73" spans="1:36">
-      <c r="A73" s="23"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="27"/>
-      <c r="O73" s="28"/>
-      <c r="P73" s="29"/>
-      <c r="Q73" s="27"/>
-      <c r="R73" s="28"/>
-      <c r="S73" s="29"/>
-      <c r="T73" s="27"/>
-      <c r="U73" s="28"/>
-      <c r="V73" s="29"/>
-      <c r="W73" s="27"/>
-      <c r="X73" s="28"/>
-      <c r="Y73" s="26"/>
-      <c r="Z73" s="27"/>
-      <c r="AA73" s="28"/>
-      <c r="AB73" s="26"/>
-      <c r="AC73" s="27"/>
-      <c r="AD73" s="28"/>
-      <c r="AE73" s="29"/>
-      <c r="AF73" s="27"/>
-      <c r="AG73" s="28"/>
-      <c r="AH73" s="26"/>
-      <c r="AI73" s="27"/>
-      <c r="AJ73" s="28"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="14"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="14"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="14"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="14"/>
+      <c r="AB73" s="12"/>
+      <c r="AC73" s="8"/>
+      <c r="AD73" s="14"/>
+      <c r="AE73" s="15"/>
+      <c r="AF73" s="8"/>
+      <c r="AG73" s="14"/>
+      <c r="AH73" s="12"/>
+      <c r="AI73" s="8"/>
+      <c r="AJ73" s="14"/>
     </row>
     <row r="74" spans="1:36">
       <c r="A74" s="20"/>
-      <c r="B74" s="31"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="21"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="64"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="65"/>
       <c r="G74" s="12"/>
       <c r="H74" s="8"/>
       <c r="I74" s="14"/>
@@ -4717,44 +4847,44 @@
       <c r="AJ74" s="14"/>
     </row>
     <row r="75" spans="1:36">
-      <c r="A75" s="20"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="21"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
       <c r="F75" s="65"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="14"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="15"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="14"/>
-      <c r="V75" s="15"/>
-      <c r="W75" s="8"/>
-      <c r="X75" s="14"/>
-      <c r="Y75" s="12"/>
-      <c r="Z75" s="8"/>
-      <c r="AA75" s="14"/>
-      <c r="AB75" s="12"/>
-      <c r="AC75" s="8"/>
-      <c r="AD75" s="14"/>
-      <c r="AE75" s="15"/>
-      <c r="AF75" s="8"/>
-      <c r="AG75" s="14"/>
-      <c r="AH75" s="12"/>
-      <c r="AI75" s="8"/>
-      <c r="AJ75" s="14"/>
-    </row>
-    <row r="76" spans="1:36">
+      <c r="G75" s="26"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="27"/>
+      <c r="O75" s="28"/>
+      <c r="P75" s="29"/>
+      <c r="Q75" s="27"/>
+      <c r="R75" s="28"/>
+      <c r="S75" s="29"/>
+      <c r="T75" s="27"/>
+      <c r="U75" s="28"/>
+      <c r="V75" s="29"/>
+      <c r="W75" s="27"/>
+      <c r="X75" s="28"/>
+      <c r="Y75" s="26"/>
+      <c r="Z75" s="27"/>
+      <c r="AA75" s="28"/>
+      <c r="AB75" s="26"/>
+      <c r="AC75" s="27"/>
+      <c r="AD75" s="28"/>
+      <c r="AE75" s="29"/>
+      <c r="AF75" s="27"/>
+      <c r="AG75" s="28"/>
+      <c r="AH75" s="26"/>
+      <c r="AI75" s="27"/>
+      <c r="AJ75" s="28"/>
+    </row>
+    <row r="76" spans="1:36" s="1" customFormat="1">
       <c r="A76" s="20"/>
       <c r="B76" s="31"/>
       <c r="C76" s="21"/>
@@ -4792,7 +4922,7 @@
       <c r="AI76" s="8"/>
       <c r="AJ76" s="14"/>
     </row>
-    <row r="77" spans="1:36" s="1" customFormat="1">
+    <row r="77" spans="1:36">
       <c r="A77" s="20"/>
       <c r="B77" s="31"/>
       <c r="C77" s="21"/>
@@ -4832,11 +4962,11 @@
     </row>
     <row r="78" spans="1:36">
       <c r="A78" s="20"/>
-      <c r="B78" s="31"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="21"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="65"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="64"/>
       <c r="G78" s="12"/>
       <c r="H78" s="8"/>
       <c r="I78" s="14"/>
@@ -4869,88 +4999,88 @@
       <c r="AJ78" s="14"/>
     </row>
     <row r="79" spans="1:36">
-      <c r="A79" s="20"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="14"/>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="14"/>
-      <c r="S79" s="15"/>
-      <c r="T79" s="8"/>
-      <c r="U79" s="14"/>
-      <c r="V79" s="15"/>
-      <c r="W79" s="8"/>
-      <c r="X79" s="14"/>
-      <c r="Y79" s="12"/>
-      <c r="Z79" s="8"/>
-      <c r="AA79" s="14"/>
-      <c r="AB79" s="12"/>
-      <c r="AC79" s="8"/>
-      <c r="AD79" s="14"/>
-      <c r="AE79" s="15"/>
-      <c r="AF79" s="8"/>
-      <c r="AG79" s="14"/>
-      <c r="AH79" s="12"/>
-      <c r="AI79" s="8"/>
-      <c r="AJ79" s="14"/>
+      <c r="A79" s="23"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="65"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="27"/>
+      <c r="L79" s="28"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="27"/>
+      <c r="O79" s="28"/>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="27"/>
+      <c r="R79" s="28"/>
+      <c r="S79" s="29"/>
+      <c r="T79" s="27"/>
+      <c r="U79" s="28"/>
+      <c r="V79" s="29"/>
+      <c r="W79" s="27"/>
+      <c r="X79" s="28"/>
+      <c r="Y79" s="26"/>
+      <c r="Z79" s="27"/>
+      <c r="AA79" s="28"/>
+      <c r="AB79" s="26"/>
+      <c r="AC79" s="27"/>
+      <c r="AD79" s="28"/>
+      <c r="AE79" s="29"/>
+      <c r="AF79" s="27"/>
+      <c r="AG79" s="28"/>
+      <c r="AH79" s="26"/>
+      <c r="AI79" s="27"/>
+      <c r="AJ79" s="28"/>
     </row>
     <row r="80" spans="1:36">
-      <c r="A80" s="23"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="28"/>
-      <c r="M80" s="26"/>
-      <c r="N80" s="27"/>
-      <c r="O80" s="28"/>
-      <c r="P80" s="29"/>
-      <c r="Q80" s="27"/>
-      <c r="R80" s="28"/>
-      <c r="S80" s="29"/>
-      <c r="T80" s="27"/>
-      <c r="U80" s="28"/>
-      <c r="V80" s="29"/>
-      <c r="W80" s="27"/>
-      <c r="X80" s="28"/>
-      <c r="Y80" s="26"/>
-      <c r="Z80" s="27"/>
-      <c r="AA80" s="28"/>
-      <c r="AB80" s="26"/>
-      <c r="AC80" s="27"/>
-      <c r="AD80" s="28"/>
-      <c r="AE80" s="29"/>
-      <c r="AF80" s="27"/>
-      <c r="AG80" s="28"/>
-      <c r="AH80" s="26"/>
-      <c r="AI80" s="27"/>
-      <c r="AJ80" s="28"/>
+      <c r="A80" s="20"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="14"/>
+      <c r="S80" s="15"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="14"/>
+      <c r="V80" s="15"/>
+      <c r="W80" s="8"/>
+      <c r="X80" s="14"/>
+      <c r="Y80" s="12"/>
+      <c r="Z80" s="8"/>
+      <c r="AA80" s="14"/>
+      <c r="AB80" s="12"/>
+      <c r="AC80" s="8"/>
+      <c r="AD80" s="14"/>
+      <c r="AE80" s="15"/>
+      <c r="AF80" s="8"/>
+      <c r="AG80" s="14"/>
+      <c r="AH80" s="12"/>
+      <c r="AI80" s="8"/>
+      <c r="AJ80" s="14"/>
     </row>
     <row r="81" spans="1:36">
       <c r="A81" s="20"/>
       <c r="B81" s="31"/>
       <c r="C81" s="21"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="64"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="65"/>
       <c r="G81" s="12"/>
       <c r="H81" s="8"/>
       <c r="I81" s="14"/>
@@ -4982,7 +5112,7 @@
       <c r="AI81" s="8"/>
       <c r="AJ81" s="14"/>
     </row>
-    <row r="82" spans="1:36" s="1" customFormat="1">
+    <row r="82" spans="1:36">
       <c r="A82" s="20"/>
       <c r="B82" s="31"/>
       <c r="C82" s="21"/>
@@ -5020,7 +5150,7 @@
       <c r="AI82" s="8"/>
       <c r="AJ82" s="14"/>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:36" s="1" customFormat="1">
       <c r="A83" s="20"/>
       <c r="B83" s="31"/>
       <c r="C83" s="21"/>
@@ -5060,11 +5190,11 @@
     </row>
     <row r="84" spans="1:36">
       <c r="A84" s="20"/>
-      <c r="B84" s="20"/>
+      <c r="B84" s="31"/>
       <c r="C84" s="21"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="64"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="65"/>
       <c r="G84" s="12"/>
       <c r="H84" s="8"/>
       <c r="I84" s="14"/>
@@ -5097,88 +5227,88 @@
       <c r="AJ84" s="14"/>
     </row>
     <row r="85" spans="1:36">
-      <c r="A85" s="23"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="65"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="28"/>
-      <c r="M85" s="26"/>
-      <c r="N85" s="27"/>
-      <c r="O85" s="28"/>
-      <c r="P85" s="29"/>
-      <c r="Q85" s="27"/>
-      <c r="R85" s="28"/>
-      <c r="S85" s="29"/>
-      <c r="T85" s="27"/>
-      <c r="U85" s="28"/>
-      <c r="V85" s="29"/>
-      <c r="W85" s="27"/>
-      <c r="X85" s="28"/>
-      <c r="Y85" s="26"/>
-      <c r="Z85" s="27"/>
-      <c r="AA85" s="28"/>
-      <c r="AB85" s="26"/>
-      <c r="AC85" s="27"/>
-      <c r="AD85" s="28"/>
-      <c r="AE85" s="29"/>
-      <c r="AF85" s="27"/>
-      <c r="AG85" s="28"/>
-      <c r="AH85" s="26"/>
-      <c r="AI85" s="27"/>
-      <c r="AJ85" s="28"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="8"/>
+      <c r="R85" s="14"/>
+      <c r="S85" s="15"/>
+      <c r="T85" s="8"/>
+      <c r="U85" s="14"/>
+      <c r="V85" s="15"/>
+      <c r="W85" s="8"/>
+      <c r="X85" s="14"/>
+      <c r="Y85" s="12"/>
+      <c r="Z85" s="8"/>
+      <c r="AA85" s="14"/>
+      <c r="AB85" s="12"/>
+      <c r="AC85" s="8"/>
+      <c r="AD85" s="14"/>
+      <c r="AE85" s="15"/>
+      <c r="AF85" s="8"/>
+      <c r="AG85" s="14"/>
+      <c r="AH85" s="12"/>
+      <c r="AI85" s="8"/>
+      <c r="AJ85" s="14"/>
     </row>
     <row r="86" spans="1:36">
-      <c r="A86" s="20"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="64"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="8"/>
-      <c r="O86" s="14"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="8"/>
-      <c r="R86" s="14"/>
-      <c r="S86" s="15"/>
-      <c r="T86" s="8"/>
-      <c r="U86" s="14"/>
-      <c r="V86" s="15"/>
-      <c r="W86" s="8"/>
-      <c r="X86" s="14"/>
-      <c r="Y86" s="12"/>
-      <c r="Z86" s="8"/>
-      <c r="AA86" s="14"/>
-      <c r="AB86" s="12"/>
-      <c r="AC86" s="8"/>
-      <c r="AD86" s="14"/>
-      <c r="AE86" s="15"/>
-      <c r="AF86" s="8"/>
-      <c r="AG86" s="14"/>
-      <c r="AH86" s="12"/>
-      <c r="AI86" s="8"/>
-      <c r="AJ86" s="14"/>
+      <c r="A86" s="23"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="65"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="27"/>
+      <c r="L86" s="28"/>
+      <c r="M86" s="26"/>
+      <c r="N86" s="27"/>
+      <c r="O86" s="28"/>
+      <c r="P86" s="29"/>
+      <c r="Q86" s="27"/>
+      <c r="R86" s="28"/>
+      <c r="S86" s="29"/>
+      <c r="T86" s="27"/>
+      <c r="U86" s="28"/>
+      <c r="V86" s="29"/>
+      <c r="W86" s="27"/>
+      <c r="X86" s="28"/>
+      <c r="Y86" s="26"/>
+      <c r="Z86" s="27"/>
+      <c r="AA86" s="28"/>
+      <c r="AB86" s="26"/>
+      <c r="AC86" s="27"/>
+      <c r="AD86" s="28"/>
+      <c r="AE86" s="29"/>
+      <c r="AF86" s="27"/>
+      <c r="AG86" s="28"/>
+      <c r="AH86" s="26"/>
+      <c r="AI86" s="27"/>
+      <c r="AJ86" s="28"/>
     </row>
     <row r="87" spans="1:36">
       <c r="A87" s="20"/>
       <c r="B87" s="31"/>
       <c r="C87" s="21"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="65"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="64"/>
       <c r="G87" s="12"/>
       <c r="H87" s="8"/>
       <c r="I87" s="14"/>
@@ -5210,13 +5340,13 @@
       <c r="AI87" s="8"/>
       <c r="AJ87" s="14"/>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:36" s="1" customFormat="1">
       <c r="A88" s="20"/>
       <c r="B88" s="31"/>
       <c r="C88" s="21"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="30"/>
-      <c r="F88" s="64"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="65"/>
       <c r="G88" s="12"/>
       <c r="H88" s="8"/>
       <c r="I88" s="14"/>
@@ -5249,142 +5379,232 @@
       <c r="AJ88" s="14"/>
     </row>
     <row r="89" spans="1:36">
-      <c r="D89" s="18">
-        <v>1</v>
-      </c>
-      <c r="E89" s="18"/>
-      <c r="F89" s="66"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="13"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="7"/>
-      <c r="O89" s="10"/>
-      <c r="P89" s="13"/>
-      <c r="R89" s="10"/>
-      <c r="S89" s="13"/>
-      <c r="U89" s="10"/>
-      <c r="V89" s="13"/>
-      <c r="X89" s="10"/>
-      <c r="Y89" s="7"/>
-      <c r="AA89" s="10"/>
-      <c r="AB89" s="7"/>
-      <c r="AD89" s="10"/>
-      <c r="AE89" s="13"/>
+      <c r="A89" s="20"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="14"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="14"/>
+      <c r="S89" s="15"/>
+      <c r="T89" s="8"/>
+      <c r="U89" s="14"/>
+      <c r="V89" s="15"/>
+      <c r="W89" s="8"/>
+      <c r="X89" s="14"/>
+      <c r="Y89" s="12"/>
+      <c r="Z89" s="8"/>
+      <c r="AA89" s="14"/>
+      <c r="AB89" s="12"/>
+      <c r="AC89" s="8"/>
+      <c r="AD89" s="14"/>
+      <c r="AE89" s="15"/>
+      <c r="AF89" s="8"/>
+      <c r="AG89" s="14"/>
+      <c r="AH89" s="12"/>
+      <c r="AI89" s="8"/>
+      <c r="AJ89" s="14"/>
     </row>
     <row r="90" spans="1:36">
-      <c r="D90" s="19">
-        <v>1</v>
-      </c>
-      <c r="E90" s="19"/>
-      <c r="F90" s="67"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="13"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="7"/>
-      <c r="O90" s="10"/>
-      <c r="P90" s="13"/>
-      <c r="R90" s="10"/>
-      <c r="S90" s="13"/>
-      <c r="U90" s="10"/>
-      <c r="V90" s="13"/>
-      <c r="X90" s="10"/>
-      <c r="Y90" s="7"/>
-      <c r="AA90" s="10"/>
-      <c r="AB90" s="7"/>
-      <c r="AD90" s="10"/>
-      <c r="AE90" s="13"/>
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="64"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="14"/>
+      <c r="S90" s="15"/>
+      <c r="T90" s="8"/>
+      <c r="U90" s="14"/>
+      <c r="V90" s="15"/>
+      <c r="W90" s="8"/>
+      <c r="X90" s="14"/>
+      <c r="Y90" s="12"/>
+      <c r="Z90" s="8"/>
+      <c r="AA90" s="14"/>
+      <c r="AB90" s="12"/>
+      <c r="AC90" s="8"/>
+      <c r="AD90" s="14"/>
+      <c r="AE90" s="15"/>
+      <c r="AF90" s="8"/>
+      <c r="AG90" s="14"/>
+      <c r="AH90" s="12"/>
+      <c r="AI90" s="8"/>
+      <c r="AJ90" s="14"/>
     </row>
     <row r="91" spans="1:36">
-      <c r="D91" s="18">
-        <v>1</v>
-      </c>
-      <c r="E91" s="18"/>
-      <c r="F91" s="66"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="13"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="7"/>
-      <c r="O91" s="10"/>
-      <c r="P91" s="13"/>
-      <c r="R91" s="10"/>
-      <c r="S91" s="13"/>
-      <c r="U91" s="10"/>
-      <c r="V91" s="13"/>
-      <c r="X91" s="10"/>
-      <c r="Y91" s="7"/>
-      <c r="AA91" s="10"/>
-      <c r="AB91" s="7"/>
-      <c r="AD91" s="10"/>
-      <c r="AE91" s="13"/>
+      <c r="A91" s="23"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="65"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="28"/>
+      <c r="M91" s="26"/>
+      <c r="N91" s="27"/>
+      <c r="O91" s="28"/>
+      <c r="P91" s="29"/>
+      <c r="Q91" s="27"/>
+      <c r="R91" s="28"/>
+      <c r="S91" s="29"/>
+      <c r="T91" s="27"/>
+      <c r="U91" s="28"/>
+      <c r="V91" s="29"/>
+      <c r="W91" s="27"/>
+      <c r="X91" s="28"/>
+      <c r="Y91" s="26"/>
+      <c r="Z91" s="27"/>
+      <c r="AA91" s="28"/>
+      <c r="AB91" s="26"/>
+      <c r="AC91" s="27"/>
+      <c r="AD91" s="28"/>
+      <c r="AE91" s="29"/>
+      <c r="AF91" s="27"/>
+      <c r="AG91" s="28"/>
+      <c r="AH91" s="26"/>
+      <c r="AI91" s="27"/>
+      <c r="AJ91" s="28"/>
     </row>
     <row r="92" spans="1:36">
-      <c r="D92" s="19">
-        <v>1</v>
-      </c>
-      <c r="E92" s="19"/>
-      <c r="F92" s="67"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="13"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="7"/>
-      <c r="O92" s="10"/>
-      <c r="P92" s="13"/>
-      <c r="R92" s="10"/>
-      <c r="S92" s="13"/>
-      <c r="U92" s="10"/>
-      <c r="V92" s="13"/>
-      <c r="X92" s="10"/>
-      <c r="Y92" s="7"/>
-      <c r="AA92" s="10"/>
-      <c r="AB92" s="7"/>
-      <c r="AD92" s="10"/>
-      <c r="AE92" s="13"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="14"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="8"/>
+      <c r="R92" s="14"/>
+      <c r="S92" s="15"/>
+      <c r="T92" s="8"/>
+      <c r="U92" s="14"/>
+      <c r="V92" s="15"/>
+      <c r="W92" s="8"/>
+      <c r="X92" s="14"/>
+      <c r="Y92" s="12"/>
+      <c r="Z92" s="8"/>
+      <c r="AA92" s="14"/>
+      <c r="AB92" s="12"/>
+      <c r="AC92" s="8"/>
+      <c r="AD92" s="14"/>
+      <c r="AE92" s="15"/>
+      <c r="AF92" s="8"/>
+      <c r="AG92" s="14"/>
+      <c r="AH92" s="12"/>
+      <c r="AI92" s="8"/>
+      <c r="AJ92" s="14"/>
     </row>
     <row r="93" spans="1:36">
-      <c r="D93" s="18">
-        <v>1</v>
-      </c>
-      <c r="E93" s="18"/>
-      <c r="F93" s="66"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="13"/>
-      <c r="L93" s="10"/>
-      <c r="M93" s="7"/>
-      <c r="O93" s="10"/>
-      <c r="P93" s="13"/>
-      <c r="R93" s="10"/>
-      <c r="S93" s="13"/>
-      <c r="U93" s="10"/>
-      <c r="V93" s="13"/>
-      <c r="X93" s="10"/>
-      <c r="Y93" s="7"/>
-      <c r="AA93" s="10"/>
-      <c r="AB93" s="7"/>
-      <c r="AD93" s="10"/>
-      <c r="AE93" s="13"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="65"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="14"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="8"/>
+      <c r="R93" s="14"/>
+      <c r="S93" s="15"/>
+      <c r="T93" s="8"/>
+      <c r="U93" s="14"/>
+      <c r="V93" s="15"/>
+      <c r="W93" s="8"/>
+      <c r="X93" s="14"/>
+      <c r="Y93" s="12"/>
+      <c r="Z93" s="8"/>
+      <c r="AA93" s="14"/>
+      <c r="AB93" s="12"/>
+      <c r="AC93" s="8"/>
+      <c r="AD93" s="14"/>
+      <c r="AE93" s="15"/>
+      <c r="AF93" s="8"/>
+      <c r="AG93" s="14"/>
+      <c r="AH93" s="12"/>
+      <c r="AI93" s="8"/>
+      <c r="AJ93" s="14"/>
     </row>
     <row r="94" spans="1:36">
-      <c r="D94" s="19">
-        <v>1</v>
-      </c>
-      <c r="E94" s="19"/>
-      <c r="F94" s="67"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="13"/>
-      <c r="L94" s="10"/>
-      <c r="M94" s="7"/>
-      <c r="O94" s="10"/>
-      <c r="P94" s="13"/>
-      <c r="R94" s="10"/>
-      <c r="S94" s="13"/>
-      <c r="U94" s="10"/>
-      <c r="V94" s="13"/>
-      <c r="X94" s="10"/>
-      <c r="Y94" s="7"/>
-      <c r="AA94" s="10"/>
-      <c r="AB94" s="7"/>
-      <c r="AD94" s="10"/>
-      <c r="AE94" s="13"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="8"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="8"/>
+      <c r="R94" s="14"/>
+      <c r="S94" s="15"/>
+      <c r="T94" s="8"/>
+      <c r="U94" s="14"/>
+      <c r="V94" s="15"/>
+      <c r="W94" s="8"/>
+      <c r="X94" s="14"/>
+      <c r="Y94" s="12"/>
+      <c r="Z94" s="8"/>
+      <c r="AA94" s="14"/>
+      <c r="AB94" s="12"/>
+      <c r="AC94" s="8"/>
+      <c r="AD94" s="14"/>
+      <c r="AE94" s="15"/>
+      <c r="AF94" s="8"/>
+      <c r="AG94" s="14"/>
+      <c r="AH94" s="12"/>
+      <c r="AI94" s="8"/>
+      <c r="AJ94" s="14"/>
     </row>
     <row r="95" spans="1:36">
       <c r="D95" s="18">
@@ -5637,7 +5857,7 @@
       <c r="AA105" s="10"/>
       <c r="AB105" s="7"/>
       <c r="AD105" s="10"/>
-      <c r="AE105" s="7"/>
+      <c r="AE105" s="13"/>
     </row>
     <row r="106" spans="4:31">
       <c r="D106" s="19">
@@ -5660,7 +5880,7 @@
       <c r="AA106" s="10"/>
       <c r="AB106" s="7"/>
       <c r="AD106" s="10"/>
-      <c r="AE106" s="7"/>
+      <c r="AE106" s="13"/>
     </row>
     <row r="107" spans="4:31">
       <c r="D107" s="18">
@@ -5683,7 +5903,7 @@
       <c r="AA107" s="10"/>
       <c r="AB107" s="7"/>
       <c r="AD107" s="10"/>
-      <c r="AE107" s="7"/>
+      <c r="AE107" s="13"/>
     </row>
     <row r="108" spans="4:31">
       <c r="D108" s="19">
@@ -5706,7 +5926,7 @@
       <c r="AA108" s="10"/>
       <c r="AB108" s="7"/>
       <c r="AD108" s="10"/>
-      <c r="AE108" s="7"/>
+      <c r="AE108" s="13"/>
     </row>
     <row r="109" spans="4:31">
       <c r="D109" s="18">
@@ -5729,7 +5949,7 @@
       <c r="AA109" s="10"/>
       <c r="AB109" s="7"/>
       <c r="AD109" s="10"/>
-      <c r="AE109" s="7"/>
+      <c r="AE109" s="13"/>
     </row>
     <row r="110" spans="4:31">
       <c r="D110" s="19">
@@ -5752,7 +5972,7 @@
       <c r="AA110" s="10"/>
       <c r="AB110" s="7"/>
       <c r="AD110" s="10"/>
-      <c r="AE110" s="7"/>
+      <c r="AE110" s="13"/>
     </row>
     <row r="111" spans="4:31">
       <c r="D111" s="18">
@@ -5999,7 +6219,9 @@
       <c r="R121" s="10"/>
       <c r="S121" s="13"/>
       <c r="U121" s="10"/>
-      <c r="V121" s="7"/>
+      <c r="V121" s="13"/>
+      <c r="X121" s="10"/>
+      <c r="Y121" s="7"/>
       <c r="AA121" s="10"/>
       <c r="AB121" s="7"/>
       <c r="AD121" s="10"/>
@@ -6020,7 +6242,9 @@
       <c r="R122" s="10"/>
       <c r="S122" s="13"/>
       <c r="U122" s="10"/>
-      <c r="V122" s="7"/>
+      <c r="V122" s="13"/>
+      <c r="X122" s="10"/>
+      <c r="Y122" s="7"/>
       <c r="AA122" s="10"/>
       <c r="AB122" s="7"/>
       <c r="AD122" s="10"/>
@@ -6041,7 +6265,9 @@
       <c r="R123" s="10"/>
       <c r="S123" s="13"/>
       <c r="U123" s="10"/>
-      <c r="V123" s="7"/>
+      <c r="V123" s="13"/>
+      <c r="X123" s="10"/>
+      <c r="Y123" s="7"/>
       <c r="AA123" s="10"/>
       <c r="AB123" s="7"/>
       <c r="AD123" s="10"/>
@@ -6062,7 +6288,9 @@
       <c r="R124" s="10"/>
       <c r="S124" s="13"/>
       <c r="U124" s="10"/>
-      <c r="V124" s="7"/>
+      <c r="V124" s="13"/>
+      <c r="X124" s="10"/>
+      <c r="Y124" s="7"/>
       <c r="AA124" s="10"/>
       <c r="AB124" s="7"/>
       <c r="AD124" s="10"/>
@@ -6083,7 +6311,9 @@
       <c r="R125" s="10"/>
       <c r="S125" s="13"/>
       <c r="U125" s="10"/>
-      <c r="V125" s="7"/>
+      <c r="V125" s="13"/>
+      <c r="X125" s="10"/>
+      <c r="Y125" s="7"/>
       <c r="AA125" s="10"/>
       <c r="AB125" s="7"/>
       <c r="AD125" s="10"/>
@@ -6104,7 +6334,9 @@
       <c r="R126" s="10"/>
       <c r="S126" s="13"/>
       <c r="U126" s="10"/>
-      <c r="V126" s="7"/>
+      <c r="V126" s="13"/>
+      <c r="X126" s="10"/>
+      <c r="Y126" s="7"/>
       <c r="AA126" s="10"/>
       <c r="AB126" s="7"/>
       <c r="AD126" s="10"/>
@@ -6369,7 +6601,9 @@
       <c r="E139" s="18"/>
       <c r="F139" s="66"/>
       <c r="I139" s="10"/>
-      <c r="J139" s="7"/>
+      <c r="J139" s="13"/>
+      <c r="L139" s="10"/>
+      <c r="M139" s="7"/>
       <c r="O139" s="10"/>
       <c r="P139" s="13"/>
       <c r="R139" s="10"/>
@@ -6388,7 +6622,9 @@
       <c r="E140" s="19"/>
       <c r="F140" s="67"/>
       <c r="I140" s="10"/>
-      <c r="J140" s="7"/>
+      <c r="J140" s="13"/>
+      <c r="L140" s="10"/>
+      <c r="M140" s="7"/>
       <c r="O140" s="10"/>
       <c r="P140" s="13"/>
       <c r="R140" s="10"/>
@@ -6407,11 +6643,15 @@
       <c r="E141" s="18"/>
       <c r="F141" s="66"/>
       <c r="I141" s="10"/>
-      <c r="J141" s="7"/>
+      <c r="J141" s="13"/>
+      <c r="L141" s="10"/>
+      <c r="M141" s="7"/>
       <c r="O141" s="10"/>
       <c r="P141" s="13"/>
       <c r="R141" s="10"/>
-      <c r="S141" s="7"/>
+      <c r="S141" s="13"/>
+      <c r="U141" s="10"/>
+      <c r="V141" s="7"/>
       <c r="AA141" s="10"/>
       <c r="AB141" s="7"/>
       <c r="AD141" s="10"/>
@@ -6424,11 +6664,15 @@
       <c r="E142" s="19"/>
       <c r="F142" s="67"/>
       <c r="I142" s="10"/>
-      <c r="J142" s="7"/>
+      <c r="J142" s="13"/>
+      <c r="L142" s="10"/>
+      <c r="M142" s="7"/>
       <c r="O142" s="10"/>
       <c r="P142" s="13"/>
       <c r="R142" s="10"/>
-      <c r="S142" s="7"/>
+      <c r="S142" s="13"/>
+      <c r="U142" s="10"/>
+      <c r="V142" s="7"/>
       <c r="AA142" s="10"/>
       <c r="AB142" s="7"/>
       <c r="AD142" s="10"/>
@@ -6441,11 +6685,15 @@
       <c r="E143" s="18"/>
       <c r="F143" s="66"/>
       <c r="I143" s="10"/>
-      <c r="J143" s="7"/>
+      <c r="J143" s="13"/>
+      <c r="L143" s="10"/>
+      <c r="M143" s="7"/>
       <c r="O143" s="10"/>
       <c r="P143" s="13"/>
       <c r="R143" s="10"/>
-      <c r="S143" s="7"/>
+      <c r="S143" s="13"/>
+      <c r="U143" s="10"/>
+      <c r="V143" s="7"/>
       <c r="AA143" s="10"/>
       <c r="AB143" s="7"/>
       <c r="AD143" s="10"/>
@@ -6458,11 +6706,15 @@
       <c r="E144" s="19"/>
       <c r="F144" s="67"/>
       <c r="I144" s="10"/>
-      <c r="J144" s="7"/>
+      <c r="J144" s="13"/>
+      <c r="L144" s="10"/>
+      <c r="M144" s="7"/>
       <c r="O144" s="10"/>
       <c r="P144" s="13"/>
       <c r="R144" s="10"/>
-      <c r="S144" s="7"/>
+      <c r="S144" s="13"/>
+      <c r="U144" s="10"/>
+      <c r="V144" s="7"/>
       <c r="AA144" s="10"/>
       <c r="AB144" s="7"/>
       <c r="AD144" s="10"/>
@@ -6479,7 +6731,9 @@
       <c r="O145" s="10"/>
       <c r="P145" s="13"/>
       <c r="R145" s="10"/>
-      <c r="S145" s="7"/>
+      <c r="S145" s="13"/>
+      <c r="U145" s="10"/>
+      <c r="V145" s="7"/>
       <c r="AA145" s="10"/>
       <c r="AB145" s="7"/>
       <c r="AD145" s="10"/>
@@ -6496,7 +6750,9 @@
       <c r="O146" s="10"/>
       <c r="P146" s="13"/>
       <c r="R146" s="10"/>
-      <c r="S146" s="7"/>
+      <c r="S146" s="13"/>
+      <c r="U146" s="10"/>
+      <c r="V146" s="7"/>
       <c r="AA146" s="10"/>
       <c r="AB146" s="7"/>
       <c r="AD146" s="10"/>
@@ -7392,6 +7648,8 @@
       </c>
       <c r="E199" s="18"/>
       <c r="F199" s="66"/>
+      <c r="I199" s="10"/>
+      <c r="J199" s="7"/>
       <c r="O199" s="10"/>
       <c r="P199" s="13"/>
       <c r="R199" s="10"/>
@@ -7407,6 +7665,8 @@
       </c>
       <c r="E200" s="19"/>
       <c r="F200" s="67"/>
+      <c r="I200" s="10"/>
+      <c r="J200" s="7"/>
       <c r="O200" s="10"/>
       <c r="P200" s="13"/>
       <c r="R200" s="10"/>
@@ -7422,6 +7682,8 @@
       </c>
       <c r="E201" s="18"/>
       <c r="F201" s="66"/>
+      <c r="I201" s="10"/>
+      <c r="J201" s="7"/>
       <c r="O201" s="10"/>
       <c r="P201" s="13"/>
       <c r="R201" s="10"/>
@@ -7437,6 +7699,8 @@
       </c>
       <c r="E202" s="19"/>
       <c r="F202" s="67"/>
+      <c r="I202" s="10"/>
+      <c r="J202" s="7"/>
       <c r="O202" s="10"/>
       <c r="P202" s="13"/>
       <c r="R202" s="10"/>
@@ -7452,8 +7716,12 @@
       </c>
       <c r="E203" s="18"/>
       <c r="F203" s="66"/>
+      <c r="I203" s="10"/>
+      <c r="J203" s="7"/>
       <c r="O203" s="10"/>
-      <c r="P203" s="7"/>
+      <c r="P203" s="13"/>
+      <c r="R203" s="10"/>
+      <c r="S203" s="7"/>
       <c r="AA203" s="10"/>
       <c r="AB203" s="7"/>
       <c r="AD203" s="10"/>
@@ -7465,8 +7733,12 @@
       </c>
       <c r="E204" s="19"/>
       <c r="F204" s="67"/>
+      <c r="I204" s="10"/>
+      <c r="J204" s="7"/>
       <c r="O204" s="10"/>
-      <c r="P204" s="7"/>
+      <c r="P204" s="13"/>
+      <c r="R204" s="10"/>
+      <c r="S204" s="7"/>
       <c r="AA204" s="10"/>
       <c r="AB204" s="7"/>
       <c r="AD204" s="10"/>
@@ -7479,7 +7751,9 @@
       <c r="E205" s="18"/>
       <c r="F205" s="66"/>
       <c r="O205" s="10"/>
-      <c r="P205" s="7"/>
+      <c r="P205" s="13"/>
+      <c r="R205" s="10"/>
+      <c r="S205" s="7"/>
       <c r="AA205" s="10"/>
       <c r="AB205" s="7"/>
       <c r="AD205" s="10"/>
@@ -7492,7 +7766,9 @@
       <c r="E206" s="19"/>
       <c r="F206" s="67"/>
       <c r="O206" s="10"/>
-      <c r="P206" s="7"/>
+      <c r="P206" s="13"/>
+      <c r="R206" s="10"/>
+      <c r="S206" s="7"/>
       <c r="AA206" s="10"/>
       <c r="AB206" s="7"/>
       <c r="AD206" s="10"/>
@@ -7505,7 +7781,9 @@
       <c r="E207" s="18"/>
       <c r="F207" s="66"/>
       <c r="O207" s="10"/>
-      <c r="P207" s="7"/>
+      <c r="P207" s="13"/>
+      <c r="R207" s="10"/>
+      <c r="S207" s="7"/>
       <c r="AA207" s="10"/>
       <c r="AB207" s="7"/>
       <c r="AD207" s="10"/>
@@ -7518,7 +7796,9 @@
       <c r="E208" s="19"/>
       <c r="F208" s="67"/>
       <c r="O208" s="10"/>
-      <c r="P208" s="7"/>
+      <c r="P208" s="13"/>
+      <c r="R208" s="10"/>
+      <c r="S208" s="7"/>
       <c r="AA208" s="10"/>
       <c r="AB208" s="7"/>
       <c r="AD208" s="10"/>
@@ -8167,6 +8447,8 @@
       </c>
       <c r="E258" s="19"/>
       <c r="F258" s="67"/>
+      <c r="O258" s="10"/>
+      <c r="P258" s="7"/>
       <c r="AA258" s="10"/>
       <c r="AB258" s="7"/>
       <c r="AD258" s="10"/>
@@ -8178,6 +8460,10 @@
       </c>
       <c r="E259" s="18"/>
       <c r="F259" s="66"/>
+      <c r="O259" s="10"/>
+      <c r="P259" s="7"/>
+      <c r="AA259" s="10"/>
+      <c r="AB259" s="7"/>
       <c r="AD259" s="10"/>
       <c r="AE259" s="7"/>
     </row>
@@ -8187,6 +8473,10 @@
       </c>
       <c r="E260" s="19"/>
       <c r="F260" s="67"/>
+      <c r="O260" s="10"/>
+      <c r="P260" s="7"/>
+      <c r="AA260" s="10"/>
+      <c r="AB260" s="7"/>
       <c r="AD260" s="10"/>
       <c r="AE260" s="7"/>
     </row>
@@ -8196,6 +8486,10 @@
       </c>
       <c r="E261" s="18"/>
       <c r="F261" s="66"/>
+      <c r="O261" s="10"/>
+      <c r="P261" s="7"/>
+      <c r="AA261" s="10"/>
+      <c r="AB261" s="7"/>
       <c r="AD261" s="10"/>
       <c r="AE261" s="7"/>
     </row>
@@ -8205,6 +8499,10 @@
       </c>
       <c r="E262" s="19"/>
       <c r="F262" s="67"/>
+      <c r="O262" s="10"/>
+      <c r="P262" s="7"/>
+      <c r="AA262" s="10"/>
+      <c r="AB262" s="7"/>
       <c r="AD262" s="10"/>
       <c r="AE262" s="7"/>
     </row>
@@ -8214,6 +8512,10 @@
       </c>
       <c r="E263" s="18"/>
       <c r="F263" s="66"/>
+      <c r="O263" s="10"/>
+      <c r="P263" s="7"/>
+      <c r="AA263" s="10"/>
+      <c r="AB263" s="7"/>
       <c r="AD263" s="10"/>
       <c r="AE263" s="7"/>
     </row>
@@ -8223,6 +8525,8 @@
       </c>
       <c r="E264" s="19"/>
       <c r="F264" s="67"/>
+      <c r="AA264" s="10"/>
+      <c r="AB264" s="7"/>
       <c r="AD264" s="10"/>
       <c r="AE264" s="7"/>
     </row>
@@ -8367,6 +8671,8 @@
       </c>
       <c r="E280" s="19"/>
       <c r="F280" s="67"/>
+      <c r="AD280" s="10"/>
+      <c r="AE280" s="7"/>
     </row>
     <row r="281" spans="4:31">
       <c r="D281" s="18">
@@ -8374,6 +8680,8 @@
       </c>
       <c r="E281" s="18"/>
       <c r="F281" s="66"/>
+      <c r="AD281" s="10"/>
+      <c r="AE281" s="7"/>
     </row>
     <row r="282" spans="4:31">
       <c r="D282" s="19">
@@ -8381,6 +8689,8 @@
       </c>
       <c r="E282" s="19"/>
       <c r="F282" s="67"/>
+      <c r="AD282" s="10"/>
+      <c r="AE282" s="7"/>
     </row>
     <row r="283" spans="4:31">
       <c r="D283" s="18">
@@ -8388,6 +8698,8 @@
       </c>
       <c r="E283" s="18"/>
       <c r="F283" s="66"/>
+      <c r="AD283" s="10"/>
+      <c r="AE283" s="7"/>
     </row>
     <row r="284" spans="4:31">
       <c r="D284" s="19">
@@ -8395,6 +8707,8 @@
       </c>
       <c r="E284" s="19"/>
       <c r="F284" s="67"/>
+      <c r="AD284" s="10"/>
+      <c r="AE284" s="7"/>
     </row>
     <row r="285" spans="4:31">
       <c r="D285" s="18">
@@ -8402,6 +8716,8 @@
       </c>
       <c r="E285" s="18"/>
       <c r="F285" s="66"/>
+      <c r="AD285" s="10"/>
+      <c r="AE285" s="7"/>
     </row>
     <row r="286" spans="4:31">
       <c r="D286" s="19">
@@ -8675,6 +8991,48 @@
       </c>
       <c r="E324" s="19"/>
       <c r="F324" s="67"/>
+    </row>
+    <row r="325" spans="4:6">
+      <c r="D325" s="18">
+        <v>1</v>
+      </c>
+      <c r="E325" s="18"/>
+      <c r="F325" s="66"/>
+    </row>
+    <row r="326" spans="4:6">
+      <c r="D326" s="19">
+        <v>1</v>
+      </c>
+      <c r="E326" s="19"/>
+      <c r="F326" s="67"/>
+    </row>
+    <row r="327" spans="4:6">
+      <c r="D327" s="18">
+        <v>1</v>
+      </c>
+      <c r="E327" s="18"/>
+      <c r="F327" s="66"/>
+    </row>
+    <row r="328" spans="4:6">
+      <c r="D328" s="19">
+        <v>1</v>
+      </c>
+      <c r="E328" s="19"/>
+      <c r="F328" s="67"/>
+    </row>
+    <row r="329" spans="4:6">
+      <c r="D329" s="18">
+        <v>1</v>
+      </c>
+      <c r="E329" s="18"/>
+      <c r="F329" s="66"/>
+    </row>
+    <row r="330" spans="4:6">
+      <c r="D330" s="19">
+        <v>1</v>
+      </c>
+      <c r="E330" s="19"/>
+      <c r="F330" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -8698,17 +9056,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="61.1640625" customWidth="1"/>
+    <col min="1" max="1" width="61.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="32">
+    <row r="1" spans="1:1" ht="31.5">
       <c r="A1" s="51" t="s">
         <v>124</v>
       </c>
@@ -8719,16 +9077,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C21"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:3">

--- a/gantt_chart_update.xlsx
+++ b/gantt_chart_update.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcmania\Documents\GitHub\hfm_integration_demonstration_plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mlawson/Documents/GitHub/hfm_integration_demonstration_plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4669807E-D556-F54E-BD6E-C39977D82605}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="465" windowWidth="32460" windowHeight="20535" tabRatio="500"/>
+    <workbookView xWindow="1140" yWindow="460" windowWidth="32460" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ECP Integration &amp; Demonstration" sheetId="1" r:id="rId1"/>
     <sheet name="Notes" sheetId="4" r:id="rId2"/>
     <sheet name="ValidationCases" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="188">
   <si>
     <t>1.1.1</t>
   </si>
@@ -611,11 +612,14 @@
   <si>
     <t>Total FTE</t>
   </si>
+  <si>
+    <t>Only relevant if the Siwmwns turbine is used, otherwise, use ECP experience with NREL 5 MW</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1156,7 +1160,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1433,57 +1437,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC51" sqref="AC51"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="67.125" customWidth="1"/>
-    <col min="3" max="3" width="23.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="36.125" style="68" customWidth="1"/>
-    <col min="7" max="7" width="4.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="36.1640625" style="68" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="3.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.5" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="4.5" style="5" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.875" customWidth="1"/>
+    <col min="32" max="32" width="4.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" ht="18.75">
+    <row r="1" spans="1:38" s="2" customFormat="1" ht="19">
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -1525,7 +1529,7 @@
       <c r="AI1" s="93"/>
       <c r="AJ1" s="93"/>
     </row>
-    <row r="2" spans="1:38" s="2" customFormat="1" ht="18.75">
+    <row r="2" spans="1:38" s="2" customFormat="1" ht="19">
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
@@ -1581,7 +1585,7 @@
       <c r="AI2" s="95"/>
       <c r="AJ2" s="96"/>
     </row>
-    <row r="3" spans="1:38" s="2" customFormat="1" ht="18.75">
+    <row r="3" spans="1:38" s="2" customFormat="1" ht="19">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1688,7 +1692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="47.25">
+    <row r="4" spans="1:38" ht="48">
       <c r="A4" s="23" t="s">
         <v>15</v>
       </c>
@@ -1933,7 +1937,7 @@
       <c r="AI8" s="8"/>
       <c r="AJ8" s="14"/>
     </row>
-    <row r="9" spans="1:38" s="59" customFormat="1" ht="31.5">
+    <row r="9" spans="1:38" s="59" customFormat="1" ht="32">
       <c r="A9" s="20" t="s">
         <v>4</v>
       </c>
@@ -1984,7 +1988,7 @@
       <c r="AJ9" s="14"/>
       <c r="AK9"/>
     </row>
-    <row r="10" spans="1:38" s="59" customFormat="1" ht="31.5">
+    <row r="10" spans="1:38" s="59" customFormat="1" ht="32">
       <c r="A10" s="20" t="s">
         <v>5</v>
       </c>
@@ -2085,7 +2089,7 @@
       <c r="AI11" s="8"/>
       <c r="AJ11" s="14"/>
     </row>
-    <row r="12" spans="1:38" s="3" customFormat="1" ht="31.5">
+    <row r="12" spans="1:38" s="3" customFormat="1" ht="32">
       <c r="A12" s="20" t="s">
         <v>86</v>
       </c>
@@ -3018,7 +3022,7 @@
       <c r="AI31" s="8"/>
       <c r="AJ31" s="14"/>
     </row>
-    <row r="32" spans="1:37" ht="31.5">
+    <row r="32" spans="1:37" ht="32">
       <c r="A32" s="20" t="s">
         <v>41</v>
       </c>
@@ -3162,7 +3166,7 @@
       <c r="AI34" s="8"/>
       <c r="AJ34" s="14"/>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" ht="48">
       <c r="A35" s="20" t="s">
         <v>49</v>
       </c>
@@ -3179,7 +3183,9 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F35" s="62"/>
+      <c r="F35" s="62" t="s">
+        <v>187</v>
+      </c>
       <c r="G35" s="12"/>
       <c r="H35" s="8"/>
       <c r="I35" s="14"/>
@@ -3210,7 +3216,7 @@
       <c r="AI35" s="8"/>
       <c r="AJ35" s="14"/>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" ht="48">
       <c r="A36" s="20" t="s">
         <v>44</v>
       </c>
@@ -3227,7 +3233,9 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F36" s="62"/>
+      <c r="F36" s="62" t="s">
+        <v>187</v>
+      </c>
       <c r="G36" s="12"/>
       <c r="H36" s="8"/>
       <c r="I36" s="14"/>
@@ -4003,7 +4011,7 @@
       <c r="AI52" s="8"/>
       <c r="AJ52" s="14"/>
     </row>
-    <row r="53" spans="1:36" ht="16.5" thickBot="1">
+    <row r="53" spans="1:36" ht="17" thickBot="1">
       <c r="A53" s="20"/>
       <c r="B53" s="56"/>
       <c r="C53" s="56"/>
@@ -4080,7 +4088,7 @@
       <c r="AI54" s="35"/>
       <c r="AJ54" s="36"/>
     </row>
-    <row r="55" spans="1:36" ht="16.5" thickBot="1">
+    <row r="55" spans="1:36" ht="17" thickBot="1">
       <c r="A55" s="33"/>
       <c r="C55" s="32"/>
       <c r="D55" s="89" t="s">
@@ -4200,7 +4208,7 @@
       <c r="AI57" s="8"/>
       <c r="AJ57" s="14"/>
     </row>
-    <row r="58" spans="1:36" ht="31.5">
+    <row r="58" spans="1:36" ht="32">
       <c r="A58" s="20"/>
       <c r="B58" s="82" t="s">
         <v>143</v>
@@ -9056,17 +9064,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="61.125" customWidth="1"/>
+    <col min="1" max="1" width="61.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="31.5">
+    <row r="1" spans="1:1" ht="32">
       <c r="A1" s="51" t="s">
         <v>124</v>
       </c>
@@ -9077,16 +9085,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4:C21"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:3">

--- a/gantt_chart_update.xlsx
+++ b/gantt_chart_update.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mlawson/Documents/GitHub/hfm_integration_demonstration_plan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcmania\Documents\GitHub\hfm_integration_demonstration_plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4669807E-D556-F54E-BD6E-C39977D82605}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="460" windowWidth="32460" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="465" windowWidth="15540" windowHeight="7620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ECP Integration &amp; Demonstration" sheetId="1" r:id="rId1"/>
     <sheet name="Notes" sheetId="4" r:id="rId2"/>
     <sheet name="ValidationCases" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="167">
   <si>
     <t>1.1.1</t>
   </si>
@@ -296,12 +295,6 @@
     <t>Mixed Actuator Disc/AL</t>
   </si>
   <si>
-    <t>DAKOTA link for MLMF sampling</t>
-  </si>
-  <si>
-    <t>Frankel</t>
-  </si>
-  <si>
     <t>Validation cases</t>
   </si>
   <si>
@@ -407,27 +400,6 @@
     <t>Notes: Is there a disconnect between WD and HFM/ECP? How can this be improved?  A high level question for A2e management / Pis</t>
   </si>
   <si>
-    <t>Improved DAKOTA coupling for ABL and AL simulations</t>
-  </si>
-  <si>
-    <t>Frankel, Geraci</t>
-  </si>
-  <si>
-    <t>1 PM, quarter time</t>
-  </si>
-  <si>
-    <t>meshing/nesting, precursor, UQ</t>
-  </si>
-  <si>
-    <t>DAKOTA coupling for AAL</t>
-  </si>
-  <si>
-    <t>0.5pm (.15 for 3 months)</t>
-  </si>
-  <si>
-    <t>1PM (.3 for 3 months)</t>
-  </si>
-  <si>
     <t>Shreyas, Blaylock</t>
   </si>
   <si>
@@ -491,9 +463,6 @@
     <t>AF, MB, GG, ME, DM</t>
   </si>
   <si>
-    <t>3PM(.5 for 6 mo.)</t>
-  </si>
-  <si>
     <t>UQ 3.1.2</t>
   </si>
   <si>
@@ -501,39 +470,6 @@
   </si>
   <si>
     <t>UQ 3.1.4</t>
-  </si>
-  <si>
-    <t>UQ 3.1.6</t>
-  </si>
-  <si>
-    <t>UQ 3.1.7</t>
-  </si>
-  <si>
-    <t>Validation with detailed wake experimental data, stable</t>
-  </si>
-  <si>
-    <t>Validation with detailed wake experimental data, unstable</t>
-  </si>
-  <si>
-    <t>1.1.9</t>
-  </si>
-  <si>
-    <t>1.1.10</t>
-  </si>
-  <si>
-    <t>1.1.11</t>
-  </si>
-  <si>
-    <t>1.1.12</t>
-  </si>
-  <si>
-    <t>1.1.13</t>
-  </si>
-  <si>
-    <t>AAL, moved to UQ</t>
-  </si>
-  <si>
-    <t>moved to UQ, overlap WD</t>
   </si>
   <si>
     <r>
@@ -619,7 +555,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -995,7 +931,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1128,10 +1064,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="3" applyBorder="1"/>
@@ -1154,13 +1086,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1437,155 +1370,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL330"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="67.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="36.1640625" style="68" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.125" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="36.125" style="68" customWidth="1"/>
+    <col min="7" max="7" width="4.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="3.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.875" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.5" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.125" style="5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.875" style="5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="4.5" style="5" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.83203125" customWidth="1"/>
+    <col min="32" max="32" width="4.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" ht="19">
+    <row r="1" spans="1:38" s="2" customFormat="1" ht="18.75">
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="F1" s="63"/>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93" t="s">
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93" t="s">
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
-    </row>
-    <row r="2" spans="1:38" s="2" customFormat="1" ht="19">
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+    </row>
+    <row r="2" spans="1:38" s="2" customFormat="1" ht="18.75">
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="63"/>
-      <c r="G2" s="95" t="s">
+      <c r="G2" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="97" t="s">
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="95"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="95" t="s">
+      <c r="K2" s="93"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="95"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="97" t="s">
+      <c r="N2" s="93"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="97" t="s">
+      <c r="Q2" s="93"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="95"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="97" t="s">
+      <c r="T2" s="93"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="95"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="95" t="s">
+      <c r="W2" s="93"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="95" t="s">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="97" t="s">
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="95"/>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="95" t="s">
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="94"/>
+      <c r="AH2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="AI2" s="95"/>
-      <c r="AJ2" s="96"/>
-    </row>
-    <row r="3" spans="1:38" s="2" customFormat="1" ht="19">
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="94"/>
+    </row>
+    <row r="3" spans="1:38" s="2" customFormat="1" ht="18.75">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1692,7 +1625,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="48">
+    <row r="4" spans="1:38" ht="47.25">
       <c r="A4" s="23" t="s">
         <v>15</v>
       </c>
@@ -1753,7 +1686,7 @@
         <v>0.5</v>
       </c>
       <c r="F5" s="62" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="G5" s="52"/>
       <c r="H5" s="53"/>
@@ -1802,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="62" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="53"/>
@@ -1836,38 +1769,38 @@
       <c r="AJ6" s="14"/>
       <c r="AL6" s="21"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" s="3" customFormat="1">
       <c r="A7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>127</v>
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="32">
+        <v>1</v>
       </c>
       <c r="E7" s="32">
         <v>1</v>
       </c>
-      <c r="F7" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="G7"/>
+      <c r="F7" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="52"/>
       <c r="H7" s="8"/>
       <c r="I7" s="14"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="15"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="12"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="14"/>
-      <c r="S7" s="15"/>
+      <c r="S7" s="12"/>
       <c r="T7" s="8"/>
       <c r="U7" s="14"/>
       <c r="V7" s="15"/>
@@ -1885,42 +1818,42 @@
       <c r="AH7" s="12"/>
       <c r="AI7" s="8"/>
       <c r="AJ7" s="14"/>
-      <c r="AL7" s="21"/>
-    </row>
-    <row r="8" spans="1:38">
-      <c r="A8" s="81" t="s">
+      <c r="AK7"/>
+    </row>
+    <row r="8" spans="1:38" s="3" customFormat="1">
+      <c r="A8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="82" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="84" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="84">
-        <v>0</v>
-      </c>
-      <c r="F8" s="85" t="s">
-        <v>166</v>
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="32">
+        <v>2</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="14"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="12"/>
       <c r="N8" s="8"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="15"/>
+      <c r="P8" s="12"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="14"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="54"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="14"/>
       <c r="V8" s="15"/>
       <c r="W8" s="8"/>
       <c r="X8" s="14"/>
@@ -1936,41 +1869,42 @@
       <c r="AH8" s="12"/>
       <c r="AI8" s="8"/>
       <c r="AJ8" s="14"/>
-    </row>
-    <row r="9" spans="1:38" s="59" customFormat="1" ht="32">
+      <c r="AK8"/>
+    </row>
+    <row r="9" spans="1:38" s="3" customFormat="1">
       <c r="A9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="48" t="s">
-        <v>85</v>
+      <c r="B9" t="s">
+        <v>142</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E9" s="32">
-        <v>3</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>113</v>
+        <v>1</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>146</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="8"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="14"/>
+      <c r="L9" s="45"/>
       <c r="M9" s="52"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="60"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="14"/>
       <c r="V9" s="15"/>
       <c r="W9" s="8"/>
       <c r="X9" s="14"/>
@@ -1988,40 +1922,40 @@
       <c r="AJ9" s="14"/>
       <c r="AK9"/>
     </row>
-    <row r="10" spans="1:38" s="59" customFormat="1" ht="32">
+    <row r="10" spans="1:38" s="59" customFormat="1" ht="31.5">
       <c r="A10" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E10" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="62" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="8"/>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="45"/>
+      <c r="L10" s="14"/>
       <c r="M10" s="52"/>
       <c r="N10" s="53"/>
       <c r="O10" s="54"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="14"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="15"/>
       <c r="W10" s="8"/>
       <c r="X10" s="14"/>
@@ -2039,24 +1973,24 @@
       <c r="AJ10" s="14"/>
       <c r="AK10"/>
     </row>
-    <row r="11" spans="1:38">
-      <c r="A11" s="81" t="s">
+    <row r="11" spans="1:38" s="59" customFormat="1" ht="31.5">
+      <c r="A11" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="84">
-        <v>0</v>
-      </c>
-      <c r="F11" s="85" t="s">
-        <v>167</v>
+      <c r="B11" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="32">
+        <v>1</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>112</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="8"/>
@@ -2064,15 +1998,15 @@
       <c r="J11" s="15"/>
       <c r="K11" s="8"/>
       <c r="L11" s="45"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="12"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="15"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="14"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="54"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="14"/>
       <c r="V11" s="15"/>
       <c r="W11" s="8"/>
       <c r="X11" s="14"/>
@@ -2088,25 +2022,26 @@
       <c r="AH11" s="12"/>
       <c r="AI11" s="8"/>
       <c r="AJ11" s="14"/>
-    </row>
-    <row r="12" spans="1:38" s="3" customFormat="1" ht="32">
+      <c r="AK11"/>
+    </row>
+    <row r="12" spans="1:38" s="3" customFormat="1" ht="31.5">
       <c r="A12" s="20" t="s">
         <v>86</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E12" s="32">
         <v>3</v>
       </c>
       <c r="F12" s="62" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="8"/>
@@ -2140,43 +2075,36 @@
       <c r="AJ12" s="14"/>
       <c r="AK12"/>
     </row>
-    <row r="13" spans="1:38" s="3" customFormat="1">
-      <c r="A13" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="32">
-        <v>1</v>
-      </c>
-      <c r="E13" s="32">
-        <v>1</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>154</v>
-      </c>
+    <row r="13" spans="1:38">
+      <c r="A13" s="20"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="90">
+        <f>SUM(E5:E12)</f>
+        <v>12.5</v>
+      </c>
+      <c r="F13" s="62"/>
       <c r="G13" s="12"/>
       <c r="H13" s="8"/>
       <c r="I13" s="14"/>
       <c r="J13" s="15"/>
       <c r="K13" s="8"/>
       <c r="L13" s="45"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="60"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="14"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="14"/>
@@ -2189,45 +2117,32 @@
       <c r="AH13" s="12"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="14"/>
-      <c r="AK13"/>
-    </row>
-    <row r="14" spans="1:38" s="3" customFormat="1">
-      <c r="A14" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="32">
-        <v>2</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>155</v>
-      </c>
+    </row>
+    <row r="14" spans="1:38">
+      <c r="A14" s="20"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="12"/>
       <c r="H14" s="8"/>
       <c r="I14" s="14"/>
       <c r="J14" s="15"/>
       <c r="K14" s="8"/>
       <c r="L14" s="45"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="60"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="14"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="14"/>
@@ -2240,45 +2155,32 @@
       <c r="AH14" s="12"/>
       <c r="AI14" s="8"/>
       <c r="AJ14" s="14"/>
-      <c r="AK14"/>
-    </row>
-    <row r="15" spans="1:38" s="3" customFormat="1">
-      <c r="A15" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="32">
-        <v>1</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>156</v>
-      </c>
+    </row>
+    <row r="15" spans="1:38">
+      <c r="A15" s="20"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="12"/>
       <c r="H15" s="8"/>
       <c r="I15" s="14"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="60"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="14"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="14"/>
@@ -2291,175 +2193,185 @@
       <c r="AH15" s="12"/>
       <c r="AI15" s="8"/>
       <c r="AJ15" s="14"/>
-      <c r="AK15"/>
-    </row>
-    <row r="16" spans="1:38" s="3" customFormat="1">
-      <c r="A16" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" s="32">
-        <v>3</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="8"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16"/>
-    </row>
-    <row r="17" spans="1:37" s="3" customFormat="1">
-      <c r="A17" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="32">
-        <v>3</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="52"/>
+    </row>
+    <row r="16" spans="1:38">
+      <c r="A16" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="40"/>
+      <c r="AJ16" s="41"/>
+    </row>
+    <row r="17" spans="1:36">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="71">
+        <v>0</v>
+      </c>
+      <c r="F17" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="39"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="55"/>
       <c r="N17" s="53"/>
       <c r="O17" s="54"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="8"/>
-      <c r="AJ17" s="14"/>
-      <c r="AK17"/>
-    </row>
-    <row r="18" spans="1:37">
-      <c r="A18" s="20"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="92">
-        <f>SUM(E5:E17)</f>
-        <v>19.5</v>
-      </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="12"/>
-      <c r="AI18" s="8"/>
-      <c r="AJ18" s="14"/>
-    </row>
-    <row r="19" spans="1:37">
-      <c r="A19" s="20"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="12"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="75"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="73"/>
+      <c r="AB17" s="75"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="73"/>
+      <c r="AE17" s="74"/>
+      <c r="AF17" s="72"/>
+      <c r="AG17" s="73"/>
+      <c r="AH17" s="75"/>
+      <c r="AI17" s="72"/>
+      <c r="AJ17" s="73"/>
+    </row>
+    <row r="18" spans="1:36">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="71">
+        <v>0</v>
+      </c>
+      <c r="F18" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="39"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="73"/>
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="73"/>
+      <c r="AE18" s="74"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="73"/>
+      <c r="AH18" s="75"/>
+      <c r="AI18" s="72"/>
+      <c r="AJ18" s="73"/>
+    </row>
+    <row r="19" spans="1:36">
+      <c r="A19" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="32">
+        <v>3</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="39"/>
       <c r="H19" s="8"/>
       <c r="I19" s="14"/>
       <c r="J19" s="15"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="12"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="15"/>
       <c r="N19" s="8"/>
       <c r="O19" s="14"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="14"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="54"/>
       <c r="V19" s="15"/>
       <c r="W19" s="8"/>
       <c r="X19" s="14"/>
@@ -2476,20 +2388,30 @@
       <c r="AI19" s="8"/>
       <c r="AJ19" s="14"/>
     </row>
-    <row r="20" spans="1:37">
-      <c r="A20" s="20"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="62"/>
+    <row r="20" spans="1:36">
+      <c r="A20" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="56">
+        <v>6</v>
+      </c>
+      <c r="F20" s="25"/>
       <c r="G20" s="12"/>
       <c r="H20" s="8"/>
       <c r="I20" s="14"/>
       <c r="J20" s="15"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="12"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="15"/>
       <c r="N20" s="8"/>
       <c r="O20" s="14"/>
       <c r="P20" s="15"/>
@@ -2498,186 +2420,161 @@
       <c r="S20" s="15"/>
       <c r="T20" s="8"/>
       <c r="U20" s="14"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="14"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="60"/>
+      <c r="AB20" s="76"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="79"/>
+      <c r="AF20" s="77"/>
+      <c r="AG20" s="78"/>
       <c r="AH20" s="12"/>
       <c r="AI20" s="8"/>
       <c r="AJ20" s="14"/>
     </row>
-    <row r="21" spans="1:37">
-      <c r="A21" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>59</v>
+    <row r="21" spans="1:36">
+      <c r="A21" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>79</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="42"/>
-      <c r="AF21" s="40"/>
-      <c r="AG21" s="41"/>
-      <c r="AH21" s="39"/>
-      <c r="AI21" s="40"/>
-      <c r="AJ21" s="41"/>
-    </row>
-    <row r="22" spans="1:37">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="71">
+      <c r="D21" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="32">
         <v>0</v>
       </c>
-      <c r="F22" s="81" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="39"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="73"/>
-      <c r="Y22" s="75"/>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="73"/>
-      <c r="AB22" s="75"/>
-      <c r="AC22" s="72"/>
-      <c r="AD22" s="73"/>
-      <c r="AE22" s="74"/>
-      <c r="AF22" s="72"/>
-      <c r="AG22" s="73"/>
-      <c r="AH22" s="75"/>
-      <c r="AI22" s="72"/>
-      <c r="AJ22" s="73"/>
-    </row>
-    <row r="23" spans="1:37">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="71">
-        <v>0</v>
-      </c>
-      <c r="F23" s="81" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="75"/>
-      <c r="Z23" s="72"/>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="75"/>
-      <c r="AC23" s="72"/>
-      <c r="AD23" s="73"/>
-      <c r="AE23" s="74"/>
-      <c r="AF23" s="72"/>
-      <c r="AG23" s="73"/>
-      <c r="AH23" s="75"/>
-      <c r="AI23" s="72"/>
-      <c r="AJ23" s="73"/>
-    </row>
-    <row r="24" spans="1:37">
-      <c r="A24" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="32">
-        <v>3</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="39"/>
+      <c r="F21" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="54"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="53"/>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="80"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="78"/>
+      <c r="AH21" s="76"/>
+      <c r="AI21" s="77"/>
+      <c r="AJ21" s="78"/>
+    </row>
+    <row r="22" spans="1:36">
+      <c r="A22" s="20"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="90">
+        <f>SUM(E17:E21)</f>
+        <v>9</v>
+      </c>
+      <c r="F22" s="62"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="14"/>
+    </row>
+    <row r="23" spans="1:36">
+      <c r="A23" s="20"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="14"/>
+    </row>
+    <row r="24" spans="1:36">
+      <c r="A24" s="20"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="8"/>
       <c r="I24" s="14"/>
       <c r="J24" s="15"/>
@@ -2686,12 +2583,12 @@
       <c r="M24" s="15"/>
       <c r="N24" s="8"/>
       <c r="O24" s="14"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="54"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="14"/>
       <c r="V24" s="15"/>
       <c r="W24" s="8"/>
       <c r="X24" s="14"/>
@@ -2708,23 +2605,21 @@
       <c r="AI24" s="8"/>
       <c r="AJ24" s="14"/>
     </row>
-    <row r="25" spans="1:37">
-      <c r="A25" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="56">
-        <v>6</v>
-      </c>
-      <c r="F25" s="25"/>
+    <row r="25" spans="1:36">
+      <c r="A25" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="12"/>
       <c r="H25" s="8"/>
       <c r="I25" s="14"/>
@@ -2740,53 +2635,54 @@
       <c r="S25" s="15"/>
       <c r="T25" s="8"/>
       <c r="U25" s="14"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="60"/>
-      <c r="AB25" s="76"/>
-      <c r="AC25" s="77"/>
-      <c r="AD25" s="78"/>
-      <c r="AE25" s="79"/>
-      <c r="AF25" s="77"/>
-      <c r="AG25" s="78"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="14"/>
       <c r="AH25" s="12"/>
       <c r="AI25" s="8"/>
       <c r="AJ25" s="14"/>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:36">
       <c r="A26" s="20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>123</v>
+        <v>61</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="32">
+        <v>2</v>
       </c>
       <c r="E26" s="32">
-        <v>0</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>144</v>
+        <f>D26/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="62" t="s">
+        <v>65</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="8"/>
       <c r="I26" s="14"/>
       <c r="J26" s="15"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="60"/>
       <c r="S26" s="15"/>
       <c r="T26" s="8"/>
       <c r="U26" s="14"/>
@@ -2795,28 +2691,31 @@
       <c r="X26" s="14"/>
       <c r="Y26" s="12"/>
       <c r="Z26" s="8"/>
-      <c r="AA26" s="54"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="53"/>
-      <c r="AD26" s="54"/>
-      <c r="AE26" s="80"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="15"/>
       <c r="AF26" s="8"/>
-      <c r="AG26" s="78"/>
-      <c r="AH26" s="76"/>
-      <c r="AI26" s="77"/>
-      <c r="AJ26" s="78"/>
-    </row>
-    <row r="27" spans="1:37">
-      <c r="A27" s="20"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="E27" s="92">
-        <f>SUM(E22:E26)</f>
-        <v>9</v>
-      </c>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="14"/>
+    </row>
+    <row r="27" spans="1:36" ht="31.5">
+      <c r="A27" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="32">
+        <v>2</v>
+      </c>
+      <c r="E27" s="32"/>
       <c r="F27" s="62"/>
       <c r="G27" s="12"/>
       <c r="H27" s="8"/>
@@ -2827,9 +2726,9 @@
       <c r="M27" s="15"/>
       <c r="N27" s="8"/>
       <c r="O27" s="14"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="14"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="60"/>
       <c r="S27" s="15"/>
       <c r="T27" s="8"/>
       <c r="U27" s="14"/>
@@ -2849,12 +2748,21 @@
       <c r="AI27" s="8"/>
       <c r="AJ27" s="14"/>
     </row>
-    <row r="28" spans="1:37">
-      <c r="A28" s="20"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="46"/>
+    <row r="28" spans="1:36" s="1" customFormat="1">
+      <c r="A28" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
+      <c r="E28" s="32">
+        <f t="shared" ref="E28:E39" si="0">D28/4</f>
+        <v>0</v>
+      </c>
       <c r="F28" s="62"/>
       <c r="G28" s="12"/>
       <c r="H28" s="8"/>
@@ -2862,12 +2770,12 @@
       <c r="J28" s="15"/>
       <c r="K28" s="8"/>
       <c r="L28" s="14"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="14"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="60"/>
       <c r="S28" s="15"/>
       <c r="T28" s="8"/>
       <c r="U28" s="14"/>
@@ -2877,9 +2785,9 @@
       <c r="Y28" s="12"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="14"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="8"/>
-      <c r="AD28" s="14"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="36"/>
       <c r="AE28" s="15"/>
       <c r="AF28" s="8"/>
       <c r="AG28" s="14"/>
@@ -2887,13 +2795,26 @@
       <c r="AI28" s="8"/>
       <c r="AJ28" s="14"/>
     </row>
-    <row r="29" spans="1:37">
-      <c r="A29" s="20"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="62"/>
+    <row r="29" spans="1:36">
+      <c r="A29" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="32">
+        <v>4</v>
+      </c>
+      <c r="E29" s="32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="62" t="s">
+        <v>130</v>
+      </c>
       <c r="G29" s="12"/>
       <c r="H29" s="8"/>
       <c r="I29" s="14"/>
@@ -2906,12 +2827,12 @@
       <c r="P29" s="15"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="14"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="14"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="54"/>
       <c r="Y29" s="12"/>
       <c r="Z29" s="8"/>
       <c r="AA29" s="14"/>
@@ -2925,21 +2846,26 @@
       <c r="AI29" s="8"/>
       <c r="AJ29" s="14"/>
     </row>
-    <row r="30" spans="1:37">
-      <c r="A30" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>54</v>
+    <row r="30" spans="1:36" ht="47.25">
+      <c r="A30" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>57</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="47"/>
+        <v>69</v>
+      </c>
+      <c r="D30" s="32">
+        <v>2</v>
+      </c>
+      <c r="E30" s="32">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="62" t="s">
+        <v>166</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="8"/>
       <c r="I30" s="14"/>
@@ -2955,11 +2881,10 @@
       <c r="S30" s="15"/>
       <c r="T30" s="8"/>
       <c r="U30" s="14"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="8"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="53"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="12"/>
-      <c r="Z30" s="8"/>
       <c r="AA30" s="14"/>
       <c r="AB30" s="12"/>
       <c r="AC30" s="8"/>
@@ -2971,25 +2896,25 @@
       <c r="AI30" s="8"/>
       <c r="AJ30" s="14"/>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:36" ht="47.25">
       <c r="A31" s="20" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D31" s="32">
         <v>2</v>
       </c>
       <c r="E31" s="32">
-        <f>D31/4</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="F31" s="62" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="8"/>
@@ -2997,20 +2922,19 @@
       <c r="J31" s="15"/>
       <c r="K31" s="8"/>
       <c r="L31" s="14"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="60"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="14"/>
       <c r="S31" s="15"/>
       <c r="T31" s="8"/>
       <c r="U31" s="14"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="8"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="53"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="12"/>
-      <c r="Z31" s="8"/>
       <c r="AA31" s="14"/>
       <c r="AB31" s="12"/>
       <c r="AC31" s="8"/>
@@ -3022,20 +2946,23 @@
       <c r="AI31" s="8"/>
       <c r="AJ31" s="14"/>
     </row>
-    <row r="32" spans="1:37" ht="32">
+    <row r="32" spans="1:36">
       <c r="A32" s="20" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D32" s="32">
-        <v>2</v>
-      </c>
-      <c r="E32" s="32"/>
+        <v>6</v>
+      </c>
+      <c r="E32" s="32">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
       <c r="F32" s="62"/>
       <c r="G32" s="12"/>
       <c r="H32" s="8"/>
@@ -3043,20 +2970,19 @@
       <c r="J32" s="15"/>
       <c r="K32" s="8"/>
       <c r="L32" s="14"/>
-      <c r="M32" s="15"/>
+      <c r="M32" s="12"/>
       <c r="N32" s="8"/>
       <c r="O32" s="14"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="15"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="12"/>
       <c r="T32" s="8"/>
       <c r="U32" s="14"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="14"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="60"/>
       <c r="Y32" s="12"/>
-      <c r="Z32" s="8"/>
       <c r="AA32" s="14"/>
       <c r="AB32" s="12"/>
       <c r="AC32" s="8"/>
@@ -3070,44 +2996,46 @@
     </row>
     <row r="33" spans="1:36" s="1" customFormat="1">
       <c r="A33" s="20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="32"/>
+        <v>72</v>
+      </c>
+      <c r="D33" s="32">
+        <v>6</v>
+      </c>
       <c r="E33" s="32">
-        <f t="shared" ref="E33:E44" si="0">D33/4</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="F33" s="62"/>
       <c r="G33" s="12"/>
       <c r="H33" s="8"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
+      <c r="J33" s="12"/>
       <c r="K33" s="8"/>
       <c r="L33" s="14"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="15"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="12"/>
       <c r="T33" s="8"/>
       <c r="U33" s="14"/>
-      <c r="V33" s="15"/>
+      <c r="V33" s="12"/>
       <c r="W33" s="8"/>
       <c r="X33" s="14"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="35"/>
-      <c r="AD33" s="36"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="53"/>
+      <c r="AD33" s="14"/>
       <c r="AE33" s="15"/>
       <c r="AF33" s="8"/>
       <c r="AG33" s="14"/>
@@ -3117,61 +3045,59 @@
     </row>
     <row r="34" spans="1:36">
       <c r="A34" s="20" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D34" s="32">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E34" s="32">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F34" s="62" t="s">
-        <v>139</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="F34" s="62"/>
       <c r="G34" s="12"/>
       <c r="H34" s="8"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="15"/>
+      <c r="J34" s="12"/>
       <c r="K34" s="8"/>
       <c r="L34" s="14"/>
-      <c r="M34" s="15"/>
+      <c r="M34" s="12"/>
       <c r="N34" s="8"/>
       <c r="O34" s="14"/>
-      <c r="P34" s="15"/>
+      <c r="P34" s="12"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="14"/>
-      <c r="S34" s="55"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="54"/>
-      <c r="Y34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="15"/>
       <c r="Z34" s="8"/>
       <c r="AA34" s="14"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="8"/>
-      <c r="AD34" s="14"/>
-      <c r="AE34" s="15"/>
-      <c r="AF34" s="8"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="54"/>
+      <c r="AE34" s="55"/>
+      <c r="AF34" s="53"/>
       <c r="AG34" s="14"/>
       <c r="AH34" s="12"/>
       <c r="AI34" s="8"/>
       <c r="AJ34" s="14"/>
     </row>
-    <row r="35" spans="1:36" ht="48">
+    <row r="35" spans="1:36">
       <c r="A35" s="20" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>69</v>
@@ -3183,16 +3109,14 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F35" s="62" t="s">
-        <v>187</v>
-      </c>
+      <c r="F35" s="62"/>
       <c r="G35" s="12"/>
       <c r="H35" s="8"/>
       <c r="I35" s="14"/>
       <c r="J35" s="15"/>
       <c r="K35" s="8"/>
       <c r="L35" s="14"/>
-      <c r="M35" s="15"/>
+      <c r="M35" s="12"/>
       <c r="N35" s="8"/>
       <c r="O35" s="14"/>
       <c r="P35" s="15"/>
@@ -3201,24 +3125,25 @@
       <c r="S35" s="15"/>
       <c r="T35" s="8"/>
       <c r="U35" s="14"/>
-      <c r="V35" s="55"/>
-      <c r="W35" s="53"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="8"/>
       <c r="X35" s="14"/>
-      <c r="Y35" s="12"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="8"/>
       <c r="AA35" s="14"/>
-      <c r="AB35" s="12"/>
+      <c r="AB35" s="15"/>
       <c r="AC35" s="8"/>
       <c r="AD35" s="14"/>
-      <c r="AE35" s="15"/>
-      <c r="AF35" s="8"/>
-      <c r="AG35" s="14"/>
+      <c r="AE35" s="55"/>
+      <c r="AF35" s="53"/>
+      <c r="AG35" s="54"/>
       <c r="AH35" s="12"/>
       <c r="AI35" s="8"/>
       <c r="AJ35" s="14"/>
     </row>
-    <row r="36" spans="1:36" ht="48">
+    <row r="36" spans="1:36">
       <c r="A36" s="20" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B36" s="48" t="s">
         <v>62</v>
@@ -3233,55 +3158,54 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F36" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="36"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="14"/>
       <c r="P36" s="15"/>
       <c r="Q36" s="8"/>
       <c r="R36" s="14"/>
       <c r="S36" s="15"/>
       <c r="T36" s="8"/>
       <c r="U36" s="14"/>
-      <c r="V36" s="55"/>
-      <c r="W36" s="53"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="8"/>
       <c r="X36" s="14"/>
-      <c r="Y36" s="12"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="8"/>
       <c r="AA36" s="14"/>
       <c r="AB36" s="12"/>
       <c r="AC36" s="8"/>
       <c r="AD36" s="14"/>
-      <c r="AE36" s="15"/>
-      <c r="AF36" s="8"/>
-      <c r="AG36" s="14"/>
-      <c r="AH36" s="12"/>
-      <c r="AI36" s="8"/>
-      <c r="AJ36" s="14"/>
+      <c r="AE36" s="55"/>
+      <c r="AF36" s="53"/>
+      <c r="AG36" s="54"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="27"/>
+      <c r="AJ36" s="28"/>
     </row>
     <row r="37" spans="1:36">
       <c r="A37" s="20" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D37" s="32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E37" s="32">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F37" s="62"/>
       <c r="G37" s="12"/>
@@ -3290,36 +3214,37 @@
       <c r="J37" s="15"/>
       <c r="K37" s="8"/>
       <c r="L37" s="14"/>
-      <c r="M37" s="12"/>
+      <c r="M37" s="15"/>
       <c r="N37" s="8"/>
       <c r="O37" s="14"/>
-      <c r="P37" s="12"/>
+      <c r="P37" s="15"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="14"/>
-      <c r="S37" s="12"/>
+      <c r="S37" s="15"/>
       <c r="T37" s="8"/>
       <c r="U37" s="14"/>
-      <c r="V37" s="55"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="60"/>
-      <c r="Y37" s="12"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="8"/>
       <c r="AA37" s="14"/>
       <c r="AB37" s="12"/>
       <c r="AC37" s="8"/>
       <c r="AD37" s="14"/>
       <c r="AE37" s="15"/>
       <c r="AF37" s="8"/>
-      <c r="AG37" s="14"/>
-      <c r="AH37" s="12"/>
-      <c r="AI37" s="8"/>
+      <c r="AG37" s="54"/>
+      <c r="AH37" s="52"/>
+      <c r="AI37" s="61"/>
       <c r="AJ37" s="14"/>
     </row>
-    <row r="38" spans="1:36" s="1" customFormat="1">
+    <row r="38" spans="1:36">
       <c r="A38" s="20" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>72</v>
@@ -3331,112 +3256,106 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="F38" s="62"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="12"/>
       <c r="H38" s="8"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="12"/>
+      <c r="J38" s="15"/>
       <c r="K38" s="8"/>
       <c r="L38" s="14"/>
-      <c r="M38" s="12"/>
+      <c r="M38" s="15"/>
       <c r="N38" s="8"/>
       <c r="O38" s="14"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="14"/>
-      <c r="Y38" s="53"/>
-      <c r="Z38" s="53"/>
-      <c r="AA38" s="54"/>
-      <c r="AB38" s="52"/>
-      <c r="AC38" s="53"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="8"/>
       <c r="AD38" s="14"/>
       <c r="AE38" s="15"/>
       <c r="AF38" s="8"/>
       <c r="AG38" s="14"/>
       <c r="AH38" s="12"/>
-      <c r="AI38" s="8"/>
-      <c r="AJ38" s="14"/>
+      <c r="AI38" s="53"/>
+      <c r="AJ38" s="54"/>
     </row>
     <row r="39" spans="1:36">
       <c r="A39" s="20" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D39" s="32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E39" s="32">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="F39" s="62"/>
       <c r="G39" s="12"/>
       <c r="H39" s="8"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="12"/>
+      <c r="J39" s="15"/>
       <c r="K39" s="8"/>
       <c r="L39" s="14"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="12"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="60"/>
+      <c r="P39" s="15"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="14"/>
-      <c r="S39" s="12"/>
+      <c r="S39" s="15"/>
       <c r="T39" s="8"/>
       <c r="U39" s="14"/>
-      <c r="V39" s="12"/>
+      <c r="V39" s="15"/>
       <c r="W39" s="8"/>
       <c r="X39" s="14"/>
-      <c r="Y39" s="15"/>
+      <c r="Y39" s="12"/>
       <c r="Z39" s="8"/>
       <c r="AA39" s="14"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="35"/>
-      <c r="AD39" s="54"/>
-      <c r="AE39" s="55"/>
-      <c r="AF39" s="53"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="8"/>
       <c r="AG39" s="14"/>
       <c r="AH39" s="12"/>
       <c r="AI39" s="8"/>
       <c r="AJ39" s="14"/>
     </row>
-    <row r="40" spans="1:36">
-      <c r="A40" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="32">
-        <v>2</v>
-      </c>
-      <c r="E40" s="32">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F40" s="62"/>
+    <row r="40" spans="1:36" s="38" customFormat="1">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="90">
+        <f>SUM(E26:E39)</f>
+        <v>14.5</v>
+      </c>
+      <c r="F40" s="47"/>
       <c r="G40" s="12"/>
       <c r="H40" s="8"/>
       <c r="I40" s="14"/>
       <c r="J40" s="15"/>
       <c r="K40" s="8"/>
       <c r="L40" s="14"/>
-      <c r="M40" s="12"/>
+      <c r="M40" s="15"/>
       <c r="N40" s="8"/>
       <c r="O40" s="14"/>
       <c r="P40" s="15"/>
@@ -3448,43 +3367,32 @@
       <c r="V40" s="15"/>
       <c r="W40" s="8"/>
       <c r="X40" s="14"/>
-      <c r="Y40" s="15"/>
+      <c r="Y40" s="12"/>
       <c r="Z40" s="8"/>
       <c r="AA40" s="14"/>
-      <c r="AB40" s="15"/>
+      <c r="AB40" s="12"/>
       <c r="AC40" s="8"/>
       <c r="AD40" s="14"/>
-      <c r="AE40" s="55"/>
-      <c r="AF40" s="53"/>
-      <c r="AG40" s="54"/>
+      <c r="AE40" s="29"/>
+      <c r="AF40" s="27"/>
+      <c r="AG40" s="28"/>
       <c r="AH40" s="12"/>
       <c r="AI40" s="8"/>
       <c r="AJ40" s="14"/>
     </row>
-    <row r="41" spans="1:36">
-      <c r="A41" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="32">
-        <v>2</v>
-      </c>
-      <c r="E41" s="32">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
+    <row r="41" spans="1:36" s="38" customFormat="1">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
       <c r="F41" s="47"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="28"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="14"/>
       <c r="M41" s="15"/>
       <c r="N41" s="8"/>
       <c r="O41" s="14"/>
@@ -3497,37 +3405,32 @@
       <c r="V41" s="15"/>
       <c r="W41" s="8"/>
       <c r="X41" s="14"/>
-      <c r="Y41" s="15"/>
+      <c r="Y41" s="12"/>
       <c r="Z41" s="8"/>
       <c r="AA41" s="14"/>
       <c r="AB41" s="12"/>
       <c r="AC41" s="8"/>
       <c r="AD41" s="14"/>
-      <c r="AE41" s="55"/>
-      <c r="AF41" s="53"/>
-      <c r="AG41" s="54"/>
-      <c r="AH41" s="26"/>
-      <c r="AI41" s="27"/>
-      <c r="AJ41" s="28"/>
-    </row>
-    <row r="42" spans="1:36">
-      <c r="A42" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="32">
-        <v>8</v>
-      </c>
-      <c r="E42" s="32">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F42" s="62"/>
+      <c r="AE41" s="29"/>
+      <c r="AF41" s="27"/>
+      <c r="AG41" s="28"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="14"/>
+    </row>
+    <row r="42" spans="1:36" s="38" customFormat="1">
+      <c r="A42" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
       <c r="G42" s="12"/>
       <c r="H42" s="8"/>
       <c r="I42" s="14"/>
@@ -3546,37 +3449,34 @@
       <c r="V42" s="15"/>
       <c r="W42" s="8"/>
       <c r="X42" s="14"/>
-      <c r="Y42" s="15"/>
+      <c r="Y42" s="12"/>
       <c r="Z42" s="8"/>
       <c r="AA42" s="14"/>
       <c r="AB42" s="12"/>
       <c r="AC42" s="8"/>
       <c r="AD42" s="14"/>
-      <c r="AE42" s="15"/>
-      <c r="AF42" s="8"/>
-      <c r="AG42" s="54"/>
-      <c r="AH42" s="52"/>
-      <c r="AI42" s="61"/>
+      <c r="AE42" s="29"/>
+      <c r="AF42" s="27"/>
+      <c r="AG42" s="28"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="8"/>
       <c r="AJ42" s="14"/>
     </row>
-    <row r="43" spans="1:36">
-      <c r="A43" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B43" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="32">
-        <v>6</v>
-      </c>
-      <c r="E43" s="32">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="F43" s="47"/>
+    <row r="43" spans="1:36" s="38" customFormat="1">
+      <c r="A43" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="F43" s="56"/>
       <c r="G43" s="12"/>
       <c r="H43" s="8"/>
       <c r="I43" s="14"/>
@@ -3586,63 +3486,62 @@
       <c r="M43" s="15"/>
       <c r="N43" s="8"/>
       <c r="O43" s="14"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="28"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="28"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="55"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="14"/>
       <c r="Y43" s="12"/>
       <c r="Z43" s="8"/>
       <c r="AA43" s="14"/>
       <c r="AB43" s="12"/>
       <c r="AC43" s="8"/>
       <c r="AD43" s="14"/>
-      <c r="AE43" s="15"/>
-      <c r="AF43" s="8"/>
-      <c r="AG43" s="14"/>
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="27"/>
+      <c r="AG43" s="28"/>
       <c r="AH43" s="12"/>
-      <c r="AI43" s="53"/>
-      <c r="AJ43" s="54"/>
-    </row>
-    <row r="44" spans="1:36">
-      <c r="A44" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="B44" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="32">
-        <v>8</v>
-      </c>
-      <c r="E44" s="32">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F44" s="62"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="14"/>
+    </row>
+    <row r="44" spans="1:36" s="38" customFormat="1">
+      <c r="A44" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56">
+        <v>1.5</v>
+      </c>
+      <c r="F44" s="84" t="s">
+        <v>159</v>
+      </c>
       <c r="G44" s="12"/>
       <c r="H44" s="8"/>
       <c r="I44" s="14"/>
       <c r="J44" s="15"/>
       <c r="K44" s="8"/>
       <c r="L44" s="14"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="60"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="14"/>
       <c r="P44" s="15"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="14"/>
       <c r="S44" s="15"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="8"/>
+      <c r="T44" s="53"/>
+      <c r="U44" s="54"/>
+      <c r="V44" s="55"/>
+      <c r="W44" s="53"/>
       <c r="X44" s="14"/>
       <c r="Y44" s="12"/>
       <c r="Z44" s="8"/>
@@ -3650,25 +3549,28 @@
       <c r="AB44" s="12"/>
       <c r="AC44" s="8"/>
       <c r="AD44" s="14"/>
-      <c r="AE44" s="15"/>
-      <c r="AF44" s="8"/>
-      <c r="AG44" s="14"/>
+      <c r="AE44" s="29"/>
+      <c r="AF44" s="27"/>
+      <c r="AG44" s="28"/>
       <c r="AH44" s="12"/>
       <c r="AI44" s="8"/>
       <c r="AJ44" s="14"/>
     </row>
     <row r="45" spans="1:36" s="38" customFormat="1">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="E45" s="92">
-        <f>SUM(E31:E44)</f>
-        <v>14.5</v>
-      </c>
-      <c r="F45" s="47"/>
+      <c r="A45" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56">
+        <v>1</v>
+      </c>
+      <c r="F45" s="56"/>
       <c r="G45" s="12"/>
       <c r="H45" s="8"/>
       <c r="I45" s="14"/>
@@ -3685,9 +3587,9 @@
       <c r="T45" s="8"/>
       <c r="U45" s="14"/>
       <c r="V45" s="15"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="14"/>
-      <c r="Y45" s="12"/>
+      <c r="W45" s="53"/>
+      <c r="X45" s="54"/>
+      <c r="Y45" s="52"/>
       <c r="Z45" s="8"/>
       <c r="AA45" s="14"/>
       <c r="AB45" s="12"/>
@@ -3701,12 +3603,20 @@
       <c r="AJ45" s="14"/>
     </row>
     <row r="46" spans="1:36" s="38" customFormat="1">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="47"/>
+      <c r="A46" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56">
+        <v>1</v>
+      </c>
+      <c r="F46" s="56"/>
       <c r="G46" s="12"/>
       <c r="H46" s="8"/>
       <c r="I46" s="14"/>
@@ -3726,10 +3636,10 @@
       <c r="W46" s="8"/>
       <c r="X46" s="14"/>
       <c r="Y46" s="12"/>
-      <c r="Z46" s="8"/>
-      <c r="AA46" s="14"/>
-      <c r="AB46" s="12"/>
-      <c r="AC46" s="8"/>
+      <c r="Z46" s="53"/>
+      <c r="AA46" s="54"/>
+      <c r="AB46" s="52"/>
+      <c r="AC46" s="53"/>
       <c r="AD46" s="14"/>
       <c r="AE46" s="29"/>
       <c r="AF46" s="27"/>
@@ -3739,18 +3649,17 @@
       <c r="AJ46" s="14"/>
     </row>
     <row r="47" spans="1:36" s="38" customFormat="1">
-      <c r="A47" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B47" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="C47" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="90">
+        <f>SUM(E43:E46)</f>
+        <v>3.75</v>
+      </c>
+      <c r="F47" s="56"/>
       <c r="G47" s="12"/>
       <c r="H47" s="8"/>
       <c r="I47" s="14"/>
@@ -3782,21 +3691,10 @@
       <c r="AI47" s="8"/>
       <c r="AJ47" s="14"/>
     </row>
-    <row r="48" spans="1:36" s="38" customFormat="1">
-      <c r="A48" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="B48" s="86" t="s">
-        <v>176</v>
-      </c>
-      <c r="C48" s="86" t="s">
-        <v>182</v>
-      </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56">
-        <v>0.25</v>
-      </c>
-      <c r="F48" s="56"/>
+    <row r="48" spans="1:36" ht="16.5" thickBot="1">
+      <c r="A48" s="20"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
       <c r="G48" s="12"/>
       <c r="H48" s="8"/>
       <c r="I48" s="14"/>
@@ -3809,7 +3707,7 @@
       <c r="P48" s="15"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="14"/>
-      <c r="S48" s="55"/>
+      <c r="S48" s="15"/>
       <c r="T48" s="8"/>
       <c r="U48" s="14"/>
       <c r="V48" s="15"/>
@@ -3818,39 +3716,33 @@
       <c r="Y48" s="12"/>
       <c r="Z48" s="8"/>
       <c r="AA48" s="14"/>
-      <c r="AB48" s="12"/>
-      <c r="AC48" s="8"/>
-      <c r="AD48" s="14"/>
-      <c r="AE48" s="29"/>
-      <c r="AF48" s="27"/>
-      <c r="AG48" s="28"/>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="35"/>
+      <c r="AD48" s="36"/>
+      <c r="AE48" s="15"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="14"/>
       <c r="AH48" s="12"/>
       <c r="AI48" s="8"/>
       <c r="AJ48" s="14"/>
     </row>
-    <row r="49" spans="1:36" s="38" customFormat="1">
-      <c r="A49" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="B49" s="86" t="s">
-        <v>177</v>
-      </c>
-      <c r="C49" s="86" t="s">
-        <v>182</v>
-      </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56">
-        <v>1.5</v>
-      </c>
-      <c r="F49" s="86" t="s">
-        <v>180</v>
-      </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="14"/>
+    <row r="49" spans="1:36">
+      <c r="A49" s="33"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49" s="86">
+        <f>E40+E22+E13+E47</f>
+        <v>39.75</v>
+      </c>
+      <c r="F49" s="62"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="36"/>
       <c r="M49" s="15"/>
       <c r="N49" s="8"/>
       <c r="O49" s="14"/>
@@ -3858,45 +3750,41 @@
       <c r="Q49" s="8"/>
       <c r="R49" s="14"/>
       <c r="S49" s="15"/>
-      <c r="T49" s="53"/>
-      <c r="U49" s="54"/>
-      <c r="V49" s="55"/>
-      <c r="W49" s="53"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="8"/>
       <c r="X49" s="14"/>
-      <c r="Y49" s="12"/>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="14"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="36"/>
       <c r="AB49" s="12"/>
       <c r="AC49" s="8"/>
       <c r="AD49" s="14"/>
-      <c r="AE49" s="29"/>
-      <c r="AF49" s="27"/>
-      <c r="AG49" s="28"/>
-      <c r="AH49" s="12"/>
-      <c r="AI49" s="8"/>
-      <c r="AJ49" s="14"/>
-    </row>
-    <row r="50" spans="1:36" s="38" customFormat="1">
-      <c r="A50" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="B50" s="86" t="s">
-        <v>183</v>
-      </c>
-      <c r="C50" s="86" t="s">
-        <v>182</v>
-      </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56">
-        <v>1</v>
-      </c>
-      <c r="F50" s="56"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="14"/>
+      <c r="AE49" s="15"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="14"/>
+      <c r="AH49" s="34"/>
+      <c r="AI49" s="35"/>
+      <c r="AJ49" s="36"/>
+    </row>
+    <row r="50" spans="1:36" ht="16.5" thickBot="1">
+      <c r="A50" s="33"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="87" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" s="88">
+        <f>E49/27</f>
+        <v>1.4722222222222223</v>
+      </c>
+      <c r="F50" s="47"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="28"/>
       <c r="M50" s="15"/>
       <c r="N50" s="8"/>
       <c r="O50" s="14"/>
@@ -3907,36 +3795,28 @@
       <c r="T50" s="8"/>
       <c r="U50" s="14"/>
       <c r="V50" s="15"/>
-      <c r="W50" s="53"/>
-      <c r="X50" s="54"/>
-      <c r="Y50" s="52"/>
-      <c r="Z50" s="8"/>
-      <c r="AA50" s="14"/>
-      <c r="AB50" s="12"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="14"/>
+      <c r="Y50" s="26"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="28"/>
+      <c r="AB50" s="15"/>
       <c r="AC50" s="8"/>
       <c r="AD50" s="14"/>
-      <c r="AE50" s="29"/>
-      <c r="AF50" s="27"/>
-      <c r="AG50" s="28"/>
-      <c r="AH50" s="12"/>
-      <c r="AI50" s="8"/>
-      <c r="AJ50" s="14"/>
-    </row>
-    <row r="51" spans="1:36" s="38" customFormat="1">
-      <c r="A51" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="B51" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="C51" s="86" t="s">
-        <v>182</v>
-      </c>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56">
-        <v>1</v>
-      </c>
-      <c r="F51" s="56"/>
+      <c r="AE50" s="15"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="14"/>
+      <c r="AH50" s="34"/>
+      <c r="AI50" s="35"/>
+      <c r="AJ50" s="36"/>
+    </row>
+    <row r="51" spans="1:36">
+      <c r="A51" s="33"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="64"/>
       <c r="G51" s="12"/>
       <c r="H51" s="8"/>
       <c r="I51" s="14"/>
@@ -3956,30 +3836,27 @@
       <c r="W51" s="8"/>
       <c r="X51" s="14"/>
       <c r="Y51" s="12"/>
-      <c r="Z51" s="53"/>
-      <c r="AA51" s="54"/>
-      <c r="AB51" s="52"/>
-      <c r="AC51" s="53"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="14"/>
+      <c r="AB51" s="15"/>
+      <c r="AC51" s="8"/>
       <c r="AD51" s="14"/>
-      <c r="AE51" s="29"/>
-      <c r="AF51" s="27"/>
-      <c r="AG51" s="28"/>
+      <c r="AE51" s="15"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="14"/>
       <c r="AH51" s="12"/>
       <c r="AI51" s="8"/>
       <c r="AJ51" s="14"/>
     </row>
-    <row r="52" spans="1:36" s="38" customFormat="1">
-      <c r="A52" s="24"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="E52" s="92">
-        <f>SUM(E48:E51)</f>
-        <v>3.75</v>
-      </c>
-      <c r="F52" s="56"/>
+    <row r="52" spans="1:36" s="23" customFormat="1">
+      <c r="A52" s="20"/>
+      <c r="B52" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="64"/>
       <c r="G52" s="12"/>
       <c r="H52" s="8"/>
       <c r="I52" s="14"/>
@@ -4001,20 +3878,25 @@
       <c r="Y52" s="12"/>
       <c r="Z52" s="8"/>
       <c r="AA52" s="14"/>
-      <c r="AB52" s="12"/>
+      <c r="AB52" s="15"/>
       <c r="AC52" s="8"/>
       <c r="AD52" s="14"/>
-      <c r="AE52" s="29"/>
-      <c r="AF52" s="27"/>
-      <c r="AG52" s="28"/>
-      <c r="AH52" s="12"/>
+      <c r="AE52" s="15"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="14"/>
+      <c r="AH52" s="15"/>
       <c r="AI52" s="8"/>
       <c r="AJ52" s="14"/>
     </row>
-    <row r="53" spans="1:36" ht="17" thickBot="1">
+    <row r="53" spans="1:36" ht="31.5">
       <c r="A53" s="20"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
+      <c r="B53" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="65"/>
       <c r="G53" s="12"/>
       <c r="H53" s="8"/>
       <c r="I53" s="14"/>
@@ -4036,36 +3918,32 @@
       <c r="Y53" s="12"/>
       <c r="Z53" s="8"/>
       <c r="AA53" s="14"/>
-      <c r="AB53" s="34"/>
-      <c r="AC53" s="35"/>
-      <c r="AD53" s="36"/>
+      <c r="AB53" s="15"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="14"/>
       <c r="AE53" s="15"/>
       <c r="AF53" s="8"/>
       <c r="AG53" s="14"/>
-      <c r="AH53" s="12"/>
+      <c r="AH53" s="15"/>
       <c r="AI53" s="8"/>
       <c r="AJ53" s="14"/>
     </row>
     <row r="54" spans="1:36">
-      <c r="A54" s="33"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="87" t="s">
-        <v>185</v>
-      </c>
-      <c r="E54" s="88">
-        <f>E45+E27+E18+E52</f>
-        <v>46.75</v>
-      </c>
-      <c r="F54" s="62"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="14"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="36"/>
       <c r="P54" s="15"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="14"/>
@@ -4075,75 +3953,69 @@
       <c r="V54" s="15"/>
       <c r="W54" s="8"/>
       <c r="X54" s="14"/>
-      <c r="Y54" s="34"/>
-      <c r="Z54" s="35"/>
-      <c r="AA54" s="36"/>
-      <c r="AB54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="14"/>
+      <c r="AB54" s="15"/>
       <c r="AC54" s="8"/>
       <c r="AD54" s="14"/>
       <c r="AE54" s="15"/>
       <c r="AF54" s="8"/>
       <c r="AG54" s="14"/>
-      <c r="AH54" s="34"/>
-      <c r="AI54" s="35"/>
-      <c r="AJ54" s="36"/>
-    </row>
-    <row r="55" spans="1:36" ht="17" thickBot="1">
-      <c r="A55" s="33"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="89" t="s">
-        <v>186</v>
-      </c>
-      <c r="E55" s="90">
-        <f>E54/27</f>
-        <v>1.7314814814814814</v>
-      </c>
-      <c r="F55" s="47"/>
+      <c r="AH54" s="15"/>
+      <c r="AI54" s="8"/>
+      <c r="AJ54" s="14"/>
+    </row>
+    <row r="55" spans="1:36">
+      <c r="A55" s="23"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="65"/>
       <c r="G55" s="26"/>
       <c r="H55" s="27"/>
       <c r="I55" s="28"/>
       <c r="J55" s="29"/>
       <c r="K55" s="27"/>
       <c r="L55" s="28"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="15"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="14"/>
-      <c r="V55" s="15"/>
-      <c r="W55" s="8"/>
-      <c r="X55" s="14"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="27"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="27"/>
+      <c r="X55" s="28"/>
       <c r="Y55" s="26"/>
       <c r="Z55" s="27"/>
       <c r="AA55" s="28"/>
-      <c r="AB55" s="15"/>
-      <c r="AC55" s="8"/>
-      <c r="AD55" s="14"/>
-      <c r="AE55" s="15"/>
-      <c r="AF55" s="8"/>
-      <c r="AG55" s="14"/>
-      <c r="AH55" s="34"/>
-      <c r="AI55" s="35"/>
-      <c r="AJ55" s="36"/>
+      <c r="AB55" s="29"/>
+      <c r="AC55" s="27"/>
+      <c r="AD55" s="28"/>
+      <c r="AE55" s="29"/>
+      <c r="AF55" s="27"/>
+      <c r="AG55" s="28"/>
+      <c r="AH55" s="15"/>
+      <c r="AI55" s="8"/>
+      <c r="AJ55" s="14"/>
     </row>
     <row r="56" spans="1:36">
-      <c r="A56" s="33"/>
-      <c r="B56" s="48"/>
+      <c r="A56" s="20"/>
       <c r="C56" s="21"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="64"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="65"/>
       <c r="G56" s="12"/>
       <c r="H56" s="8"/>
       <c r="I56" s="14"/>
       <c r="J56" s="15"/>
       <c r="K56" s="8"/>
       <c r="L56" s="14"/>
-      <c r="M56" s="15"/>
+      <c r="M56" s="12"/>
       <c r="N56" s="8"/>
       <c r="O56" s="14"/>
       <c r="P56" s="15"/>
@@ -4164,26 +4036,24 @@
       <c r="AE56" s="15"/>
       <c r="AF56" s="8"/>
       <c r="AG56" s="14"/>
-      <c r="AH56" s="12"/>
+      <c r="AH56" s="15"/>
       <c r="AI56" s="8"/>
       <c r="AJ56" s="14"/>
     </row>
-    <row r="57" spans="1:36" s="23" customFormat="1">
+    <row r="57" spans="1:36">
       <c r="A57" s="20"/>
-      <c r="B57" s="69" t="s">
-        <v>140</v>
-      </c>
+      <c r="B57" s="31"/>
       <c r="C57" s="21"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="64"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="65"/>
       <c r="G57" s="12"/>
       <c r="H57" s="8"/>
       <c r="I57" s="14"/>
       <c r="J57" s="15"/>
       <c r="K57" s="8"/>
       <c r="L57" s="14"/>
-      <c r="M57" s="15"/>
+      <c r="M57" s="12"/>
       <c r="N57" s="8"/>
       <c r="O57" s="14"/>
       <c r="P57" s="15"/>
@@ -4204,15 +4074,13 @@
       <c r="AE57" s="15"/>
       <c r="AF57" s="8"/>
       <c r="AG57" s="14"/>
-      <c r="AH57" s="15"/>
-      <c r="AI57" s="8"/>
-      <c r="AJ57" s="14"/>
-    </row>
-    <row r="58" spans="1:36" ht="32">
+      <c r="AH57" s="29"/>
+      <c r="AI57" s="27"/>
+      <c r="AJ57" s="28"/>
+    </row>
+    <row r="58" spans="1:36" s="1" customFormat="1">
       <c r="A58" s="20"/>
-      <c r="B58" s="82" t="s">
-        <v>143</v>
-      </c>
+      <c r="B58" s="20"/>
       <c r="C58" s="21"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
@@ -4223,7 +4091,7 @@
       <c r="J58" s="15"/>
       <c r="K58" s="8"/>
       <c r="L58" s="14"/>
-      <c r="M58" s="15"/>
+      <c r="M58" s="12"/>
       <c r="N58" s="8"/>
       <c r="O58" s="14"/>
       <c r="P58" s="15"/>
@@ -4261,9 +4129,9 @@
       <c r="J59" s="15"/>
       <c r="K59" s="8"/>
       <c r="L59" s="14"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="36"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="14"/>
       <c r="P59" s="15"/>
       <c r="Q59" s="8"/>
       <c r="R59" s="14"/>
@@ -4287,75 +4155,77 @@
       <c r="AJ59" s="14"/>
     </row>
     <row r="60" spans="1:36">
-      <c r="A60" s="23"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="28"/>
-      <c r="S60" s="29"/>
-      <c r="T60" s="27"/>
-      <c r="U60" s="28"/>
-      <c r="V60" s="29"/>
-      <c r="W60" s="27"/>
-      <c r="X60" s="28"/>
-      <c r="Y60" s="26"/>
-      <c r="Z60" s="27"/>
-      <c r="AA60" s="28"/>
-      <c r="AB60" s="29"/>
-      <c r="AC60" s="27"/>
-      <c r="AD60" s="28"/>
-      <c r="AE60" s="29"/>
-      <c r="AF60" s="27"/>
-      <c r="AG60" s="28"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="15"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="14"/>
+      <c r="V60" s="15"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="14"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="14"/>
+      <c r="AB60" s="15"/>
+      <c r="AC60" s="8"/>
+      <c r="AD60" s="14"/>
+      <c r="AE60" s="15"/>
+      <c r="AF60" s="8"/>
+      <c r="AG60" s="14"/>
       <c r="AH60" s="15"/>
       <c r="AI60" s="8"/>
       <c r="AJ60" s="14"/>
     </row>
     <row r="61" spans="1:36">
-      <c r="A61" s="20"/>
-      <c r="C61" s="21"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
       <c r="F61" s="65"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="15"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="14"/>
-      <c r="V61" s="15"/>
-      <c r="W61" s="8"/>
-      <c r="X61" s="14"/>
-      <c r="Y61" s="12"/>
-      <c r="Z61" s="8"/>
-      <c r="AA61" s="14"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="26"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="27"/>
+      <c r="R61" s="28"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="27"/>
+      <c r="U61" s="28"/>
+      <c r="V61" s="29"/>
+      <c r="W61" s="27"/>
+      <c r="X61" s="28"/>
+      <c r="Y61" s="26"/>
+      <c r="Z61" s="27"/>
+      <c r="AA61" s="28"/>
       <c r="AB61" s="15"/>
       <c r="AC61" s="8"/>
       <c r="AD61" s="14"/>
-      <c r="AE61" s="15"/>
-      <c r="AF61" s="8"/>
-      <c r="AG61" s="14"/>
+      <c r="AE61" s="29"/>
+      <c r="AF61" s="27"/>
+      <c r="AG61" s="28"/>
       <c r="AH61" s="15"/>
       <c r="AI61" s="8"/>
       <c r="AJ61" s="14"/>
@@ -4364,9 +4234,9 @@
       <c r="A62" s="20"/>
       <c r="B62" s="31"/>
       <c r="C62" s="21"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="65"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="64"/>
       <c r="G62" s="12"/>
       <c r="H62" s="8"/>
       <c r="I62" s="14"/>
@@ -4388,19 +4258,19 @@
       <c r="Y62" s="12"/>
       <c r="Z62" s="8"/>
       <c r="AA62" s="14"/>
-      <c r="AB62" s="15"/>
+      <c r="AB62" s="12"/>
       <c r="AC62" s="8"/>
       <c r="AD62" s="14"/>
       <c r="AE62" s="15"/>
       <c r="AF62" s="8"/>
       <c r="AG62" s="14"/>
-      <c r="AH62" s="29"/>
-      <c r="AI62" s="27"/>
-      <c r="AJ62" s="28"/>
-    </row>
-    <row r="63" spans="1:36" s="1" customFormat="1">
+      <c r="AH62" s="15"/>
+      <c r="AI62" s="8"/>
+      <c r="AJ62" s="14"/>
+    </row>
+    <row r="63" spans="1:36">
       <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="21"/>
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
@@ -4426,7 +4296,7 @@
       <c r="Y63" s="12"/>
       <c r="Z63" s="8"/>
       <c r="AA63" s="14"/>
-      <c r="AB63" s="15"/>
+      <c r="AB63" s="12"/>
       <c r="AC63" s="8"/>
       <c r="AD63" s="14"/>
       <c r="AE63" s="15"/>
@@ -4438,11 +4308,11 @@
     </row>
     <row r="64" spans="1:36">
       <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="21"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="65"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="64"/>
       <c r="G64" s="12"/>
       <c r="H64" s="8"/>
       <c r="I64" s="14"/>
@@ -4464,23 +4334,23 @@
       <c r="Y64" s="12"/>
       <c r="Z64" s="8"/>
       <c r="AA64" s="14"/>
-      <c r="AB64" s="15"/>
+      <c r="AB64" s="12"/>
       <c r="AC64" s="8"/>
       <c r="AD64" s="14"/>
       <c r="AE64" s="15"/>
       <c r="AF64" s="8"/>
       <c r="AG64" s="14"/>
-      <c r="AH64" s="15"/>
+      <c r="AH64" s="12"/>
       <c r="AI64" s="8"/>
       <c r="AJ64" s="14"/>
     </row>
     <row r="65" spans="1:36">
       <c r="A65" s="20"/>
-      <c r="B65" s="23"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="21"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="64"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="65"/>
       <c r="G65" s="12"/>
       <c r="H65" s="8"/>
       <c r="I65" s="14"/>
@@ -4502,61 +4372,61 @@
       <c r="Y65" s="12"/>
       <c r="Z65" s="8"/>
       <c r="AA65" s="14"/>
-      <c r="AB65" s="15"/>
+      <c r="AB65" s="12"/>
       <c r="AC65" s="8"/>
       <c r="AD65" s="14"/>
       <c r="AE65" s="15"/>
       <c r="AF65" s="8"/>
       <c r="AG65" s="14"/>
-      <c r="AH65" s="15"/>
+      <c r="AH65" s="12"/>
       <c r="AI65" s="8"/>
       <c r="AJ65" s="14"/>
     </row>
     <row r="66" spans="1:36">
-      <c r="A66" s="23"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="28"/>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="27"/>
-      <c r="R66" s="28"/>
-      <c r="S66" s="29"/>
-      <c r="T66" s="27"/>
-      <c r="U66" s="28"/>
-      <c r="V66" s="29"/>
-      <c r="W66" s="27"/>
-      <c r="X66" s="28"/>
-      <c r="Y66" s="26"/>
-      <c r="Z66" s="27"/>
-      <c r="AA66" s="28"/>
-      <c r="AB66" s="15"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="14"/>
+      <c r="V66" s="15"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="14"/>
+      <c r="Y66" s="12"/>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="14"/>
+      <c r="AB66" s="12"/>
       <c r="AC66" s="8"/>
       <c r="AD66" s="14"/>
-      <c r="AE66" s="29"/>
-      <c r="AF66" s="27"/>
-      <c r="AG66" s="28"/>
-      <c r="AH66" s="15"/>
+      <c r="AE66" s="15"/>
+      <c r="AF66" s="8"/>
+      <c r="AG66" s="14"/>
+      <c r="AH66" s="12"/>
       <c r="AI66" s="8"/>
       <c r="AJ66" s="14"/>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:36" s="1" customFormat="1">
       <c r="A67" s="20"/>
       <c r="B67" s="31"/>
       <c r="C67" s="21"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="64"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="65"/>
       <c r="G67" s="12"/>
       <c r="H67" s="8"/>
       <c r="I67" s="14"/>
@@ -4584,17 +4454,17 @@
       <c r="AE67" s="15"/>
       <c r="AF67" s="8"/>
       <c r="AG67" s="14"/>
-      <c r="AH67" s="15"/>
+      <c r="AH67" s="12"/>
       <c r="AI67" s="8"/>
       <c r="AJ67" s="14"/>
     </row>
     <row r="68" spans="1:36">
       <c r="A68" s="20"/>
-      <c r="B68" s="31"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="65"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="64"/>
       <c r="G68" s="12"/>
       <c r="H68" s="8"/>
       <c r="I68" s="14"/>
@@ -4622,17 +4492,17 @@
       <c r="AE68" s="15"/>
       <c r="AF68" s="8"/>
       <c r="AG68" s="14"/>
-      <c r="AH68" s="15"/>
+      <c r="AH68" s="12"/>
       <c r="AI68" s="8"/>
       <c r="AJ68" s="14"/>
     </row>
     <row r="69" spans="1:36">
       <c r="A69" s="20"/>
-      <c r="B69" s="31"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="21"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="64"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="65"/>
       <c r="G69" s="12"/>
       <c r="H69" s="8"/>
       <c r="I69" s="14"/>
@@ -4665,50 +4535,50 @@
       <c r="AJ69" s="14"/>
     </row>
     <row r="70" spans="1:36">
-      <c r="A70" s="20"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="21"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
       <c r="F70" s="65"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="14"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="15"/>
-      <c r="T70" s="8"/>
-      <c r="U70" s="14"/>
-      <c r="V70" s="15"/>
-      <c r="W70" s="8"/>
-      <c r="X70" s="14"/>
-      <c r="Y70" s="12"/>
-      <c r="Z70" s="8"/>
-      <c r="AA70" s="14"/>
-      <c r="AB70" s="12"/>
-      <c r="AC70" s="8"/>
-      <c r="AD70" s="14"/>
-      <c r="AE70" s="15"/>
-      <c r="AF70" s="8"/>
-      <c r="AG70" s="14"/>
-      <c r="AH70" s="12"/>
-      <c r="AI70" s="8"/>
-      <c r="AJ70" s="14"/>
-    </row>
-    <row r="71" spans="1:36">
+      <c r="G70" s="26"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="26"/>
+      <c r="N70" s="27"/>
+      <c r="O70" s="28"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="27"/>
+      <c r="R70" s="28"/>
+      <c r="S70" s="29"/>
+      <c r="T70" s="27"/>
+      <c r="U70" s="28"/>
+      <c r="V70" s="29"/>
+      <c r="W70" s="27"/>
+      <c r="X70" s="28"/>
+      <c r="Y70" s="26"/>
+      <c r="Z70" s="27"/>
+      <c r="AA70" s="28"/>
+      <c r="AB70" s="26"/>
+      <c r="AC70" s="27"/>
+      <c r="AD70" s="28"/>
+      <c r="AE70" s="29"/>
+      <c r="AF70" s="27"/>
+      <c r="AG70" s="28"/>
+      <c r="AH70" s="26"/>
+      <c r="AI70" s="27"/>
+      <c r="AJ70" s="28"/>
+    </row>
+    <row r="71" spans="1:36" s="1" customFormat="1">
       <c r="A71" s="20"/>
       <c r="B71" s="31"/>
       <c r="C71" s="21"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="64"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="65"/>
       <c r="G71" s="12"/>
       <c r="H71" s="8"/>
       <c r="I71" s="14"/>
@@ -4740,13 +4610,13 @@
       <c r="AI71" s="8"/>
       <c r="AJ71" s="14"/>
     </row>
-    <row r="72" spans="1:36" s="1" customFormat="1">
+    <row r="72" spans="1:36">
       <c r="A72" s="20"/>
       <c r="B72" s="31"/>
       <c r="C72" s="21"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="65"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="64"/>
       <c r="G72" s="12"/>
       <c r="H72" s="8"/>
       <c r="I72" s="14"/>
@@ -4817,82 +4687,82 @@
       <c r="AJ73" s="14"/>
     </row>
     <row r="74" spans="1:36">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="21"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
       <c r="F74" s="65"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="14"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="14"/>
-      <c r="S74" s="15"/>
-      <c r="T74" s="8"/>
-      <c r="U74" s="14"/>
-      <c r="V74" s="15"/>
-      <c r="W74" s="8"/>
-      <c r="X74" s="14"/>
-      <c r="Y74" s="12"/>
-      <c r="Z74" s="8"/>
-      <c r="AA74" s="14"/>
-      <c r="AB74" s="12"/>
-      <c r="AC74" s="8"/>
-      <c r="AD74" s="14"/>
-      <c r="AE74" s="15"/>
-      <c r="AF74" s="8"/>
-      <c r="AG74" s="14"/>
-      <c r="AH74" s="12"/>
-      <c r="AI74" s="8"/>
-      <c r="AJ74" s="14"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="29"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="28"/>
+      <c r="S74" s="29"/>
+      <c r="T74" s="27"/>
+      <c r="U74" s="28"/>
+      <c r="V74" s="29"/>
+      <c r="W74" s="27"/>
+      <c r="X74" s="28"/>
+      <c r="Y74" s="26"/>
+      <c r="Z74" s="27"/>
+      <c r="AA74" s="28"/>
+      <c r="AB74" s="26"/>
+      <c r="AC74" s="27"/>
+      <c r="AD74" s="28"/>
+      <c r="AE74" s="29"/>
+      <c r="AF74" s="27"/>
+      <c r="AG74" s="28"/>
+      <c r="AH74" s="26"/>
+      <c r="AI74" s="27"/>
+      <c r="AJ74" s="28"/>
     </row>
     <row r="75" spans="1:36">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="26"/>
-      <c r="N75" s="27"/>
-      <c r="O75" s="28"/>
-      <c r="P75" s="29"/>
-      <c r="Q75" s="27"/>
-      <c r="R75" s="28"/>
-      <c r="S75" s="29"/>
-      <c r="T75" s="27"/>
-      <c r="U75" s="28"/>
-      <c r="V75" s="29"/>
-      <c r="W75" s="27"/>
-      <c r="X75" s="28"/>
-      <c r="Y75" s="26"/>
-      <c r="Z75" s="27"/>
-      <c r="AA75" s="28"/>
-      <c r="AB75" s="26"/>
-      <c r="AC75" s="27"/>
-      <c r="AD75" s="28"/>
-      <c r="AE75" s="29"/>
-      <c r="AF75" s="27"/>
-      <c r="AG75" s="28"/>
-      <c r="AH75" s="26"/>
-      <c r="AI75" s="27"/>
-      <c r="AJ75" s="28"/>
-    </row>
-    <row r="76" spans="1:36" s="1" customFormat="1">
+      <c r="A75" s="20"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="15"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="14"/>
+      <c r="V75" s="15"/>
+      <c r="W75" s="8"/>
+      <c r="X75" s="14"/>
+      <c r="Y75" s="12"/>
+      <c r="Z75" s="8"/>
+      <c r="AA75" s="14"/>
+      <c r="AB75" s="12"/>
+      <c r="AC75" s="8"/>
+      <c r="AD75" s="14"/>
+      <c r="AE75" s="15"/>
+      <c r="AF75" s="8"/>
+      <c r="AG75" s="14"/>
+      <c r="AH75" s="12"/>
+      <c r="AI75" s="8"/>
+      <c r="AJ75" s="14"/>
+    </row>
+    <row r="76" spans="1:36">
       <c r="A76" s="20"/>
       <c r="B76" s="31"/>
       <c r="C76" s="21"/>
@@ -4934,9 +4804,9 @@
       <c r="A77" s="20"/>
       <c r="B77" s="31"/>
       <c r="C77" s="21"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="64"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="65"/>
       <c r="G77" s="12"/>
       <c r="H77" s="8"/>
       <c r="I77" s="14"/>
@@ -4968,9 +4838,9 @@
       <c r="AI77" s="8"/>
       <c r="AJ77" s="14"/>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:36" s="1" customFormat="1">
       <c r="A78" s="20"/>
-      <c r="B78" s="20"/>
+      <c r="B78" s="31"/>
       <c r="C78" s="21"/>
       <c r="D78" s="30"/>
       <c r="E78" s="30"/>
@@ -5007,46 +4877,46 @@
       <c r="AJ78" s="14"/>
     </row>
     <row r="79" spans="1:36">
-      <c r="A79" s="23"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="21"/>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
       <c r="F79" s="65"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="28"/>
-      <c r="M79" s="26"/>
-      <c r="N79" s="27"/>
-      <c r="O79" s="28"/>
-      <c r="P79" s="29"/>
-      <c r="Q79" s="27"/>
-      <c r="R79" s="28"/>
-      <c r="S79" s="29"/>
-      <c r="T79" s="27"/>
-      <c r="U79" s="28"/>
-      <c r="V79" s="29"/>
-      <c r="W79" s="27"/>
-      <c r="X79" s="28"/>
-      <c r="Y79" s="26"/>
-      <c r="Z79" s="27"/>
-      <c r="AA79" s="28"/>
-      <c r="AB79" s="26"/>
-      <c r="AC79" s="27"/>
-      <c r="AD79" s="28"/>
-      <c r="AE79" s="29"/>
-      <c r="AF79" s="27"/>
-      <c r="AG79" s="28"/>
-      <c r="AH79" s="26"/>
-      <c r="AI79" s="27"/>
-      <c r="AJ79" s="28"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="14"/>
+      <c r="S79" s="15"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="14"/>
+      <c r="V79" s="15"/>
+      <c r="W79" s="8"/>
+      <c r="X79" s="14"/>
+      <c r="Y79" s="12"/>
+      <c r="Z79" s="8"/>
+      <c r="AA79" s="14"/>
+      <c r="AB79" s="12"/>
+      <c r="AC79" s="8"/>
+      <c r="AD79" s="14"/>
+      <c r="AE79" s="15"/>
+      <c r="AF79" s="8"/>
+      <c r="AG79" s="14"/>
+      <c r="AH79" s="12"/>
+      <c r="AI79" s="8"/>
+      <c r="AJ79" s="14"/>
     </row>
     <row r="80" spans="1:36">
       <c r="A80" s="20"/>
-      <c r="B80" s="31"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="21"/>
       <c r="D80" s="30"/>
       <c r="E80" s="30"/>
@@ -5083,50 +4953,50 @@
       <c r="AJ80" s="14"/>
     </row>
     <row r="81" spans="1:36">
-      <c r="A81" s="20"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="21"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="25"/>
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
       <c r="F81" s="65"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="14"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="8"/>
-      <c r="R81" s="14"/>
-      <c r="S81" s="15"/>
-      <c r="T81" s="8"/>
-      <c r="U81" s="14"/>
-      <c r="V81" s="15"/>
-      <c r="W81" s="8"/>
-      <c r="X81" s="14"/>
-      <c r="Y81" s="12"/>
-      <c r="Z81" s="8"/>
-      <c r="AA81" s="14"/>
-      <c r="AB81" s="12"/>
-      <c r="AC81" s="8"/>
-      <c r="AD81" s="14"/>
-      <c r="AE81" s="15"/>
-      <c r="AF81" s="8"/>
-      <c r="AG81" s="14"/>
-      <c r="AH81" s="12"/>
-      <c r="AI81" s="8"/>
-      <c r="AJ81" s="14"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="28"/>
+      <c r="M81" s="26"/>
+      <c r="N81" s="27"/>
+      <c r="O81" s="28"/>
+      <c r="P81" s="29"/>
+      <c r="Q81" s="27"/>
+      <c r="R81" s="28"/>
+      <c r="S81" s="29"/>
+      <c r="T81" s="27"/>
+      <c r="U81" s="28"/>
+      <c r="V81" s="29"/>
+      <c r="W81" s="27"/>
+      <c r="X81" s="28"/>
+      <c r="Y81" s="26"/>
+      <c r="Z81" s="27"/>
+      <c r="AA81" s="28"/>
+      <c r="AB81" s="26"/>
+      <c r="AC81" s="27"/>
+      <c r="AD81" s="28"/>
+      <c r="AE81" s="29"/>
+      <c r="AF81" s="27"/>
+      <c r="AG81" s="28"/>
+      <c r="AH81" s="26"/>
+      <c r="AI81" s="27"/>
+      <c r="AJ81" s="28"/>
     </row>
     <row r="82" spans="1:36">
       <c r="A82" s="20"/>
       <c r="B82" s="31"/>
       <c r="C82" s="21"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="65"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="64"/>
       <c r="G82" s="12"/>
       <c r="H82" s="8"/>
       <c r="I82" s="14"/>
@@ -5162,9 +5032,9 @@
       <c r="A83" s="20"/>
       <c r="B83" s="31"/>
       <c r="C83" s="21"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="64"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="65"/>
       <c r="G83" s="12"/>
       <c r="H83" s="8"/>
       <c r="I83" s="14"/>
@@ -5200,9 +5070,9 @@
       <c r="A84" s="20"/>
       <c r="B84" s="31"/>
       <c r="C84" s="21"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="65"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="64"/>
       <c r="G84" s="12"/>
       <c r="H84" s="8"/>
       <c r="I84" s="14"/>
@@ -5348,7 +5218,7 @@
       <c r="AI87" s="8"/>
       <c r="AJ87" s="14"/>
     </row>
-    <row r="88" spans="1:36" s="1" customFormat="1">
+    <row r="88" spans="1:36">
       <c r="A88" s="20"/>
       <c r="B88" s="31"/>
       <c r="C88" s="21"/>
@@ -5425,201 +5295,126 @@
       <c r="AJ89" s="14"/>
     </row>
     <row r="90" spans="1:36">
-      <c r="A90" s="20"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="64"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="12"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="14"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="8"/>
-      <c r="R90" s="14"/>
-      <c r="S90" s="15"/>
-      <c r="T90" s="8"/>
-      <c r="U90" s="14"/>
-      <c r="V90" s="15"/>
-      <c r="W90" s="8"/>
-      <c r="X90" s="14"/>
-      <c r="Y90" s="12"/>
-      <c r="Z90" s="8"/>
-      <c r="AA90" s="14"/>
-      <c r="AB90" s="12"/>
-      <c r="AC90" s="8"/>
-      <c r="AD90" s="14"/>
-      <c r="AE90" s="15"/>
-      <c r="AF90" s="8"/>
-      <c r="AG90" s="14"/>
-      <c r="AH90" s="12"/>
-      <c r="AI90" s="8"/>
-      <c r="AJ90" s="14"/>
+      <c r="D90" s="18">
+        <v>1</v>
+      </c>
+      <c r="E90" s="18"/>
+      <c r="F90" s="66"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="13"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="7"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="13"/>
+      <c r="R90" s="10"/>
+      <c r="S90" s="13"/>
+      <c r="U90" s="10"/>
+      <c r="V90" s="13"/>
+      <c r="X90" s="10"/>
+      <c r="Y90" s="7"/>
+      <c r="AA90" s="10"/>
+      <c r="AB90" s="7"/>
+      <c r="AD90" s="10"/>
+      <c r="AE90" s="13"/>
     </row>
     <row r="91" spans="1:36">
-      <c r="A91" s="23"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="65"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="28"/>
-      <c r="M91" s="26"/>
-      <c r="N91" s="27"/>
-      <c r="O91" s="28"/>
-      <c r="P91" s="29"/>
-      <c r="Q91" s="27"/>
-      <c r="R91" s="28"/>
-      <c r="S91" s="29"/>
-      <c r="T91" s="27"/>
-      <c r="U91" s="28"/>
-      <c r="V91" s="29"/>
-      <c r="W91" s="27"/>
-      <c r="X91" s="28"/>
-      <c r="Y91" s="26"/>
-      <c r="Z91" s="27"/>
-      <c r="AA91" s="28"/>
-      <c r="AB91" s="26"/>
-      <c r="AC91" s="27"/>
-      <c r="AD91" s="28"/>
-      <c r="AE91" s="29"/>
-      <c r="AF91" s="27"/>
-      <c r="AG91" s="28"/>
-      <c r="AH91" s="26"/>
-      <c r="AI91" s="27"/>
-      <c r="AJ91" s="28"/>
+      <c r="D91" s="19">
+        <v>1</v>
+      </c>
+      <c r="E91" s="19"/>
+      <c r="F91" s="67"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="13"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="7"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="13"/>
+      <c r="R91" s="10"/>
+      <c r="S91" s="13"/>
+      <c r="U91" s="10"/>
+      <c r="V91" s="13"/>
+      <c r="X91" s="10"/>
+      <c r="Y91" s="7"/>
+      <c r="AA91" s="10"/>
+      <c r="AB91" s="7"/>
+      <c r="AD91" s="10"/>
+      <c r="AE91" s="13"/>
     </row>
     <row r="92" spans="1:36">
-      <c r="A92" s="20"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="30"/>
-      <c r="F92" s="64"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="12"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="14"/>
-      <c r="P92" s="15"/>
-      <c r="Q92" s="8"/>
-      <c r="R92" s="14"/>
-      <c r="S92" s="15"/>
-      <c r="T92" s="8"/>
-      <c r="U92" s="14"/>
-      <c r="V92" s="15"/>
-      <c r="W92" s="8"/>
-      <c r="X92" s="14"/>
-      <c r="Y92" s="12"/>
-      <c r="Z92" s="8"/>
-      <c r="AA92" s="14"/>
-      <c r="AB92" s="12"/>
-      <c r="AC92" s="8"/>
-      <c r="AD92" s="14"/>
-      <c r="AE92" s="15"/>
-      <c r="AF92" s="8"/>
-      <c r="AG92" s="14"/>
-      <c r="AH92" s="12"/>
-      <c r="AI92" s="8"/>
-      <c r="AJ92" s="14"/>
+      <c r="D92" s="18">
+        <v>1</v>
+      </c>
+      <c r="E92" s="18"/>
+      <c r="F92" s="66"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="13"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="7"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="13"/>
+      <c r="R92" s="10"/>
+      <c r="S92" s="13"/>
+      <c r="U92" s="10"/>
+      <c r="V92" s="13"/>
+      <c r="X92" s="10"/>
+      <c r="Y92" s="7"/>
+      <c r="AA92" s="10"/>
+      <c r="AB92" s="7"/>
+      <c r="AD92" s="10"/>
+      <c r="AE92" s="13"/>
     </row>
     <row r="93" spans="1:36">
-      <c r="A93" s="20"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="65"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="8"/>
-      <c r="O93" s="14"/>
-      <c r="P93" s="15"/>
-      <c r="Q93" s="8"/>
-      <c r="R93" s="14"/>
-      <c r="S93" s="15"/>
-      <c r="T93" s="8"/>
-      <c r="U93" s="14"/>
-      <c r="V93" s="15"/>
-      <c r="W93" s="8"/>
-      <c r="X93" s="14"/>
-      <c r="Y93" s="12"/>
-      <c r="Z93" s="8"/>
-      <c r="AA93" s="14"/>
-      <c r="AB93" s="12"/>
-      <c r="AC93" s="8"/>
-      <c r="AD93" s="14"/>
-      <c r="AE93" s="15"/>
-      <c r="AF93" s="8"/>
-      <c r="AG93" s="14"/>
-      <c r="AH93" s="12"/>
-      <c r="AI93" s="8"/>
-      <c r="AJ93" s="14"/>
+      <c r="D93" s="19">
+        <v>1</v>
+      </c>
+      <c r="E93" s="19"/>
+      <c r="F93" s="67"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="13"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="7"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="13"/>
+      <c r="R93" s="10"/>
+      <c r="S93" s="13"/>
+      <c r="U93" s="10"/>
+      <c r="V93" s="13"/>
+      <c r="X93" s="10"/>
+      <c r="Y93" s="7"/>
+      <c r="AA93" s="10"/>
+      <c r="AB93" s="7"/>
+      <c r="AD93" s="10"/>
+      <c r="AE93" s="13"/>
     </row>
     <row r="94" spans="1:36">
-      <c r="A94" s="20"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="30"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="12"/>
-      <c r="N94" s="8"/>
-      <c r="O94" s="14"/>
-      <c r="P94" s="15"/>
-      <c r="Q94" s="8"/>
-      <c r="R94" s="14"/>
-      <c r="S94" s="15"/>
-      <c r="T94" s="8"/>
-      <c r="U94" s="14"/>
-      <c r="V94" s="15"/>
-      <c r="W94" s="8"/>
-      <c r="X94" s="14"/>
-      <c r="Y94" s="12"/>
-      <c r="Z94" s="8"/>
-      <c r="AA94" s="14"/>
-      <c r="AB94" s="12"/>
-      <c r="AC94" s="8"/>
-      <c r="AD94" s="14"/>
-      <c r="AE94" s="15"/>
-      <c r="AF94" s="8"/>
-      <c r="AG94" s="14"/>
-      <c r="AH94" s="12"/>
-      <c r="AI94" s="8"/>
-      <c r="AJ94" s="14"/>
+      <c r="D94" s="18">
+        <v>1</v>
+      </c>
+      <c r="E94" s="18"/>
+      <c r="F94" s="66"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="13"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="7"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="13"/>
+      <c r="R94" s="10"/>
+      <c r="S94" s="13"/>
+      <c r="U94" s="10"/>
+      <c r="V94" s="13"/>
+      <c r="X94" s="10"/>
+      <c r="Y94" s="7"/>
+      <c r="AA94" s="10"/>
+      <c r="AB94" s="7"/>
+      <c r="AD94" s="10"/>
+      <c r="AE94" s="13"/>
     </row>
     <row r="95" spans="1:36">
-      <c r="D95" s="18">
-        <v>1</v>
-      </c>
-      <c r="E95" s="18"/>
-      <c r="F95" s="66"/>
+      <c r="D95" s="19">
+        <v>1</v>
+      </c>
+      <c r="E95" s="19"/>
+      <c r="F95" s="67"/>
       <c r="I95" s="10"/>
       <c r="J95" s="13"/>
       <c r="L95" s="10"/>
@@ -5638,11 +5433,11 @@
       <c r="AE95" s="13"/>
     </row>
     <row r="96" spans="1:36">
-      <c r="D96" s="19">
-        <v>1</v>
-      </c>
-      <c r="E96" s="19"/>
-      <c r="F96" s="67"/>
+      <c r="D96" s="18">
+        <v>1</v>
+      </c>
+      <c r="E96" s="18"/>
+      <c r="F96" s="66"/>
       <c r="I96" s="10"/>
       <c r="J96" s="13"/>
       <c r="L96" s="10"/>
@@ -5661,11 +5456,11 @@
       <c r="AE96" s="13"/>
     </row>
     <row r="97" spans="4:31">
-      <c r="D97" s="18">
-        <v>1</v>
-      </c>
-      <c r="E97" s="18"/>
-      <c r="F97" s="66"/>
+      <c r="D97" s="19">
+        <v>1</v>
+      </c>
+      <c r="E97" s="19"/>
+      <c r="F97" s="67"/>
       <c r="I97" s="10"/>
       <c r="J97" s="13"/>
       <c r="L97" s="10"/>
@@ -5684,11 +5479,11 @@
       <c r="AE97" s="13"/>
     </row>
     <row r="98" spans="4:31">
-      <c r="D98" s="19">
-        <v>1</v>
-      </c>
-      <c r="E98" s="19"/>
-      <c r="F98" s="67"/>
+      <c r="D98" s="18">
+        <v>1</v>
+      </c>
+      <c r="E98" s="18"/>
+      <c r="F98" s="66"/>
       <c r="I98" s="10"/>
       <c r="J98" s="13"/>
       <c r="L98" s="10"/>
@@ -5707,11 +5502,11 @@
       <c r="AE98" s="13"/>
     </row>
     <row r="99" spans="4:31">
-      <c r="D99" s="18">
-        <v>1</v>
-      </c>
-      <c r="E99" s="18"/>
-      <c r="F99" s="66"/>
+      <c r="D99" s="19">
+        <v>1</v>
+      </c>
+      <c r="E99" s="19"/>
+      <c r="F99" s="67"/>
       <c r="I99" s="10"/>
       <c r="J99" s="13"/>
       <c r="L99" s="10"/>
@@ -5730,11 +5525,11 @@
       <c r="AE99" s="13"/>
     </row>
     <row r="100" spans="4:31">
-      <c r="D100" s="19">
-        <v>1</v>
-      </c>
-      <c r="E100" s="19"/>
-      <c r="F100" s="67"/>
+      <c r="D100" s="18">
+        <v>1</v>
+      </c>
+      <c r="E100" s="18"/>
+      <c r="F100" s="66"/>
       <c r="I100" s="10"/>
       <c r="J100" s="13"/>
       <c r="L100" s="10"/>
@@ -5753,11 +5548,11 @@
       <c r="AE100" s="13"/>
     </row>
     <row r="101" spans="4:31">
-      <c r="D101" s="18">
-        <v>1</v>
-      </c>
-      <c r="E101" s="18"/>
-      <c r="F101" s="66"/>
+      <c r="D101" s="19">
+        <v>1</v>
+      </c>
+      <c r="E101" s="19"/>
+      <c r="F101" s="67"/>
       <c r="I101" s="10"/>
       <c r="J101" s="13"/>
       <c r="L101" s="10"/>
@@ -5776,11 +5571,11 @@
       <c r="AE101" s="13"/>
     </row>
     <row r="102" spans="4:31">
-      <c r="D102" s="19">
-        <v>1</v>
-      </c>
-      <c r="E102" s="19"/>
-      <c r="F102" s="67"/>
+      <c r="D102" s="18">
+        <v>1</v>
+      </c>
+      <c r="E102" s="18"/>
+      <c r="F102" s="66"/>
       <c r="I102" s="10"/>
       <c r="J102" s="13"/>
       <c r="L102" s="10"/>
@@ -5799,11 +5594,11 @@
       <c r="AE102" s="13"/>
     </row>
     <row r="103" spans="4:31">
-      <c r="D103" s="18">
-        <v>1</v>
-      </c>
-      <c r="E103" s="18"/>
-      <c r="F103" s="66"/>
+      <c r="D103" s="19">
+        <v>1</v>
+      </c>
+      <c r="E103" s="19"/>
+      <c r="F103" s="67"/>
       <c r="I103" s="10"/>
       <c r="J103" s="13"/>
       <c r="L103" s="10"/>
@@ -5822,11 +5617,11 @@
       <c r="AE103" s="13"/>
     </row>
     <row r="104" spans="4:31">
-      <c r="D104" s="19">
-        <v>1</v>
-      </c>
-      <c r="E104" s="19"/>
-      <c r="F104" s="67"/>
+      <c r="D104" s="18">
+        <v>1</v>
+      </c>
+      <c r="E104" s="18"/>
+      <c r="F104" s="66"/>
       <c r="I104" s="10"/>
       <c r="J104" s="13"/>
       <c r="L104" s="10"/>
@@ -5845,11 +5640,11 @@
       <c r="AE104" s="13"/>
     </row>
     <row r="105" spans="4:31">
-      <c r="D105" s="18">
-        <v>1</v>
-      </c>
-      <c r="E105" s="18"/>
-      <c r="F105" s="66"/>
+      <c r="D105" s="19">
+        <v>1</v>
+      </c>
+      <c r="E105" s="19"/>
+      <c r="F105" s="67"/>
       <c r="I105" s="10"/>
       <c r="J105" s="13"/>
       <c r="L105" s="10"/>
@@ -5868,11 +5663,11 @@
       <c r="AE105" s="13"/>
     </row>
     <row r="106" spans="4:31">
-      <c r="D106" s="19">
-        <v>1</v>
-      </c>
-      <c r="E106" s="19"/>
-      <c r="F106" s="67"/>
+      <c r="D106" s="18">
+        <v>1</v>
+      </c>
+      <c r="E106" s="18"/>
+      <c r="F106" s="66"/>
       <c r="I106" s="10"/>
       <c r="J106" s="13"/>
       <c r="L106" s="10"/>
@@ -5888,14 +5683,14 @@
       <c r="AA106" s="10"/>
       <c r="AB106" s="7"/>
       <c r="AD106" s="10"/>
-      <c r="AE106" s="13"/>
+      <c r="AE106" s="7"/>
     </row>
     <row r="107" spans="4:31">
-      <c r="D107" s="18">
-        <v>1</v>
-      </c>
-      <c r="E107" s="18"/>
-      <c r="F107" s="66"/>
+      <c r="D107" s="19">
+        <v>1</v>
+      </c>
+      <c r="E107" s="19"/>
+      <c r="F107" s="67"/>
       <c r="I107" s="10"/>
       <c r="J107" s="13"/>
       <c r="L107" s="10"/>
@@ -5911,14 +5706,14 @@
       <c r="AA107" s="10"/>
       <c r="AB107" s="7"/>
       <c r="AD107" s="10"/>
-      <c r="AE107" s="13"/>
+      <c r="AE107" s="7"/>
     </row>
     <row r="108" spans="4:31">
-      <c r="D108" s="19">
-        <v>1</v>
-      </c>
-      <c r="E108" s="19"/>
-      <c r="F108" s="67"/>
+      <c r="D108" s="18">
+        <v>1</v>
+      </c>
+      <c r="E108" s="18"/>
+      <c r="F108" s="66"/>
       <c r="I108" s="10"/>
       <c r="J108" s="13"/>
       <c r="L108" s="10"/>
@@ -5934,14 +5729,14 @@
       <c r="AA108" s="10"/>
       <c r="AB108" s="7"/>
       <c r="AD108" s="10"/>
-      <c r="AE108" s="13"/>
+      <c r="AE108" s="7"/>
     </row>
     <row r="109" spans="4:31">
-      <c r="D109" s="18">
-        <v>1</v>
-      </c>
-      <c r="E109" s="18"/>
-      <c r="F109" s="66"/>
+      <c r="D109" s="19">
+        <v>1</v>
+      </c>
+      <c r="E109" s="19"/>
+      <c r="F109" s="67"/>
       <c r="I109" s="10"/>
       <c r="J109" s="13"/>
       <c r="L109" s="10"/>
@@ -5957,14 +5752,14 @@
       <c r="AA109" s="10"/>
       <c r="AB109" s="7"/>
       <c r="AD109" s="10"/>
-      <c r="AE109" s="13"/>
+      <c r="AE109" s="7"/>
     </row>
     <row r="110" spans="4:31">
-      <c r="D110" s="19">
-        <v>1</v>
-      </c>
-      <c r="E110" s="19"/>
-      <c r="F110" s="67"/>
+      <c r="D110" s="18">
+        <v>1</v>
+      </c>
+      <c r="E110" s="18"/>
+      <c r="F110" s="66"/>
       <c r="I110" s="10"/>
       <c r="J110" s="13"/>
       <c r="L110" s="10"/>
@@ -5980,14 +5775,14 @@
       <c r="AA110" s="10"/>
       <c r="AB110" s="7"/>
       <c r="AD110" s="10"/>
-      <c r="AE110" s="13"/>
+      <c r="AE110" s="7"/>
     </row>
     <row r="111" spans="4:31">
-      <c r="D111" s="18">
-        <v>1</v>
-      </c>
-      <c r="E111" s="18"/>
-      <c r="F111" s="66"/>
+      <c r="D111" s="19">
+        <v>1</v>
+      </c>
+      <c r="E111" s="19"/>
+      <c r="F111" s="67"/>
       <c r="I111" s="10"/>
       <c r="J111" s="13"/>
       <c r="L111" s="10"/>
@@ -6006,11 +5801,11 @@
       <c r="AE111" s="7"/>
     </row>
     <row r="112" spans="4:31">
-      <c r="D112" s="19">
-        <v>1</v>
-      </c>
-      <c r="E112" s="19"/>
-      <c r="F112" s="67"/>
+      <c r="D112" s="18">
+        <v>1</v>
+      </c>
+      <c r="E112" s="18"/>
+      <c r="F112" s="66"/>
       <c r="I112" s="10"/>
       <c r="J112" s="13"/>
       <c r="L112" s="10"/>
@@ -6029,11 +5824,11 @@
       <c r="AE112" s="7"/>
     </row>
     <row r="113" spans="4:31">
-      <c r="D113" s="18">
-        <v>1</v>
-      </c>
-      <c r="E113" s="18"/>
-      <c r="F113" s="66"/>
+      <c r="D113" s="19">
+        <v>1</v>
+      </c>
+      <c r="E113" s="19"/>
+      <c r="F113" s="67"/>
       <c r="I113" s="10"/>
       <c r="J113" s="13"/>
       <c r="L113" s="10"/>
@@ -6052,11 +5847,11 @@
       <c r="AE113" s="7"/>
     </row>
     <row r="114" spans="4:31">
-      <c r="D114" s="19">
-        <v>1</v>
-      </c>
-      <c r="E114" s="19"/>
-      <c r="F114" s="67"/>
+      <c r="D114" s="18">
+        <v>1</v>
+      </c>
+      <c r="E114" s="18"/>
+      <c r="F114" s="66"/>
       <c r="I114" s="10"/>
       <c r="J114" s="13"/>
       <c r="L114" s="10"/>
@@ -6075,11 +5870,11 @@
       <c r="AE114" s="7"/>
     </row>
     <row r="115" spans="4:31">
-      <c r="D115" s="18">
-        <v>1</v>
-      </c>
-      <c r="E115" s="18"/>
-      <c r="F115" s="66"/>
+      <c r="D115" s="19">
+        <v>1</v>
+      </c>
+      <c r="E115" s="19"/>
+      <c r="F115" s="67"/>
       <c r="I115" s="10"/>
       <c r="J115" s="13"/>
       <c r="L115" s="10"/>
@@ -6098,11 +5893,11 @@
       <c r="AE115" s="7"/>
     </row>
     <row r="116" spans="4:31">
-      <c r="D116" s="19">
-        <v>1</v>
-      </c>
-      <c r="E116" s="19"/>
-      <c r="F116" s="67"/>
+      <c r="D116" s="18">
+        <v>1</v>
+      </c>
+      <c r="E116" s="18"/>
+      <c r="F116" s="66"/>
       <c r="I116" s="10"/>
       <c r="J116" s="13"/>
       <c r="L116" s="10"/>
@@ -6121,11 +5916,11 @@
       <c r="AE116" s="7"/>
     </row>
     <row r="117" spans="4:31">
-      <c r="D117" s="18">
-        <v>1</v>
-      </c>
-      <c r="E117" s="18"/>
-      <c r="F117" s="66"/>
+      <c r="D117" s="19">
+        <v>1</v>
+      </c>
+      <c r="E117" s="19"/>
+      <c r="F117" s="67"/>
       <c r="I117" s="10"/>
       <c r="J117" s="13"/>
       <c r="L117" s="10"/>
@@ -6144,11 +5939,11 @@
       <c r="AE117" s="7"/>
     </row>
     <row r="118" spans="4:31">
-      <c r="D118" s="19">
-        <v>1</v>
-      </c>
-      <c r="E118" s="19"/>
-      <c r="F118" s="67"/>
+      <c r="D118" s="18">
+        <v>1</v>
+      </c>
+      <c r="E118" s="18"/>
+      <c r="F118" s="66"/>
       <c r="I118" s="10"/>
       <c r="J118" s="13"/>
       <c r="L118" s="10"/>
@@ -6167,11 +5962,11 @@
       <c r="AE118" s="7"/>
     </row>
     <row r="119" spans="4:31">
-      <c r="D119" s="18">
-        <v>1</v>
-      </c>
-      <c r="E119" s="18"/>
-      <c r="F119" s="66"/>
+      <c r="D119" s="19">
+        <v>1</v>
+      </c>
+      <c r="E119" s="19"/>
+      <c r="F119" s="67"/>
       <c r="I119" s="10"/>
       <c r="J119" s="13"/>
       <c r="L119" s="10"/>
@@ -6190,11 +5985,11 @@
       <c r="AE119" s="7"/>
     </row>
     <row r="120" spans="4:31">
-      <c r="D120" s="19">
-        <v>1</v>
-      </c>
-      <c r="E120" s="19"/>
-      <c r="F120" s="67"/>
+      <c r="D120" s="18">
+        <v>1</v>
+      </c>
+      <c r="E120" s="18"/>
+      <c r="F120" s="66"/>
       <c r="I120" s="10"/>
       <c r="J120" s="13"/>
       <c r="L120" s="10"/>
@@ -6213,11 +6008,11 @@
       <c r="AE120" s="7"/>
     </row>
     <row r="121" spans="4:31">
-      <c r="D121" s="18">
-        <v>1</v>
-      </c>
-      <c r="E121" s="18"/>
-      <c r="F121" s="66"/>
+      <c r="D121" s="19">
+        <v>1</v>
+      </c>
+      <c r="E121" s="19"/>
+      <c r="F121" s="67"/>
       <c r="I121" s="10"/>
       <c r="J121" s="13"/>
       <c r="L121" s="10"/>
@@ -6236,11 +6031,11 @@
       <c r="AE121" s="7"/>
     </row>
     <row r="122" spans="4:31">
-      <c r="D122" s="19">
-        <v>1</v>
-      </c>
-      <c r="E122" s="19"/>
-      <c r="F122" s="67"/>
+      <c r="D122" s="18">
+        <v>1</v>
+      </c>
+      <c r="E122" s="18"/>
+      <c r="F122" s="66"/>
       <c r="I122" s="10"/>
       <c r="J122" s="13"/>
       <c r="L122" s="10"/>
@@ -6250,20 +6045,18 @@
       <c r="R122" s="10"/>
       <c r="S122" s="13"/>
       <c r="U122" s="10"/>
-      <c r="V122" s="13"/>
-      <c r="X122" s="10"/>
-      <c r="Y122" s="7"/>
+      <c r="V122" s="7"/>
       <c r="AA122" s="10"/>
       <c r="AB122" s="7"/>
       <c r="AD122" s="10"/>
       <c r="AE122" s="7"/>
     </row>
     <row r="123" spans="4:31">
-      <c r="D123" s="18">
-        <v>1</v>
-      </c>
-      <c r="E123" s="18"/>
-      <c r="F123" s="66"/>
+      <c r="D123" s="19">
+        <v>1</v>
+      </c>
+      <c r="E123" s="19"/>
+      <c r="F123" s="67"/>
       <c r="I123" s="10"/>
       <c r="J123" s="13"/>
       <c r="L123" s="10"/>
@@ -6273,20 +6066,18 @@
       <c r="R123" s="10"/>
       <c r="S123" s="13"/>
       <c r="U123" s="10"/>
-      <c r="V123" s="13"/>
-      <c r="X123" s="10"/>
-      <c r="Y123" s="7"/>
+      <c r="V123" s="7"/>
       <c r="AA123" s="10"/>
       <c r="AB123" s="7"/>
       <c r="AD123" s="10"/>
       <c r="AE123" s="7"/>
     </row>
     <row r="124" spans="4:31">
-      <c r="D124" s="19">
-        <v>1</v>
-      </c>
-      <c r="E124" s="19"/>
-      <c r="F124" s="67"/>
+      <c r="D124" s="18">
+        <v>1</v>
+      </c>
+      <c r="E124" s="18"/>
+      <c r="F124" s="66"/>
       <c r="I124" s="10"/>
       <c r="J124" s="13"/>
       <c r="L124" s="10"/>
@@ -6296,20 +6087,18 @@
       <c r="R124" s="10"/>
       <c r="S124" s="13"/>
       <c r="U124" s="10"/>
-      <c r="V124" s="13"/>
-      <c r="X124" s="10"/>
-      <c r="Y124" s="7"/>
+      <c r="V124" s="7"/>
       <c r="AA124" s="10"/>
       <c r="AB124" s="7"/>
       <c r="AD124" s="10"/>
       <c r="AE124" s="7"/>
     </row>
     <row r="125" spans="4:31">
-      <c r="D125" s="18">
-        <v>1</v>
-      </c>
-      <c r="E125" s="18"/>
-      <c r="F125" s="66"/>
+      <c r="D125" s="19">
+        <v>1</v>
+      </c>
+      <c r="E125" s="19"/>
+      <c r="F125" s="67"/>
       <c r="I125" s="10"/>
       <c r="J125" s="13"/>
       <c r="L125" s="10"/>
@@ -6319,20 +6108,18 @@
       <c r="R125" s="10"/>
       <c r="S125" s="13"/>
       <c r="U125" s="10"/>
-      <c r="V125" s="13"/>
-      <c r="X125" s="10"/>
-      <c r="Y125" s="7"/>
+      <c r="V125" s="7"/>
       <c r="AA125" s="10"/>
       <c r="AB125" s="7"/>
       <c r="AD125" s="10"/>
       <c r="AE125" s="7"/>
     </row>
     <row r="126" spans="4:31">
-      <c r="D126" s="19">
-        <v>1</v>
-      </c>
-      <c r="E126" s="19"/>
-      <c r="F126" s="67"/>
+      <c r="D126" s="18">
+        <v>1</v>
+      </c>
+      <c r="E126" s="18"/>
+      <c r="F126" s="66"/>
       <c r="I126" s="10"/>
       <c r="J126" s="13"/>
       <c r="L126" s="10"/>
@@ -6342,20 +6129,18 @@
       <c r="R126" s="10"/>
       <c r="S126" s="13"/>
       <c r="U126" s="10"/>
-      <c r="V126" s="13"/>
-      <c r="X126" s="10"/>
-      <c r="Y126" s="7"/>
+      <c r="V126" s="7"/>
       <c r="AA126" s="10"/>
       <c r="AB126" s="7"/>
       <c r="AD126" s="10"/>
       <c r="AE126" s="7"/>
     </row>
     <row r="127" spans="4:31">
-      <c r="D127" s="18">
-        <v>1</v>
-      </c>
-      <c r="E127" s="18"/>
-      <c r="F127" s="66"/>
+      <c r="D127" s="19">
+        <v>1</v>
+      </c>
+      <c r="E127" s="19"/>
+      <c r="F127" s="67"/>
       <c r="I127" s="10"/>
       <c r="J127" s="13"/>
       <c r="L127" s="10"/>
@@ -6372,11 +6157,11 @@
       <c r="AE127" s="7"/>
     </row>
     <row r="128" spans="4:31">
-      <c r="D128" s="19">
-        <v>1</v>
-      </c>
-      <c r="E128" s="19"/>
-      <c r="F128" s="67"/>
+      <c r="D128" s="18">
+        <v>1</v>
+      </c>
+      <c r="E128" s="18"/>
+      <c r="F128" s="66"/>
       <c r="I128" s="10"/>
       <c r="J128" s="13"/>
       <c r="L128" s="10"/>
@@ -6393,11 +6178,11 @@
       <c r="AE128" s="7"/>
     </row>
     <row r="129" spans="4:31">
-      <c r="D129" s="18">
-        <v>1</v>
-      </c>
-      <c r="E129" s="18"/>
-      <c r="F129" s="66"/>
+      <c r="D129" s="19">
+        <v>1</v>
+      </c>
+      <c r="E129" s="19"/>
+      <c r="F129" s="67"/>
       <c r="I129" s="10"/>
       <c r="J129" s="13"/>
       <c r="L129" s="10"/>
@@ -6414,11 +6199,11 @@
       <c r="AE129" s="7"/>
     </row>
     <row r="130" spans="4:31">
-      <c r="D130" s="19">
-        <v>1</v>
-      </c>
-      <c r="E130" s="19"/>
-      <c r="F130" s="67"/>
+      <c r="D130" s="18">
+        <v>1</v>
+      </c>
+      <c r="E130" s="18"/>
+      <c r="F130" s="66"/>
       <c r="I130" s="10"/>
       <c r="J130" s="13"/>
       <c r="L130" s="10"/>
@@ -6435,11 +6220,11 @@
       <c r="AE130" s="7"/>
     </row>
     <row r="131" spans="4:31">
-      <c r="D131" s="18">
-        <v>1</v>
-      </c>
-      <c r="E131" s="18"/>
-      <c r="F131" s="66"/>
+      <c r="D131" s="19">
+        <v>1</v>
+      </c>
+      <c r="E131" s="19"/>
+      <c r="F131" s="67"/>
       <c r="I131" s="10"/>
       <c r="J131" s="13"/>
       <c r="L131" s="10"/>
@@ -6456,11 +6241,11 @@
       <c r="AE131" s="7"/>
     </row>
     <row r="132" spans="4:31">
-      <c r="D132" s="19">
-        <v>1</v>
-      </c>
-      <c r="E132" s="19"/>
-      <c r="F132" s="67"/>
+      <c r="D132" s="18">
+        <v>1</v>
+      </c>
+      <c r="E132" s="18"/>
+      <c r="F132" s="66"/>
       <c r="I132" s="10"/>
       <c r="J132" s="13"/>
       <c r="L132" s="10"/>
@@ -6477,11 +6262,11 @@
       <c r="AE132" s="7"/>
     </row>
     <row r="133" spans="4:31">
-      <c r="D133" s="18">
-        <v>1</v>
-      </c>
-      <c r="E133" s="18"/>
-      <c r="F133" s="66"/>
+      <c r="D133" s="19">
+        <v>1</v>
+      </c>
+      <c r="E133" s="19"/>
+      <c r="F133" s="67"/>
       <c r="I133" s="10"/>
       <c r="J133" s="13"/>
       <c r="L133" s="10"/>
@@ -6498,11 +6283,11 @@
       <c r="AE133" s="7"/>
     </row>
     <row r="134" spans="4:31">
-      <c r="D134" s="19">
-        <v>1</v>
-      </c>
-      <c r="E134" s="19"/>
-      <c r="F134" s="67"/>
+      <c r="D134" s="18">
+        <v>1</v>
+      </c>
+      <c r="E134" s="18"/>
+      <c r="F134" s="66"/>
       <c r="I134" s="10"/>
       <c r="J134" s="13"/>
       <c r="L134" s="10"/>
@@ -6519,11 +6304,11 @@
       <c r="AE134" s="7"/>
     </row>
     <row r="135" spans="4:31">
-      <c r="D135" s="18">
-        <v>1</v>
-      </c>
-      <c r="E135" s="18"/>
-      <c r="F135" s="66"/>
+      <c r="D135" s="19">
+        <v>1</v>
+      </c>
+      <c r="E135" s="19"/>
+      <c r="F135" s="67"/>
       <c r="I135" s="10"/>
       <c r="J135" s="13"/>
       <c r="L135" s="10"/>
@@ -6540,11 +6325,11 @@
       <c r="AE135" s="7"/>
     </row>
     <row r="136" spans="4:31">
-      <c r="D136" s="19">
-        <v>1</v>
-      </c>
-      <c r="E136" s="19"/>
-      <c r="F136" s="67"/>
+      <c r="D136" s="18">
+        <v>1</v>
+      </c>
+      <c r="E136" s="18"/>
+      <c r="F136" s="66"/>
       <c r="I136" s="10"/>
       <c r="J136" s="13"/>
       <c r="L136" s="10"/>
@@ -6561,11 +6346,11 @@
       <c r="AE136" s="7"/>
     </row>
     <row r="137" spans="4:31">
-      <c r="D137" s="18">
-        <v>1</v>
-      </c>
-      <c r="E137" s="18"/>
-      <c r="F137" s="66"/>
+      <c r="D137" s="19">
+        <v>1</v>
+      </c>
+      <c r="E137" s="19"/>
+      <c r="F137" s="67"/>
       <c r="I137" s="10"/>
       <c r="J137" s="13"/>
       <c r="L137" s="10"/>
@@ -6582,11 +6367,11 @@
       <c r="AE137" s="7"/>
     </row>
     <row r="138" spans="4:31">
-      <c r="D138" s="19">
-        <v>1</v>
-      </c>
-      <c r="E138" s="19"/>
-      <c r="F138" s="67"/>
+      <c r="D138" s="18">
+        <v>1</v>
+      </c>
+      <c r="E138" s="18"/>
+      <c r="F138" s="66"/>
       <c r="I138" s="10"/>
       <c r="J138" s="13"/>
       <c r="L138" s="10"/>
@@ -6603,11 +6388,11 @@
       <c r="AE138" s="7"/>
     </row>
     <row r="139" spans="4:31">
-      <c r="D139" s="18">
-        <v>1</v>
-      </c>
-      <c r="E139" s="18"/>
-      <c r="F139" s="66"/>
+      <c r="D139" s="19">
+        <v>1</v>
+      </c>
+      <c r="E139" s="19"/>
+      <c r="F139" s="67"/>
       <c r="I139" s="10"/>
       <c r="J139" s="13"/>
       <c r="L139" s="10"/>
@@ -6624,15 +6409,13 @@
       <c r="AE139" s="7"/>
     </row>
     <row r="140" spans="4:31">
-      <c r="D140" s="19">
-        <v>1</v>
-      </c>
-      <c r="E140" s="19"/>
-      <c r="F140" s="67"/>
+      <c r="D140" s="18">
+        <v>1</v>
+      </c>
+      <c r="E140" s="18"/>
+      <c r="F140" s="66"/>
       <c r="I140" s="10"/>
-      <c r="J140" s="13"/>
-      <c r="L140" s="10"/>
-      <c r="M140" s="7"/>
+      <c r="J140" s="7"/>
       <c r="O140" s="10"/>
       <c r="P140" s="13"/>
       <c r="R140" s="10"/>
@@ -6645,15 +6428,13 @@
       <c r="AE140" s="7"/>
     </row>
     <row r="141" spans="4:31">
-      <c r="D141" s="18">
-        <v>1</v>
-      </c>
-      <c r="E141" s="18"/>
-      <c r="F141" s="66"/>
+      <c r="D141" s="19">
+        <v>1</v>
+      </c>
+      <c r="E141" s="19"/>
+      <c r="F141" s="67"/>
       <c r="I141" s="10"/>
-      <c r="J141" s="13"/>
-      <c r="L141" s="10"/>
-      <c r="M141" s="7"/>
+      <c r="J141" s="7"/>
       <c r="O141" s="10"/>
       <c r="P141" s="13"/>
       <c r="R141" s="10"/>
@@ -6666,112 +6447,96 @@
       <c r="AE141" s="7"/>
     </row>
     <row r="142" spans="4:31">
-      <c r="D142" s="19">
-        <v>1</v>
-      </c>
-      <c r="E142" s="19"/>
-      <c r="F142" s="67"/>
+      <c r="D142" s="18">
+        <v>1</v>
+      </c>
+      <c r="E142" s="18"/>
+      <c r="F142" s="66"/>
       <c r="I142" s="10"/>
-      <c r="J142" s="13"/>
-      <c r="L142" s="10"/>
-      <c r="M142" s="7"/>
+      <c r="J142" s="7"/>
       <c r="O142" s="10"/>
       <c r="P142" s="13"/>
       <c r="R142" s="10"/>
-      <c r="S142" s="13"/>
-      <c r="U142" s="10"/>
-      <c r="V142" s="7"/>
+      <c r="S142" s="7"/>
       <c r="AA142" s="10"/>
       <c r="AB142" s="7"/>
       <c r="AD142" s="10"/>
       <c r="AE142" s="7"/>
     </row>
     <row r="143" spans="4:31">
-      <c r="D143" s="18">
-        <v>1</v>
-      </c>
-      <c r="E143" s="18"/>
-      <c r="F143" s="66"/>
+      <c r="D143" s="19">
+        <v>1</v>
+      </c>
+      <c r="E143" s="19"/>
+      <c r="F143" s="67"/>
       <c r="I143" s="10"/>
-      <c r="J143" s="13"/>
-      <c r="L143" s="10"/>
-      <c r="M143" s="7"/>
+      <c r="J143" s="7"/>
       <c r="O143" s="10"/>
       <c r="P143" s="13"/>
       <c r="R143" s="10"/>
-      <c r="S143" s="13"/>
-      <c r="U143" s="10"/>
-      <c r="V143" s="7"/>
+      <c r="S143" s="7"/>
       <c r="AA143" s="10"/>
       <c r="AB143" s="7"/>
       <c r="AD143" s="10"/>
       <c r="AE143" s="7"/>
     </row>
     <row r="144" spans="4:31">
-      <c r="D144" s="19">
-        <v>1</v>
-      </c>
-      <c r="E144" s="19"/>
-      <c r="F144" s="67"/>
+      <c r="D144" s="18">
+        <v>1</v>
+      </c>
+      <c r="E144" s="18"/>
+      <c r="F144" s="66"/>
       <c r="I144" s="10"/>
-      <c r="J144" s="13"/>
-      <c r="L144" s="10"/>
-      <c r="M144" s="7"/>
+      <c r="J144" s="7"/>
       <c r="O144" s="10"/>
       <c r="P144" s="13"/>
       <c r="R144" s="10"/>
-      <c r="S144" s="13"/>
-      <c r="U144" s="10"/>
-      <c r="V144" s="7"/>
+      <c r="S144" s="7"/>
       <c r="AA144" s="10"/>
       <c r="AB144" s="7"/>
       <c r="AD144" s="10"/>
       <c r="AE144" s="7"/>
     </row>
     <row r="145" spans="4:31">
-      <c r="D145" s="18">
-        <v>1</v>
-      </c>
-      <c r="E145" s="18"/>
-      <c r="F145" s="66"/>
+      <c r="D145" s="19">
+        <v>1</v>
+      </c>
+      <c r="E145" s="19"/>
+      <c r="F145" s="67"/>
       <c r="I145" s="10"/>
       <c r="J145" s="7"/>
       <c r="O145" s="10"/>
       <c r="P145" s="13"/>
       <c r="R145" s="10"/>
-      <c r="S145" s="13"/>
-      <c r="U145" s="10"/>
-      <c r="V145" s="7"/>
+      <c r="S145" s="7"/>
       <c r="AA145" s="10"/>
       <c r="AB145" s="7"/>
       <c r="AD145" s="10"/>
       <c r="AE145" s="7"/>
     </row>
     <row r="146" spans="4:31">
-      <c r="D146" s="19">
-        <v>1</v>
-      </c>
-      <c r="E146" s="19"/>
-      <c r="F146" s="67"/>
+      <c r="D146" s="18">
+        <v>1</v>
+      </c>
+      <c r="E146" s="18"/>
+      <c r="F146" s="66"/>
       <c r="I146" s="10"/>
       <c r="J146" s="7"/>
       <c r="O146" s="10"/>
       <c r="P146" s="13"/>
       <c r="R146" s="10"/>
-      <c r="S146" s="13"/>
-      <c r="U146" s="10"/>
-      <c r="V146" s="7"/>
+      <c r="S146" s="7"/>
       <c r="AA146" s="10"/>
       <c r="AB146" s="7"/>
       <c r="AD146" s="10"/>
       <c r="AE146" s="7"/>
     </row>
     <row r="147" spans="4:31">
-      <c r="D147" s="18">
-        <v>1</v>
-      </c>
-      <c r="E147" s="18"/>
-      <c r="F147" s="66"/>
+      <c r="D147" s="19">
+        <v>1</v>
+      </c>
+      <c r="E147" s="19"/>
+      <c r="F147" s="67"/>
       <c r="I147" s="10"/>
       <c r="J147" s="7"/>
       <c r="O147" s="10"/>
@@ -6784,11 +6549,11 @@
       <c r="AE147" s="7"/>
     </row>
     <row r="148" spans="4:31">
-      <c r="D148" s="19">
-        <v>1</v>
-      </c>
-      <c r="E148" s="19"/>
-      <c r="F148" s="67"/>
+      <c r="D148" s="18">
+        <v>1</v>
+      </c>
+      <c r="E148" s="18"/>
+      <c r="F148" s="66"/>
       <c r="I148" s="10"/>
       <c r="J148" s="7"/>
       <c r="O148" s="10"/>
@@ -6801,11 +6566,11 @@
       <c r="AE148" s="7"/>
     </row>
     <row r="149" spans="4:31">
-      <c r="D149" s="18">
-        <v>1</v>
-      </c>
-      <c r="E149" s="18"/>
-      <c r="F149" s="66"/>
+      <c r="D149" s="19">
+        <v>1</v>
+      </c>
+      <c r="E149" s="19"/>
+      <c r="F149" s="67"/>
       <c r="I149" s="10"/>
       <c r="J149" s="7"/>
       <c r="O149" s="10"/>
@@ -6818,11 +6583,11 @@
       <c r="AE149" s="7"/>
     </row>
     <row r="150" spans="4:31">
-      <c r="D150" s="19">
-        <v>1</v>
-      </c>
-      <c r="E150" s="19"/>
-      <c r="F150" s="67"/>
+      <c r="D150" s="18">
+        <v>1</v>
+      </c>
+      <c r="E150" s="18"/>
+      <c r="F150" s="66"/>
       <c r="I150" s="10"/>
       <c r="J150" s="7"/>
       <c r="O150" s="10"/>
@@ -6835,11 +6600,11 @@
       <c r="AE150" s="7"/>
     </row>
     <row r="151" spans="4:31">
-      <c r="D151" s="18">
-        <v>1</v>
-      </c>
-      <c r="E151" s="18"/>
-      <c r="F151" s="66"/>
+      <c r="D151" s="19">
+        <v>1</v>
+      </c>
+      <c r="E151" s="19"/>
+      <c r="F151" s="67"/>
       <c r="I151" s="10"/>
       <c r="J151" s="7"/>
       <c r="O151" s="10"/>
@@ -6852,11 +6617,11 @@
       <c r="AE151" s="7"/>
     </row>
     <row r="152" spans="4:31">
-      <c r="D152" s="19">
-        <v>1</v>
-      </c>
-      <c r="E152" s="19"/>
-      <c r="F152" s="67"/>
+      <c r="D152" s="18">
+        <v>1</v>
+      </c>
+      <c r="E152" s="18"/>
+      <c r="F152" s="66"/>
       <c r="I152" s="10"/>
       <c r="J152" s="7"/>
       <c r="O152" s="10"/>
@@ -6869,11 +6634,11 @@
       <c r="AE152" s="7"/>
     </row>
     <row r="153" spans="4:31">
-      <c r="D153" s="18">
-        <v>1</v>
-      </c>
-      <c r="E153" s="18"/>
-      <c r="F153" s="66"/>
+      <c r="D153" s="19">
+        <v>1</v>
+      </c>
+      <c r="E153" s="19"/>
+      <c r="F153" s="67"/>
       <c r="I153" s="10"/>
       <c r="J153" s="7"/>
       <c r="O153" s="10"/>
@@ -6886,11 +6651,11 @@
       <c r="AE153" s="7"/>
     </row>
     <row r="154" spans="4:31">
-      <c r="D154" s="19">
-        <v>1</v>
-      </c>
-      <c r="E154" s="19"/>
-      <c r="F154" s="67"/>
+      <c r="D154" s="18">
+        <v>1</v>
+      </c>
+      <c r="E154" s="18"/>
+      <c r="F154" s="66"/>
       <c r="I154" s="10"/>
       <c r="J154" s="7"/>
       <c r="O154" s="10"/>
@@ -6903,11 +6668,11 @@
       <c r="AE154" s="7"/>
     </row>
     <row r="155" spans="4:31">
-      <c r="D155" s="18">
-        <v>1</v>
-      </c>
-      <c r="E155" s="18"/>
-      <c r="F155" s="66"/>
+      <c r="D155" s="19">
+        <v>1</v>
+      </c>
+      <c r="E155" s="19"/>
+      <c r="F155" s="67"/>
       <c r="I155" s="10"/>
       <c r="J155" s="7"/>
       <c r="O155" s="10"/>
@@ -6920,11 +6685,11 @@
       <c r="AE155" s="7"/>
     </row>
     <row r="156" spans="4:31">
-      <c r="D156" s="19">
-        <v>1</v>
-      </c>
-      <c r="E156" s="19"/>
-      <c r="F156" s="67"/>
+      <c r="D156" s="18">
+        <v>1</v>
+      </c>
+      <c r="E156" s="18"/>
+      <c r="F156" s="66"/>
       <c r="I156" s="10"/>
       <c r="J156" s="7"/>
       <c r="O156" s="10"/>
@@ -6937,11 +6702,11 @@
       <c r="AE156" s="7"/>
     </row>
     <row r="157" spans="4:31">
-      <c r="D157" s="18">
-        <v>1</v>
-      </c>
-      <c r="E157" s="18"/>
-      <c r="F157" s="66"/>
+      <c r="D157" s="19">
+        <v>1</v>
+      </c>
+      <c r="E157" s="19"/>
+      <c r="F157" s="67"/>
       <c r="I157" s="10"/>
       <c r="J157" s="7"/>
       <c r="O157" s="10"/>
@@ -6954,11 +6719,11 @@
       <c r="AE157" s="7"/>
     </row>
     <row r="158" spans="4:31">
-      <c r="D158" s="19">
-        <v>1</v>
-      </c>
-      <c r="E158" s="19"/>
-      <c r="F158" s="67"/>
+      <c r="D158" s="18">
+        <v>1</v>
+      </c>
+      <c r="E158" s="18"/>
+      <c r="F158" s="66"/>
       <c r="I158" s="10"/>
       <c r="J158" s="7"/>
       <c r="O158" s="10"/>
@@ -6971,11 +6736,11 @@
       <c r="AE158" s="7"/>
     </row>
     <row r="159" spans="4:31">
-      <c r="D159" s="18">
-        <v>1</v>
-      </c>
-      <c r="E159" s="18"/>
-      <c r="F159" s="66"/>
+      <c r="D159" s="19">
+        <v>1</v>
+      </c>
+      <c r="E159" s="19"/>
+      <c r="F159" s="67"/>
       <c r="I159" s="10"/>
       <c r="J159" s="7"/>
       <c r="O159" s="10"/>
@@ -6988,11 +6753,11 @@
       <c r="AE159" s="7"/>
     </row>
     <row r="160" spans="4:31">
-      <c r="D160" s="19">
-        <v>1</v>
-      </c>
-      <c r="E160" s="19"/>
-      <c r="F160" s="67"/>
+      <c r="D160" s="18">
+        <v>1</v>
+      </c>
+      <c r="E160" s="18"/>
+      <c r="F160" s="66"/>
       <c r="I160" s="10"/>
       <c r="J160" s="7"/>
       <c r="O160" s="10"/>
@@ -7005,11 +6770,11 @@
       <c r="AE160" s="7"/>
     </row>
     <row r="161" spans="4:31">
-      <c r="D161" s="18">
-        <v>1</v>
-      </c>
-      <c r="E161" s="18"/>
-      <c r="F161" s="66"/>
+      <c r="D161" s="19">
+        <v>1</v>
+      </c>
+      <c r="E161" s="19"/>
+      <c r="F161" s="67"/>
       <c r="I161" s="10"/>
       <c r="J161" s="7"/>
       <c r="O161" s="10"/>
@@ -7022,11 +6787,11 @@
       <c r="AE161" s="7"/>
     </row>
     <row r="162" spans="4:31">
-      <c r="D162" s="19">
-        <v>1</v>
-      </c>
-      <c r="E162" s="19"/>
-      <c r="F162" s="67"/>
+      <c r="D162" s="18">
+        <v>1</v>
+      </c>
+      <c r="E162" s="18"/>
+      <c r="F162" s="66"/>
       <c r="I162" s="10"/>
       <c r="J162" s="7"/>
       <c r="O162" s="10"/>
@@ -7039,11 +6804,11 @@
       <c r="AE162" s="7"/>
     </row>
     <row r="163" spans="4:31">
-      <c r="D163" s="18">
-        <v>1</v>
-      </c>
-      <c r="E163" s="18"/>
-      <c r="F163" s="66"/>
+      <c r="D163" s="19">
+        <v>1</v>
+      </c>
+      <c r="E163" s="19"/>
+      <c r="F163" s="67"/>
       <c r="I163" s="10"/>
       <c r="J163" s="7"/>
       <c r="O163" s="10"/>
@@ -7056,11 +6821,11 @@
       <c r="AE163" s="7"/>
     </row>
     <row r="164" spans="4:31">
-      <c r="D164" s="19">
-        <v>1</v>
-      </c>
-      <c r="E164" s="19"/>
-      <c r="F164" s="67"/>
+      <c r="D164" s="18">
+        <v>1</v>
+      </c>
+      <c r="E164" s="18"/>
+      <c r="F164" s="66"/>
       <c r="I164" s="10"/>
       <c r="J164" s="7"/>
       <c r="O164" s="10"/>
@@ -7073,11 +6838,11 @@
       <c r="AE164" s="7"/>
     </row>
     <row r="165" spans="4:31">
-      <c r="D165" s="18">
-        <v>1</v>
-      </c>
-      <c r="E165" s="18"/>
-      <c r="F165" s="66"/>
+      <c r="D165" s="19">
+        <v>1</v>
+      </c>
+      <c r="E165" s="19"/>
+      <c r="F165" s="67"/>
       <c r="I165" s="10"/>
       <c r="J165" s="7"/>
       <c r="O165" s="10"/>
@@ -7090,11 +6855,11 @@
       <c r="AE165" s="7"/>
     </row>
     <row r="166" spans="4:31">
-      <c r="D166" s="19">
-        <v>1</v>
-      </c>
-      <c r="E166" s="19"/>
-      <c r="F166" s="67"/>
+      <c r="D166" s="18">
+        <v>1</v>
+      </c>
+      <c r="E166" s="18"/>
+      <c r="F166" s="66"/>
       <c r="I166" s="10"/>
       <c r="J166" s="7"/>
       <c r="O166" s="10"/>
@@ -7107,11 +6872,11 @@
       <c r="AE166" s="7"/>
     </row>
     <row r="167" spans="4:31">
-      <c r="D167" s="18">
-        <v>1</v>
-      </c>
-      <c r="E167" s="18"/>
-      <c r="F167" s="66"/>
+      <c r="D167" s="19">
+        <v>1</v>
+      </c>
+      <c r="E167" s="19"/>
+      <c r="F167" s="67"/>
       <c r="I167" s="10"/>
       <c r="J167" s="7"/>
       <c r="O167" s="10"/>
@@ -7124,11 +6889,11 @@
       <c r="AE167" s="7"/>
     </row>
     <row r="168" spans="4:31">
-      <c r="D168" s="19">
-        <v>1</v>
-      </c>
-      <c r="E168" s="19"/>
-      <c r="F168" s="67"/>
+      <c r="D168" s="18">
+        <v>1</v>
+      </c>
+      <c r="E168" s="18"/>
+      <c r="F168" s="66"/>
       <c r="I168" s="10"/>
       <c r="J168" s="7"/>
       <c r="O168" s="10"/>
@@ -7141,11 +6906,11 @@
       <c r="AE168" s="7"/>
     </row>
     <row r="169" spans="4:31">
-      <c r="D169" s="18">
-        <v>1</v>
-      </c>
-      <c r="E169" s="18"/>
-      <c r="F169" s="66"/>
+      <c r="D169" s="19">
+        <v>1</v>
+      </c>
+      <c r="E169" s="19"/>
+      <c r="F169" s="67"/>
       <c r="I169" s="10"/>
       <c r="J169" s="7"/>
       <c r="O169" s="10"/>
@@ -7158,11 +6923,11 @@
       <c r="AE169" s="7"/>
     </row>
     <row r="170" spans="4:31">
-      <c r="D170" s="19">
-        <v>1</v>
-      </c>
-      <c r="E170" s="19"/>
-      <c r="F170" s="67"/>
+      <c r="D170" s="18">
+        <v>1</v>
+      </c>
+      <c r="E170" s="18"/>
+      <c r="F170" s="66"/>
       <c r="I170" s="10"/>
       <c r="J170" s="7"/>
       <c r="O170" s="10"/>
@@ -7175,11 +6940,11 @@
       <c r="AE170" s="7"/>
     </row>
     <row r="171" spans="4:31">
-      <c r="D171" s="18">
-        <v>1</v>
-      </c>
-      <c r="E171" s="18"/>
-      <c r="F171" s="66"/>
+      <c r="D171" s="19">
+        <v>1</v>
+      </c>
+      <c r="E171" s="19"/>
+      <c r="F171" s="67"/>
       <c r="I171" s="10"/>
       <c r="J171" s="7"/>
       <c r="O171" s="10"/>
@@ -7192,11 +6957,11 @@
       <c r="AE171" s="7"/>
     </row>
     <row r="172" spans="4:31">
-      <c r="D172" s="19">
-        <v>1</v>
-      </c>
-      <c r="E172" s="19"/>
-      <c r="F172" s="67"/>
+      <c r="D172" s="18">
+        <v>1</v>
+      </c>
+      <c r="E172" s="18"/>
+      <c r="F172" s="66"/>
       <c r="I172" s="10"/>
       <c r="J172" s="7"/>
       <c r="O172" s="10"/>
@@ -7209,11 +6974,11 @@
       <c r="AE172" s="7"/>
     </row>
     <row r="173" spans="4:31">
-      <c r="D173" s="18">
-        <v>1</v>
-      </c>
-      <c r="E173" s="18"/>
-      <c r="F173" s="66"/>
+      <c r="D173" s="19">
+        <v>1</v>
+      </c>
+      <c r="E173" s="19"/>
+      <c r="F173" s="67"/>
       <c r="I173" s="10"/>
       <c r="J173" s="7"/>
       <c r="O173" s="10"/>
@@ -7226,11 +6991,11 @@
       <c r="AE173" s="7"/>
     </row>
     <row r="174" spans="4:31">
-      <c r="D174" s="19">
-        <v>1</v>
-      </c>
-      <c r="E174" s="19"/>
-      <c r="F174" s="67"/>
+      <c r="D174" s="18">
+        <v>1</v>
+      </c>
+      <c r="E174" s="18"/>
+      <c r="F174" s="66"/>
       <c r="I174" s="10"/>
       <c r="J174" s="7"/>
       <c r="O174" s="10"/>
@@ -7243,11 +7008,11 @@
       <c r="AE174" s="7"/>
     </row>
     <row r="175" spans="4:31">
-      <c r="D175" s="18">
-        <v>1</v>
-      </c>
-      <c r="E175" s="18"/>
-      <c r="F175" s="66"/>
+      <c r="D175" s="19">
+        <v>1</v>
+      </c>
+      <c r="E175" s="19"/>
+      <c r="F175" s="67"/>
       <c r="I175" s="10"/>
       <c r="J175" s="7"/>
       <c r="O175" s="10"/>
@@ -7260,11 +7025,11 @@
       <c r="AE175" s="7"/>
     </row>
     <row r="176" spans="4:31">
-      <c r="D176" s="19">
-        <v>1</v>
-      </c>
-      <c r="E176" s="19"/>
-      <c r="F176" s="67"/>
+      <c r="D176" s="18">
+        <v>1</v>
+      </c>
+      <c r="E176" s="18"/>
+      <c r="F176" s="66"/>
       <c r="I176" s="10"/>
       <c r="J176" s="7"/>
       <c r="O176" s="10"/>
@@ -7277,11 +7042,11 @@
       <c r="AE176" s="7"/>
     </row>
     <row r="177" spans="4:31">
-      <c r="D177" s="18">
-        <v>1</v>
-      </c>
-      <c r="E177" s="18"/>
-      <c r="F177" s="66"/>
+      <c r="D177" s="19">
+        <v>1</v>
+      </c>
+      <c r="E177" s="19"/>
+      <c r="F177" s="67"/>
       <c r="I177" s="10"/>
       <c r="J177" s="7"/>
       <c r="O177" s="10"/>
@@ -7294,11 +7059,11 @@
       <c r="AE177" s="7"/>
     </row>
     <row r="178" spans="4:31">
-      <c r="D178" s="19">
-        <v>1</v>
-      </c>
-      <c r="E178" s="19"/>
-      <c r="F178" s="67"/>
+      <c r="D178" s="18">
+        <v>1</v>
+      </c>
+      <c r="E178" s="18"/>
+      <c r="F178" s="66"/>
       <c r="I178" s="10"/>
       <c r="J178" s="7"/>
       <c r="O178" s="10"/>
@@ -7311,11 +7076,11 @@
       <c r="AE178" s="7"/>
     </row>
     <row r="179" spans="4:31">
-      <c r="D179" s="18">
-        <v>1</v>
-      </c>
-      <c r="E179" s="18"/>
-      <c r="F179" s="66"/>
+      <c r="D179" s="19">
+        <v>1</v>
+      </c>
+      <c r="E179" s="19"/>
+      <c r="F179" s="67"/>
       <c r="I179" s="10"/>
       <c r="J179" s="7"/>
       <c r="O179" s="10"/>
@@ -7328,11 +7093,11 @@
       <c r="AE179" s="7"/>
     </row>
     <row r="180" spans="4:31">
-      <c r="D180" s="19">
-        <v>1</v>
-      </c>
-      <c r="E180" s="19"/>
-      <c r="F180" s="67"/>
+      <c r="D180" s="18">
+        <v>1</v>
+      </c>
+      <c r="E180" s="18"/>
+      <c r="F180" s="66"/>
       <c r="I180" s="10"/>
       <c r="J180" s="7"/>
       <c r="O180" s="10"/>
@@ -7345,11 +7110,11 @@
       <c r="AE180" s="7"/>
     </row>
     <row r="181" spans="4:31">
-      <c r="D181" s="18">
-        <v>1</v>
-      </c>
-      <c r="E181" s="18"/>
-      <c r="F181" s="66"/>
+      <c r="D181" s="19">
+        <v>1</v>
+      </c>
+      <c r="E181" s="19"/>
+      <c r="F181" s="67"/>
       <c r="I181" s="10"/>
       <c r="J181" s="7"/>
       <c r="O181" s="10"/>
@@ -7362,11 +7127,11 @@
       <c r="AE181" s="7"/>
     </row>
     <row r="182" spans="4:31">
-      <c r="D182" s="19">
-        <v>1</v>
-      </c>
-      <c r="E182" s="19"/>
-      <c r="F182" s="67"/>
+      <c r="D182" s="18">
+        <v>1</v>
+      </c>
+      <c r="E182" s="18"/>
+      <c r="F182" s="66"/>
       <c r="I182" s="10"/>
       <c r="J182" s="7"/>
       <c r="O182" s="10"/>
@@ -7379,11 +7144,11 @@
       <c r="AE182" s="7"/>
     </row>
     <row r="183" spans="4:31">
-      <c r="D183" s="18">
-        <v>1</v>
-      </c>
-      <c r="E183" s="18"/>
-      <c r="F183" s="66"/>
+      <c r="D183" s="19">
+        <v>1</v>
+      </c>
+      <c r="E183" s="19"/>
+      <c r="F183" s="67"/>
       <c r="I183" s="10"/>
       <c r="J183" s="7"/>
       <c r="O183" s="10"/>
@@ -7396,11 +7161,11 @@
       <c r="AE183" s="7"/>
     </row>
     <row r="184" spans="4:31">
-      <c r="D184" s="19">
-        <v>1</v>
-      </c>
-      <c r="E184" s="19"/>
-      <c r="F184" s="67"/>
+      <c r="D184" s="18">
+        <v>1</v>
+      </c>
+      <c r="E184" s="18"/>
+      <c r="F184" s="66"/>
       <c r="I184" s="10"/>
       <c r="J184" s="7"/>
       <c r="O184" s="10"/>
@@ -7413,11 +7178,11 @@
       <c r="AE184" s="7"/>
     </row>
     <row r="185" spans="4:31">
-      <c r="D185" s="18">
-        <v>1</v>
-      </c>
-      <c r="E185" s="18"/>
-      <c r="F185" s="66"/>
+      <c r="D185" s="19">
+        <v>1</v>
+      </c>
+      <c r="E185" s="19"/>
+      <c r="F185" s="67"/>
       <c r="I185" s="10"/>
       <c r="J185" s="7"/>
       <c r="O185" s="10"/>
@@ -7430,11 +7195,11 @@
       <c r="AE185" s="7"/>
     </row>
     <row r="186" spans="4:31">
-      <c r="D186" s="19">
-        <v>1</v>
-      </c>
-      <c r="E186" s="19"/>
-      <c r="F186" s="67"/>
+      <c r="D186" s="18">
+        <v>1</v>
+      </c>
+      <c r="E186" s="18"/>
+      <c r="F186" s="66"/>
       <c r="I186" s="10"/>
       <c r="J186" s="7"/>
       <c r="O186" s="10"/>
@@ -7447,11 +7212,11 @@
       <c r="AE186" s="7"/>
     </row>
     <row r="187" spans="4:31">
-      <c r="D187" s="18">
-        <v>1</v>
-      </c>
-      <c r="E187" s="18"/>
-      <c r="F187" s="66"/>
+      <c r="D187" s="19">
+        <v>1</v>
+      </c>
+      <c r="E187" s="19"/>
+      <c r="F187" s="67"/>
       <c r="I187" s="10"/>
       <c r="J187" s="7"/>
       <c r="O187" s="10"/>
@@ -7464,11 +7229,11 @@
       <c r="AE187" s="7"/>
     </row>
     <row r="188" spans="4:31">
-      <c r="D188" s="19">
-        <v>1</v>
-      </c>
-      <c r="E188" s="19"/>
-      <c r="F188" s="67"/>
+      <c r="D188" s="18">
+        <v>1</v>
+      </c>
+      <c r="E188" s="18"/>
+      <c r="F188" s="66"/>
       <c r="I188" s="10"/>
       <c r="J188" s="7"/>
       <c r="O188" s="10"/>
@@ -7481,11 +7246,11 @@
       <c r="AE188" s="7"/>
     </row>
     <row r="189" spans="4:31">
-      <c r="D189" s="18">
-        <v>1</v>
-      </c>
-      <c r="E189" s="18"/>
-      <c r="F189" s="66"/>
+      <c r="D189" s="19">
+        <v>1</v>
+      </c>
+      <c r="E189" s="19"/>
+      <c r="F189" s="67"/>
       <c r="I189" s="10"/>
       <c r="J189" s="7"/>
       <c r="O189" s="10"/>
@@ -7498,11 +7263,11 @@
       <c r="AE189" s="7"/>
     </row>
     <row r="190" spans="4:31">
-      <c r="D190" s="19">
-        <v>1</v>
-      </c>
-      <c r="E190" s="19"/>
-      <c r="F190" s="67"/>
+      <c r="D190" s="18">
+        <v>1</v>
+      </c>
+      <c r="E190" s="18"/>
+      <c r="F190" s="66"/>
       <c r="I190" s="10"/>
       <c r="J190" s="7"/>
       <c r="O190" s="10"/>
@@ -7515,11 +7280,11 @@
       <c r="AE190" s="7"/>
     </row>
     <row r="191" spans="4:31">
-      <c r="D191" s="18">
-        <v>1</v>
-      </c>
-      <c r="E191" s="18"/>
-      <c r="F191" s="66"/>
+      <c r="D191" s="19">
+        <v>1</v>
+      </c>
+      <c r="E191" s="19"/>
+      <c r="F191" s="67"/>
       <c r="I191" s="10"/>
       <c r="J191" s="7"/>
       <c r="O191" s="10"/>
@@ -7532,11 +7297,11 @@
       <c r="AE191" s="7"/>
     </row>
     <row r="192" spans="4:31">
-      <c r="D192" s="19">
-        <v>1</v>
-      </c>
-      <c r="E192" s="19"/>
-      <c r="F192" s="67"/>
+      <c r="D192" s="18">
+        <v>1</v>
+      </c>
+      <c r="E192" s="18"/>
+      <c r="F192" s="66"/>
       <c r="I192" s="10"/>
       <c r="J192" s="7"/>
       <c r="O192" s="10"/>
@@ -7549,11 +7314,11 @@
       <c r="AE192" s="7"/>
     </row>
     <row r="193" spans="4:31">
-      <c r="D193" s="18">
-        <v>1</v>
-      </c>
-      <c r="E193" s="18"/>
-      <c r="F193" s="66"/>
+      <c r="D193" s="19">
+        <v>1</v>
+      </c>
+      <c r="E193" s="19"/>
+      <c r="F193" s="67"/>
       <c r="I193" s="10"/>
       <c r="J193" s="7"/>
       <c r="O193" s="10"/>
@@ -7566,11 +7331,11 @@
       <c r="AE193" s="7"/>
     </row>
     <row r="194" spans="4:31">
-      <c r="D194" s="19">
-        <v>1</v>
-      </c>
-      <c r="E194" s="19"/>
-      <c r="F194" s="67"/>
+      <c r="D194" s="18">
+        <v>1</v>
+      </c>
+      <c r="E194" s="18"/>
+      <c r="F194" s="66"/>
       <c r="I194" s="10"/>
       <c r="J194" s="7"/>
       <c r="O194" s="10"/>
@@ -7583,11 +7348,11 @@
       <c r="AE194" s="7"/>
     </row>
     <row r="195" spans="4:31">
-      <c r="D195" s="18">
-        <v>1</v>
-      </c>
-      <c r="E195" s="18"/>
-      <c r="F195" s="66"/>
+      <c r="D195" s="19">
+        <v>1</v>
+      </c>
+      <c r="E195" s="19"/>
+      <c r="F195" s="67"/>
       <c r="I195" s="10"/>
       <c r="J195" s="7"/>
       <c r="O195" s="10"/>
@@ -7600,11 +7365,11 @@
       <c r="AE195" s="7"/>
     </row>
     <row r="196" spans="4:31">
-      <c r="D196" s="19">
-        <v>1</v>
-      </c>
-      <c r="E196" s="19"/>
-      <c r="F196" s="67"/>
+      <c r="D196" s="18">
+        <v>1</v>
+      </c>
+      <c r="E196" s="18"/>
+      <c r="F196" s="66"/>
       <c r="I196" s="10"/>
       <c r="J196" s="7"/>
       <c r="O196" s="10"/>
@@ -7617,11 +7382,11 @@
       <c r="AE196" s="7"/>
     </row>
     <row r="197" spans="4:31">
-      <c r="D197" s="18">
-        <v>1</v>
-      </c>
-      <c r="E197" s="18"/>
-      <c r="F197" s="66"/>
+      <c r="D197" s="19">
+        <v>1</v>
+      </c>
+      <c r="E197" s="19"/>
+      <c r="F197" s="67"/>
       <c r="I197" s="10"/>
       <c r="J197" s="7"/>
       <c r="O197" s="10"/>
@@ -7634,11 +7399,11 @@
       <c r="AE197" s="7"/>
     </row>
     <row r="198" spans="4:31">
-      <c r="D198" s="19">
-        <v>1</v>
-      </c>
-      <c r="E198" s="19"/>
-      <c r="F198" s="67"/>
+      <c r="D198" s="18">
+        <v>1</v>
+      </c>
+      <c r="E198" s="18"/>
+      <c r="F198" s="66"/>
       <c r="I198" s="10"/>
       <c r="J198" s="7"/>
       <c r="O198" s="10"/>
@@ -7651,11 +7416,11 @@
       <c r="AE198" s="7"/>
     </row>
     <row r="199" spans="4:31">
-      <c r="D199" s="18">
-        <v>1</v>
-      </c>
-      <c r="E199" s="18"/>
-      <c r="F199" s="66"/>
+      <c r="D199" s="19">
+        <v>1</v>
+      </c>
+      <c r="E199" s="19"/>
+      <c r="F199" s="67"/>
       <c r="I199" s="10"/>
       <c r="J199" s="7"/>
       <c r="O199" s="10"/>
@@ -7668,13 +7433,11 @@
       <c r="AE199" s="7"/>
     </row>
     <row r="200" spans="4:31">
-      <c r="D200" s="19">
-        <v>1</v>
-      </c>
-      <c r="E200" s="19"/>
-      <c r="F200" s="67"/>
-      <c r="I200" s="10"/>
-      <c r="J200" s="7"/>
+      <c r="D200" s="18">
+        <v>1</v>
+      </c>
+      <c r="E200" s="18"/>
+      <c r="F200" s="66"/>
       <c r="O200" s="10"/>
       <c r="P200" s="13"/>
       <c r="R200" s="10"/>
@@ -7685,13 +7448,11 @@
       <c r="AE200" s="7"/>
     </row>
     <row r="201" spans="4:31">
-      <c r="D201" s="18">
-        <v>1</v>
-      </c>
-      <c r="E201" s="18"/>
-      <c r="F201" s="66"/>
-      <c r="I201" s="10"/>
-      <c r="J201" s="7"/>
+      <c r="D201" s="19">
+        <v>1</v>
+      </c>
+      <c r="E201" s="19"/>
+      <c r="F201" s="67"/>
       <c r="O201" s="10"/>
       <c r="P201" s="13"/>
       <c r="R201" s="10"/>
@@ -7702,13 +7463,11 @@
       <c r="AE201" s="7"/>
     </row>
     <row r="202" spans="4:31">
-      <c r="D202" s="19">
-        <v>1</v>
-      </c>
-      <c r="E202" s="19"/>
-      <c r="F202" s="67"/>
-      <c r="I202" s="10"/>
-      <c r="J202" s="7"/>
+      <c r="D202" s="18">
+        <v>1</v>
+      </c>
+      <c r="E202" s="18"/>
+      <c r="F202" s="66"/>
       <c r="O202" s="10"/>
       <c r="P202" s="13"/>
       <c r="R202" s="10"/>
@@ -7719,13 +7478,11 @@
       <c r="AE202" s="7"/>
     </row>
     <row r="203" spans="4:31">
-      <c r="D203" s="18">
-        <v>1</v>
-      </c>
-      <c r="E203" s="18"/>
-      <c r="F203" s="66"/>
-      <c r="I203" s="10"/>
-      <c r="J203" s="7"/>
+      <c r="D203" s="19">
+        <v>1</v>
+      </c>
+      <c r="E203" s="19"/>
+      <c r="F203" s="67"/>
       <c r="O203" s="10"/>
       <c r="P203" s="13"/>
       <c r="R203" s="10"/>
@@ -7736,88 +7493,76 @@
       <c r="AE203" s="7"/>
     </row>
     <row r="204" spans="4:31">
-      <c r="D204" s="19">
-        <v>1</v>
-      </c>
-      <c r="E204" s="19"/>
-      <c r="F204" s="67"/>
-      <c r="I204" s="10"/>
-      <c r="J204" s="7"/>
+      <c r="D204" s="18">
+        <v>1</v>
+      </c>
+      <c r="E204" s="18"/>
+      <c r="F204" s="66"/>
       <c r="O204" s="10"/>
-      <c r="P204" s="13"/>
-      <c r="R204" s="10"/>
-      <c r="S204" s="7"/>
+      <c r="P204" s="7"/>
       <c r="AA204" s="10"/>
       <c r="AB204" s="7"/>
       <c r="AD204" s="10"/>
       <c r="AE204" s="7"/>
     </row>
     <row r="205" spans="4:31">
-      <c r="D205" s="18">
-        <v>1</v>
-      </c>
-      <c r="E205" s="18"/>
-      <c r="F205" s="66"/>
+      <c r="D205" s="19">
+        <v>1</v>
+      </c>
+      <c r="E205" s="19"/>
+      <c r="F205" s="67"/>
       <c r="O205" s="10"/>
-      <c r="P205" s="13"/>
-      <c r="R205" s="10"/>
-      <c r="S205" s="7"/>
+      <c r="P205" s="7"/>
       <c r="AA205" s="10"/>
       <c r="AB205" s="7"/>
       <c r="AD205" s="10"/>
       <c r="AE205" s="7"/>
     </row>
     <row r="206" spans="4:31">
-      <c r="D206" s="19">
-        <v>1</v>
-      </c>
-      <c r="E206" s="19"/>
-      <c r="F206" s="67"/>
+      <c r="D206" s="18">
+        <v>1</v>
+      </c>
+      <c r="E206" s="18"/>
+      <c r="F206" s="66"/>
       <c r="O206" s="10"/>
-      <c r="P206" s="13"/>
-      <c r="R206" s="10"/>
-      <c r="S206" s="7"/>
+      <c r="P206" s="7"/>
       <c r="AA206" s="10"/>
       <c r="AB206" s="7"/>
       <c r="AD206" s="10"/>
       <c r="AE206" s="7"/>
     </row>
     <row r="207" spans="4:31">
-      <c r="D207" s="18">
-        <v>1</v>
-      </c>
-      <c r="E207" s="18"/>
-      <c r="F207" s="66"/>
+      <c r="D207" s="19">
+        <v>1</v>
+      </c>
+      <c r="E207" s="19"/>
+      <c r="F207" s="67"/>
       <c r="O207" s="10"/>
-      <c r="P207" s="13"/>
-      <c r="R207" s="10"/>
-      <c r="S207" s="7"/>
+      <c r="P207" s="7"/>
       <c r="AA207" s="10"/>
       <c r="AB207" s="7"/>
       <c r="AD207" s="10"/>
       <c r="AE207" s="7"/>
     </row>
     <row r="208" spans="4:31">
-      <c r="D208" s="19">
-        <v>1</v>
-      </c>
-      <c r="E208" s="19"/>
-      <c r="F208" s="67"/>
+      <c r="D208" s="18">
+        <v>1</v>
+      </c>
+      <c r="E208" s="18"/>
+      <c r="F208" s="66"/>
       <c r="O208" s="10"/>
-      <c r="P208" s="13"/>
-      <c r="R208" s="10"/>
-      <c r="S208" s="7"/>
+      <c r="P208" s="7"/>
       <c r="AA208" s="10"/>
       <c r="AB208" s="7"/>
       <c r="AD208" s="10"/>
       <c r="AE208" s="7"/>
     </row>
     <row r="209" spans="4:31">
-      <c r="D209" s="18">
-        <v>1</v>
-      </c>
-      <c r="E209" s="18"/>
-      <c r="F209" s="66"/>
+      <c r="D209" s="19">
+        <v>1</v>
+      </c>
+      <c r="E209" s="19"/>
+      <c r="F209" s="67"/>
       <c r="O209" s="10"/>
       <c r="P209" s="7"/>
       <c r="AA209" s="10"/>
@@ -7826,11 +7571,11 @@
       <c r="AE209" s="7"/>
     </row>
     <row r="210" spans="4:31">
-      <c r="D210" s="19">
-        <v>1</v>
-      </c>
-      <c r="E210" s="19"/>
-      <c r="F210" s="67"/>
+      <c r="D210" s="18">
+        <v>1</v>
+      </c>
+      <c r="E210" s="18"/>
+      <c r="F210" s="66"/>
       <c r="O210" s="10"/>
       <c r="P210" s="7"/>
       <c r="AA210" s="10"/>
@@ -7839,11 +7584,11 @@
       <c r="AE210" s="7"/>
     </row>
     <row r="211" spans="4:31">
-      <c r="D211" s="18">
-        <v>1</v>
-      </c>
-      <c r="E211" s="18"/>
-      <c r="F211" s="66"/>
+      <c r="D211" s="19">
+        <v>1</v>
+      </c>
+      <c r="E211" s="19"/>
+      <c r="F211" s="67"/>
       <c r="O211" s="10"/>
       <c r="P211" s="7"/>
       <c r="AA211" s="10"/>
@@ -7852,11 +7597,11 @@
       <c r="AE211" s="7"/>
     </row>
     <row r="212" spans="4:31">
-      <c r="D212" s="19">
-        <v>1</v>
-      </c>
-      <c r="E212" s="19"/>
-      <c r="F212" s="67"/>
+      <c r="D212" s="18">
+        <v>1</v>
+      </c>
+      <c r="E212" s="18"/>
+      <c r="F212" s="66"/>
       <c r="O212" s="10"/>
       <c r="P212" s="7"/>
       <c r="AA212" s="10"/>
@@ -7865,11 +7610,11 @@
       <c r="AE212" s="7"/>
     </row>
     <row r="213" spans="4:31">
-      <c r="D213" s="18">
-        <v>1</v>
-      </c>
-      <c r="E213" s="18"/>
-      <c r="F213" s="66"/>
+      <c r="D213" s="19">
+        <v>1</v>
+      </c>
+      <c r="E213" s="19"/>
+      <c r="F213" s="67"/>
       <c r="O213" s="10"/>
       <c r="P213" s="7"/>
       <c r="AA213" s="10"/>
@@ -7878,11 +7623,11 @@
       <c r="AE213" s="7"/>
     </row>
     <row r="214" spans="4:31">
-      <c r="D214" s="19">
-        <v>1</v>
-      </c>
-      <c r="E214" s="19"/>
-      <c r="F214" s="67"/>
+      <c r="D214" s="18">
+        <v>1</v>
+      </c>
+      <c r="E214" s="18"/>
+      <c r="F214" s="66"/>
       <c r="O214" s="10"/>
       <c r="P214" s="7"/>
       <c r="AA214" s="10"/>
@@ -7891,11 +7636,11 @@
       <c r="AE214" s="7"/>
     </row>
     <row r="215" spans="4:31">
-      <c r="D215" s="18">
-        <v>1</v>
-      </c>
-      <c r="E215" s="18"/>
-      <c r="F215" s="66"/>
+      <c r="D215" s="19">
+        <v>1</v>
+      </c>
+      <c r="E215" s="19"/>
+      <c r="F215" s="67"/>
       <c r="O215" s="10"/>
       <c r="P215" s="7"/>
       <c r="AA215" s="10"/>
@@ -7904,11 +7649,11 @@
       <c r="AE215" s="7"/>
     </row>
     <row r="216" spans="4:31">
-      <c r="D216" s="19">
-        <v>1</v>
-      </c>
-      <c r="E216" s="19"/>
-      <c r="F216" s="67"/>
+      <c r="D216" s="18">
+        <v>1</v>
+      </c>
+      <c r="E216" s="18"/>
+      <c r="F216" s="66"/>
       <c r="O216" s="10"/>
       <c r="P216" s="7"/>
       <c r="AA216" s="10"/>
@@ -7917,11 +7662,11 @@
       <c r="AE216" s="7"/>
     </row>
     <row r="217" spans="4:31">
-      <c r="D217" s="18">
-        <v>1</v>
-      </c>
-      <c r="E217" s="18"/>
-      <c r="F217" s="66"/>
+      <c r="D217" s="19">
+        <v>1</v>
+      </c>
+      <c r="E217" s="19"/>
+      <c r="F217" s="67"/>
       <c r="O217" s="10"/>
       <c r="P217" s="7"/>
       <c r="AA217" s="10"/>
@@ -7930,11 +7675,11 @@
       <c r="AE217" s="7"/>
     </row>
     <row r="218" spans="4:31">
-      <c r="D218" s="19">
-        <v>1</v>
-      </c>
-      <c r="E218" s="19"/>
-      <c r="F218" s="67"/>
+      <c r="D218" s="18">
+        <v>1</v>
+      </c>
+      <c r="E218" s="18"/>
+      <c r="F218" s="66"/>
       <c r="O218" s="10"/>
       <c r="P218" s="7"/>
       <c r="AA218" s="10"/>
@@ -7943,11 +7688,11 @@
       <c r="AE218" s="7"/>
     </row>
     <row r="219" spans="4:31">
-      <c r="D219" s="18">
-        <v>1</v>
-      </c>
-      <c r="E219" s="18"/>
-      <c r="F219" s="66"/>
+      <c r="D219" s="19">
+        <v>1</v>
+      </c>
+      <c r="E219" s="19"/>
+      <c r="F219" s="67"/>
       <c r="O219" s="10"/>
       <c r="P219" s="7"/>
       <c r="AA219" s="10"/>
@@ -7956,11 +7701,11 @@
       <c r="AE219" s="7"/>
     </row>
     <row r="220" spans="4:31">
-      <c r="D220" s="19">
-        <v>1</v>
-      </c>
-      <c r="E220" s="19"/>
-      <c r="F220" s="67"/>
+      <c r="D220" s="18">
+        <v>1</v>
+      </c>
+      <c r="E220" s="18"/>
+      <c r="F220" s="66"/>
       <c r="O220" s="10"/>
       <c r="P220" s="7"/>
       <c r="AA220" s="10"/>
@@ -7969,11 +7714,11 @@
       <c r="AE220" s="7"/>
     </row>
     <row r="221" spans="4:31">
-      <c r="D221" s="18">
-        <v>1</v>
-      </c>
-      <c r="E221" s="18"/>
-      <c r="F221" s="66"/>
+      <c r="D221" s="19">
+        <v>1</v>
+      </c>
+      <c r="E221" s="19"/>
+      <c r="F221" s="67"/>
       <c r="O221" s="10"/>
       <c r="P221" s="7"/>
       <c r="AA221" s="10"/>
@@ -7982,11 +7727,11 @@
       <c r="AE221" s="7"/>
     </row>
     <row r="222" spans="4:31">
-      <c r="D222" s="19">
-        <v>1</v>
-      </c>
-      <c r="E222" s="19"/>
-      <c r="F222" s="67"/>
+      <c r="D222" s="18">
+        <v>1</v>
+      </c>
+      <c r="E222" s="18"/>
+      <c r="F222" s="66"/>
       <c r="O222" s="10"/>
       <c r="P222" s="7"/>
       <c r="AA222" s="10"/>
@@ -7995,11 +7740,11 @@
       <c r="AE222" s="7"/>
     </row>
     <row r="223" spans="4:31">
-      <c r="D223" s="18">
-        <v>1</v>
-      </c>
-      <c r="E223" s="18"/>
-      <c r="F223" s="66"/>
+      <c r="D223" s="19">
+        <v>1</v>
+      </c>
+      <c r="E223" s="19"/>
+      <c r="F223" s="67"/>
       <c r="O223" s="10"/>
       <c r="P223" s="7"/>
       <c r="AA223" s="10"/>
@@ -8008,11 +7753,11 @@
       <c r="AE223" s="7"/>
     </row>
     <row r="224" spans="4:31">
-      <c r="D224" s="19">
-        <v>1</v>
-      </c>
-      <c r="E224" s="19"/>
-      <c r="F224" s="67"/>
+      <c r="D224" s="18">
+        <v>1</v>
+      </c>
+      <c r="E224" s="18"/>
+      <c r="F224" s="66"/>
       <c r="O224" s="10"/>
       <c r="P224" s="7"/>
       <c r="AA224" s="10"/>
@@ -8021,11 +7766,11 @@
       <c r="AE224" s="7"/>
     </row>
     <row r="225" spans="4:31">
-      <c r="D225" s="18">
-        <v>1</v>
-      </c>
-      <c r="E225" s="18"/>
-      <c r="F225" s="66"/>
+      <c r="D225" s="19">
+        <v>1</v>
+      </c>
+      <c r="E225" s="19"/>
+      <c r="F225" s="67"/>
       <c r="O225" s="10"/>
       <c r="P225" s="7"/>
       <c r="AA225" s="10"/>
@@ -8034,11 +7779,11 @@
       <c r="AE225" s="7"/>
     </row>
     <row r="226" spans="4:31">
-      <c r="D226" s="19">
-        <v>1</v>
-      </c>
-      <c r="E226" s="19"/>
-      <c r="F226" s="67"/>
+      <c r="D226" s="18">
+        <v>1</v>
+      </c>
+      <c r="E226" s="18"/>
+      <c r="F226" s="66"/>
       <c r="O226" s="10"/>
       <c r="P226" s="7"/>
       <c r="AA226" s="10"/>
@@ -8047,11 +7792,11 @@
       <c r="AE226" s="7"/>
     </row>
     <row r="227" spans="4:31">
-      <c r="D227" s="18">
-        <v>1</v>
-      </c>
-      <c r="E227" s="18"/>
-      <c r="F227" s="66"/>
+      <c r="D227" s="19">
+        <v>1</v>
+      </c>
+      <c r="E227" s="19"/>
+      <c r="F227" s="67"/>
       <c r="O227" s="10"/>
       <c r="P227" s="7"/>
       <c r="AA227" s="10"/>
@@ -8060,11 +7805,11 @@
       <c r="AE227" s="7"/>
     </row>
     <row r="228" spans="4:31">
-      <c r="D228" s="19">
-        <v>1</v>
-      </c>
-      <c r="E228" s="19"/>
-      <c r="F228" s="67"/>
+      <c r="D228" s="18">
+        <v>1</v>
+      </c>
+      <c r="E228" s="18"/>
+      <c r="F228" s="66"/>
       <c r="O228" s="10"/>
       <c r="P228" s="7"/>
       <c r="AA228" s="10"/>
@@ -8073,11 +7818,11 @@
       <c r="AE228" s="7"/>
     </row>
     <row r="229" spans="4:31">
-      <c r="D229" s="18">
-        <v>1</v>
-      </c>
-      <c r="E229" s="18"/>
-      <c r="F229" s="66"/>
+      <c r="D229" s="19">
+        <v>1</v>
+      </c>
+      <c r="E229" s="19"/>
+      <c r="F229" s="67"/>
       <c r="O229" s="10"/>
       <c r="P229" s="7"/>
       <c r="AA229" s="10"/>
@@ -8086,11 +7831,11 @@
       <c r="AE229" s="7"/>
     </row>
     <row r="230" spans="4:31">
-      <c r="D230" s="19">
-        <v>1</v>
-      </c>
-      <c r="E230" s="19"/>
-      <c r="F230" s="67"/>
+      <c r="D230" s="18">
+        <v>1</v>
+      </c>
+      <c r="E230" s="18"/>
+      <c r="F230" s="66"/>
       <c r="O230" s="10"/>
       <c r="P230" s="7"/>
       <c r="AA230" s="10"/>
@@ -8099,11 +7844,11 @@
       <c r="AE230" s="7"/>
     </row>
     <row r="231" spans="4:31">
-      <c r="D231" s="18">
-        <v>1</v>
-      </c>
-      <c r="E231" s="18"/>
-      <c r="F231" s="66"/>
+      <c r="D231" s="19">
+        <v>1</v>
+      </c>
+      <c r="E231" s="19"/>
+      <c r="F231" s="67"/>
       <c r="O231" s="10"/>
       <c r="P231" s="7"/>
       <c r="AA231" s="10"/>
@@ -8112,11 +7857,11 @@
       <c r="AE231" s="7"/>
     </row>
     <row r="232" spans="4:31">
-      <c r="D232" s="19">
-        <v>1</v>
-      </c>
-      <c r="E232" s="19"/>
-      <c r="F232" s="67"/>
+      <c r="D232" s="18">
+        <v>1</v>
+      </c>
+      <c r="E232" s="18"/>
+      <c r="F232" s="66"/>
       <c r="O232" s="10"/>
       <c r="P232" s="7"/>
       <c r="AA232" s="10"/>
@@ -8125,11 +7870,11 @@
       <c r="AE232" s="7"/>
     </row>
     <row r="233" spans="4:31">
-      <c r="D233" s="18">
-        <v>1</v>
-      </c>
-      <c r="E233" s="18"/>
-      <c r="F233" s="66"/>
+      <c r="D233" s="19">
+        <v>1</v>
+      </c>
+      <c r="E233" s="19"/>
+      <c r="F233" s="67"/>
       <c r="O233" s="10"/>
       <c r="P233" s="7"/>
       <c r="AA233" s="10"/>
@@ -8138,11 +7883,11 @@
       <c r="AE233" s="7"/>
     </row>
     <row r="234" spans="4:31">
-      <c r="D234" s="19">
-        <v>1</v>
-      </c>
-      <c r="E234" s="19"/>
-      <c r="F234" s="67"/>
+      <c r="D234" s="18">
+        <v>1</v>
+      </c>
+      <c r="E234" s="18"/>
+      <c r="F234" s="66"/>
       <c r="O234" s="10"/>
       <c r="P234" s="7"/>
       <c r="AA234" s="10"/>
@@ -8151,11 +7896,11 @@
       <c r="AE234" s="7"/>
     </row>
     <row r="235" spans="4:31">
-      <c r="D235" s="18">
-        <v>1</v>
-      </c>
-      <c r="E235" s="18"/>
-      <c r="F235" s="66"/>
+      <c r="D235" s="19">
+        <v>1</v>
+      </c>
+      <c r="E235" s="19"/>
+      <c r="F235" s="67"/>
       <c r="O235" s="10"/>
       <c r="P235" s="7"/>
       <c r="AA235" s="10"/>
@@ -8164,11 +7909,11 @@
       <c r="AE235" s="7"/>
     </row>
     <row r="236" spans="4:31">
-      <c r="D236" s="19">
-        <v>1</v>
-      </c>
-      <c r="E236" s="19"/>
-      <c r="F236" s="67"/>
+      <c r="D236" s="18">
+        <v>1</v>
+      </c>
+      <c r="E236" s="18"/>
+      <c r="F236" s="66"/>
       <c r="O236" s="10"/>
       <c r="P236" s="7"/>
       <c r="AA236" s="10"/>
@@ -8177,11 +7922,11 @@
       <c r="AE236" s="7"/>
     </row>
     <row r="237" spans="4:31">
-      <c r="D237" s="18">
-        <v>1</v>
-      </c>
-      <c r="E237" s="18"/>
-      <c r="F237" s="66"/>
+      <c r="D237" s="19">
+        <v>1</v>
+      </c>
+      <c r="E237" s="19"/>
+      <c r="F237" s="67"/>
       <c r="O237" s="10"/>
       <c r="P237" s="7"/>
       <c r="AA237" s="10"/>
@@ -8190,11 +7935,11 @@
       <c r="AE237" s="7"/>
     </row>
     <row r="238" spans="4:31">
-      <c r="D238" s="19">
-        <v>1</v>
-      </c>
-      <c r="E238" s="19"/>
-      <c r="F238" s="67"/>
+      <c r="D238" s="18">
+        <v>1</v>
+      </c>
+      <c r="E238" s="18"/>
+      <c r="F238" s="66"/>
       <c r="O238" s="10"/>
       <c r="P238" s="7"/>
       <c r="AA238" s="10"/>
@@ -8203,11 +7948,11 @@
       <c r="AE238" s="7"/>
     </row>
     <row r="239" spans="4:31">
-      <c r="D239" s="18">
-        <v>1</v>
-      </c>
-      <c r="E239" s="18"/>
-      <c r="F239" s="66"/>
+      <c r="D239" s="19">
+        <v>1</v>
+      </c>
+      <c r="E239" s="19"/>
+      <c r="F239" s="67"/>
       <c r="O239" s="10"/>
       <c r="P239" s="7"/>
       <c r="AA239" s="10"/>
@@ -8216,11 +7961,11 @@
       <c r="AE239" s="7"/>
     </row>
     <row r="240" spans="4:31">
-      <c r="D240" s="19">
-        <v>1</v>
-      </c>
-      <c r="E240" s="19"/>
-      <c r="F240" s="67"/>
+      <c r="D240" s="18">
+        <v>1</v>
+      </c>
+      <c r="E240" s="18"/>
+      <c r="F240" s="66"/>
       <c r="O240" s="10"/>
       <c r="P240" s="7"/>
       <c r="AA240" s="10"/>
@@ -8229,11 +7974,11 @@
       <c r="AE240" s="7"/>
     </row>
     <row r="241" spans="4:31">
-      <c r="D241" s="18">
-        <v>1</v>
-      </c>
-      <c r="E241" s="18"/>
-      <c r="F241" s="66"/>
+      <c r="D241" s="19">
+        <v>1</v>
+      </c>
+      <c r="E241" s="19"/>
+      <c r="F241" s="67"/>
       <c r="O241" s="10"/>
       <c r="P241" s="7"/>
       <c r="AA241" s="10"/>
@@ -8242,11 +7987,11 @@
       <c r="AE241" s="7"/>
     </row>
     <row r="242" spans="4:31">
-      <c r="D242" s="19">
-        <v>1</v>
-      </c>
-      <c r="E242" s="19"/>
-      <c r="F242" s="67"/>
+      <c r="D242" s="18">
+        <v>1</v>
+      </c>
+      <c r="E242" s="18"/>
+      <c r="F242" s="66"/>
       <c r="O242" s="10"/>
       <c r="P242" s="7"/>
       <c r="AA242" s="10"/>
@@ -8255,11 +8000,11 @@
       <c r="AE242" s="7"/>
     </row>
     <row r="243" spans="4:31">
-      <c r="D243" s="18">
-        <v>1</v>
-      </c>
-      <c r="E243" s="18"/>
-      <c r="F243" s="66"/>
+      <c r="D243" s="19">
+        <v>1</v>
+      </c>
+      <c r="E243" s="19"/>
+      <c r="F243" s="67"/>
       <c r="O243" s="10"/>
       <c r="P243" s="7"/>
       <c r="AA243" s="10"/>
@@ -8268,11 +8013,11 @@
       <c r="AE243" s="7"/>
     </row>
     <row r="244" spans="4:31">
-      <c r="D244" s="19">
-        <v>1</v>
-      </c>
-      <c r="E244" s="19"/>
-      <c r="F244" s="67"/>
+      <c r="D244" s="18">
+        <v>1</v>
+      </c>
+      <c r="E244" s="18"/>
+      <c r="F244" s="66"/>
       <c r="O244" s="10"/>
       <c r="P244" s="7"/>
       <c r="AA244" s="10"/>
@@ -8281,11 +8026,11 @@
       <c r="AE244" s="7"/>
     </row>
     <row r="245" spans="4:31">
-      <c r="D245" s="18">
-        <v>1</v>
-      </c>
-      <c r="E245" s="18"/>
-      <c r="F245" s="66"/>
+      <c r="D245" s="19">
+        <v>1</v>
+      </c>
+      <c r="E245" s="19"/>
+      <c r="F245" s="67"/>
       <c r="O245" s="10"/>
       <c r="P245" s="7"/>
       <c r="AA245" s="10"/>
@@ -8294,11 +8039,11 @@
       <c r="AE245" s="7"/>
     </row>
     <row r="246" spans="4:31">
-      <c r="D246" s="19">
-        <v>1</v>
-      </c>
-      <c r="E246" s="19"/>
-      <c r="F246" s="67"/>
+      <c r="D246" s="18">
+        <v>1</v>
+      </c>
+      <c r="E246" s="18"/>
+      <c r="F246" s="66"/>
       <c r="O246" s="10"/>
       <c r="P246" s="7"/>
       <c r="AA246" s="10"/>
@@ -8307,11 +8052,11 @@
       <c r="AE246" s="7"/>
     </row>
     <row r="247" spans="4:31">
-      <c r="D247" s="18">
-        <v>1</v>
-      </c>
-      <c r="E247" s="18"/>
-      <c r="F247" s="66"/>
+      <c r="D247" s="19">
+        <v>1</v>
+      </c>
+      <c r="E247" s="19"/>
+      <c r="F247" s="67"/>
       <c r="O247" s="10"/>
       <c r="P247" s="7"/>
       <c r="AA247" s="10"/>
@@ -8320,11 +8065,11 @@
       <c r="AE247" s="7"/>
     </row>
     <row r="248" spans="4:31">
-      <c r="D248" s="19">
-        <v>1</v>
-      </c>
-      <c r="E248" s="19"/>
-      <c r="F248" s="67"/>
+      <c r="D248" s="18">
+        <v>1</v>
+      </c>
+      <c r="E248" s="18"/>
+      <c r="F248" s="66"/>
       <c r="O248" s="10"/>
       <c r="P248" s="7"/>
       <c r="AA248" s="10"/>
@@ -8333,11 +8078,11 @@
       <c r="AE248" s="7"/>
     </row>
     <row r="249" spans="4:31">
-      <c r="D249" s="18">
-        <v>1</v>
-      </c>
-      <c r="E249" s="18"/>
-      <c r="F249" s="66"/>
+      <c r="D249" s="19">
+        <v>1</v>
+      </c>
+      <c r="E249" s="19"/>
+      <c r="F249" s="67"/>
       <c r="O249" s="10"/>
       <c r="P249" s="7"/>
       <c r="AA249" s="10"/>
@@ -8346,11 +8091,11 @@
       <c r="AE249" s="7"/>
     </row>
     <row r="250" spans="4:31">
-      <c r="D250" s="19">
-        <v>1</v>
-      </c>
-      <c r="E250" s="19"/>
-      <c r="F250" s="67"/>
+      <c r="D250" s="18">
+        <v>1</v>
+      </c>
+      <c r="E250" s="18"/>
+      <c r="F250" s="66"/>
       <c r="O250" s="10"/>
       <c r="P250" s="7"/>
       <c r="AA250" s="10"/>
@@ -8359,11 +8104,11 @@
       <c r="AE250" s="7"/>
     </row>
     <row r="251" spans="4:31">
-      <c r="D251" s="18">
-        <v>1</v>
-      </c>
-      <c r="E251" s="18"/>
-      <c r="F251" s="66"/>
+      <c r="D251" s="19">
+        <v>1</v>
+      </c>
+      <c r="E251" s="19"/>
+      <c r="F251" s="67"/>
       <c r="O251" s="10"/>
       <c r="P251" s="7"/>
       <c r="AA251" s="10"/>
@@ -8372,11 +8117,11 @@
       <c r="AE251" s="7"/>
     </row>
     <row r="252" spans="4:31">
-      <c r="D252" s="19">
-        <v>1</v>
-      </c>
-      <c r="E252" s="19"/>
-      <c r="F252" s="67"/>
+      <c r="D252" s="18">
+        <v>1</v>
+      </c>
+      <c r="E252" s="18"/>
+      <c r="F252" s="66"/>
       <c r="O252" s="10"/>
       <c r="P252" s="7"/>
       <c r="AA252" s="10"/>
@@ -8385,11 +8130,11 @@
       <c r="AE252" s="7"/>
     </row>
     <row r="253" spans="4:31">
-      <c r="D253" s="18">
-        <v>1</v>
-      </c>
-      <c r="E253" s="18"/>
-      <c r="F253" s="66"/>
+      <c r="D253" s="19">
+        <v>1</v>
+      </c>
+      <c r="E253" s="19"/>
+      <c r="F253" s="67"/>
       <c r="O253" s="10"/>
       <c r="P253" s="7"/>
       <c r="AA253" s="10"/>
@@ -8398,11 +8143,11 @@
       <c r="AE253" s="7"/>
     </row>
     <row r="254" spans="4:31">
-      <c r="D254" s="19">
-        <v>1</v>
-      </c>
-      <c r="E254" s="19"/>
-      <c r="F254" s="67"/>
+      <c r="D254" s="18">
+        <v>1</v>
+      </c>
+      <c r="E254" s="18"/>
+      <c r="F254" s="66"/>
       <c r="O254" s="10"/>
       <c r="P254" s="7"/>
       <c r="AA254" s="10"/>
@@ -8411,11 +8156,11 @@
       <c r="AE254" s="7"/>
     </row>
     <row r="255" spans="4:31">
-      <c r="D255" s="18">
-        <v>1</v>
-      </c>
-      <c r="E255" s="18"/>
-      <c r="F255" s="66"/>
+      <c r="D255" s="19">
+        <v>1</v>
+      </c>
+      <c r="E255" s="19"/>
+      <c r="F255" s="67"/>
       <c r="O255" s="10"/>
       <c r="P255" s="7"/>
       <c r="AA255" s="10"/>
@@ -8424,11 +8169,11 @@
       <c r="AE255" s="7"/>
     </row>
     <row r="256" spans="4:31">
-      <c r="D256" s="19">
-        <v>1</v>
-      </c>
-      <c r="E256" s="19"/>
-      <c r="F256" s="67"/>
+      <c r="D256" s="18">
+        <v>1</v>
+      </c>
+      <c r="E256" s="18"/>
+      <c r="F256" s="66"/>
       <c r="O256" s="10"/>
       <c r="P256" s="7"/>
       <c r="AA256" s="10"/>
@@ -8437,11 +8182,11 @@
       <c r="AE256" s="7"/>
     </row>
     <row r="257" spans="4:31">
-      <c r="D257" s="18">
-        <v>1</v>
-      </c>
-      <c r="E257" s="18"/>
-      <c r="F257" s="66"/>
+      <c r="D257" s="19">
+        <v>1</v>
+      </c>
+      <c r="E257" s="19"/>
+      <c r="F257" s="67"/>
       <c r="O257" s="10"/>
       <c r="P257" s="7"/>
       <c r="AA257" s="10"/>
@@ -8450,11 +8195,11 @@
       <c r="AE257" s="7"/>
     </row>
     <row r="258" spans="4:31">
-      <c r="D258" s="19">
-        <v>1</v>
-      </c>
-      <c r="E258" s="19"/>
-      <c r="F258" s="67"/>
+      <c r="D258" s="18">
+        <v>1</v>
+      </c>
+      <c r="E258" s="18"/>
+      <c r="F258" s="66"/>
       <c r="O258" s="10"/>
       <c r="P258" s="7"/>
       <c r="AA258" s="10"/>
@@ -8463,584 +8208,519 @@
       <c r="AE258" s="7"/>
     </row>
     <row r="259" spans="4:31">
-      <c r="D259" s="18">
-        <v>1</v>
-      </c>
-      <c r="E259" s="18"/>
-      <c r="F259" s="66"/>
-      <c r="O259" s="10"/>
-      <c r="P259" s="7"/>
+      <c r="D259" s="19">
+        <v>1</v>
+      </c>
+      <c r="E259" s="19"/>
+      <c r="F259" s="67"/>
       <c r="AA259" s="10"/>
       <c r="AB259" s="7"/>
       <c r="AD259" s="10"/>
       <c r="AE259" s="7"/>
     </row>
     <row r="260" spans="4:31">
-      <c r="D260" s="19">
-        <v>1</v>
-      </c>
-      <c r="E260" s="19"/>
-      <c r="F260" s="67"/>
-      <c r="O260" s="10"/>
-      <c r="P260" s="7"/>
-      <c r="AA260" s="10"/>
-      <c r="AB260" s="7"/>
+      <c r="D260" s="18">
+        <v>1</v>
+      </c>
+      <c r="E260" s="18"/>
+      <c r="F260" s="66"/>
       <c r="AD260" s="10"/>
       <c r="AE260" s="7"/>
     </row>
     <row r="261" spans="4:31">
-      <c r="D261" s="18">
-        <v>1</v>
-      </c>
-      <c r="E261" s="18"/>
-      <c r="F261" s="66"/>
-      <c r="O261" s="10"/>
-      <c r="P261" s="7"/>
-      <c r="AA261" s="10"/>
-      <c r="AB261" s="7"/>
+      <c r="D261" s="19">
+        <v>1</v>
+      </c>
+      <c r="E261" s="19"/>
+      <c r="F261" s="67"/>
       <c r="AD261" s="10"/>
       <c r="AE261" s="7"/>
     </row>
     <row r="262" spans="4:31">
-      <c r="D262" s="19">
-        <v>1</v>
-      </c>
-      <c r="E262" s="19"/>
-      <c r="F262" s="67"/>
-      <c r="O262" s="10"/>
-      <c r="P262" s="7"/>
-      <c r="AA262" s="10"/>
-      <c r="AB262" s="7"/>
+      <c r="D262" s="18">
+        <v>1</v>
+      </c>
+      <c r="E262" s="18"/>
+      <c r="F262" s="66"/>
       <c r="AD262" s="10"/>
       <c r="AE262" s="7"/>
     </row>
     <row r="263" spans="4:31">
-      <c r="D263" s="18">
-        <v>1</v>
-      </c>
-      <c r="E263" s="18"/>
-      <c r="F263" s="66"/>
-      <c r="O263" s="10"/>
-      <c r="P263" s="7"/>
-      <c r="AA263" s="10"/>
-      <c r="AB263" s="7"/>
+      <c r="D263" s="19">
+        <v>1</v>
+      </c>
+      <c r="E263" s="19"/>
+      <c r="F263" s="67"/>
       <c r="AD263" s="10"/>
       <c r="AE263" s="7"/>
     </row>
     <row r="264" spans="4:31">
-      <c r="D264" s="19">
-        <v>1</v>
-      </c>
-      <c r="E264" s="19"/>
-      <c r="F264" s="67"/>
-      <c r="AA264" s="10"/>
-      <c r="AB264" s="7"/>
+      <c r="D264" s="18">
+        <v>1</v>
+      </c>
+      <c r="E264" s="18"/>
+      <c r="F264" s="66"/>
       <c r="AD264" s="10"/>
       <c r="AE264" s="7"/>
     </row>
     <row r="265" spans="4:31">
-      <c r="D265" s="18">
-        <v>1</v>
-      </c>
-      <c r="E265" s="18"/>
-      <c r="F265" s="66"/>
+      <c r="D265" s="19">
+        <v>1</v>
+      </c>
+      <c r="E265" s="19"/>
+      <c r="F265" s="67"/>
       <c r="AD265" s="10"/>
       <c r="AE265" s="7"/>
     </row>
     <row r="266" spans="4:31">
-      <c r="D266" s="19">
-        <v>1</v>
-      </c>
-      <c r="E266" s="19"/>
-      <c r="F266" s="67"/>
+      <c r="D266" s="18">
+        <v>1</v>
+      </c>
+      <c r="E266" s="18"/>
+      <c r="F266" s="66"/>
       <c r="AD266" s="10"/>
       <c r="AE266" s="7"/>
     </row>
     <row r="267" spans="4:31">
-      <c r="D267" s="18">
-        <v>1</v>
-      </c>
-      <c r="E267" s="18"/>
-      <c r="F267" s="66"/>
+      <c r="D267" s="19">
+        <v>1</v>
+      </c>
+      <c r="E267" s="19"/>
+      <c r="F267" s="67"/>
       <c r="AD267" s="10"/>
       <c r="AE267" s="7"/>
     </row>
     <row r="268" spans="4:31">
-      <c r="D268" s="19">
-        <v>1</v>
-      </c>
-      <c r="E268" s="19"/>
-      <c r="F268" s="67"/>
+      <c r="D268" s="18">
+        <v>1</v>
+      </c>
+      <c r="E268" s="18"/>
+      <c r="F268" s="66"/>
       <c r="AD268" s="10"/>
       <c r="AE268" s="7"/>
     </row>
     <row r="269" spans="4:31">
-      <c r="D269" s="18">
-        <v>1</v>
-      </c>
-      <c r="E269" s="18"/>
-      <c r="F269" s="66"/>
+      <c r="D269" s="19">
+        <v>1</v>
+      </c>
+      <c r="E269" s="19"/>
+      <c r="F269" s="67"/>
       <c r="AD269" s="10"/>
       <c r="AE269" s="7"/>
     </row>
     <row r="270" spans="4:31">
-      <c r="D270" s="19">
-        <v>1</v>
-      </c>
-      <c r="E270" s="19"/>
-      <c r="F270" s="67"/>
+      <c r="D270" s="18">
+        <v>1</v>
+      </c>
+      <c r="E270" s="18"/>
+      <c r="F270" s="66"/>
       <c r="AD270" s="10"/>
       <c r="AE270" s="7"/>
     </row>
     <row r="271" spans="4:31">
-      <c r="D271" s="18">
-        <v>1</v>
-      </c>
-      <c r="E271" s="18"/>
-      <c r="F271" s="66"/>
+      <c r="D271" s="19">
+        <v>1</v>
+      </c>
+      <c r="E271" s="19"/>
+      <c r="F271" s="67"/>
       <c r="AD271" s="10"/>
       <c r="AE271" s="7"/>
     </row>
     <row r="272" spans="4:31">
-      <c r="D272" s="19">
-        <v>1</v>
-      </c>
-      <c r="E272" s="19"/>
-      <c r="F272" s="67"/>
+      <c r="D272" s="18">
+        <v>1</v>
+      </c>
+      <c r="E272" s="18"/>
+      <c r="F272" s="66"/>
       <c r="AD272" s="10"/>
       <c r="AE272" s="7"/>
     </row>
     <row r="273" spans="4:31">
-      <c r="D273" s="18">
-        <v>1</v>
-      </c>
-      <c r="E273" s="18"/>
-      <c r="F273" s="66"/>
+      <c r="D273" s="19">
+        <v>1</v>
+      </c>
+      <c r="E273" s="19"/>
+      <c r="F273" s="67"/>
       <c r="AD273" s="10"/>
       <c r="AE273" s="7"/>
     </row>
     <row r="274" spans="4:31">
-      <c r="D274" s="19">
-        <v>1</v>
-      </c>
-      <c r="E274" s="19"/>
-      <c r="F274" s="67"/>
+      <c r="D274" s="18">
+        <v>1</v>
+      </c>
+      <c r="E274" s="18"/>
+      <c r="F274" s="66"/>
       <c r="AD274" s="10"/>
       <c r="AE274" s="7"/>
     </row>
     <row r="275" spans="4:31">
-      <c r="D275" s="18">
-        <v>1</v>
-      </c>
-      <c r="E275" s="18"/>
-      <c r="F275" s="66"/>
+      <c r="D275" s="19">
+        <v>1</v>
+      </c>
+      <c r="E275" s="19"/>
+      <c r="F275" s="67"/>
       <c r="AD275" s="10"/>
       <c r="AE275" s="7"/>
     </row>
     <row r="276" spans="4:31">
-      <c r="D276" s="19">
-        <v>1</v>
-      </c>
-      <c r="E276" s="19"/>
-      <c r="F276" s="67"/>
+      <c r="D276" s="18">
+        <v>1</v>
+      </c>
+      <c r="E276" s="18"/>
+      <c r="F276" s="66"/>
       <c r="AD276" s="10"/>
       <c r="AE276" s="7"/>
     </row>
     <row r="277" spans="4:31">
-      <c r="D277" s="18">
-        <v>1</v>
-      </c>
-      <c r="E277" s="18"/>
-      <c r="F277" s="66"/>
+      <c r="D277" s="19">
+        <v>1</v>
+      </c>
+      <c r="E277" s="19"/>
+      <c r="F277" s="67"/>
       <c r="AD277" s="10"/>
       <c r="AE277" s="7"/>
     </row>
     <row r="278" spans="4:31">
-      <c r="D278" s="19">
-        <v>1</v>
-      </c>
-      <c r="E278" s="19"/>
-      <c r="F278" s="67"/>
+      <c r="D278" s="18">
+        <v>1</v>
+      </c>
+      <c r="E278" s="18"/>
+      <c r="F278" s="66"/>
       <c r="AD278" s="10"/>
       <c r="AE278" s="7"/>
     </row>
     <row r="279" spans="4:31">
-      <c r="D279" s="18">
-        <v>1</v>
-      </c>
-      <c r="E279" s="18"/>
-      <c r="F279" s="66"/>
+      <c r="D279" s="19">
+        <v>1</v>
+      </c>
+      <c r="E279" s="19"/>
+      <c r="F279" s="67"/>
       <c r="AD279" s="10"/>
       <c r="AE279" s="7"/>
     </row>
     <row r="280" spans="4:31">
-      <c r="D280" s="19">
-        <v>1</v>
-      </c>
-      <c r="E280" s="19"/>
-      <c r="F280" s="67"/>
+      <c r="D280" s="18">
+        <v>1</v>
+      </c>
+      <c r="E280" s="18"/>
+      <c r="F280" s="66"/>
       <c r="AD280" s="10"/>
       <c r="AE280" s="7"/>
     </row>
     <row r="281" spans="4:31">
-      <c r="D281" s="18">
-        <v>1</v>
-      </c>
-      <c r="E281" s="18"/>
-      <c r="F281" s="66"/>
-      <c r="AD281" s="10"/>
-      <c r="AE281" s="7"/>
+      <c r="D281" s="19">
+        <v>1</v>
+      </c>
+      <c r="E281" s="19"/>
+      <c r="F281" s="67"/>
     </row>
     <row r="282" spans="4:31">
-      <c r="D282" s="19">
-        <v>1</v>
-      </c>
-      <c r="E282" s="19"/>
-      <c r="F282" s="67"/>
-      <c r="AD282" s="10"/>
-      <c r="AE282" s="7"/>
+      <c r="D282" s="18">
+        <v>1</v>
+      </c>
+      <c r="E282" s="18"/>
+      <c r="F282" s="66"/>
     </row>
     <row r="283" spans="4:31">
-      <c r="D283" s="18">
-        <v>1</v>
-      </c>
-      <c r="E283" s="18"/>
-      <c r="F283" s="66"/>
-      <c r="AD283" s="10"/>
-      <c r="AE283" s="7"/>
+      <c r="D283" s="19">
+        <v>1</v>
+      </c>
+      <c r="E283" s="19"/>
+      <c r="F283" s="67"/>
     </row>
     <row r="284" spans="4:31">
-      <c r="D284" s="19">
-        <v>1</v>
-      </c>
-      <c r="E284" s="19"/>
-      <c r="F284" s="67"/>
-      <c r="AD284" s="10"/>
-      <c r="AE284" s="7"/>
+      <c r="D284" s="18">
+        <v>1</v>
+      </c>
+      <c r="E284" s="18"/>
+      <c r="F284" s="66"/>
     </row>
     <row r="285" spans="4:31">
-      <c r="D285" s="18">
-        <v>1</v>
-      </c>
-      <c r="E285" s="18"/>
-      <c r="F285" s="66"/>
-      <c r="AD285" s="10"/>
-      <c r="AE285" s="7"/>
+      <c r="D285" s="19">
+        <v>1</v>
+      </c>
+      <c r="E285" s="19"/>
+      <c r="F285" s="67"/>
     </row>
     <row r="286" spans="4:31">
-      <c r="D286" s="19">
-        <v>1</v>
-      </c>
-      <c r="E286" s="19"/>
-      <c r="F286" s="67"/>
+      <c r="D286" s="18">
+        <v>1</v>
+      </c>
+      <c r="E286" s="18"/>
+      <c r="F286" s="66"/>
     </row>
     <row r="287" spans="4:31">
-      <c r="D287" s="18">
-        <v>1</v>
-      </c>
-      <c r="E287" s="18"/>
-      <c r="F287" s="66"/>
+      <c r="D287" s="19">
+        <v>1</v>
+      </c>
+      <c r="E287" s="19"/>
+      <c r="F287" s="67"/>
     </row>
     <row r="288" spans="4:31">
-      <c r="D288" s="19">
-        <v>1</v>
-      </c>
-      <c r="E288" s="19"/>
-      <c r="F288" s="67"/>
+      <c r="D288" s="18">
+        <v>1</v>
+      </c>
+      <c r="E288" s="18"/>
+      <c r="F288" s="66"/>
     </row>
     <row r="289" spans="4:6">
-      <c r="D289" s="18">
-        <v>1</v>
-      </c>
-      <c r="E289" s="18"/>
-      <c r="F289" s="66"/>
+      <c r="D289" s="19">
+        <v>1</v>
+      </c>
+      <c r="E289" s="19"/>
+      <c r="F289" s="67"/>
     </row>
     <row r="290" spans="4:6">
-      <c r="D290" s="19">
-        <v>1</v>
-      </c>
-      <c r="E290" s="19"/>
-      <c r="F290" s="67"/>
+      <c r="D290" s="18">
+        <v>1</v>
+      </c>
+      <c r="E290" s="18"/>
+      <c r="F290" s="66"/>
     </row>
     <row r="291" spans="4:6">
-      <c r="D291" s="18">
-        <v>1</v>
-      </c>
-      <c r="E291" s="18"/>
-      <c r="F291" s="66"/>
+      <c r="D291" s="19">
+        <v>1</v>
+      </c>
+      <c r="E291" s="19"/>
+      <c r="F291" s="67"/>
     </row>
     <row r="292" spans="4:6">
-      <c r="D292" s="19">
-        <v>1</v>
-      </c>
-      <c r="E292" s="19"/>
-      <c r="F292" s="67"/>
+      <c r="D292" s="18">
+        <v>1</v>
+      </c>
+      <c r="E292" s="18"/>
+      <c r="F292" s="66"/>
     </row>
     <row r="293" spans="4:6">
-      <c r="D293" s="18">
-        <v>1</v>
-      </c>
-      <c r="E293" s="18"/>
-      <c r="F293" s="66"/>
+      <c r="D293" s="19">
+        <v>1</v>
+      </c>
+      <c r="E293" s="19"/>
+      <c r="F293" s="67"/>
     </row>
     <row r="294" spans="4:6">
-      <c r="D294" s="19">
-        <v>1</v>
-      </c>
-      <c r="E294" s="19"/>
-      <c r="F294" s="67"/>
+      <c r="D294" s="18">
+        <v>1</v>
+      </c>
+      <c r="E294" s="18"/>
+      <c r="F294" s="66"/>
     </row>
     <row r="295" spans="4:6">
-      <c r="D295" s="18">
-        <v>1</v>
-      </c>
-      <c r="E295" s="18"/>
-      <c r="F295" s="66"/>
+      <c r="D295" s="19">
+        <v>1</v>
+      </c>
+      <c r="E295" s="19"/>
+      <c r="F295" s="67"/>
     </row>
     <row r="296" spans="4:6">
-      <c r="D296" s="19">
-        <v>1</v>
-      </c>
-      <c r="E296" s="19"/>
-      <c r="F296" s="67"/>
+      <c r="D296" s="18">
+        <v>1</v>
+      </c>
+      <c r="E296" s="18"/>
+      <c r="F296" s="66"/>
     </row>
     <row r="297" spans="4:6">
-      <c r="D297" s="18">
-        <v>1</v>
-      </c>
-      <c r="E297" s="18"/>
-      <c r="F297" s="66"/>
+      <c r="D297" s="19">
+        <v>1</v>
+      </c>
+      <c r="E297" s="19"/>
+      <c r="F297" s="67"/>
     </row>
     <row r="298" spans="4:6">
-      <c r="D298" s="19">
-        <v>1</v>
-      </c>
-      <c r="E298" s="19"/>
-      <c r="F298" s="67"/>
+      <c r="D298" s="18">
+        <v>1</v>
+      </c>
+      <c r="E298" s="18"/>
+      <c r="F298" s="66"/>
     </row>
     <row r="299" spans="4:6">
-      <c r="D299" s="18">
-        <v>1</v>
-      </c>
-      <c r="E299" s="18"/>
-      <c r="F299" s="66"/>
+      <c r="D299" s="19">
+        <v>1</v>
+      </c>
+      <c r="E299" s="19"/>
+      <c r="F299" s="67"/>
     </row>
     <row r="300" spans="4:6">
-      <c r="D300" s="19">
-        <v>1</v>
-      </c>
-      <c r="E300" s="19"/>
-      <c r="F300" s="67"/>
+      <c r="D300" s="18">
+        <v>1</v>
+      </c>
+      <c r="E300" s="18"/>
+      <c r="F300" s="66"/>
     </row>
     <row r="301" spans="4:6">
-      <c r="D301" s="18">
-        <v>1</v>
-      </c>
-      <c r="E301" s="18"/>
-      <c r="F301" s="66"/>
+      <c r="D301" s="19">
+        <v>1</v>
+      </c>
+      <c r="E301" s="19"/>
+      <c r="F301" s="67"/>
     </row>
     <row r="302" spans="4:6">
-      <c r="D302" s="19">
-        <v>1</v>
-      </c>
-      <c r="E302" s="19"/>
-      <c r="F302" s="67"/>
+      <c r="D302" s="18">
+        <v>1</v>
+      </c>
+      <c r="E302" s="18"/>
+      <c r="F302" s="66"/>
     </row>
     <row r="303" spans="4:6">
-      <c r="D303" s="18">
-        <v>1</v>
-      </c>
-      <c r="E303" s="18"/>
-      <c r="F303" s="66"/>
+      <c r="D303" s="19">
+        <v>1</v>
+      </c>
+      <c r="E303" s="19"/>
+      <c r="F303" s="67"/>
     </row>
     <row r="304" spans="4:6">
-      <c r="D304" s="19">
-        <v>1</v>
-      </c>
-      <c r="E304" s="19"/>
-      <c r="F304" s="67"/>
+      <c r="D304" s="18">
+        <v>1</v>
+      </c>
+      <c r="E304" s="18"/>
+      <c r="F304" s="66"/>
     </row>
     <row r="305" spans="4:6">
-      <c r="D305" s="18">
-        <v>1</v>
-      </c>
-      <c r="E305" s="18"/>
-      <c r="F305" s="66"/>
+      <c r="D305" s="19">
+        <v>1</v>
+      </c>
+      <c r="E305" s="19"/>
+      <c r="F305" s="67"/>
     </row>
     <row r="306" spans="4:6">
-      <c r="D306" s="19">
-        <v>1</v>
-      </c>
-      <c r="E306" s="19"/>
-      <c r="F306" s="67"/>
+      <c r="D306" s="18">
+        <v>1</v>
+      </c>
+      <c r="E306" s="18"/>
+      <c r="F306" s="66"/>
     </row>
     <row r="307" spans="4:6">
-      <c r="D307" s="18">
-        <v>1</v>
-      </c>
-      <c r="E307" s="18"/>
-      <c r="F307" s="66"/>
+      <c r="D307" s="19">
+        <v>1</v>
+      </c>
+      <c r="E307" s="19"/>
+      <c r="F307" s="67"/>
     </row>
     <row r="308" spans="4:6">
-      <c r="D308" s="19">
-        <v>1</v>
-      </c>
-      <c r="E308" s="19"/>
-      <c r="F308" s="67"/>
+      <c r="D308" s="18">
+        <v>1</v>
+      </c>
+      <c r="E308" s="18"/>
+      <c r="F308" s="66"/>
     </row>
     <row r="309" spans="4:6">
-      <c r="D309" s="18">
-        <v>1</v>
-      </c>
-      <c r="E309" s="18"/>
-      <c r="F309" s="66"/>
+      <c r="D309" s="19">
+        <v>1</v>
+      </c>
+      <c r="E309" s="19"/>
+      <c r="F309" s="67"/>
     </row>
     <row r="310" spans="4:6">
-      <c r="D310" s="19">
-        <v>1</v>
-      </c>
-      <c r="E310" s="19"/>
-      <c r="F310" s="67"/>
+      <c r="D310" s="18">
+        <v>1</v>
+      </c>
+      <c r="E310" s="18"/>
+      <c r="F310" s="66"/>
     </row>
     <row r="311" spans="4:6">
-      <c r="D311" s="18">
-        <v>1</v>
-      </c>
-      <c r="E311" s="18"/>
-      <c r="F311" s="66"/>
+      <c r="D311" s="19">
+        <v>1</v>
+      </c>
+      <c r="E311" s="19"/>
+      <c r="F311" s="67"/>
     </row>
     <row r="312" spans="4:6">
-      <c r="D312" s="19">
-        <v>1</v>
-      </c>
-      <c r="E312" s="19"/>
-      <c r="F312" s="67"/>
+      <c r="D312" s="18">
+        <v>1</v>
+      </c>
+      <c r="E312" s="18"/>
+      <c r="F312" s="66"/>
     </row>
     <row r="313" spans="4:6">
-      <c r="D313" s="18">
-        <v>1</v>
-      </c>
-      <c r="E313" s="18"/>
-      <c r="F313" s="66"/>
+      <c r="D313" s="19">
+        <v>1</v>
+      </c>
+      <c r="E313" s="19"/>
+      <c r="F313" s="67"/>
     </row>
     <row r="314" spans="4:6">
-      <c r="D314" s="19">
-        <v>1</v>
-      </c>
-      <c r="E314" s="19"/>
-      <c r="F314" s="67"/>
+      <c r="D314" s="18">
+        <v>1</v>
+      </c>
+      <c r="E314" s="18"/>
+      <c r="F314" s="66"/>
     </row>
     <row r="315" spans="4:6">
-      <c r="D315" s="18">
-        <v>1</v>
-      </c>
-      <c r="E315" s="18"/>
-      <c r="F315" s="66"/>
+      <c r="D315" s="19">
+        <v>1</v>
+      </c>
+      <c r="E315" s="19"/>
+      <c r="F315" s="67"/>
     </row>
     <row r="316" spans="4:6">
-      <c r="D316" s="19">
-        <v>1</v>
-      </c>
-      <c r="E316" s="19"/>
-      <c r="F316" s="67"/>
+      <c r="D316" s="18">
+        <v>1</v>
+      </c>
+      <c r="E316" s="18"/>
+      <c r="F316" s="66"/>
     </row>
     <row r="317" spans="4:6">
-      <c r="D317" s="18">
-        <v>1</v>
-      </c>
-      <c r="E317" s="18"/>
-      <c r="F317" s="66"/>
+      <c r="D317" s="19">
+        <v>1</v>
+      </c>
+      <c r="E317" s="19"/>
+      <c r="F317" s="67"/>
     </row>
     <row r="318" spans="4:6">
-      <c r="D318" s="19">
-        <v>1</v>
-      </c>
-      <c r="E318" s="19"/>
-      <c r="F318" s="67"/>
+      <c r="D318" s="18">
+        <v>1</v>
+      </c>
+      <c r="E318" s="18"/>
+      <c r="F318" s="66"/>
     </row>
     <row r="319" spans="4:6">
-      <c r="D319" s="18">
-        <v>1</v>
-      </c>
-      <c r="E319" s="18"/>
-      <c r="F319" s="66"/>
+      <c r="D319" s="19">
+        <v>1</v>
+      </c>
+      <c r="E319" s="19"/>
+      <c r="F319" s="67"/>
     </row>
     <row r="320" spans="4:6">
-      <c r="D320" s="19">
-        <v>1</v>
-      </c>
-      <c r="E320" s="19"/>
-      <c r="F320" s="67"/>
+      <c r="D320" s="18">
+        <v>1</v>
+      </c>
+      <c r="E320" s="18"/>
+      <c r="F320" s="66"/>
     </row>
     <row r="321" spans="4:6">
-      <c r="D321" s="18">
-        <v>1</v>
-      </c>
-      <c r="E321" s="18"/>
-      <c r="F321" s="66"/>
+      <c r="D321" s="19">
+        <v>1</v>
+      </c>
+      <c r="E321" s="19"/>
+      <c r="F321" s="67"/>
     </row>
     <row r="322" spans="4:6">
-      <c r="D322" s="19">
-        <v>1</v>
-      </c>
-      <c r="E322" s="19"/>
-      <c r="F322" s="67"/>
+      <c r="D322" s="18">
+        <v>1</v>
+      </c>
+      <c r="E322" s="18"/>
+      <c r="F322" s="66"/>
     </row>
     <row r="323" spans="4:6">
-      <c r="D323" s="18">
-        <v>1</v>
-      </c>
-      <c r="E323" s="18"/>
-      <c r="F323" s="66"/>
+      <c r="D323" s="19">
+        <v>1</v>
+      </c>
+      <c r="E323" s="19"/>
+      <c r="F323" s="67"/>
     </row>
     <row r="324" spans="4:6">
-      <c r="D324" s="19">
-        <v>1</v>
-      </c>
-      <c r="E324" s="19"/>
-      <c r="F324" s="67"/>
+      <c r="D324" s="18">
+        <v>1</v>
+      </c>
+      <c r="E324" s="18"/>
+      <c r="F324" s="66"/>
     </row>
     <row r="325" spans="4:6">
-      <c r="D325" s="18">
-        <v>1</v>
-      </c>
-      <c r="E325" s="18"/>
-      <c r="F325" s="66"/>
-    </row>
-    <row r="326" spans="4:6">
-      <c r="D326" s="19">
-        <v>1</v>
-      </c>
-      <c r="E326" s="19"/>
-      <c r="F326" s="67"/>
-    </row>
-    <row r="327" spans="4:6">
-      <c r="D327" s="18">
-        <v>1</v>
-      </c>
-      <c r="E327" s="18"/>
-      <c r="F327" s="66"/>
-    </row>
-    <row r="328" spans="4:6">
-      <c r="D328" s="19">
-        <v>1</v>
-      </c>
-      <c r="E328" s="19"/>
-      <c r="F328" s="67"/>
-    </row>
-    <row r="329" spans="4:6">
-      <c r="D329" s="18">
-        <v>1</v>
-      </c>
-      <c r="E329" s="18"/>
-      <c r="F329" s="66"/>
-    </row>
-    <row r="330" spans="4:6">
-      <c r="D330" s="19">
-        <v>1</v>
-      </c>
-      <c r="E330" s="19"/>
-      <c r="F330" s="67"/>
+      <c r="D325" s="19">
+        <v>1</v>
+      </c>
+      <c r="E325" s="19"/>
+      <c r="F325" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -9064,19 +8744,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="61.1640625" customWidth="1"/>
+    <col min="1" max="1" width="61.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="32">
+    <row r="1" spans="1:1" ht="31.5">
       <c r="A1" s="51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -9085,115 +8765,115 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C21"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:3">
       <c r="B4" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="56"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13" s="56"/>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="56" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C14" s="56"/>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C15" s="56"/>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C16" s="56"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C17" s="56"/>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
